--- a/synopsis.PDtremorSystematicReview.xlsx
+++ b/synopsis.PDtremorSystematicReview.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1234">
   <si>
     <t xml:space="preserve">Authors</t>
   </si>
@@ -398,241 +398,175 @@
     <t xml:space="preserve">iPS according to MDS diagnosic criteria</t>
   </si>
   <si>
-    <t xml:space="preserve">Bergamasco et al. 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha-dihydroergocryptine in the treatment of de novo parkinsonian patients: results of a multicentre, randomized, double-blind, placebo-controlled study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acta Neurol. Scand.</t>
+    <t xml:space="preserve">Binder et al. 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effect of Cabergoline on Parkinsonian Tremor Assessed by Long-Term-Actigraphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Neurology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study anti-tremulous effect of cabergoline; validate long-term actigraphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cabergolin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pergolide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline period of 3 days, initial dosage of 0,5mg cabergoline on day 4, titration phase of 1mg increase per week, two weeks maintenance, clinical visits after three and six weeks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPS according to UK Brain Bank criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moderate to marked rest tremor at one arm (item 20 UPDRS larger than 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anticholinergics, budipine or dopamine agonists in current pre-medication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> contraindications against dopamine agonists or ergotamine derivates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonuccelli et al. 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clozapine in Parkinson's disease tremor. Effects of acute and chronic administration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To evaluate the effects of acute clozapine administration on parkinsonian mixed tremor, to establish the predictive value for long-term response and to determine differences in pharmacologic response of resting and postural tremor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clozapine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all antiparkinsonian medication was withdrawn twelve hours before. Administration of a 12.5mg single dose of a. clozapine or b. placebo. UPDRS at baseline and at ten minute intervals for to hours. 15 iPS-patients with more than 50 percent improvement included in chronic, open-phase study for 15.5 months.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> presence of resting and postural tremor poorly responsive to levodopa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brannan &amp; Yahr (1995)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparative Study of Selegiline Plus L-Dopa-Carbidopa Versus L-Dopa-Carbidopa Alone in the Treatment of Parkinson's Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ann. Neurol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To evaluate the effects of selegiline as add-on to levodopa and carbidopa vs. the effect of levodopa and carbidopa alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mao_inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> levodopa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subjects in both groups randomly matched by computer for age, years of iPS at disease onset and years of treatment. Both groups under levodopa and carbidopa therapy. Patients assessed at regular intervals and rated clinically</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> therapy with selegiline 5mg bid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> continued use and add-on of levodopa-carbidopa later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment with dopamine agonists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullock et al. 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuranolone as an oral adjunct to treatment of Parkinsonian tremor: A phase 2, open-label study.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Neurol Sci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explore effects of zuranolone on iPS-tremor as an add-on therapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_blocker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oral zuranolone 20 or 30mg for 7 days qd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPD defined by unknown clinical criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tremor sum score MDS-UPDRS greater than 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tremor motor score greater than 2 on one limb in ON medication state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stable dosage of dopaminergic medication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medication with amatadine or anticholinergics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cattaneo et al. 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safinamide as Add-On Therapy to Levodopa in Mid-to Late-Stage Parkinson’s Disease Fluctuating Patients: Post hoc Analysesof Studies 016 and SETTLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Parkinsons Dis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To evaluate the clinical effects of safinamide on motor fluctuations and cardinal symptoms of iPS-patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">safinamide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">study 116: two doses of safinamide (50 and 100) used in two groups  (for post hoc analyses 100 mg included only, Study SETTLE 50 mg daily for 2 weeks, afterwards 100 mg Safinamide. For post hoc analyses treatment effects of safinamide 100 mg once daily versus placebo  during double-blind phases of Stidy 016 and SETTLE. Data of both studies were pooled. 487 received 100 mg safinamide, 484 placebo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mid to late-stage PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> motor fluctuations while receiving levodopa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medication with another MAO-B inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choi et al. 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The effect of long-term levodopa therapy on depression level in de novo patients with Parkinson’s disease.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Neurol. Sci.</t>
   </si>
   <si>
     <t xml:space="preserve">2000</t>
   </si>
   <si>
-    <t xml:space="preserve">To confim the efficacy and safety of a-dihydroergocryptine as first-line treatment in a large sample of de-novo iPS-patients.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dopamine_agonist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Randomisation to a. DHEC and b. placebo. Treatment was gradually increased with 5mg tablet bid for first and second week, 10mg tablet bid for the third and fourth week, and 20mg bid for fifth and sixth week. Patients with DHEC were treated with 40mg daily. After reaching that dosage, investigators adjusted it individually according to the clinical requirements of each patient, up to a maximum dosage of 120mg daily tid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hoehn and Yahr stage between 1 and 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> disease duration of less than 5 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> age of less than 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> absence of relevant depressive symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> absence of overt dementia, with a Mini Mental State Examination  score  of more than 22.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concomitant treatment with psychoactive drugs, neuroleptics, cognition enhancer drugs or calcium channel blockers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Psychiatric comorbidiries</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> recent myocardial infarction within last four months</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> uncontrolled diastolic hypertension, i.e. &gt; 105 mmHg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> orthostatic hypotension</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fainting or neurologic symptoms related to the upright position</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> history of alcoholism or drug abuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> liver abnormalities  with serum transaminase three times the upper normal limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kidney insufficiency with serum creatinine 2.5mg per dl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> immunologic or metabolic diseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> neoplasms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder et al. 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effect of Cabergoline on Parkinsonian Tremor Assessed by Long-Term-Actigraphy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Neurology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study anti-tremulous effect of cabergoline; validate long-term actigraphy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cabergolin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pergolide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baseline period of 3 days, initial dosage of 0,5mg cabergoline on day 4, titration phase of 1mg increase per week, two weeks maintenance, clinical visits after three and six weeks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iPS according to UK Brain Bank criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moderate to marked rest tremor at one arm (item 20 UPDRS larger than 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anticholinergics, budipine or dopamine agonists in current pre-medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> contraindications against dopamine agonists or ergotamine derivates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonuccelli et al. 1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clozapine in Parkinson's disease tremor. Effects of acute and chronic administration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To evaluate the effects of acute clozapine administration on parkinsonian mixed tremor, to establish the predictive value for long-term response and to determine differences in pharmacologic response of resting and postural tremor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clozapine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all antiparkinsonian medication was withdrawn twelve hours before. Administration of a 12.5mg single dose of a. clozapine or b. placebo. UPDRS at baseline and at ten minute intervals for to hours. 15 iPS-patients with more than 50 percent improvement included in chronic, open-phase study for 15.5 months.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> presence of resting and postural tremor poorly responsive to levodopa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brannan &amp; Yahr (1995)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparative Study of Selegiline Plus L-Dopa-Carbidopa Versus L-Dopa-Carbidopa Alone in the Treatment of Parkinson's Disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ann. Neurol.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To evaluate the effects of selegiline as add-on to levodopa and carbidopa vs. the effect of levodopa and carbidopa alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mao_inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> levodopa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subjects in both groups randomly matched by computer for age, years of iPS at disease onset and years of treatment. Both groups under levodopa and carbidopa therapy. Patients assessed at regular intervals and rated clinically</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> therapy with selegiline 5mg bid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> continued use and add-on of levodopa-carbidopa later</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatment with dopamine agonists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullock et al. 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zuranolone as an oral adjunct to treatment of Parkinsonian tremor: A phase 2, open-label study.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J Neurol Sci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explore effects of zuranolone on iPS-tremor as an add-on therapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_blocker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oral zuranolone 20 or 30mg for 7 days qd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iPD defined by unknown clinical criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tremor sum score MDS-UPDRS greater than 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tremor motor score greater than 2 on one limb in ON medication state</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stable dosage of dopaminergic medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medication with amatadine or anticholinergics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cattaneo et al. 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safinamide as Add-On Therapy to Levodopa in Mid-to Late-Stage Parkinson’s Disease Fluctuating Patients: Post hoc Analysesof Studies 016 and SETTLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J Parkinsons Dis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To evaluate the clinical effects of safinamide on motor fluctuations and cardinal symptoms of iPS-patients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">safinamide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">study 116: two doses of safinamide (50 and 100) used in two groups  (for post hoc analyses 100 mg included only, Study SETTLE 50 mg daily for 2 weeks, afterwards 100 mg Safinamide. For post hoc analyses treatment effects of safinamide 100 mg once daily versus placebo  during double-blind phases of Stidy 016 and SETTLE. Data of both studies were pooled. 487 received 100 mg safinamide, 484 placebo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mid to late-stage PD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> motor fluctuations while receiving levodopa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medication with another MAO-B inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choi et al. 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The effect of long-term levodopa therapy on depression level in de novo patients with Parkinson’s disease.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Neurol. Sci.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evaluate the effect of levodopa therapy on depression in de novo patients and additionally motor scores</t>
+    <t xml:space="preserve">To evaluate the effects of levodopa therapy on depression in de novo patients and additionally motor scores</t>
   </si>
   <si>
     <t xml:space="preserve">iPS according to clinical criteria of the Core Assessment Program for Intracerebral Transplantation</t>
@@ -744,33 +678,6 @@
   </si>
   <si>
     <t xml:space="preserve"> presence of other psychiatric disorders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eberhardt et al. 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citicoline in the treatment of Parkinson's Disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinical Therapeutics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study effects of citicoline on Parkinson symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citicoline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After one week of usual therapy, random assignment to a. usual levodopa dosage and placebo or b. half levodopa dosage and placebo for one week. Afterwards, administration of a. usual levodopa dosage and 400mg citicoline td or b. half levodopa dosage and 400mg citicoline for four weeks, respectively. Tests at weeks 0, 1, 2, 4  and 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least five points on Webster scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary parkinsonian syndrome</t>
   </si>
   <si>
     <t xml:space="preserve">Eggert et al. 2010</t>
@@ -979,12 +886,18 @@
     <t xml:space="preserve"> history of neuroleptics intake except clozapine</t>
   </si>
   <si>
+    <t xml:space="preserve"> orthostatic hypotension</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fischer et al. 1990</t>
   </si>
   <si>
     <t xml:space="preserve">Treatment of parkinsonian tremor with clozapine.</t>
   </si>
   <si>
+    <t xml:space="preserve">1990</t>
+  </si>
+  <si>
     <t xml:space="preserve">To assess the therapeutic efficacy of clozapine on parkinsonian tremor</t>
   </si>
   <si>
@@ -1153,6 +1066,9 @@
     <t xml:space="preserve">Akt Neurol</t>
   </si>
   <si>
+    <t xml:space="preserve">dopamine_agonist</t>
+  </si>
+  <si>
     <t xml:space="preserve">individual dose of dihidroergocriptin as add-on to levodopa over 6 months</t>
   </si>
   <si>
@@ -1283,6 +1199,9 @@
   </si>
   <si>
     <t xml:space="preserve">Selegiline in the treatment of daily fluctuations in disability of parkinsonian patients with long- term levodopa treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acta Neurol. Scand.</t>
   </si>
   <si>
     <t xml:space="preserve">1989</t>
@@ -2244,7 +2163,7 @@
     <t xml:space="preserve">Navan et al. 2003.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Double-blind, single dose, cross-over study of the Effects of Pramipexole, Pergolide, and Placebo on Rest Tremor and UPDRS part III in Parkinson's Disease</t>
+    <t xml:space="preserve">Double-blind, single dose, cross-over study of the effects of pramipexole, Pergolide, and Placebo on Rest Tremor and UPDRS part III in Parkinson's Disease</t>
   </si>
   <si>
     <t xml:space="preserve">compare effects of single oral dose of a. pramipexole b. pergolide or c. placebo on parkinsonian tremor and part III of the UPDRS</t>
@@ -2716,24 +2635,6 @@
   </si>
   <si>
     <t xml:space="preserve"> clinical evidence of dementia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reichmann et al. 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changing dopamine agonist treatment in Parkinson’s disease: Experiences with switching to pramipexole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To observe the efficacy and tolerability of changes to pramipexole from any other dopamine agonist in a large population of iPS-patients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abrupt or overlapping switch to pramipexole in equivalent dose according to neurologists' recommendation, at least four weeks stable individual dosage based on clinical evaluation before final rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> therapy with any dopamine agonist other than pramipexole</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> clinical decision to perscribe pramipexole</t>
   </si>
   <si>
     <t xml:space="preserve">Reichmann et al. 2002</t>
@@ -3753,6 +3654,42 @@
   </si>
   <si>
     <t xml:space="preserve"> any factor precluding neuropsychological testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziegler M.  &amp; Rondot P. (1999)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activité du piribédil dans la maladie de Parkinson.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La presse medicale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To investigate the effects of piribedil on levodopa-naive patients with Parkinson’s disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measurement at baseline and after three months by experienced neurologist and severeity scored by means of the Webster scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> resting tremor present with a score of more than 1 on the Webster scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hoehn and Yahr stages between 1 and 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bradykinetic-rigid subtypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recent cardiovascular diseases such as myocardial infarction or orthostatic dysfunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> psychiatric comorbidities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chronic renal or liver diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> treatment with neuroleptics or MAO-inhibitors or medication other than levodopa to treat symptoms before</t>
   </si>
   <si>
     <t xml:space="preserve">Ziegler et al. 2003</t>
@@ -4720,7 +4657,7 @@
         <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
         <v>132</v>
@@ -4728,67 +4665,41 @@
       <c r="G8" t="s">
         <v>133</v>
       </c>
-      <c r="H8"/>
+      <c r="H8" t="s">
+        <v>134</v>
+      </c>
       <c r="I8"/>
       <c r="J8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="L8" t="s">
-        <v>135</v>
-      </c>
-      <c r="M8" t="s">
-        <v>136</v>
-      </c>
-      <c r="N8" t="s">
         <v>137</v>
       </c>
-      <c r="O8" t="s">
-        <v>138</v>
-      </c>
-      <c r="P8" t="s">
-        <v>139</v>
-      </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T8" t="s">
-        <v>141</v>
-      </c>
-      <c r="U8" t="s">
-        <v>142</v>
-      </c>
-      <c r="V8" t="s">
-        <v>143</v>
-      </c>
-      <c r="W8" t="s">
-        <v>144</v>
-      </c>
-      <c r="X8" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>87</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
       <c r="AE8"/>
       <c r="AF8"/>
       <c r="AG8"/>
@@ -4806,38 +4717,36 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="H9"/>
       <c r="I9"/>
       <c r="J9" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="K9" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="M9"/>
       <c r="N9"/>
@@ -4846,11 +4755,9 @@
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9" t="s">
-        <v>161</v>
-      </c>
-      <c r="T9" t="s">
-        <v>162</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T9"/>
       <c r="U9"/>
       <c r="V9"/>
       <c r="W9"/>
@@ -4878,45 +4785,49 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10"/>
+        <v>152</v>
+      </c>
+      <c r="H10" t="s">
+        <v>153</v>
+      </c>
       <c r="I10"/>
       <c r="J10" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="K10" t="s">
         <v>52</v>
       </c>
       <c r="L10" t="s">
-        <v>169</v>
-      </c>
-      <c r="M10"/>
+        <v>155</v>
+      </c>
+      <c r="M10" t="s">
+        <v>156</v>
+      </c>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="T10"/>
       <c r="U10"/>
@@ -4946,49 +4857,49 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E11" t="s">
         <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
-      </c>
-      <c r="H11" t="s">
-        <v>176</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="H11"/>
       <c r="I11"/>
       <c r="J11" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="L11" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="M11" t="s">
-        <v>179</v>
-      </c>
-      <c r="N11"/>
+        <v>167</v>
+      </c>
+      <c r="N11" t="s">
+        <v>168</v>
+      </c>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="T11"/>
       <c r="U11"/>
@@ -5018,49 +4929,45 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G12" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="K12" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="L12" t="s">
-        <v>189</v>
-      </c>
-      <c r="M12" t="s">
-        <v>190</v>
-      </c>
-      <c r="N12" t="s">
-        <v>191</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="T12"/>
       <c r="U12"/>
@@ -5090,37 +4997,33 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G13" t="s">
-        <v>198</v>
+        <v>67</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13" t="s">
-        <v>199</v>
-      </c>
+      <c r="J13"/>
       <c r="K13" t="s">
-        <v>200</v>
-      </c>
-      <c r="L13" t="s">
-        <v>201</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
@@ -5128,9 +5031,11 @@
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13" t="s">
-        <v>202</v>
-      </c>
-      <c r="T13"/>
+        <v>186</v>
+      </c>
+      <c r="T13" t="s">
+        <v>187</v>
+      </c>
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
@@ -5158,45 +5063,49 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
         <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14"/>
+      <c r="J14" t="s">
+        <v>194</v>
+      </c>
       <c r="K14" t="s">
-        <v>207</v>
-      </c>
-      <c r="L14"/>
-      <c r="M14"/>
+        <v>195</v>
+      </c>
+      <c r="L14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M14" t="s">
+        <v>197</v>
+      </c>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14" t="s">
-        <v>208</v>
-      </c>
-      <c r="T14" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="T14"/>
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14"/>
@@ -5224,47 +5133,53 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G15" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="K15" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="L15" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M15" t="s">
-        <v>219</v>
-      </c>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
+        <v>207</v>
+      </c>
+      <c r="N15" t="s">
+        <v>208</v>
+      </c>
+      <c r="O15" t="s">
+        <v>209</v>
+      </c>
+      <c r="P15" t="s">
+        <v>210</v>
+      </c>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15" t="s">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="T15"/>
       <c r="U15"/>
@@ -5294,57 +5209,53 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E16" t="s">
         <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="K16" t="s">
-        <v>227</v>
-      </c>
-      <c r="L16" t="s">
-        <v>228</v>
-      </c>
-      <c r="M16" t="s">
-        <v>229</v>
-      </c>
-      <c r="N16" t="s">
-        <v>230</v>
-      </c>
-      <c r="O16" t="s">
-        <v>231</v>
-      </c>
-      <c r="P16" t="s">
-        <v>232</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16" t="s">
-        <v>69</v>
-      </c>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
+        <v>218</v>
+      </c>
+      <c r="T16" t="s">
+        <v>219</v>
+      </c>
+      <c r="U16" t="s">
+        <v>220</v>
+      </c>
+      <c r="V16" t="s">
+        <v>221</v>
+      </c>
       <c r="W16"/>
       <c r="X16"/>
       <c r="Y16"/>
@@ -5370,58 +5281,78 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D17" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H17"/>
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>227</v>
+      </c>
       <c r="I17"/>
       <c r="J17" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
+        <v>229</v>
+      </c>
+      <c r="L17" t="s">
+        <v>230</v>
+      </c>
+      <c r="M17" t="s">
+        <v>231</v>
+      </c>
+      <c r="N17" t="s">
+        <v>232</v>
+      </c>
+      <c r="O17" t="s">
+        <v>233</v>
+      </c>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17" t="s">
+        <v>234</v>
+      </c>
+      <c r="T17" t="s">
+        <v>235</v>
+      </c>
+      <c r="U17" t="s">
+        <v>236</v>
+      </c>
+      <c r="V17" t="s">
+        <v>237</v>
+      </c>
+      <c r="W17" t="s">
+        <v>238</v>
+      </c>
+      <c r="X17" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y17" t="s">
         <v>240</v>
       </c>
-      <c r="T17" t="s">
+      <c r="Z17" t="s">
         <v>241</v>
       </c>
-      <c r="U17" t="s">
+      <c r="AA17" t="s">
         <v>242</v>
       </c>
-      <c r="V17" t="s">
-        <v>243</v>
-      </c>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
       <c r="AB17"/>
       <c r="AC17"/>
       <c r="AD17"/>
@@ -5442,39 +5373,43 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" t="s">
         <v>244</v>
       </c>
-      <c r="B18" t="s">
-        <v>245</v>
-      </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="E18" t="s">
         <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G18" t="s">
-        <v>249</v>
-      </c>
-      <c r="H18" t="s">
-        <v>176</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="H18"/>
       <c r="I18"/>
       <c r="J18" t="s">
+        <v>247</v>
+      </c>
+      <c r="K18" t="s">
+        <v>248</v>
+      </c>
+      <c r="L18" t="s">
+        <v>249</v>
+      </c>
+      <c r="M18" t="s">
         <v>250</v>
       </c>
-      <c r="K18" t="s">
+      <c r="N18" t="s">
         <v>251</v>
       </c>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
@@ -5482,106 +5417,144 @@
       <c r="S18" t="s">
         <v>252</v>
       </c>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
-      <c r="AG18"/>
-      <c r="AH18"/>
-      <c r="AI18"/>
-      <c r="AJ18"/>
-      <c r="AK18"/>
-      <c r="AL18"/>
-      <c r="AM18"/>
-      <c r="AN18"/>
-      <c r="AO18"/>
+      <c r="T18" t="s">
+        <v>253</v>
+      </c>
+      <c r="U18" t="s">
+        <v>254</v>
+      </c>
+      <c r="V18" t="s">
+        <v>255</v>
+      </c>
+      <c r="W18" t="s">
+        <v>256</v>
+      </c>
+      <c r="X18" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>270</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>273</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>274</v>
+      </c>
       <c r="AP18"/>
       <c r="AQ18"/>
       <c r="AR18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="B19" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>256</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
         <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" t="s">
-        <v>258</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="H19"/>
       <c r="I19"/>
       <c r="J19" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="K19" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="L19" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="M19" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="N19" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="O19" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="T19" t="s">
-        <v>266</v>
+        <v>87</v>
       </c>
       <c r="U19" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="V19" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="W19" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="X19" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="Y19" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>273</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="Z19"/>
+      <c r="AA19"/>
       <c r="AB19"/>
       <c r="AC19"/>
       <c r="AD19"/>
@@ -5602,186 +5575,126 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="G20" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="K20" t="s">
-        <v>279</v>
-      </c>
-      <c r="L20" t="s">
-        <v>280</v>
-      </c>
-      <c r="M20" t="s">
-        <v>281</v>
-      </c>
-      <c r="N20" t="s">
-        <v>282</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20" t="s">
-        <v>283</v>
-      </c>
-      <c r="T20" t="s">
-        <v>284</v>
-      </c>
-      <c r="U20" t="s">
-        <v>285</v>
-      </c>
-      <c r="V20" t="s">
-        <v>286</v>
-      </c>
-      <c r="W20" t="s">
-        <v>287</v>
-      </c>
-      <c r="X20" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>291</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>293</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>294</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>295</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>296</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>299</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>300</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>302</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>304</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>305</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
       <c r="AP20"/>
       <c r="AQ20"/>
       <c r="AR20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B21" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>299</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="E21" t="s">
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G21" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K21" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="L21" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="M21" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="N21" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="O21" t="s">
-        <v>315</v>
-      </c>
-      <c r="P21"/>
+        <v>307</v>
+      </c>
+      <c r="P21" t="s">
+        <v>308</v>
+      </c>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21" t="s">
-        <v>316</v>
-      </c>
-      <c r="T21" t="s">
-        <v>87</v>
-      </c>
-      <c r="U21" t="s">
-        <v>317</v>
-      </c>
-      <c r="V21" t="s">
-        <v>318</v>
-      </c>
-      <c r="W21" t="s">
-        <v>319</v>
-      </c>
-      <c r="X21" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>144</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
       <c r="Z21"/>
       <c r="AA21"/>
       <c r="AB21"/>
@@ -5804,52 +5717,72 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B22" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C22" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="D22" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="K22" t="s">
-        <v>325</v>
-      </c>
-      <c r="L22"/>
-      <c r="M22"/>
+        <v>316</v>
+      </c>
+      <c r="L22" t="s">
+        <v>317</v>
+      </c>
+      <c r="M22" t="s">
+        <v>318</v>
+      </c>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22" t="s">
-        <v>69</v>
-      </c>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
+        <v>319</v>
+      </c>
+      <c r="T22" t="s">
+        <v>320</v>
+      </c>
+      <c r="U22" t="s">
+        <v>321</v>
+      </c>
+      <c r="V22" t="s">
+        <v>322</v>
+      </c>
+      <c r="W22" t="s">
+        <v>290</v>
+      </c>
+      <c r="X22" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>326</v>
+      </c>
       <c r="AB22"/>
       <c r="AC22"/>
       <c r="AD22"/>
@@ -5870,16 +5803,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B23" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C23" t="s">
-        <v>328</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="E23" t="s">
         <v>48</v>
@@ -5888,50 +5821,74 @@
         <v>329</v>
       </c>
       <c r="G23" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" t="s">
+        <v>330</v>
+      </c>
+      <c r="K23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s">
         <v>331</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>332</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>333</v>
       </c>
-      <c r="M23" t="s">
-        <v>334</v>
-      </c>
-      <c r="N23" t="s">
-        <v>335</v>
-      </c>
-      <c r="O23" t="s">
-        <v>336</v>
-      </c>
-      <c r="P23" t="s">
-        <v>337</v>
-      </c>
+      <c r="O23"/>
+      <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23" t="s">
+        <v>334</v>
+      </c>
+      <c r="T23" t="s">
+        <v>325</v>
+      </c>
+      <c r="U23" t="s">
+        <v>290</v>
+      </c>
+      <c r="V23" t="s">
+        <v>335</v>
+      </c>
+      <c r="W23" t="s">
+        <v>336</v>
+      </c>
+      <c r="X23" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y23" t="s">
         <v>338</v>
       </c>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AC23"/>
-      <c r="AD23"/>
-      <c r="AE23"/>
-      <c r="AF23"/>
-      <c r="AG23"/>
+      <c r="Z23" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>346</v>
+      </c>
       <c r="AH23"/>
       <c r="AI23"/>
       <c r="AJ23"/>
@@ -5946,72 +5903,52 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B24" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C24" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D24" t="s">
-        <v>342</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" t="s">
-        <v>343</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F24"/>
       <c r="G24" t="s">
-        <v>167</v>
+        <v>350</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="K24" t="s">
-        <v>345</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s">
-        <v>346</v>
-      </c>
-      <c r="M24" t="s">
-        <v>347</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24" t="s">
-        <v>348</v>
-      </c>
-      <c r="T24" t="s">
-        <v>349</v>
-      </c>
-      <c r="U24" t="s">
-        <v>350</v>
-      </c>
-      <c r="V24" t="s">
-        <v>351</v>
-      </c>
-      <c r="W24" t="s">
-        <v>144</v>
-      </c>
-      <c r="X24" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y24" t="s">
         <v>353</v>
       </c>
-      <c r="Z24" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>355</v>
-      </c>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
       <c r="AB24"/>
       <c r="AC24"/>
       <c r="AD24"/>
@@ -6032,44 +5969,46 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C25" t="s">
         <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G25" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25" t="s">
+        <v>357</v>
+      </c>
+      <c r="K25" t="s">
+        <v>358</v>
+      </c>
+      <c r="L25" t="s">
         <v>359</v>
       </c>
-      <c r="K25" t="s">
-        <v>227</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>360</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>361</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>362</v>
       </c>
-      <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
@@ -6077,47 +6016,29 @@
         <v>363</v>
       </c>
       <c r="T25" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="U25" t="s">
-        <v>144</v>
+        <v>365</v>
       </c>
       <c r="V25" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="W25" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="X25" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z25" t="s">
         <v>368</v>
       </c>
-      <c r="AA25" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>373</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>374</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>375</v>
-      </c>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
       <c r="AH25"/>
       <c r="AI25"/>
       <c r="AJ25"/>
@@ -6132,34 +6053,36 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B26" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C26" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
         <v>48</v>
       </c>
-      <c r="F26"/>
+      <c r="F26" t="s">
+        <v>372</v>
+      </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K26" t="s">
-        <v>227</v>
+        <v>52</v>
       </c>
       <c r="L26" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M26"/>
       <c r="N26"/>
@@ -6168,9 +6091,11 @@
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26" t="s">
-        <v>381</v>
-      </c>
-      <c r="T26"/>
+        <v>375</v>
+      </c>
+      <c r="T26" t="s">
+        <v>376</v>
+      </c>
       <c r="U26"/>
       <c r="V26"/>
       <c r="W26"/>
@@ -6198,67 +6123,49 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B27" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>379</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K27" t="s">
-        <v>386</v>
-      </c>
-      <c r="L27" t="s">
-        <v>387</v>
-      </c>
-      <c r="M27" t="s">
-        <v>388</v>
-      </c>
-      <c r="N27" t="s">
-        <v>389</v>
-      </c>
-      <c r="O27" t="s">
-        <v>390</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27" t="s">
-        <v>391</v>
-      </c>
-      <c r="T27" t="s">
-        <v>392</v>
-      </c>
-      <c r="U27" t="s">
-        <v>393</v>
-      </c>
-      <c r="V27" t="s">
-        <v>394</v>
-      </c>
-      <c r="W27" t="s">
-        <v>395</v>
-      </c>
-      <c r="X27" t="s">
-        <v>396</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
       <c r="Y27"/>
       <c r="Z27"/>
       <c r="AA27"/>
@@ -6282,49 +6189,53 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B28" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C28" t="s">
-        <v>399</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>224</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="G28" t="s">
-        <v>125</v>
+        <v>246</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>388</v>
       </c>
       <c r="L28" t="s">
-        <v>402</v>
-      </c>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
+        <v>389</v>
+      </c>
+      <c r="M28" t="s">
+        <v>390</v>
+      </c>
+      <c r="N28" t="s">
+        <v>391</v>
+      </c>
+      <c r="O28" t="s">
+        <v>392</v>
+      </c>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28" t="s">
-        <v>403</v>
-      </c>
-      <c r="T28" t="s">
-        <v>404</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T28"/>
       <c r="U28"/>
       <c r="V28"/>
       <c r="W28"/>
@@ -6352,48 +6263,60 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B29" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C29" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>396</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G29" t="s">
-        <v>330</v>
+        <v>398</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="K29" t="s">
-        <v>410</v>
-      </c>
-      <c r="L29"/>
-      <c r="M29"/>
+        <v>400</v>
+      </c>
+      <c r="L29" t="s">
+        <v>401</v>
+      </c>
+      <c r="M29" t="s">
+        <v>402</v>
+      </c>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29" t="s">
-        <v>411</v>
-      </c>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
+        <v>403</v>
+      </c>
+      <c r="T29" t="s">
+        <v>404</v>
+      </c>
+      <c r="U29" t="s">
+        <v>405</v>
+      </c>
+      <c r="V29" t="s">
+        <v>406</v>
+      </c>
+      <c r="W29" t="s">
+        <v>407</v>
+      </c>
       <c r="X29"/>
       <c r="Y29"/>
       <c r="Z29"/>
@@ -6418,46 +6341,40 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>408</v>
+      </c>
+      <c r="B30" t="s">
+        <v>409</v>
+      </c>
+      <c r="C30" t="s">
+        <v>410</v>
+      </c>
+      <c r="D30" t="s">
+        <v>411</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
         <v>412</v>
       </c>
-      <c r="B30" t="s">
-        <v>413</v>
-      </c>
-      <c r="C30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" t="s">
-        <v>414</v>
-      </c>
       <c r="G30" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K30" t="s">
-        <v>416</v>
+        <v>205</v>
       </c>
       <c r="L30" t="s">
-        <v>417</v>
-      </c>
-      <c r="M30" t="s">
-        <v>418</v>
-      </c>
-      <c r="N30" t="s">
-        <v>419</v>
-      </c>
-      <c r="O30" t="s">
-        <v>420</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30"/>
@@ -6492,60 +6409,48 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B31" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>417</v>
       </c>
       <c r="D31" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G31" t="s">
-        <v>425</v>
+        <v>125</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K31" t="s">
-        <v>427</v>
-      </c>
-      <c r="L31" t="s">
-        <v>428</v>
-      </c>
-      <c r="M31" t="s">
-        <v>429</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L31"/>
+      <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31" t="s">
-        <v>430</v>
-      </c>
-      <c r="T31" t="s">
-        <v>431</v>
-      </c>
-      <c r="U31" t="s">
-        <v>432</v>
-      </c>
-      <c r="V31" t="s">
-        <v>433</v>
-      </c>
-      <c r="W31" t="s">
-        <v>434</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
       <c r="X31"/>
       <c r="Y31"/>
       <c r="Z31"/>
@@ -6570,37 +6475,37 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B32" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C32" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="D32" t="s">
-        <v>438</v>
+        <v>293</v>
       </c>
       <c r="E32" t="s">
         <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="G32" t="s">
-        <v>215</v>
-      </c>
-      <c r="H32"/>
+        <v>193</v>
+      </c>
+      <c r="H32" t="s">
+        <v>153</v>
+      </c>
       <c r="I32"/>
       <c r="J32" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="K32" t="s">
-        <v>227</v>
-      </c>
-      <c r="L32" t="s">
-        <v>441</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
@@ -6638,35 +6543,37 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B33" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C33" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="D33" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="E33" t="s">
         <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="G33" t="s">
-        <v>125</v>
+        <v>433</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="K33" t="s">
-        <v>52</v>
-      </c>
-      <c r="L33"/>
+        <v>435</v>
+      </c>
+      <c r="L33" t="s">
+        <v>436</v>
+      </c>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
@@ -6674,7 +6581,7 @@
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33" t="s">
-        <v>448</v>
+        <v>69</v>
       </c>
       <c r="T33"/>
       <c r="U33"/>
@@ -6704,104 +6611,156 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B34" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C34" t="s">
-        <v>451</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>247</v>
+        <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G34" t="s">
-        <v>215</v>
-      </c>
-      <c r="H34" t="s">
-        <v>176</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="H34"/>
       <c r="I34"/>
       <c r="J34" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="K34" t="s">
-        <v>454</v>
-      </c>
-      <c r="L34"/>
-      <c r="M34"/>
+        <v>442</v>
+      </c>
+      <c r="L34" t="s">
+        <v>443</v>
+      </c>
+      <c r="M34" t="s">
+        <v>444</v>
+      </c>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34" t="s">
-        <v>69</v>
-      </c>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
-      <c r="AF34"/>
-      <c r="AG34"/>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34"/>
-      <c r="AK34"/>
-      <c r="AL34"/>
-      <c r="AM34"/>
-      <c r="AN34"/>
-      <c r="AO34"/>
-      <c r="AP34"/>
-      <c r="AQ34"/>
-      <c r="AR34"/>
+        <v>445</v>
+      </c>
+      <c r="T34" t="s">
+        <v>253</v>
+      </c>
+      <c r="U34" t="s">
+        <v>446</v>
+      </c>
+      <c r="V34" t="s">
+        <v>447</v>
+      </c>
+      <c r="W34" t="s">
+        <v>448</v>
+      </c>
+      <c r="X34" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>453</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>455</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>456</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>457</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>458</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>460</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>461</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>462</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>463</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>464</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>465</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>466</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>467</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>468</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="B35" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="C35" t="s">
-        <v>457</v>
+        <v>395</v>
       </c>
       <c r="D35" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="E35" t="s">
         <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="G35" t="s">
-        <v>460</v>
+        <v>144</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="K35" t="s">
-        <v>462</v>
+        <v>52</v>
       </c>
       <c r="L35" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="M35"/>
       <c r="N35"/>
@@ -6810,11 +6769,17 @@
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35" t="s">
-        <v>69</v>
-      </c>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
+        <v>476</v>
+      </c>
+      <c r="T35" t="s">
+        <v>477</v>
+      </c>
+      <c r="U35" t="s">
+        <v>478</v>
+      </c>
+      <c r="V35" t="s">
+        <v>479</v>
+      </c>
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
@@ -6840,39 +6805,39 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="B36" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="G36" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="K36" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="L36" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="M36" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -6880,117 +6845,71 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="T36" t="s">
-        <v>284</v>
+        <v>87</v>
       </c>
       <c r="U36" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="V36" t="s">
-        <v>474</v>
-      </c>
-      <c r="W36" t="s">
-        <v>475</v>
-      </c>
-      <c r="X36" t="s">
-        <v>476</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>477</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>478</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>479</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>480</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>481</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>483</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>484</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>485</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>486</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>487</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>488</v>
-      </c>
-      <c r="AK36" t="s">
         <v>489</v>
       </c>
-      <c r="AL36" t="s">
-        <v>490</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>491</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>492</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>493</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>494</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>495</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>496</v>
-      </c>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+      <c r="AR36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B37" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>492</v>
       </c>
       <c r="D37" t="s">
-        <v>499</v>
+        <v>411</v>
       </c>
       <c r="E37" t="s">
         <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G37" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L37" t="s">
-        <v>502</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
@@ -6998,17 +6917,11 @@
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37" t="s">
-        <v>503</v>
-      </c>
-      <c r="T37" t="s">
-        <v>504</v>
-      </c>
-      <c r="U37" t="s">
-        <v>505</v>
-      </c>
-      <c r="V37" t="s">
-        <v>506</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
       <c r="W37"/>
       <c r="X37"/>
       <c r="Y37"/>
@@ -7034,39 +6947,39 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B38" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C38" t="s">
-        <v>205</v>
+        <v>497</v>
       </c>
       <c r="D38" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="G38" t="s">
-        <v>125</v>
+        <v>301</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="K38" t="s">
-        <v>511</v>
+        <v>136</v>
       </c>
       <c r="L38" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="M38" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -7074,17 +6987,13 @@
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="T38" t="s">
-        <v>87</v>
-      </c>
-      <c r="U38" t="s">
-        <v>515</v>
-      </c>
-      <c r="V38" t="s">
-        <v>516</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="U38"/>
+      <c r="V38"/>
       <c r="W38"/>
       <c r="X38"/>
       <c r="Y38"/>
@@ -7110,33 +7019,33 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B39" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C39" t="s">
-        <v>519</v>
+        <v>371</v>
       </c>
       <c r="D39" t="s">
-        <v>438</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="G39" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="K39" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L39"/>
       <c r="M39"/>
@@ -7146,12 +7055,20 @@
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39" t="s">
-        <v>69</v>
-      </c>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
+        <v>375</v>
+      </c>
+      <c r="T39" t="s">
+        <v>509</v>
+      </c>
+      <c r="U39" t="s">
+        <v>510</v>
+      </c>
+      <c r="V39" t="s">
+        <v>511</v>
+      </c>
+      <c r="W39" t="s">
+        <v>512</v>
+      </c>
       <c r="X39"/>
       <c r="Y39"/>
       <c r="Z39"/>
@@ -7176,50 +7093,46 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B40" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C40" t="s">
-        <v>524</v>
+        <v>371</v>
       </c>
       <c r="D40" t="s">
-        <v>525</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
         <v>93</v>
       </c>
       <c r="F40" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="G40" t="s">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="K40" t="s">
-        <v>159</v>
-      </c>
-      <c r="L40" t="s">
-        <v>528</v>
-      </c>
-      <c r="M40" t="s">
-        <v>529</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L40"/>
+      <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40" t="s">
-        <v>530</v>
+        <v>375</v>
       </c>
       <c r="T40" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="U40"/>
       <c r="V40"/>
@@ -7248,30 +7161,34 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="B41" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="C41" t="s">
-        <v>399</v>
+        <v>520</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>521</v>
       </c>
       <c r="E41" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
-      </c>
-      <c r="H41"/>
-      <c r="I41"/>
+        <v>523</v>
+      </c>
+      <c r="H41" t="s">
+        <v>524</v>
+      </c>
+      <c r="I41" t="s">
+        <v>525</v>
+      </c>
       <c r="J41" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="K41" t="s">
         <v>52</v>
@@ -7284,20 +7201,12 @@
       <c r="Q41"/>
       <c r="R41"/>
       <c r="S41" t="s">
-        <v>403</v>
-      </c>
-      <c r="T41" t="s">
-        <v>536</v>
-      </c>
-      <c r="U41" t="s">
-        <v>537</v>
-      </c>
-      <c r="V41" t="s">
-        <v>538</v>
-      </c>
-      <c r="W41" t="s">
-        <v>539</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
       <c r="X41"/>
       <c r="Y41"/>
       <c r="Z41"/>
@@ -7322,30 +7231,34 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="B42" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="C42" t="s">
-        <v>399</v>
+        <v>520</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>521</v>
       </c>
       <c r="E42" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="G42" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42"/>
-      <c r="I42"/>
+        <v>523</v>
+      </c>
+      <c r="H42" t="s">
+        <v>524</v>
+      </c>
+      <c r="I42" t="s">
+        <v>525</v>
+      </c>
       <c r="J42" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="K42" t="s">
         <v>52</v>
@@ -7358,11 +7271,9 @@
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42" t="s">
-        <v>403</v>
-      </c>
-      <c r="T42" t="s">
-        <v>544</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T42"/>
       <c r="U42"/>
       <c r="V42"/>
       <c r="W42"/>
@@ -7390,34 +7301,34 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="B43" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="C43" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="D43" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="E43" t="s">
         <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="G43" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="H43" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="I43" t="s">
-        <v>552</v>
+        <v>525</v>
       </c>
       <c r="J43" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="K43" t="s">
         <v>52</v>
@@ -7460,39 +7371,37 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="B44" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="C44" t="s">
-        <v>547</v>
+        <v>424</v>
       </c>
       <c r="D44" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="G44" t="s">
-        <v>550</v>
-      </c>
-      <c r="H44" t="s">
-        <v>551</v>
-      </c>
-      <c r="I44" t="s">
-        <v>552</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44"/>
       <c r="J44" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="K44" t="s">
-        <v>52</v>
-      </c>
-      <c r="L44"/>
+        <v>229</v>
+      </c>
+      <c r="L44" t="s">
+        <v>535</v>
+      </c>
       <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
@@ -7530,39 +7439,37 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="B45" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C45" t="s">
-        <v>547</v>
+        <v>395</v>
       </c>
       <c r="D45" t="s">
-        <v>548</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="G45" t="s">
-        <v>556</v>
-      </c>
-      <c r="H45" t="s">
-        <v>551</v>
-      </c>
-      <c r="I45" t="s">
-        <v>552</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="H45"/>
+      <c r="I45"/>
       <c r="J45" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="K45" t="s">
         <v>52</v>
       </c>
-      <c r="L45"/>
+      <c r="L45" t="s">
+        <v>540</v>
+      </c>
       <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
@@ -7570,7 +7477,7 @@
       <c r="Q45"/>
       <c r="R45"/>
       <c r="S45" t="s">
-        <v>69</v>
+        <v>541</v>
       </c>
       <c r="T45"/>
       <c r="U45"/>
@@ -7600,37 +7507,35 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="B46" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="C46" t="s">
-        <v>451</v>
+        <v>544</v>
       </c>
       <c r="D46" t="s">
-        <v>559</v>
+        <v>225</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="K46" t="s">
-        <v>260</v>
-      </c>
-      <c r="L46" t="s">
-        <v>562</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
       <c r="O46"/>
@@ -7638,14 +7543,26 @@
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46" t="s">
-        <v>69</v>
-      </c>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46"/>
-      <c r="Y46"/>
+        <v>375</v>
+      </c>
+      <c r="T46" t="s">
+        <v>547</v>
+      </c>
+      <c r="U46" t="s">
+        <v>548</v>
+      </c>
+      <c r="V46" t="s">
+        <v>549</v>
+      </c>
+      <c r="W46" t="s">
+        <v>478</v>
+      </c>
+      <c r="X46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>550</v>
+      </c>
       <c r="Z46"/>
       <c r="AA46"/>
       <c r="AB46"/>
@@ -7668,50 +7585,62 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B47" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>553</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="E47" t="s">
         <v>93</v>
       </c>
       <c r="F47" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="G47" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="K47" t="s">
-        <v>52</v>
+        <v>556</v>
       </c>
       <c r="L47" t="s">
-        <v>567</v>
-      </c>
-      <c r="M47"/>
-      <c r="N47"/>
+        <v>557</v>
+      </c>
+      <c r="M47" t="s">
+        <v>558</v>
+      </c>
+      <c r="N47" t="s">
+        <v>512</v>
+      </c>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47" t="s">
-        <v>568</v>
-      </c>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47"/>
+        <v>559</v>
+      </c>
+      <c r="T47" t="s">
+        <v>560</v>
+      </c>
+      <c r="U47" t="s">
+        <v>561</v>
+      </c>
+      <c r="V47" t="s">
+        <v>562</v>
+      </c>
+      <c r="W47" t="s">
+        <v>512</v>
+      </c>
       <c r="X47"/>
       <c r="Y47"/>
       <c r="Z47"/>
@@ -7736,61 +7665,67 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B48" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="C48" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="D48" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="K48" t="s">
-        <v>159</v>
-      </c>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
+        <v>556</v>
+      </c>
+      <c r="L48" t="s">
+        <v>566</v>
+      </c>
+      <c r="M48" t="s">
+        <v>558</v>
+      </c>
+      <c r="N48" t="s">
+        <v>512</v>
+      </c>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48" t="s">
-        <v>403</v>
+        <v>567</v>
       </c>
       <c r="T48" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="U48" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="V48" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="W48" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
       <c r="X48" t="s">
-        <v>82</v>
+        <v>572</v>
       </c>
       <c r="Y48" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="Z48"/>
       <c r="AA48"/>
@@ -7814,65 +7749,67 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B49" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C49" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D49" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
         <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G49" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="K49" t="s">
-        <v>583</v>
+        <v>136</v>
       </c>
       <c r="L49" t="s">
-        <v>584</v>
-      </c>
-      <c r="M49" t="s">
-        <v>585</v>
-      </c>
-      <c r="N49" t="s">
-        <v>539</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="M49"/>
+      <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
       <c r="S49" t="s">
+        <v>580</v>
+      </c>
+      <c r="T49" t="s">
+        <v>581</v>
+      </c>
+      <c r="U49" t="s">
+        <v>582</v>
+      </c>
+      <c r="V49" t="s">
+        <v>583</v>
+      </c>
+      <c r="W49" t="s">
+        <v>584</v>
+      </c>
+      <c r="X49" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y49" t="s">
         <v>586</v>
       </c>
-      <c r="T49" t="s">
+      <c r="Z49" t="s">
         <v>587</v>
       </c>
-      <c r="U49" t="s">
-        <v>588</v>
-      </c>
-      <c r="V49" t="s">
-        <v>589</v>
-      </c>
-      <c r="W49" t="s">
-        <v>539</v>
-      </c>
-      <c r="X49"/>
-      <c r="Y49"/>
-      <c r="Z49"/>
       <c r="AA49"/>
       <c r="AB49"/>
       <c r="AC49"/>
@@ -7894,16 +7831,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>588</v>
+      </c>
+      <c r="B50" t="s">
+        <v>589</v>
+      </c>
+      <c r="C50" t="s">
         <v>590</v>
       </c>
-      <c r="B50" t="s">
-        <v>579</v>
-      </c>
-      <c r="C50" t="s">
-        <v>580</v>
-      </c>
       <c r="D50" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s">
         <v>93</v>
@@ -7912,7 +7849,7 @@
         <v>591</v>
       </c>
       <c r="G50" t="s">
-        <v>277</v>
+        <v>350</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
@@ -7920,44 +7857,50 @@
         <v>592</v>
       </c>
       <c r="K50" t="s">
-        <v>583</v>
+        <v>52</v>
       </c>
       <c r="L50" t="s">
         <v>593</v>
       </c>
       <c r="M50" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="N50" t="s">
-        <v>539</v>
-      </c>
-      <c r="O50"/>
+        <v>283</v>
+      </c>
+      <c r="O50" t="s">
+        <v>595</v>
+      </c>
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
       <c r="S50" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="T50" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="U50" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="V50" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="W50" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="X50" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Y50" t="s">
-        <v>600</v>
-      </c>
-      <c r="Z50"/>
-      <c r="AA50"/>
+        <v>601</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>603</v>
+      </c>
       <c r="AB50"/>
       <c r="AC50"/>
       <c r="AD50"/>
@@ -7978,67 +7921,53 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B51" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C51" t="s">
-        <v>603</v>
+        <v>424</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>439</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>604</v>
+        <v>69</v>
       </c>
       <c r="G51" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K51" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="L51" t="s">
-        <v>606</v>
-      </c>
-      <c r="M51"/>
+        <v>607</v>
+      </c>
+      <c r="M51" t="s">
+        <v>608</v>
+      </c>
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
-      <c r="S51" t="s">
-        <v>607</v>
-      </c>
-      <c r="T51" t="s">
-        <v>608</v>
-      </c>
-      <c r="U51" t="s">
-        <v>609</v>
-      </c>
-      <c r="V51" t="s">
-        <v>610</v>
-      </c>
-      <c r="W51" t="s">
-        <v>611</v>
-      </c>
-      <c r="X51" t="s">
-        <v>612</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>613</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>614</v>
-      </c>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
       <c r="AA51"/>
       <c r="AB51"/>
       <c r="AC51"/>
@@ -8060,76 +7989,56 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B52" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C52" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="E52" t="s">
         <v>93</v>
       </c>
       <c r="F52" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G52" t="s">
-        <v>133</v>
+        <v>613</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="K52" t="s">
         <v>52</v>
       </c>
-      <c r="L52" t="s">
-        <v>620</v>
-      </c>
-      <c r="M52" t="s">
-        <v>621</v>
-      </c>
-      <c r="N52" t="s">
-        <v>314</v>
-      </c>
-      <c r="O52" t="s">
-        <v>622</v>
-      </c>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52"/>
       <c r="S52" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="T52" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="U52" t="s">
-        <v>624</v>
-      </c>
-      <c r="V52" t="s">
-        <v>625</v>
-      </c>
-      <c r="W52" t="s">
-        <v>626</v>
-      </c>
-      <c r="X52" t="s">
-        <v>627</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>628</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>629</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>630</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
       <c r="AB52"/>
       <c r="AC52"/>
       <c r="AD52"/>
@@ -8150,46 +8059,50 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="B53" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="C53" t="s">
-        <v>451</v>
+        <v>620</v>
       </c>
       <c r="D53" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="E53" t="s">
         <v>48</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>621</v>
       </c>
       <c r="G53" t="s">
-        <v>238</v>
+        <v>433</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="K53" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="L53" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="M53" t="s">
-        <v>635</v>
-      </c>
-      <c r="N53"/>
+        <v>624</v>
+      </c>
+      <c r="N53" t="s">
+        <v>625</v>
+      </c>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
-      <c r="S53"/>
+      <c r="S53" t="s">
+        <v>69</v>
+      </c>
       <c r="T53"/>
       <c r="U53"/>
       <c r="V53"/>
@@ -8218,35 +8131,37 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B54" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C54" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="G54" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="K54" t="s">
         <v>52</v>
       </c>
-      <c r="L54"/>
+      <c r="L54" t="s">
+        <v>632</v>
+      </c>
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54"/>
@@ -8254,14 +8169,10 @@
       <c r="Q54"/>
       <c r="R54"/>
       <c r="S54" t="s">
-        <v>642</v>
-      </c>
-      <c r="T54" t="s">
-        <v>643</v>
-      </c>
-      <c r="U54" t="s">
-        <v>644</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T54"/>
+      <c r="U54"/>
       <c r="V54"/>
       <c r="W54"/>
       <c r="X54"/>
@@ -8288,43 +8199,39 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B55" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="C55" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="D55" t="s">
-        <v>458</v>
+        <v>636</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F55" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="G55" t="s">
-        <v>460</v>
-      </c>
-      <c r="H55"/>
+        <v>638</v>
+      </c>
+      <c r="H55" t="s">
+        <v>639</v>
+      </c>
       <c r="I55"/>
       <c r="J55" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="K55" t="s">
-        <v>159</v>
-      </c>
-      <c r="L55" t="s">
-        <v>650</v>
-      </c>
-      <c r="M55" t="s">
-        <v>651</v>
-      </c>
-      <c r="N55" t="s">
-        <v>652</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
@@ -8360,38 +8267,40 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="B56" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="C56" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>396</v>
       </c>
       <c r="E56" t="s">
         <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G56" t="s">
-        <v>657</v>
+        <v>67</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="K56" t="s">
         <v>52</v>
       </c>
       <c r="L56" t="s">
-        <v>659</v>
-      </c>
-      <c r="M56"/>
+        <v>646</v>
+      </c>
+      <c r="M56" t="s">
+        <v>647</v>
+      </c>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
@@ -8428,32 +8337,30 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="B57" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="C57" t="s">
-        <v>662</v>
+        <v>424</v>
       </c>
       <c r="D57" t="s">
-        <v>663</v>
+        <v>396</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="G57" t="s">
-        <v>665</v>
-      </c>
-      <c r="H57" t="s">
-        <v>666</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="H57"/>
       <c r="I57"/>
       <c r="J57" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="K57" t="s">
         <v>52</v>
@@ -8496,40 +8403,34 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="B58" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C58" t="s">
-        <v>670</v>
+        <v>91</v>
       </c>
       <c r="D58" t="s">
-        <v>423</v>
+        <v>150</v>
       </c>
       <c r="E58" t="s">
         <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="G58" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="J58" t="s">
-        <v>672</v>
-      </c>
+      <c r="J58"/>
       <c r="K58" t="s">
-        <v>52</v>
-      </c>
-      <c r="L58" t="s">
-        <v>673</v>
-      </c>
-      <c r="M58" t="s">
-        <v>674</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="L58"/>
+      <c r="M58"/>
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
@@ -8566,33 +8467,35 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="B59" t="s">
-        <v>676</v>
+        <v>653</v>
       </c>
       <c r="C59" t="s">
-        <v>451</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
-        <v>423</v>
+        <v>150</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F59" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="G59" t="s">
-        <v>133</v>
-      </c>
-      <c r="H59"/>
+        <v>75</v>
+      </c>
+      <c r="H59" t="s">
+        <v>657</v>
+      </c>
       <c r="I59"/>
       <c r="J59" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="K59" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="L59"/>
       <c r="M59"/>
@@ -8632,33 +8535,37 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="B60" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="C60" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F60" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="G60" t="s">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
-      <c r="J60"/>
+      <c r="J60" t="s">
+        <v>662</v>
+      </c>
       <c r="K60" t="s">
-        <v>69</v>
-      </c>
-      <c r="L60"/>
+        <v>663</v>
+      </c>
+      <c r="L60" t="s">
+        <v>664</v>
+      </c>
       <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
@@ -8696,52 +8603,76 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="B61" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="D61" t="s">
-        <v>173</v>
+        <v>313</v>
       </c>
       <c r="E61" t="s">
         <v>93</v>
       </c>
       <c r="F61" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="G61" t="s">
-        <v>75</v>
-      </c>
-      <c r="H61" t="s">
-        <v>684</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="H61"/>
       <c r="I61"/>
       <c r="J61" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="K61" t="s">
-        <v>69</v>
-      </c>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
-      <c r="R61"/>
+        <v>52</v>
+      </c>
+      <c r="L61" t="s">
+        <v>669</v>
+      </c>
+      <c r="M61" t="s">
+        <v>670</v>
+      </c>
+      <c r="N61" t="s">
+        <v>671</v>
+      </c>
+      <c r="O61" t="s">
+        <v>672</v>
+      </c>
+      <c r="P61" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>674</v>
+      </c>
+      <c r="R61" t="s">
+        <v>675</v>
+      </c>
       <c r="S61" t="s">
-        <v>69</v>
-      </c>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="W61"/>
-      <c r="X61"/>
-      <c r="Y61"/>
+        <v>676</v>
+      </c>
+      <c r="T61" t="s">
+        <v>677</v>
+      </c>
+      <c r="U61" t="s">
+        <v>678</v>
+      </c>
+      <c r="V61" t="s">
+        <v>679</v>
+      </c>
+      <c r="W61" t="s">
+        <v>680</v>
+      </c>
+      <c r="X61" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>682</v>
+      </c>
       <c r="Z61"/>
       <c r="AA61"/>
       <c r="AB61"/>
@@ -8764,36 +8695,36 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>683</v>
+      </c>
+      <c r="B62" t="s">
+        <v>684</v>
+      </c>
+      <c r="C62" t="s">
+        <v>685</v>
+      </c>
+      <c r="D62" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" t="s">
         <v>686</v>
       </c>
-      <c r="B62" t="s">
-        <v>687</v>
-      </c>
-      <c r="C62" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" t="s">
-        <v>73</v>
-      </c>
-      <c r="E62" t="s">
-        <v>93</v>
-      </c>
-      <c r="F62" t="s">
-        <v>688</v>
-      </c>
       <c r="G62" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K62" t="s">
-        <v>690</v>
+        <v>52</v>
       </c>
       <c r="L62" t="s">
-        <v>691</v>
+        <v>501</v>
       </c>
       <c r="M62"/>
       <c r="N62"/>
@@ -8832,76 +8763,60 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>688</v>
+      </c>
+      <c r="B63" t="s">
+        <v>689</v>
+      </c>
+      <c r="C63" t="s">
+        <v>690</v>
+      </c>
+      <c r="D63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" t="s">
+        <v>691</v>
+      </c>
+      <c r="G63" t="s">
         <v>692</v>
-      </c>
-      <c r="B63" t="s">
-        <v>693</v>
-      </c>
-      <c r="C63" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" t="s">
-        <v>342</v>
-      </c>
-      <c r="E63" t="s">
-        <v>93</v>
-      </c>
-      <c r="F63" t="s">
-        <v>694</v>
-      </c>
-      <c r="G63" t="s">
-        <v>133</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="K63" t="s">
         <v>52</v>
       </c>
       <c r="L63" t="s">
+        <v>694</v>
+      </c>
+      <c r="M63" t="s">
+        <v>695</v>
+      </c>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63" t="s">
+        <v>375</v>
+      </c>
+      <c r="T63" t="s">
         <v>696</v>
       </c>
-      <c r="M63" t="s">
+      <c r="U63" t="s">
         <v>697</v>
       </c>
-      <c r="N63" t="s">
+      <c r="V63" t="s">
         <v>698</v>
       </c>
-      <c r="O63" t="s">
-        <v>699</v>
-      </c>
-      <c r="P63" t="s">
-        <v>700</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>701</v>
-      </c>
-      <c r="R63" t="s">
-        <v>702</v>
-      </c>
-      <c r="S63" t="s">
-        <v>703</v>
-      </c>
-      <c r="T63" t="s">
-        <v>704</v>
-      </c>
-      <c r="U63" t="s">
-        <v>705</v>
-      </c>
-      <c r="V63" t="s">
-        <v>706</v>
-      </c>
-      <c r="W63" t="s">
-        <v>707</v>
-      </c>
-      <c r="X63" t="s">
-        <v>708</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>709</v>
-      </c>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
       <c r="Z63"/>
       <c r="AA63"/>
       <c r="AB63"/>
@@ -8924,36 +8839,36 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="B64" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C64" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="D64" t="s">
-        <v>92</v>
+        <v>702</v>
       </c>
       <c r="E64" t="s">
         <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="G64" t="s">
-        <v>67</v>
+        <v>350</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="K64" t="s">
         <v>52</v>
       </c>
       <c r="L64" t="s">
-        <v>528</v>
+        <v>705</v>
       </c>
       <c r="M64"/>
       <c r="N64"/>
@@ -8992,57 +8907,51 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B65" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="C65" t="s">
-        <v>717</v>
+        <v>46</v>
       </c>
       <c r="D65" t="s">
         <v>92</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F65" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="G65" t="s">
-        <v>719</v>
-      </c>
-      <c r="H65"/>
+        <v>709</v>
+      </c>
+      <c r="H65" t="s">
+        <v>134</v>
+      </c>
       <c r="I65"/>
       <c r="J65" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="K65" t="s">
-        <v>52</v>
+        <v>711</v>
       </c>
       <c r="L65" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="M65" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
       <c r="R65"/>
-      <c r="S65" t="s">
-        <v>403</v>
-      </c>
-      <c r="T65" t="s">
-        <v>723</v>
-      </c>
-      <c r="U65" t="s">
-        <v>724</v>
-      </c>
-      <c r="V65" t="s">
-        <v>725</v>
-      </c>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
       <c r="W65"/>
       <c r="X65"/>
       <c r="Y65"/>
@@ -9068,38 +8977,42 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="B66" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="C66" t="s">
-        <v>728</v>
+        <v>46</v>
       </c>
       <c r="D66" t="s">
-        <v>729</v>
+        <v>92</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F66" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="G66" t="s">
-        <v>133</v>
-      </c>
-      <c r="H66"/>
+        <v>709</v>
+      </c>
+      <c r="H66" t="s">
+        <v>134</v>
+      </c>
       <c r="I66"/>
       <c r="J66" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="K66" t="s">
-        <v>52</v>
+        <v>718</v>
       </c>
       <c r="L66" t="s">
-        <v>732</v>
-      </c>
-      <c r="M66"/>
+        <v>719</v>
+      </c>
+      <c r="M66" t="s">
+        <v>720</v>
+      </c>
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
@@ -9136,51 +9049,57 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="B67" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="D67" t="s">
-        <v>92</v>
+        <v>498</v>
       </c>
       <c r="E67" t="s">
         <v>93</v>
       </c>
       <c r="F67" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="G67" t="s">
-        <v>736</v>
-      </c>
-      <c r="H67" t="s">
-        <v>157</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="H67"/>
       <c r="I67"/>
       <c r="J67" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="K67" t="s">
-        <v>738</v>
+        <v>136</v>
       </c>
       <c r="L67" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="M67" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
       <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
-      <c r="U67"/>
-      <c r="V67"/>
+      <c r="S67" t="s">
+        <v>375</v>
+      </c>
+      <c r="T67" t="s">
+        <v>727</v>
+      </c>
+      <c r="U67" t="s">
+        <v>728</v>
+      </c>
+      <c r="V67" t="s">
+        <v>729</v>
+      </c>
       <c r="W67"/>
       <c r="X67"/>
       <c r="Y67"/>
@@ -9206,58 +9125,74 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="B68" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>732</v>
       </c>
       <c r="D68" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E68" t="s">
         <v>93</v>
       </c>
       <c r="F68" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="G68" t="s">
-        <v>736</v>
-      </c>
-      <c r="H68" t="s">
-        <v>157</v>
-      </c>
+        <v>734</v>
+      </c>
+      <c r="H68"/>
       <c r="I68"/>
       <c r="J68" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="K68" t="s">
-        <v>745</v>
+        <v>136</v>
       </c>
       <c r="L68" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="M68" t="s">
-        <v>747</v>
-      </c>
-      <c r="N68"/>
+        <v>737</v>
+      </c>
+      <c r="N68" t="s">
+        <v>512</v>
+      </c>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
       <c r="R68"/>
       <c r="S68" t="s">
-        <v>69</v>
-      </c>
-      <c r="T68"/>
-      <c r="U68"/>
-      <c r="V68"/>
-      <c r="W68"/>
-      <c r="X68"/>
-      <c r="Y68"/>
-      <c r="Z68"/>
-      <c r="AA68"/>
+        <v>738</v>
+      </c>
+      <c r="T68" t="s">
+        <v>739</v>
+      </c>
+      <c r="U68" t="s">
+        <v>740</v>
+      </c>
+      <c r="V68" t="s">
+        <v>741</v>
+      </c>
+      <c r="W68" t="s">
+        <v>742</v>
+      </c>
+      <c r="X68" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>744</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>745</v>
+      </c>
       <c r="AB68"/>
       <c r="AC68"/>
       <c r="AD68"/>
@@ -9278,57 +9213,47 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B69" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>732</v>
       </c>
       <c r="D69" t="s">
-        <v>525</v>
+        <v>106</v>
       </c>
       <c r="E69" t="s">
         <v>93</v>
       </c>
       <c r="F69" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="G69" t="s">
-        <v>215</v>
+        <v>734</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K69" t="s">
-        <v>159</v>
-      </c>
-      <c r="L69" t="s">
-        <v>752</v>
-      </c>
-      <c r="M69" t="s">
-        <v>753</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="L69"/>
+      <c r="M69"/>
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
       <c r="R69"/>
       <c r="S69" t="s">
-        <v>403</v>
-      </c>
-      <c r="T69" t="s">
-        <v>754</v>
-      </c>
-      <c r="U69" t="s">
-        <v>755</v>
-      </c>
-      <c r="V69" t="s">
-        <v>756</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
       <c r="W69"/>
       <c r="X69"/>
       <c r="Y69"/>
@@ -9354,74 +9279,64 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="B70" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="C70" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
+        <v>751</v>
       </c>
       <c r="E70" t="s">
         <v>93</v>
       </c>
       <c r="F70" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G70" t="s">
-        <v>761</v>
+        <v>125</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="K70" t="s">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="L70" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="M70" t="s">
-        <v>764</v>
-      </c>
-      <c r="N70" t="s">
-        <v>539</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="N70"/>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70"/>
       <c r="S70" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="T70" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="U70" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="V70" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="W70" t="s">
-        <v>769</v>
-      </c>
-      <c r="X70" t="s">
-        <v>770</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>319</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>771</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>772</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
       <c r="AB70"/>
       <c r="AC70"/>
       <c r="AD70"/>
@@ -9442,34 +9357,28 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="B71" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C71" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>521</v>
       </c>
       <c r="E71" t="s">
         <v>93</v>
       </c>
-      <c r="F71" t="s">
-        <v>760</v>
-      </c>
+      <c r="F71"/>
       <c r="G71" t="s">
-        <v>761</v>
+        <v>350</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71" t="s">
-        <v>774</v>
-      </c>
-      <c r="K71" t="s">
-        <v>69</v>
-      </c>
+      <c r="J71"/>
+      <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71"/>
@@ -9477,9 +9386,7 @@
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71"/>
-      <c r="S71" t="s">
-        <v>69</v>
-      </c>
+      <c r="S71"/>
       <c r="T71"/>
       <c r="U71"/>
       <c r="V71"/>
@@ -9508,22 +9415,22 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="B72" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="C72" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="D72" t="s">
-        <v>778</v>
+        <v>142</v>
       </c>
       <c r="E72" t="s">
         <v>93</v>
       </c>
       <c r="F72" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="G72" t="s">
         <v>125</v>
@@ -9531,16 +9438,16 @@
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="K72" t="s">
-        <v>260</v>
+        <v>769</v>
       </c>
       <c r="L72" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="M72" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="N72"/>
       <c r="O72"/>
@@ -9548,23 +9455,29 @@
       <c r="Q72"/>
       <c r="R72"/>
       <c r="S72" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="T72" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="U72" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="V72" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="W72" t="s">
-        <v>787</v>
-      </c>
-      <c r="X72"/>
-      <c r="Y72"/>
-      <c r="Z72"/>
+        <v>776</v>
+      </c>
+      <c r="X72" t="s">
+        <v>777</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>778</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>779</v>
+      </c>
       <c r="AA72"/>
       <c r="AB72"/>
       <c r="AC72"/>
@@ -9586,47 +9499,85 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B73" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C73" t="s">
-        <v>790</v>
+        <v>424</v>
       </c>
       <c r="D73" t="s">
-        <v>548</v>
+        <v>751</v>
       </c>
       <c r="E73" t="s">
         <v>93</v>
       </c>
-      <c r="F73"/>
+      <c r="F73" t="s">
+        <v>782</v>
+      </c>
       <c r="G73" t="s">
-        <v>133</v>
+        <v>709</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="O73"/>
+      <c r="J73" t="s">
+        <v>783</v>
+      </c>
+      <c r="K73" t="s">
+        <v>136</v>
+      </c>
+      <c r="L73" t="s">
+        <v>784</v>
+      </c>
+      <c r="M73" t="s">
+        <v>593</v>
+      </c>
+      <c r="N73" t="s">
+        <v>785</v>
+      </c>
+      <c r="O73" t="s">
+        <v>786</v>
+      </c>
       <c r="P73"/>
       <c r="Q73"/>
       <c r="R73"/>
-      <c r="S73"/>
-      <c r="T73"/>
-      <c r="U73"/>
-      <c r="V73"/>
-      <c r="W73"/>
-      <c r="X73"/>
-      <c r="Y73"/>
-      <c r="Z73"/>
-      <c r="AA73"/>
-      <c r="AB73"/>
-      <c r="AC73"/>
-      <c r="AD73"/>
+      <c r="S73" t="s">
+        <v>787</v>
+      </c>
+      <c r="T73" t="s">
+        <v>788</v>
+      </c>
+      <c r="U73" t="s">
+        <v>789</v>
+      </c>
+      <c r="V73" t="s">
+        <v>790</v>
+      </c>
+      <c r="W73" t="s">
+        <v>791</v>
+      </c>
+      <c r="X73" t="s">
+        <v>792</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>793</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>739</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>794</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>795</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>796</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>797</v>
+      </c>
       <c r="AE73"/>
       <c r="AF73"/>
       <c r="AG73"/>
@@ -9644,22 +9595,22 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="B74" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="C74" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="D74" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="E74" t="s">
         <v>93</v>
       </c>
       <c r="F74" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="G74" t="s">
         <v>125</v>
@@ -9667,48 +9618,56 @@
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="K74" t="s">
-        <v>796</v>
+        <v>52</v>
       </c>
       <c r="L74" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="M74" t="s">
-        <v>798</v>
-      </c>
-      <c r="N74"/>
-      <c r="O74"/>
+        <v>804</v>
+      </c>
+      <c r="N74" t="s">
+        <v>805</v>
+      </c>
+      <c r="O74" t="s">
+        <v>806</v>
+      </c>
       <c r="P74"/>
       <c r="Q74"/>
       <c r="R74"/>
       <c r="S74" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="T74" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="U74" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="V74" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="W74" t="s">
-        <v>803</v>
+        <v>773</v>
       </c>
       <c r="X74" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="Y74" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="Z74" t="s">
-        <v>806</v>
-      </c>
-      <c r="AA74"/>
-      <c r="AB74"/>
+        <v>813</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>814</v>
+      </c>
       <c r="AC74"/>
       <c r="AD74"/>
       <c r="AE74"/>
@@ -9728,85 +9687,69 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="B75" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="C75" t="s">
-        <v>451</v>
+        <v>817</v>
       </c>
       <c r="D75" t="s">
-        <v>778</v>
+        <v>532</v>
       </c>
       <c r="E75" t="s">
         <v>93</v>
       </c>
       <c r="F75" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="G75" t="s">
-        <v>736</v>
+        <v>350</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="K75" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="L75" t="s">
-        <v>811</v>
-      </c>
-      <c r="M75" t="s">
-        <v>620</v>
-      </c>
-      <c r="N75" t="s">
-        <v>812</v>
-      </c>
-      <c r="O75" t="s">
-        <v>813</v>
-      </c>
+        <v>820</v>
+      </c>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
       <c r="R75"/>
       <c r="S75" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="T75" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="U75" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="V75" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="W75" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="X75" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="Y75" t="s">
-        <v>820</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>766</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>821</v>
-      </c>
-      <c r="AB75" t="s">
-        <v>822</v>
-      </c>
-      <c r="AC75" t="s">
-        <v>823</v>
-      </c>
-      <c r="AD75" t="s">
-        <v>824</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
       <c r="AE75"/>
       <c r="AF75"/>
       <c r="AG75"/>
@@ -9824,79 +9767,55 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B76" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C76" t="s">
-        <v>827</v>
+        <v>46</v>
       </c>
       <c r="D76" t="s">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="E76" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="G76" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="K76" t="s">
         <v>52</v>
       </c>
       <c r="L76" t="s">
-        <v>830</v>
-      </c>
-      <c r="M76" t="s">
-        <v>831</v>
-      </c>
-      <c r="N76" t="s">
         <v>832</v>
       </c>
-      <c r="O76" t="s">
-        <v>833</v>
-      </c>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
       <c r="R76"/>
       <c r="S76" t="s">
-        <v>834</v>
-      </c>
-      <c r="T76" t="s">
-        <v>835</v>
-      </c>
-      <c r="U76" t="s">
-        <v>836</v>
-      </c>
-      <c r="V76" t="s">
-        <v>837</v>
-      </c>
-      <c r="W76" t="s">
-        <v>800</v>
-      </c>
-      <c r="X76" t="s">
-        <v>838</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>839</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>840</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB76" t="s">
-        <v>841</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
       <c r="AC76"/>
       <c r="AD76"/>
       <c r="AE76"/>
@@ -9916,37 +9835,35 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="B77" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C77" t="s">
-        <v>844</v>
+        <v>520</v>
       </c>
       <c r="D77" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="E77" t="s">
         <v>93</v>
       </c>
       <c r="F77" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="G77" t="s">
-        <v>133</v>
+        <v>638</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="K77" t="s">
-        <v>159</v>
-      </c>
-      <c r="L77" t="s">
-        <v>847</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
       <c r="O77"/>
@@ -9954,26 +9871,20 @@
       <c r="Q77"/>
       <c r="R77"/>
       <c r="S77" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="T77" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="U77" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="V77" t="s">
-        <v>851</v>
-      </c>
-      <c r="W77" t="s">
-        <v>852</v>
-      </c>
-      <c r="X77" t="s">
-        <v>853</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>854</v>
-      </c>
+        <v>840</v>
+      </c>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
       <c r="Z77"/>
       <c r="AA77"/>
       <c r="AB77"/>
@@ -9996,36 +9907,36 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="B78" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="C78" t="s">
-        <v>46</v>
+        <v>843</v>
       </c>
       <c r="D78" t="s">
-        <v>154</v>
+        <v>472</v>
       </c>
       <c r="E78" t="s">
         <v>48</v>
       </c>
       <c r="F78" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="G78" t="s">
-        <v>67</v>
+        <v>845</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="K78" t="s">
         <v>52</v>
       </c>
       <c r="L78" t="s">
-        <v>859</v>
+        <v>646</v>
       </c>
       <c r="M78"/>
       <c r="N78"/>
@@ -10034,10 +9945,14 @@
       <c r="Q78"/>
       <c r="R78"/>
       <c r="S78" t="s">
-        <v>69</v>
-      </c>
-      <c r="T78"/>
-      <c r="U78"/>
+        <v>847</v>
+      </c>
+      <c r="T78" t="s">
+        <v>288</v>
+      </c>
+      <c r="U78" t="s">
+        <v>848</v>
+      </c>
       <c r="V78"/>
       <c r="W78"/>
       <c r="X78"/>
@@ -10064,52 +9979,58 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="B79" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="C79" t="s">
-        <v>547</v>
+        <v>851</v>
       </c>
       <c r="D79" t="s">
-        <v>559</v>
+        <v>431</v>
       </c>
       <c r="E79" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F79" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="G79" t="s">
-        <v>665</v>
+        <v>853</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="K79" t="s">
-        <v>159</v>
-      </c>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
+        <v>136</v>
+      </c>
+      <c r="L79" t="s">
+        <v>855</v>
+      </c>
+      <c r="M79" t="s">
+        <v>856</v>
+      </c>
+      <c r="N79" t="s">
+        <v>857</v>
+      </c>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
       <c r="R79"/>
       <c r="S79" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="T79" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="U79" t="s">
-        <v>866</v>
+        <v>87</v>
       </c>
       <c r="V79" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="W79"/>
       <c r="X79"/>
@@ -10136,53 +10057,59 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="B80" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="C80" t="s">
-        <v>870</v>
+        <v>91</v>
       </c>
       <c r="D80" t="s">
-        <v>499</v>
+        <v>863</v>
       </c>
       <c r="E80" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="G80" t="s">
-        <v>872</v>
+        <v>398</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="K80" t="s">
         <v>52</v>
       </c>
       <c r="L80" t="s">
-        <v>673</v>
-      </c>
-      <c r="M80"/>
-      <c r="N80"/>
+        <v>866</v>
+      </c>
+      <c r="M80" t="s">
+        <v>867</v>
+      </c>
+      <c r="N80" t="s">
+        <v>868</v>
+      </c>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
       <c r="R80"/>
       <c r="S80" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="T80" t="s">
-        <v>319</v>
+        <v>870</v>
       </c>
       <c r="U80" t="s">
-        <v>875</v>
-      </c>
-      <c r="V80"/>
+        <v>871</v>
+      </c>
+      <c r="V80" t="s">
+        <v>872</v>
+      </c>
       <c r="W80"/>
       <c r="X80"/>
       <c r="Y80"/>
@@ -10208,59 +10135,47 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B81" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C81" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D81" t="s">
-        <v>458</v>
+        <v>532</v>
       </c>
       <c r="E81" t="s">
         <v>48</v>
       </c>
       <c r="F81" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G81" t="s">
-        <v>880</v>
+        <v>350</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="K81" t="s">
-        <v>159</v>
-      </c>
-      <c r="L81" t="s">
-        <v>882</v>
-      </c>
-      <c r="M81" t="s">
-        <v>883</v>
-      </c>
-      <c r="N81" t="s">
-        <v>884</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
       <c r="R81"/>
       <c r="S81" t="s">
-        <v>885</v>
-      </c>
-      <c r="T81" t="s">
-        <v>886</v>
-      </c>
-      <c r="U81" t="s">
-        <v>87</v>
-      </c>
-      <c r="V81" t="s">
-        <v>887</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
       <c r="W81"/>
       <c r="X81"/>
       <c r="Y81"/>
@@ -10286,59 +10201,47 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="B82" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="C82" t="s">
-        <v>91</v>
+        <v>880</v>
       </c>
       <c r="D82" t="s">
-        <v>890</v>
+        <v>92</v>
       </c>
       <c r="E82" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F82" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="G82" t="s">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="K82" t="s">
-        <v>52</v>
-      </c>
-      <c r="L82" t="s">
-        <v>893</v>
-      </c>
-      <c r="M82" t="s">
-        <v>894</v>
-      </c>
-      <c r="N82" t="s">
-        <v>895</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
       <c r="R82"/>
       <c r="S82" t="s">
-        <v>896</v>
-      </c>
-      <c r="T82" t="s">
-        <v>897</v>
-      </c>
-      <c r="U82" t="s">
-        <v>898</v>
-      </c>
-      <c r="V82" t="s">
-        <v>899</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
       <c r="W82"/>
       <c r="X82"/>
       <c r="Y82"/>
@@ -10364,50 +10267,52 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="B83" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="C83" t="s">
-        <v>255</v>
+        <v>875</v>
       </c>
       <c r="D83" t="s">
-        <v>224</v>
+        <v>73</v>
       </c>
       <c r="E83" t="s">
         <v>48</v>
       </c>
       <c r="F83" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="G83" t="s">
-        <v>133</v>
+        <v>350</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
       <c r="K83" t="s">
-        <v>52</v>
+        <v>887</v>
       </c>
       <c r="L83" t="s">
-        <v>904</v>
-      </c>
-      <c r="M83" t="s">
-        <v>905</v>
-      </c>
+        <v>888</v>
+      </c>
+      <c r="M83"/>
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
       <c r="R83"/>
       <c r="S83" t="s">
-        <v>69</v>
-      </c>
-      <c r="T83"/>
-      <c r="U83"/>
+        <v>889</v>
+      </c>
+      <c r="T83" t="s">
+        <v>890</v>
+      </c>
+      <c r="U83" t="s">
+        <v>87</v>
+      </c>
       <c r="V83"/>
       <c r="W83"/>
       <c r="X83"/>
@@ -10434,35 +10339,37 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="B84" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="C84" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
       <c r="D84" t="s">
-        <v>559</v>
+        <v>225</v>
       </c>
       <c r="E84" t="s">
         <v>48</v>
       </c>
       <c r="F84" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="G84" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="H84"/>
       <c r="I84"/>
       <c r="J84" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="K84" t="s">
         <v>52</v>
       </c>
-      <c r="L84"/>
+      <c r="L84" t="s">
+        <v>896</v>
+      </c>
       <c r="M84"/>
       <c r="N84"/>
       <c r="O84"/>
@@ -10500,35 +10407,37 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="B85" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="C85" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>418</v>
       </c>
       <c r="E85" t="s">
         <v>48</v>
       </c>
       <c r="F85" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="G85" t="s">
-        <v>133</v>
+        <v>613</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="K85" t="s">
-        <v>260</v>
-      </c>
-      <c r="L85"/>
+        <v>52</v>
+      </c>
+      <c r="L85" t="s">
+        <v>670</v>
+      </c>
       <c r="M85"/>
       <c r="N85"/>
       <c r="O85"/>
@@ -10536,7 +10445,7 @@
       <c r="Q85"/>
       <c r="R85"/>
       <c r="S85" t="s">
-        <v>69</v>
+        <v>902</v>
       </c>
       <c r="T85"/>
       <c r="U85"/>
@@ -10566,55 +10475,67 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="B86" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="C86" t="s">
-        <v>908</v>
+        <v>732</v>
       </c>
       <c r="D86" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E86" t="s">
         <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="G86" t="s">
-        <v>133</v>
+        <v>350</v>
       </c>
       <c r="H86"/>
       <c r="I86"/>
       <c r="J86" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="K86" t="s">
-        <v>920</v>
+        <v>52</v>
       </c>
       <c r="L86" t="s">
-        <v>921</v>
-      </c>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
+        <v>907</v>
+      </c>
+      <c r="M86" t="s">
+        <v>908</v>
+      </c>
+      <c r="N86" t="s">
+        <v>670</v>
+      </c>
+      <c r="O86" t="s">
+        <v>909</v>
+      </c>
       <c r="P86"/>
       <c r="Q86"/>
       <c r="R86"/>
       <c r="S86" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="T86" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="U86" t="s">
-        <v>87</v>
-      </c>
-      <c r="V86"/>
-      <c r="W86"/>
-      <c r="X86"/>
+        <v>912</v>
+      </c>
+      <c r="V86" t="s">
+        <v>913</v>
+      </c>
+      <c r="W86" t="s">
+        <v>914</v>
+      </c>
+      <c r="X86" t="s">
+        <v>915</v>
+      </c>
       <c r="Y86"/>
       <c r="Z86"/>
       <c r="AA86"/>
@@ -10638,37 +10559,33 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="B87" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="C87" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="D87" t="s">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="E87" t="s">
         <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="G87" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
-      <c r="J87" t="s">
-        <v>928</v>
-      </c>
+      <c r="J87"/>
       <c r="K87" t="s">
         <v>52</v>
       </c>
-      <c r="L87" t="s">
-        <v>929</v>
-      </c>
+      <c r="L87"/>
       <c r="M87"/>
       <c r="N87"/>
       <c r="O87"/>
@@ -10706,36 +10623,38 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="B88" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="C88" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="D88" t="s">
-        <v>445</v>
+        <v>214</v>
       </c>
       <c r="E88" t="s">
         <v>48</v>
       </c>
       <c r="F88" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="G88" t="s">
-        <v>640</v>
-      </c>
-      <c r="H88"/>
+        <v>924</v>
+      </c>
+      <c r="H88" t="s">
+        <v>153</v>
+      </c>
       <c r="I88"/>
       <c r="J88" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="K88" t="s">
-        <v>52</v>
+        <v>926</v>
       </c>
       <c r="L88" t="s">
-        <v>697</v>
+        <v>927</v>
       </c>
       <c r="M88"/>
       <c r="N88"/>
@@ -10744,9 +10663,11 @@
       <c r="Q88"/>
       <c r="R88"/>
       <c r="S88" t="s">
-        <v>935</v>
-      </c>
-      <c r="T88"/>
+        <v>928</v>
+      </c>
+      <c r="T88" t="s">
+        <v>929</v>
+      </c>
       <c r="U88"/>
       <c r="V88"/>
       <c r="W88"/>
@@ -10774,66 +10695,66 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="B89" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="C89" t="s">
-        <v>759</v>
+        <v>932</v>
       </c>
       <c r="D89" t="s">
-        <v>65</v>
+        <v>933</v>
       </c>
       <c r="E89" t="s">
         <v>48</v>
       </c>
       <c r="F89" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="G89" t="s">
-        <v>133</v>
+        <v>935</v>
       </c>
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89" t="s">
+        <v>936</v>
+      </c>
+      <c r="K89" t="s">
+        <v>136</v>
+      </c>
+      <c r="L89" t="s">
+        <v>937</v>
+      </c>
+      <c r="M89" t="s">
+        <v>938</v>
+      </c>
+      <c r="N89" t="s">
+        <v>856</v>
+      </c>
+      <c r="O89" t="s">
         <v>939</v>
-      </c>
-      <c r="K89" t="s">
-        <v>52</v>
-      </c>
-      <c r="L89" t="s">
-        <v>940</v>
-      </c>
-      <c r="M89" t="s">
-        <v>941</v>
-      </c>
-      <c r="N89" t="s">
-        <v>697</v>
-      </c>
-      <c r="O89" t="s">
-        <v>942</v>
       </c>
       <c r="P89"/>
       <c r="Q89"/>
       <c r="R89"/>
       <c r="S89" t="s">
+        <v>940</v>
+      </c>
+      <c r="T89" t="s">
+        <v>941</v>
+      </c>
+      <c r="U89" t="s">
+        <v>87</v>
+      </c>
+      <c r="V89" t="s">
+        <v>942</v>
+      </c>
+      <c r="W89" t="s">
         <v>943</v>
       </c>
-      <c r="T89" t="s">
-        <v>944</v>
-      </c>
-      <c r="U89" t="s">
-        <v>945</v>
-      </c>
-      <c r="V89" t="s">
-        <v>946</v>
-      </c>
-      <c r="W89" t="s">
-        <v>947</v>
-      </c>
       <c r="X89" t="s">
-        <v>948</v>
+        <v>87</v>
       </c>
       <c r="Y89"/>
       <c r="Z89"/>
@@ -10858,45 +10779,57 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B90" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C90" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="D90" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
       </c>
       <c r="F90" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="G90" t="s">
-        <v>125</v>
+        <v>935</v>
       </c>
       <c r="H90"/>
       <c r="I90"/>
-      <c r="J90"/>
+      <c r="J90" t="s">
+        <v>948</v>
+      </c>
       <c r="K90" t="s">
         <v>52</v>
       </c>
-      <c r="L90"/>
-      <c r="M90"/>
+      <c r="L90" t="s">
+        <v>949</v>
+      </c>
+      <c r="M90" t="s">
+        <v>950</v>
+      </c>
       <c r="N90"/>
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
       <c r="R90"/>
       <c r="S90" t="s">
-        <v>69</v>
-      </c>
-      <c r="T90"/>
-      <c r="U90"/>
-      <c r="V90"/>
+        <v>858</v>
+      </c>
+      <c r="T90" t="s">
+        <v>951</v>
+      </c>
+      <c r="U90" t="s">
+        <v>952</v>
+      </c>
+      <c r="V90" t="s">
+        <v>953</v>
+      </c>
       <c r="W90"/>
       <c r="X90"/>
       <c r="Y90"/>
@@ -10922,16 +10855,16 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B91" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C91" t="s">
-        <v>955</v>
+        <v>46</v>
       </c>
       <c r="D91" t="s">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="E91" t="s">
         <v>48</v>
@@ -10940,32 +10873,32 @@
         <v>956</v>
       </c>
       <c r="G91" t="s">
-        <v>957</v>
-      </c>
-      <c r="H91" t="s">
-        <v>176</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H91"/>
       <c r="I91"/>
       <c r="J91" t="s">
+        <v>957</v>
+      </c>
+      <c r="K91" t="s">
+        <v>52</v>
+      </c>
+      <c r="L91" t="s">
         <v>958</v>
       </c>
-      <c r="K91" t="s">
+      <c r="M91" t="s">
         <v>959</v>
       </c>
-      <c r="L91" t="s">
-        <v>960</v>
-      </c>
-      <c r="M91"/>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
       <c r="R91"/>
       <c r="S91" t="s">
-        <v>961</v>
+        <v>375</v>
       </c>
       <c r="T91" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="U91"/>
       <c r="V91"/>
@@ -10994,67 +10927,55 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B92" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="C92" t="s">
-        <v>965</v>
+        <v>46</v>
       </c>
       <c r="D92" t="s">
-        <v>966</v>
+        <v>131</v>
       </c>
       <c r="E92" t="s">
         <v>48</v>
       </c>
       <c r="F92" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="G92" t="s">
-        <v>968</v>
+        <v>125</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="K92" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="L92" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="M92" t="s">
-        <v>971</v>
-      </c>
-      <c r="N92" t="s">
-        <v>883</v>
-      </c>
-      <c r="O92" t="s">
-        <v>972</v>
-      </c>
+        <v>959</v>
+      </c>
+      <c r="N92"/>
+      <c r="O92"/>
       <c r="P92"/>
       <c r="Q92"/>
       <c r="R92"/>
       <c r="S92" t="s">
-        <v>973</v>
+        <v>375</v>
       </c>
       <c r="T92" t="s">
-        <v>974</v>
-      </c>
-      <c r="U92" t="s">
-        <v>87</v>
-      </c>
-      <c r="V92" t="s">
-        <v>975</v>
-      </c>
-      <c r="W92" t="s">
-        <v>976</v>
-      </c>
-      <c r="X92" t="s">
-        <v>87</v>
-      </c>
+        <v>960</v>
+      </c>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
       <c r="Y92"/>
       <c r="Z92"/>
       <c r="AA92"/>
@@ -11078,39 +10999,39 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>977</v>
+        <v>962</v>
       </c>
       <c r="B93" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="C93" t="s">
-        <v>979</v>
+        <v>46</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="E93" t="s">
         <v>48</v>
       </c>
       <c r="F93" t="s">
-        <v>980</v>
+        <v>956</v>
       </c>
       <c r="G93" t="s">
-        <v>968</v>
+        <v>125</v>
       </c>
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
       <c r="K93" t="s">
         <v>52</v>
       </c>
       <c r="L93" t="s">
-        <v>982</v>
+        <v>958</v>
       </c>
       <c r="M93" t="s">
-        <v>983</v>
+        <v>959</v>
       </c>
       <c r="N93"/>
       <c r="O93"/>
@@ -11118,17 +11039,13 @@
       <c r="Q93"/>
       <c r="R93"/>
       <c r="S93" t="s">
-        <v>885</v>
+        <v>375</v>
       </c>
       <c r="T93" t="s">
-        <v>984</v>
-      </c>
-      <c r="U93" t="s">
-        <v>985</v>
-      </c>
-      <c r="V93" t="s">
-        <v>986</v>
-      </c>
+        <v>960</v>
+      </c>
+      <c r="U93"/>
+      <c r="V93"/>
       <c r="W93"/>
       <c r="X93"/>
       <c r="Y93"/>
@@ -11154,54 +11071,56 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>987</v>
+        <v>963</v>
       </c>
       <c r="B94" t="s">
-        <v>988</v>
+        <v>964</v>
       </c>
       <c r="C94" t="s">
         <v>46</v>
       </c>
       <c r="D94" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="E94" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>989</v>
+        <v>965</v>
       </c>
       <c r="G94" t="s">
-        <v>125</v>
+        <v>613</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="s">
-        <v>990</v>
+        <v>966</v>
       </c>
       <c r="K94" t="s">
-        <v>52</v>
-      </c>
-      <c r="L94" t="s">
-        <v>991</v>
-      </c>
-      <c r="M94" t="s">
-        <v>992</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="L94"/>
+      <c r="M94"/>
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
       <c r="R94"/>
       <c r="S94" t="s">
-        <v>403</v>
+        <v>967</v>
       </c>
       <c r="T94" t="s">
-        <v>993</v>
-      </c>
-      <c r="U94"/>
-      <c r="V94"/>
-      <c r="W94"/>
+        <v>968</v>
+      </c>
+      <c r="U94" t="s">
+        <v>969</v>
+      </c>
+      <c r="V94" t="s">
+        <v>970</v>
+      </c>
+      <c r="W94" t="s">
+        <v>971</v>
+      </c>
       <c r="X94"/>
       <c r="Y94"/>
       <c r="Z94"/>
@@ -11226,22 +11145,22 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="B95" t="s">
-        <v>988</v>
+        <v>973</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D95" t="s">
-        <v>154</v>
+        <v>974</v>
       </c>
       <c r="E95" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F95" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="G95" t="s">
         <v>125</v>
@@ -11249,16 +11168,16 @@
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="K95" t="s">
         <v>52</v>
       </c>
       <c r="L95" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="M95" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="N95"/>
       <c r="O95"/>
@@ -11266,15 +11185,23 @@
       <c r="Q95"/>
       <c r="R95"/>
       <c r="S95" t="s">
-        <v>403</v>
+        <v>979</v>
       </c>
       <c r="T95" t="s">
-        <v>993</v>
-      </c>
-      <c r="U95"/>
-      <c r="V95"/>
-      <c r="W95"/>
-      <c r="X95"/>
+        <v>980</v>
+      </c>
+      <c r="U95" t="s">
+        <v>809</v>
+      </c>
+      <c r="V95" t="s">
+        <v>981</v>
+      </c>
+      <c r="W95" t="s">
+        <v>982</v>
+      </c>
+      <c r="X95" t="s">
+        <v>983</v>
+      </c>
       <c r="Y95"/>
       <c r="Z95"/>
       <c r="AA95"/>
@@ -11298,51 +11225,47 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="B96" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C96" t="s">
         <v>46</v>
       </c>
       <c r="D96" t="s">
-        <v>154</v>
+        <v>313</v>
       </c>
       <c r="E96" t="s">
         <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G96" t="s">
-        <v>125</v>
-      </c>
-      <c r="H96"/>
+        <v>350</v>
+      </c>
+      <c r="H96" t="s">
+        <v>987</v>
+      </c>
       <c r="I96"/>
       <c r="J96" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="K96" t="s">
-        <v>52</v>
-      </c>
-      <c r="L96" t="s">
-        <v>991</v>
-      </c>
-      <c r="M96" t="s">
-        <v>992</v>
-      </c>
+        <v>989</v>
+      </c>
+      <c r="L96"/>
+      <c r="M96"/>
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96"/>
       <c r="R96"/>
       <c r="S96" t="s">
-        <v>403</v>
-      </c>
-      <c r="T96" t="s">
-        <v>993</v>
-      </c>
+        <v>990</v>
+      </c>
+      <c r="T96"/>
       <c r="U96"/>
       <c r="V96"/>
       <c r="W96"/>
@@ -11370,37 +11293,43 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B97" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="D97" t="s">
-        <v>224</v>
+        <v>532</v>
       </c>
       <c r="E97" t="s">
         <v>93</v>
       </c>
       <c r="F97" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="G97" t="s">
-        <v>640</v>
+        <v>994</v>
       </c>
       <c r="H97"/>
       <c r="I97"/>
       <c r="J97" t="s">
+        <v>995</v>
+      </c>
+      <c r="K97" t="s">
+        <v>996</v>
+      </c>
+      <c r="L97" t="s">
+        <v>997</v>
+      </c>
+      <c r="M97" t="s">
+        <v>998</v>
+      </c>
+      <c r="N97" t="s">
         <v>999</v>
       </c>
-      <c r="K97" t="s">
-        <v>159</v>
-      </c>
-      <c r="L97"/>
-      <c r="M97"/>
-      <c r="N97"/>
       <c r="O97"/>
       <c r="P97"/>
       <c r="Q97"/>
@@ -11409,18 +11338,20 @@
         <v>1000</v>
       </c>
       <c r="T97" t="s">
+        <v>364</v>
+      </c>
+      <c r="U97" t="s">
+        <v>365</v>
+      </c>
+      <c r="V97" t="s">
+        <v>366</v>
+      </c>
+      <c r="W97" t="s">
         <v>1001</v>
       </c>
-      <c r="U97" t="s">
+      <c r="X97" t="s">
         <v>1002</v>
       </c>
-      <c r="V97" t="s">
-        <v>1003</v>
-      </c>
-      <c r="W97" t="s">
-        <v>1004</v>
-      </c>
-      <c r="X97"/>
       <c r="Y97"/>
       <c r="Z97"/>
       <c r="AA97"/>
@@ -11444,63 +11375,61 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B98" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="C98" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="D98" t="s">
-        <v>1007</v>
+        <v>532</v>
       </c>
       <c r="E98" t="s">
         <v>93</v>
       </c>
       <c r="F98" t="s">
-        <v>1008</v>
+        <v>993</v>
       </c>
       <c r="G98" t="s">
-        <v>125</v>
-      </c>
-      <c r="H98"/>
+        <v>994</v>
+      </c>
+      <c r="H98" t="s">
+        <v>657</v>
+      </c>
       <c r="I98"/>
       <c r="J98" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="K98" t="s">
         <v>52</v>
       </c>
       <c r="L98" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="M98" t="s">
-        <v>1011</v>
-      </c>
-      <c r="N98"/>
+        <v>737</v>
+      </c>
+      <c r="N98" t="s">
+        <v>1006</v>
+      </c>
       <c r="O98"/>
       <c r="P98"/>
       <c r="Q98"/>
       <c r="R98"/>
       <c r="S98" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="T98" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="U98" t="s">
-        <v>836</v>
-      </c>
-      <c r="V98" t="s">
-        <v>1014</v>
-      </c>
-      <c r="W98" t="s">
-        <v>1015</v>
-      </c>
-      <c r="X98" t="s">
-        <v>1016</v>
-      </c>
+        <v>1009</v>
+      </c>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98"/>
       <c r="Y98"/>
       <c r="Z98"/>
       <c r="AA98"/>
@@ -11524,53 +11453,75 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="B99" t="s">
-        <v>1018</v>
+        <v>992</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="D99" t="s">
-        <v>342</v>
+        <v>532</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F99" t="s">
-        <v>1019</v>
+        <v>993</v>
       </c>
       <c r="G99" t="s">
-        <v>133</v>
+        <v>994</v>
       </c>
       <c r="H99" t="s">
-        <v>1020</v>
+        <v>153</v>
       </c>
       <c r="I99"/>
       <c r="J99" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="K99" t="s">
-        <v>1022</v>
-      </c>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99"/>
-      <c r="O99"/>
+        <v>136</v>
+      </c>
+      <c r="L99" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M99" t="s">
+        <v>1013</v>
+      </c>
+      <c r="N99" t="s">
+        <v>1014</v>
+      </c>
+      <c r="O99" t="s">
+        <v>1015</v>
+      </c>
       <c r="P99"/>
       <c r="Q99"/>
       <c r="R99"/>
       <c r="S99" t="s">
-        <v>1023</v>
-      </c>
-      <c r="T99"/>
-      <c r="U99"/>
-      <c r="V99"/>
-      <c r="W99"/>
-      <c r="X99"/>
-      <c r="Y99"/>
-      <c r="Z99"/>
+        <v>1016</v>
+      </c>
+      <c r="T99" t="s">
+        <v>1017</v>
+      </c>
+      <c r="U99" t="s">
+        <v>1018</v>
+      </c>
+      <c r="V99" t="s">
+        <v>1019</v>
+      </c>
+      <c r="W99" t="s">
+        <v>1020</v>
+      </c>
+      <c r="X99" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>364</v>
+      </c>
       <c r="AA99"/>
       <c r="AB99"/>
       <c r="AC99"/>
@@ -11592,65 +11543,59 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B100" t="s">
         <v>1024</v>
       </c>
-      <c r="B100" t="s">
-        <v>1025</v>
-      </c>
       <c r="C100" t="s">
-        <v>123</v>
+        <v>395</v>
       </c>
       <c r="D100" t="s">
-        <v>559</v>
+        <v>396</v>
       </c>
       <c r="E100" t="s">
         <v>93</v>
       </c>
       <c r="F100" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G100" t="s">
-        <v>1027</v>
+        <v>152</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K100" t="s">
+        <v>52</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M100" t="s">
         <v>1028</v>
       </c>
-      <c r="K100" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L100" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M100" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N100" t="s">
-        <v>1032</v>
-      </c>
+      <c r="N100"/>
       <c r="O100"/>
       <c r="P100"/>
       <c r="Q100"/>
       <c r="R100"/>
       <c r="S100" t="s">
-        <v>1033</v>
+        <v>403</v>
       </c>
       <c r="T100" t="s">
-        <v>392</v>
+        <v>1029</v>
       </c>
       <c r="U100" t="s">
-        <v>393</v>
+        <v>1030</v>
       </c>
       <c r="V100" t="s">
-        <v>394</v>
-      </c>
-      <c r="W100" t="s">
-        <v>1034</v>
-      </c>
-      <c r="X100" t="s">
-        <v>1035</v>
-      </c>
+        <v>1031</v>
+      </c>
+      <c r="W100"/>
+      <c r="X100"/>
       <c r="Y100"/>
       <c r="Z100"/>
       <c r="AA100"/>
@@ -11674,58 +11619,46 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="B101" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="C101" t="s">
-        <v>123</v>
+        <v>424</v>
       </c>
       <c r="D101" t="s">
-        <v>559</v>
+        <v>150</v>
       </c>
       <c r="E101" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F101" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="G101" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H101" t="s">
-        <v>684</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="H101"/>
       <c r="I101"/>
       <c r="J101" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="K101" t="s">
-        <v>52</v>
-      </c>
-      <c r="L101" t="s">
-        <v>1038</v>
-      </c>
-      <c r="M101" t="s">
-        <v>764</v>
-      </c>
-      <c r="N101" t="s">
-        <v>1039</v>
-      </c>
+        <v>1036</v>
+      </c>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
       <c r="O101"/>
       <c r="P101"/>
       <c r="Q101"/>
       <c r="R101"/>
       <c r="S101" t="s">
-        <v>1040</v>
-      </c>
-      <c r="T101" t="s">
-        <v>1041</v>
-      </c>
-      <c r="U101" t="s">
-        <v>1042</v>
-      </c>
+        <v>1037</v>
+      </c>
+      <c r="T101"/>
+      <c r="U101"/>
       <c r="V101"/>
       <c r="W101"/>
       <c r="X101"/>
@@ -11752,75 +11685,61 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B102" t="s">
-        <v>1025</v>
+        <v>1039</v>
       </c>
       <c r="C102" t="s">
-        <v>123</v>
+        <v>424</v>
       </c>
       <c r="D102" t="s">
-        <v>559</v>
+        <v>313</v>
       </c>
       <c r="E102" t="s">
         <v>93</v>
       </c>
       <c r="F102" t="s">
-        <v>1026</v>
+        <v>1040</v>
       </c>
       <c r="G102" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H102" t="s">
-        <v>176</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="H102"/>
       <c r="I102"/>
       <c r="J102" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="K102" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="L102" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="M102" t="s">
-        <v>1046</v>
-      </c>
-      <c r="N102" t="s">
-        <v>1047</v>
-      </c>
-      <c r="O102" t="s">
-        <v>1048</v>
-      </c>
+        <v>1043</v>
+      </c>
+      <c r="N102"/>
+      <c r="O102"/>
       <c r="P102"/>
       <c r="Q102"/>
       <c r="R102"/>
       <c r="S102" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="T102" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="U102" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="V102" t="s">
-        <v>1052</v>
-      </c>
-      <c r="W102" t="s">
-        <v>1053</v>
-      </c>
-      <c r="X102" t="s">
-        <v>1054</v>
-      </c>
-      <c r="Y102" t="s">
-        <v>1055</v>
-      </c>
-      <c r="Z102" t="s">
-        <v>392</v>
-      </c>
+        <v>1047</v>
+      </c>
+      <c r="W102"/>
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
       <c r="AA102"/>
       <c r="AB102"/>
       <c r="AC102"/>
@@ -11842,60 +11761,70 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="B103" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="C103" t="s">
-        <v>130</v>
+        <v>1050</v>
       </c>
       <c r="D103" t="s">
-        <v>423</v>
+        <v>1051</v>
       </c>
       <c r="E103" t="s">
         <v>93</v>
       </c>
       <c r="F103" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="G103" t="s">
-        <v>175</v>
+        <v>398</v>
       </c>
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="K103" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="L103" t="s">
-        <v>1060</v>
+        <v>1012</v>
       </c>
       <c r="M103" t="s">
-        <v>1061</v>
-      </c>
-      <c r="N103"/>
-      <c r="O103"/>
+        <v>1054</v>
+      </c>
+      <c r="N103" t="s">
+        <v>737</v>
+      </c>
+      <c r="O103" t="s">
+        <v>512</v>
+      </c>
       <c r="P103"/>
       <c r="Q103"/>
       <c r="R103"/>
       <c r="S103" t="s">
-        <v>430</v>
+        <v>1055</v>
       </c>
       <c r="T103" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="U103" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="V103" t="s">
-        <v>1064</v>
-      </c>
-      <c r="W103"/>
-      <c r="X103"/>
-      <c r="Y103"/>
+        <v>1058</v>
+      </c>
+      <c r="W103" t="s">
+        <v>1059</v>
+      </c>
+      <c r="X103" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>512</v>
+      </c>
       <c r="Z103"/>
       <c r="AA103"/>
       <c r="AB103"/>
@@ -11918,35 +11847,37 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B104" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C104" t="s">
-        <v>451</v>
+        <v>1063</v>
       </c>
       <c r="D104" t="s">
-        <v>173</v>
+        <v>411</v>
       </c>
       <c r="E104" t="s">
         <v>48</v>
       </c>
       <c r="F104" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="G104" t="s">
-        <v>665</v>
+        <v>709</v>
       </c>
       <c r="H104"/>
       <c r="I104"/>
       <c r="J104" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="K104" t="s">
-        <v>1069</v>
-      </c>
-      <c r="L104"/>
+        <v>52</v>
+      </c>
+      <c r="L104" t="s">
+        <v>501</v>
+      </c>
       <c r="M104"/>
       <c r="N104"/>
       <c r="O104"/>
@@ -11954,14 +11885,26 @@
       <c r="Q104"/>
       <c r="R104"/>
       <c r="S104" t="s">
+        <v>1066</v>
+      </c>
+      <c r="T104" t="s">
+        <v>1067</v>
+      </c>
+      <c r="U104" t="s">
+        <v>1068</v>
+      </c>
+      <c r="V104" t="s">
+        <v>1069</v>
+      </c>
+      <c r="W104" t="s">
         <v>1070</v>
       </c>
-      <c r="T104"/>
-      <c r="U104"/>
-      <c r="V104"/>
-      <c r="W104"/>
-      <c r="X104"/>
-      <c r="Y104"/>
+      <c r="X104" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>1072</v>
+      </c>
       <c r="Z104"/>
       <c r="AA104"/>
       <c r="AB104"/>
@@ -11984,57 +11927,47 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B105" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C105" t="s">
-        <v>451</v>
+        <v>1075</v>
       </c>
       <c r="D105" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="E105" t="s">
         <v>93</v>
       </c>
       <c r="F105" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="G105" t="s">
-        <v>665</v>
+        <v>67</v>
       </c>
       <c r="H105"/>
       <c r="I105"/>
       <c r="J105" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="K105" t="s">
-        <v>52</v>
-      </c>
-      <c r="L105" t="s">
-        <v>1075</v>
-      </c>
-      <c r="M105" t="s">
-        <v>1076</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="L105"/>
+      <c r="M105"/>
       <c r="N105"/>
       <c r="O105"/>
       <c r="P105"/>
       <c r="Q105"/>
       <c r="R105"/>
       <c r="S105" t="s">
-        <v>1077</v>
-      </c>
-      <c r="T105" t="s">
-        <v>1078</v>
-      </c>
-      <c r="U105" t="s">
-        <v>1079</v>
-      </c>
-      <c r="V105" t="s">
-        <v>1080</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T105"/>
+      <c r="U105"/>
+      <c r="V105"/>
       <c r="W105"/>
       <c r="X105"/>
       <c r="Y105"/>
@@ -12060,70 +11993,60 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B106" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C106" t="s">
-        <v>1083</v>
+        <v>46</v>
       </c>
       <c r="D106" t="s">
-        <v>1084</v>
+        <v>472</v>
       </c>
       <c r="E106" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F106" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="G106" t="s">
-        <v>425</v>
+        <v>935</v>
       </c>
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="K106" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="L106" t="s">
-        <v>1045</v>
+        <v>1082</v>
       </c>
       <c r="M106" t="s">
-        <v>1087</v>
-      </c>
-      <c r="N106" t="s">
-        <v>764</v>
-      </c>
-      <c r="O106" t="s">
-        <v>539</v>
-      </c>
+        <v>1083</v>
+      </c>
+      <c r="N106"/>
+      <c r="O106"/>
       <c r="P106"/>
       <c r="Q106"/>
       <c r="R106"/>
       <c r="S106" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="T106" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="U106" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="V106" t="s">
-        <v>1091</v>
-      </c>
-      <c r="W106" t="s">
-        <v>1092</v>
-      </c>
-      <c r="X106" t="s">
-        <v>1093</v>
-      </c>
-      <c r="Y106" t="s">
-        <v>539</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="W106"/>
+      <c r="X106"/>
+      <c r="Y106"/>
       <c r="Z106"/>
       <c r="AA106"/>
       <c r="AB106"/>
@@ -12146,36 +12069,36 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="B107" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="C107" t="s">
-        <v>1096</v>
+        <v>424</v>
       </c>
       <c r="D107" t="s">
-        <v>438</v>
+        <v>974</v>
       </c>
       <c r="E107" t="s">
         <v>48</v>
       </c>
       <c r="F107" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="G107" t="s">
-        <v>736</v>
+        <v>350</v>
       </c>
       <c r="H107"/>
       <c r="I107"/>
       <c r="J107" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="K107" t="s">
         <v>52</v>
       </c>
       <c r="L107" t="s">
-        <v>528</v>
+        <v>1091</v>
       </c>
       <c r="M107"/>
       <c r="N107"/>
@@ -12184,26 +12107,16 @@
       <c r="Q107"/>
       <c r="R107"/>
       <c r="S107" t="s">
-        <v>1099</v>
+        <v>375</v>
       </c>
       <c r="T107" t="s">
-        <v>1100</v>
-      </c>
-      <c r="U107" t="s">
-        <v>1101</v>
-      </c>
-      <c r="V107" t="s">
-        <v>1102</v>
-      </c>
-      <c r="W107" t="s">
-        <v>1103</v>
-      </c>
-      <c r="X107" t="s">
-        <v>1104</v>
-      </c>
-      <c r="Y107" t="s">
-        <v>1105</v>
-      </c>
+        <v>1092</v>
+      </c>
+      <c r="U107"/>
+      <c r="V107"/>
+      <c r="W107"/>
+      <c r="X107"/>
+      <c r="Y107"/>
       <c r="Z107"/>
       <c r="AA107"/>
       <c r="AB107"/>
@@ -12226,45 +12139,55 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="B108" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="C108" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="D108" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="E108" t="s">
         <v>93</v>
       </c>
       <c r="F108" t="s">
-        <v>1109</v>
+        <v>1096</v>
       </c>
       <c r="G108" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="K108" t="s">
-        <v>159</v>
-      </c>
-      <c r="L108"/>
-      <c r="M108"/>
-      <c r="N108"/>
-      <c r="O108"/>
+        <v>136</v>
+      </c>
+      <c r="L108" t="s">
+        <v>1098</v>
+      </c>
+      <c r="M108" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N108" t="s">
+        <v>1100</v>
+      </c>
+      <c r="O108" t="s">
+        <v>978</v>
+      </c>
       <c r="P108"/>
       <c r="Q108"/>
       <c r="R108"/>
       <c r="S108" t="s">
-        <v>69</v>
-      </c>
-      <c r="T108"/>
+        <v>1101</v>
+      </c>
+      <c r="T108" t="s">
+        <v>1102</v>
+      </c>
       <c r="U108"/>
       <c r="V108"/>
       <c r="W108"/>
@@ -12292,39 +12215,39 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="B109" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="C109" t="s">
-        <v>46</v>
+        <v>817</v>
       </c>
       <c r="D109" t="s">
-        <v>499</v>
+        <v>396</v>
       </c>
       <c r="E109" t="s">
         <v>48</v>
       </c>
       <c r="F109" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="G109" t="s">
-        <v>968</v>
+        <v>125</v>
       </c>
       <c r="H109"/>
       <c r="I109"/>
       <c r="J109" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="K109" t="s">
         <v>52</v>
       </c>
       <c r="L109" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="M109" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="N109"/>
       <c r="O109"/>
@@ -12332,17 +12255,11 @@
       <c r="Q109"/>
       <c r="R109"/>
       <c r="S109" t="s">
-        <v>1117</v>
-      </c>
-      <c r="T109" t="s">
-        <v>1118</v>
-      </c>
-      <c r="U109" t="s">
-        <v>1119</v>
-      </c>
-      <c r="V109" t="s">
-        <v>314</v>
-      </c>
+        <v>1109</v>
+      </c>
+      <c r="T109"/>
+      <c r="U109"/>
+      <c r="V109"/>
       <c r="W109"/>
       <c r="X109"/>
       <c r="Y109"/>
@@ -12368,51 +12285,59 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="B110" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="C110" t="s">
-        <v>451</v>
+        <v>105</v>
       </c>
       <c r="D110" t="s">
-        <v>1007</v>
+        <v>498</v>
       </c>
       <c r="E110" t="s">
         <v>48</v>
       </c>
       <c r="F110" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="G110" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="H110"/>
       <c r="I110"/>
       <c r="J110" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="K110" t="s">
-        <v>52</v>
+        <v>926</v>
       </c>
       <c r="L110" t="s">
-        <v>1124</v>
-      </c>
-      <c r="M110"/>
-      <c r="N110"/>
+        <v>1114</v>
+      </c>
+      <c r="M110" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N110" t="s">
+        <v>670</v>
+      </c>
       <c r="O110"/>
       <c r="P110"/>
       <c r="Q110"/>
       <c r="R110"/>
       <c r="S110" t="s">
-        <v>403</v>
+        <v>1116</v>
       </c>
       <c r="T110" t="s">
-        <v>1125</v>
-      </c>
-      <c r="U110"/>
-      <c r="V110"/>
+        <v>1117</v>
+      </c>
+      <c r="U110" t="s">
+        <v>1118</v>
+      </c>
+      <c r="V110" t="s">
+        <v>1119</v>
+      </c>
       <c r="W110"/>
       <c r="X110"/>
       <c r="Y110"/>
@@ -12438,59 +12363,59 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="B111" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="C111" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="D111" t="s">
-        <v>236</v>
+        <v>1123</v>
       </c>
       <c r="E111" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F111" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="G111" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="H111"/>
       <c r="I111"/>
       <c r="J111" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="K111" t="s">
-        <v>159</v>
-      </c>
-      <c r="L111" t="s">
-        <v>1131</v>
-      </c>
-      <c r="M111" t="s">
-        <v>1132</v>
-      </c>
-      <c r="N111" t="s">
-        <v>1133</v>
-      </c>
-      <c r="O111" t="s">
-        <v>1011</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
       <c r="P111"/>
       <c r="Q111"/>
       <c r="R111"/>
       <c r="S111" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="T111" t="s">
-        <v>1135</v>
-      </c>
-      <c r="U111"/>
-      <c r="V111"/>
-      <c r="W111"/>
-      <c r="X111"/>
+        <v>1127</v>
+      </c>
+      <c r="U111" t="s">
+        <v>1128</v>
+      </c>
+      <c r="V111" t="s">
+        <v>1129</v>
+      </c>
+      <c r="W111" t="s">
+        <v>1130</v>
+      </c>
+      <c r="X111" t="s">
+        <v>1131</v>
+      </c>
       <c r="Y111"/>
       <c r="Z111"/>
       <c r="AA111"/>
@@ -12514,22 +12439,22 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="B112" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="C112" t="s">
-        <v>844</v>
+        <v>1134</v>
       </c>
       <c r="D112" t="s">
-        <v>423</v>
+        <v>933</v>
       </c>
       <c r="E112" t="s">
         <v>48</v>
       </c>
       <c r="F112" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G112" t="s">
         <v>125</v>
@@ -12537,30 +12462,38 @@
       <c r="H112"/>
       <c r="I112"/>
       <c r="J112" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="K112" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="L112" t="s">
-        <v>1140</v>
-      </c>
-      <c r="M112" t="s">
-        <v>1141</v>
-      </c>
+        <v>1137</v>
+      </c>
+      <c r="M112"/>
       <c r="N112"/>
       <c r="O112"/>
       <c r="P112"/>
       <c r="Q112"/>
       <c r="R112"/>
       <c r="S112" t="s">
+        <v>1138</v>
+      </c>
+      <c r="T112" t="s">
+        <v>1139</v>
+      </c>
+      <c r="U112" t="s">
+        <v>1140</v>
+      </c>
+      <c r="V112" t="s">
+        <v>1141</v>
+      </c>
+      <c r="W112" t="s">
         <v>1142</v>
       </c>
-      <c r="T112"/>
-      <c r="U112"/>
-      <c r="V112"/>
-      <c r="W112"/>
-      <c r="X112"/>
+      <c r="X112" t="s">
+        <v>512</v>
+      </c>
       <c r="Y112"/>
       <c r="Z112"/>
       <c r="AA112"/>
@@ -12590,10 +12523,10 @@
         <v>1144</v>
       </c>
       <c r="C113" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D113" t="s">
-        <v>525</v>
+        <v>214</v>
       </c>
       <c r="E113" t="s">
         <v>48</v>
@@ -12610,35 +12543,35 @@
         <v>1146</v>
       </c>
       <c r="K113" t="s">
-        <v>959</v>
+        <v>484</v>
       </c>
       <c r="L113" t="s">
         <v>1147</v>
       </c>
-      <c r="M113" t="s">
-        <v>1148</v>
-      </c>
-      <c r="N113" t="s">
-        <v>697</v>
-      </c>
+      <c r="M113"/>
+      <c r="N113"/>
       <c r="O113"/>
       <c r="P113"/>
       <c r="Q113"/>
       <c r="R113"/>
       <c r="S113" t="s">
+        <v>1148</v>
+      </c>
+      <c r="T113" t="s">
         <v>1149</v>
       </c>
-      <c r="T113" t="s">
+      <c r="U113" t="s">
+        <v>952</v>
+      </c>
+      <c r="V113" t="s">
         <v>1150</v>
       </c>
-      <c r="U113" t="s">
+      <c r="W113" t="s">
         <v>1151</v>
       </c>
-      <c r="V113" t="s">
+      <c r="X113" t="s">
         <v>1152</v>
       </c>
-      <c r="W113"/>
-      <c r="X113"/>
       <c r="Y113"/>
       <c r="Z113"/>
       <c r="AA113"/>
@@ -12671,56 +12604,78 @@
         <v>1155</v>
       </c>
       <c r="D114" t="s">
+        <v>191</v>
+      </c>
+      <c r="E114" t="s">
+        <v>93</v>
+      </c>
+      <c r="F114" t="s">
         <v>1156</v>
       </c>
-      <c r="E114" t="s">
-        <v>48</v>
-      </c>
-      <c r="F114" t="s">
-        <v>1157</v>
-      </c>
       <c r="G114" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="H114"/>
       <c r="I114"/>
       <c r="J114" t="s">
+        <v>1157</v>
+      </c>
+      <c r="K114" t="s">
         <v>1158</v>
       </c>
-      <c r="K114" t="s">
-        <v>52</v>
-      </c>
-      <c r="L114"/>
-      <c r="M114"/>
-      <c r="N114"/>
-      <c r="O114"/>
-      <c r="P114"/>
+      <c r="L114" t="s">
+        <v>1159</v>
+      </c>
+      <c r="M114" t="s">
+        <v>671</v>
+      </c>
+      <c r="N114" t="s">
+        <v>646</v>
+      </c>
+      <c r="O114" t="s">
+        <v>1160</v>
+      </c>
+      <c r="P114" t="s">
+        <v>1161</v>
+      </c>
       <c r="Q114"/>
       <c r="R114"/>
       <c r="S114" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="T114" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="U114" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="V114" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="W114" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="X114" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Y114"/>
-      <c r="Z114"/>
-      <c r="AA114"/>
-      <c r="AB114"/>
-      <c r="AC114"/>
-      <c r="AD114"/>
+        <v>952</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>814</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>1170</v>
+      </c>
       <c r="AE114"/>
       <c r="AF114"/>
       <c r="AG114"/>
@@ -12738,65 +12693,77 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="B115" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="C115" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="D115" t="s">
-        <v>966</v>
+        <v>106</v>
       </c>
       <c r="E115" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F115" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="G115" t="s">
-        <v>125</v>
+        <v>1175</v>
       </c>
       <c r="H115"/>
       <c r="I115"/>
       <c r="J115" t="s">
-        <v>1169</v>
+        <v>1176</v>
       </c>
       <c r="K115" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="L115" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M115"/>
-      <c r="N115"/>
+        <v>1177</v>
+      </c>
+      <c r="M115" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N115" t="s">
+        <v>1179</v>
+      </c>
       <c r="O115"/>
       <c r="P115"/>
       <c r="Q115"/>
       <c r="R115"/>
       <c r="S115" t="s">
-        <v>1171</v>
+        <v>1180</v>
       </c>
       <c r="T115" t="s">
-        <v>1172</v>
+        <v>773</v>
       </c>
       <c r="U115" t="s">
-        <v>1173</v>
+        <v>1181</v>
       </c>
       <c r="V115" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="W115" t="s">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="X115" t="s">
-        <v>539</v>
-      </c>
-      <c r="Y115"/>
-      <c r="Z115"/>
-      <c r="AA115"/>
-      <c r="AB115"/>
+        <v>1184</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>1187</v>
+      </c>
       <c r="AC115"/>
       <c r="AD115"/>
       <c r="AE115"/>
@@ -12816,61 +12783,59 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>1176</v>
+        <v>1188</v>
       </c>
       <c r="B116" t="s">
-        <v>1177</v>
+        <v>1189</v>
       </c>
       <c r="C116" t="s">
-        <v>91</v>
+        <v>1190</v>
       </c>
       <c r="D116" t="s">
-        <v>236</v>
+        <v>431</v>
       </c>
       <c r="E116" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F116" t="s">
-        <v>1178</v>
+        <v>1191</v>
       </c>
       <c r="G116" t="s">
-        <v>67</v>
+        <v>1192</v>
       </c>
       <c r="H116"/>
       <c r="I116"/>
       <c r="J116" t="s">
-        <v>1179</v>
+        <v>1193</v>
       </c>
       <c r="K116" t="s">
-        <v>511</v>
+        <v>136</v>
       </c>
       <c r="L116" t="s">
-        <v>1180</v>
-      </c>
-      <c r="M116"/>
+        <v>1194</v>
+      </c>
+      <c r="M116" t="s">
+        <v>1195</v>
+      </c>
       <c r="N116"/>
       <c r="O116"/>
       <c r="P116"/>
       <c r="Q116"/>
       <c r="R116"/>
       <c r="S116" t="s">
-        <v>1181</v>
+        <v>1196</v>
       </c>
       <c r="T116" t="s">
-        <v>1182</v>
+        <v>87</v>
       </c>
       <c r="U116" t="s">
-        <v>985</v>
+        <v>1197</v>
       </c>
       <c r="V116" t="s">
-        <v>1183</v>
-      </c>
-      <c r="W116" t="s">
-        <v>1184</v>
-      </c>
-      <c r="X116" t="s">
-        <v>1185</v>
-      </c>
+        <v>1198</v>
+      </c>
+      <c r="W116"/>
+      <c r="X116"/>
       <c r="Y116"/>
       <c r="Z116"/>
       <c r="AA116"/>
@@ -12894,87 +12859,71 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>1186</v>
+        <v>1199</v>
       </c>
       <c r="B117" t="s">
-        <v>1187</v>
+        <v>1200</v>
       </c>
       <c r="C117" t="s">
-        <v>1188</v>
+        <v>1173</v>
       </c>
       <c r="D117" t="s">
-        <v>213</v>
+        <v>498</v>
       </c>
       <c r="E117" t="s">
         <v>93</v>
       </c>
       <c r="F117" t="s">
-        <v>1189</v>
+        <v>1201</v>
       </c>
       <c r="G117" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
       <c r="J117" t="s">
-        <v>1190</v>
+        <v>1202</v>
       </c>
       <c r="K117" t="s">
-        <v>1191</v>
+        <v>136</v>
       </c>
       <c r="L117" t="s">
-        <v>1192</v>
+        <v>1203</v>
       </c>
       <c r="M117" t="s">
-        <v>698</v>
+        <v>1204</v>
       </c>
       <c r="N117" t="s">
-        <v>673</v>
-      </c>
-      <c r="O117" t="s">
-        <v>1193</v>
-      </c>
-      <c r="P117" t="s">
-        <v>1194</v>
-      </c>
+        <v>1205</v>
+      </c>
+      <c r="O117"/>
+      <c r="P117"/>
       <c r="Q117"/>
       <c r="R117"/>
       <c r="S117" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
       <c r="T117" t="s">
-        <v>1196</v>
+        <v>1207</v>
       </c>
       <c r="U117" t="s">
-        <v>1197</v>
+        <v>1208</v>
       </c>
       <c r="V117" t="s">
-        <v>1198</v>
+        <v>1209</v>
       </c>
       <c r="W117" t="s">
-        <v>1199</v>
+        <v>1210</v>
       </c>
       <c r="X117" t="s">
-        <v>985</v>
-      </c>
-      <c r="Y117" t="s">
-        <v>1200</v>
-      </c>
-      <c r="Z117" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA117" t="s">
-        <v>841</v>
-      </c>
-      <c r="AB117" t="s">
-        <v>1201</v>
-      </c>
-      <c r="AC117" t="s">
-        <v>1202</v>
-      </c>
-      <c r="AD117" t="s">
-        <v>1203</v>
-      </c>
+        <v>1211</v>
+      </c>
+      <c r="Y117"/>
+      <c r="Z117"/>
+      <c r="AA117"/>
+      <c r="AB117"/>
+      <c r="AC117"/>
+      <c r="AD117"/>
       <c r="AE117"/>
       <c r="AF117"/>
       <c r="AG117"/>
@@ -12992,77 +12941,65 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>1204</v>
+        <v>1212</v>
       </c>
       <c r="B118" t="s">
-        <v>1205</v>
+        <v>1213</v>
       </c>
       <c r="C118" t="s">
-        <v>1206</v>
+        <v>1214</v>
       </c>
       <c r="D118" t="s">
-        <v>106</v>
+        <v>313</v>
       </c>
       <c r="E118" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F118" t="s">
-        <v>1207</v>
+        <v>1215</v>
       </c>
       <c r="G118" t="s">
-        <v>1208</v>
+        <v>278</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
       <c r="J118" t="s">
-        <v>1209</v>
+        <v>1216</v>
       </c>
       <c r="K118" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="L118" t="s">
-        <v>1210</v>
+        <v>1217</v>
       </c>
       <c r="M118" t="s">
-        <v>1211</v>
-      </c>
-      <c r="N118" t="s">
-        <v>1212</v>
-      </c>
+        <v>1218</v>
+      </c>
+      <c r="N118"/>
       <c r="O118"/>
       <c r="P118"/>
       <c r="Q118"/>
       <c r="R118"/>
       <c r="S118" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="T118" t="s">
-        <v>800</v>
+        <v>1220</v>
       </c>
       <c r="U118" t="s">
-        <v>1214</v>
+        <v>1221</v>
       </c>
       <c r="V118" t="s">
-        <v>1215</v>
+        <v>1222</v>
       </c>
       <c r="W118" t="s">
-        <v>1216</v>
-      </c>
-      <c r="X118" t="s">
-        <v>1217</v>
-      </c>
-      <c r="Y118" t="s">
-        <v>1218</v>
-      </c>
-      <c r="Z118" t="s">
-        <v>1219</v>
-      </c>
-      <c r="AA118" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB118" t="s">
-        <v>1220</v>
-      </c>
+        <v>1223</v>
+      </c>
+      <c r="X118"/>
+      <c r="Y118"/>
+      <c r="Z118"/>
+      <c r="AA118"/>
+      <c r="AB118"/>
       <c r="AC118"/>
       <c r="AD118"/>
       <c r="AE118"/>
@@ -13082,57 +13019,63 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="B119" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="C119" t="s">
-        <v>1223</v>
+        <v>46</v>
       </c>
       <c r="D119" t="s">
-        <v>458</v>
+        <v>92</v>
       </c>
       <c r="E119" t="s">
         <v>93</v>
       </c>
       <c r="F119" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="G119" t="s">
-        <v>1225</v>
+        <v>278</v>
       </c>
       <c r="H119"/>
       <c r="I119"/>
       <c r="J119" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="K119" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="L119" t="s">
-        <v>1227</v>
+        <v>671</v>
       </c>
       <c r="M119" t="s">
         <v>1228</v>
       </c>
-      <c r="N119"/>
-      <c r="O119"/>
-      <c r="P119"/>
-      <c r="Q119"/>
-      <c r="R119"/>
+      <c r="N119" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O119" t="s">
+        <v>1229</v>
+      </c>
+      <c r="P119" t="s">
+        <v>1230</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>1231</v>
+      </c>
+      <c r="R119" t="s">
+        <v>1232</v>
+      </c>
       <c r="S119" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="T119" t="s">
-        <v>87</v>
-      </c>
-      <c r="U119" t="s">
-        <v>1230</v>
-      </c>
-      <c r="V119" t="s">
-        <v>1231</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="U119"/>
+      <c r="V119"/>
       <c r="W119"/>
       <c r="X119"/>
       <c r="Y119"/>
@@ -13156,170 +13099,6 @@
       <c r="AQ119"/>
       <c r="AR119"/>
     </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C120" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D120" t="s">
-        <v>525</v>
-      </c>
-      <c r="E120" t="s">
-        <v>93</v>
-      </c>
-      <c r="F120" t="s">
-        <v>1234</v>
-      </c>
-      <c r="G120" t="s">
-        <v>125</v>
-      </c>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120" t="s">
-        <v>1235</v>
-      </c>
-      <c r="K120" t="s">
-        <v>159</v>
-      </c>
-      <c r="L120" t="s">
-        <v>1236</v>
-      </c>
-      <c r="M120" t="s">
-        <v>1237</v>
-      </c>
-      <c r="N120" t="s">
-        <v>1238</v>
-      </c>
-      <c r="O120"/>
-      <c r="P120"/>
-      <c r="Q120"/>
-      <c r="R120"/>
-      <c r="S120" t="s">
-        <v>1239</v>
-      </c>
-      <c r="T120" t="s">
-        <v>1240</v>
-      </c>
-      <c r="U120" t="s">
-        <v>1241</v>
-      </c>
-      <c r="V120" t="s">
-        <v>1242</v>
-      </c>
-      <c r="W120" t="s">
-        <v>1243</v>
-      </c>
-      <c r="X120" t="s">
-        <v>1244</v>
-      </c>
-      <c r="Y120"/>
-      <c r="Z120"/>
-      <c r="AA120"/>
-      <c r="AB120"/>
-      <c r="AC120"/>
-      <c r="AD120"/>
-      <c r="AE120"/>
-      <c r="AF120"/>
-      <c r="AG120"/>
-      <c r="AH120"/>
-      <c r="AI120"/>
-      <c r="AJ120"/>
-      <c r="AK120"/>
-      <c r="AL120"/>
-      <c r="AM120"/>
-      <c r="AN120"/>
-      <c r="AO120"/>
-      <c r="AP120"/>
-      <c r="AQ120"/>
-      <c r="AR120"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C121" t="s">
-        <v>46</v>
-      </c>
-      <c r="D121" t="s">
-        <v>92</v>
-      </c>
-      <c r="E121" t="s">
-        <v>93</v>
-      </c>
-      <c r="F121" t="s">
-        <v>1247</v>
-      </c>
-      <c r="G121" t="s">
-        <v>309</v>
-      </c>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121" t="s">
-        <v>1248</v>
-      </c>
-      <c r="K121" t="s">
-        <v>52</v>
-      </c>
-      <c r="L121" t="s">
-        <v>698</v>
-      </c>
-      <c r="M121" t="s">
-        <v>1249</v>
-      </c>
-      <c r="N121" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O121" t="s">
-        <v>1250</v>
-      </c>
-      <c r="P121" t="s">
-        <v>1251</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>1252</v>
-      </c>
-      <c r="R121" t="s">
-        <v>1253</v>
-      </c>
-      <c r="S121" t="s">
-        <v>1254</v>
-      </c>
-      <c r="T121" t="s">
-        <v>673</v>
-      </c>
-      <c r="U121"/>
-      <c r="V121"/>
-      <c r="W121"/>
-      <c r="X121"/>
-      <c r="Y121"/>
-      <c r="Z121"/>
-      <c r="AA121"/>
-      <c r="AB121"/>
-      <c r="AC121"/>
-      <c r="AD121"/>
-      <c r="AE121"/>
-      <c r="AF121"/>
-      <c r="AG121"/>
-      <c r="AH121"/>
-      <c r="AI121"/>
-      <c r="AJ121"/>
-      <c r="AK121"/>
-      <c r="AL121"/>
-      <c r="AM121"/>
-      <c r="AN121"/>
-      <c r="AO121"/>
-      <c r="AP121"/>
-      <c r="AQ121"/>
-      <c r="AR121"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/synopsis.PDtremorSystematicReview.xlsx
+++ b/synopsis.PDtremorSystematicReview.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="1237">
   <si>
     <t xml:space="preserve">Authors</t>
   </si>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">To establish the optimal tolerated caffeine dose in iPS-patients and to assess potential motor and nonmotor benefits in a pilot study</t>
   </si>
   <si>
-    <t xml:space="preserve">caffeine</t>
+    <t xml:space="preserve">adenosine_antagonists</t>
   </si>
   <si>
     <t xml:space="preserve">Start with 200mg caffeine qd and increase of 200mg per week until dosage of 1000mg qd; assessment of effect after six weeks</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">evaluate pathogenic and therapeutic potential of adenosine A2A receptor-mediated mechanisms in iPS-patients</t>
   </si>
   <si>
-    <t xml:space="preserve">adenosine_a2a</t>
+    <t xml:space="preserve">adenosine_antagonist</t>
   </si>
   <si>
     <t xml:space="preserve">Patients randomized to a. placebo and KW-6002 group as 1 to 3 ratio. b. KW6002 group received two week placebo, two weeks 40mg qd and two weeks 80mg. Three evaluations with motor functions assessed a. when KW6002 alone, b. KS6002 coadministered with suboptimal and optimal dose, steady state levodopa infusion iv, c. periodically after discontinuation of levodopa</t>
@@ -377,255 +377,237 @@
     <t xml:space="preserve"> general exclusion criteria for MRI scanning. </t>
   </si>
   <si>
-    <t xml:space="preserve">Belvisi et al. 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-emergent tremor in Parkinson's disease: the effect of dopaminergic treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eur. J. Neurol.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To evaluate the occurence and clinical features of re-emergent tremor in iPS patients</t>
+    <t xml:space="preserve">Binder et al. 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effect of Cabergoline on Parkinsonian Tremor Assessed by Long-Term-Actigraphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Neurology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study anti-tremulous effect of cabergoline; validate long-term actigraphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cabergolin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pergolide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline period of 3 days, initial dosage of 0,5mg cabergoline on day 4, titration phase of 1mg increase per week, two weeks maintenance, clinical visits after three and six weeks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPS according to UK Brain Bank criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moderate to marked rest tremor at one arm (item 20 UPDRS larger than 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anticholinergics, budipine or dopamine agonists in current pre-medication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> contraindications against dopamine agonists or ergotamine derivates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonuccelli et al. 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clozapine in Parkinson's disease tremor. Effects of acute and chronic administration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To evaluate the effects of acute clozapine administration on parkinsonian mixed tremor, to establish the predictive value for long-term response and to determine differences in pharmacologic response of resting and postural tremor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clozapine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all antiparkinsonian medication was withdrawn twelve hours before. Administration of a 12.5mg single dose of a. clozapine or b. placebo. UPDRS at baseline and at ten minute intervals for to hours. 15 iPS-patients with more than 50 percent improvement included in chronic, open-phase study for 15.5 months.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> presence of resting and postural tremor poorly responsive to levodopa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brannan &amp; Yahr (1995)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparative Study of Selegiline Plus L-Dopa-Carbidopa Versus L-Dopa-Carbidopa Alone in the Treatment of Parkinson's Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ann. Neurol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To evaluate the effects of selegiline as add-on to levodopa and carbidopa vs. the effect of levodopa and carbidopa alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mao_inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> levodopa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subjects in both groups randomly matched by computer for age, years of iPS at disease onset and years of treatment. Both groups under levodopa and carbidopa therapy. Patients assessed at regular intervals and rated clinically</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> therapy with selegiline 5mg bid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> continued use and add-on of levodopa-carbidopa later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment with dopamine agonists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullock et al. 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuranolone as an oral adjunct to treatment of Parkinsonian tremor: A phase 2, open-label study.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Neurol Sci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explore effects of zuranolone on iPS-tremor as an add-on therapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_blocker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatmenr with oral zuranolone 20 or 30mg qd for 7 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPD defined by unknown clinical criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tremor sum score MDS-UPDRS greater than 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tremor motor score greater than 2 on one limb in ON medication state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stable dosage of dopaminergic medication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medication with amatadine or anticholinergics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cattaneo et al. 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safinamide as Add-On Therapy to Levodopa in Mid-to Late-Stage Parkinson’s Disease Fluctuating Patients: Post hoc Analysesof Studies 016 and SETTLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Parkinsons Dis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To evaluate the clinical effects of safinamide on motor fluctuations and cardinal symptoms of iPS-patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">safinamide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">study 116: two doses of safinamide (50 and 100) used in two groups  (for post hoc analyses 100 mg included only, Study SETTLE 50 mg daily for 2 weeks, afterwards 100 mg Safinamide. For post hoc analyses treatment effects of safinamide 100 mg once daily versus placebo  during double-blind phases of Stidy 016 and SETTLE. Data of both studies were pooled. 487 received 100 mg safinamide, 484 placebo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mid to late-stage PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> motor fluctuations while receiving levodopa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medication with another MAO-B inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choi et al. 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The effect of long-term levodopa therapy on depression level in de novo patients with Parkinson’s disease.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Neurol. Sci.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To evaluate the effects of levodopa therapy on depression in de novo patients and additionally motor scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPS according to clinical criteria of the Core Assessment Program for Intracerebral Transplantation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients with structural lesions in the MRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> less than 24 points in the Mini Mental State Examination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Çınar et al. 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could Apomorphine be an effective treatment option for refractory tremor in Parkinsons disease: a pilot study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nobel Med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To evaluate effects of apomorphine sc as an add-on for levodopa refractory tremor in iPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apomorphine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apomorphine was administered at increasing dosages with 1, 2, 4mg every 15 minutes in OFF medication state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPS-patients according to unknown clinical criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stable dopaminergic medication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> medically refractory tremor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other significant diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Craig et al. 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controlled Pilot Study of the Effects of Neuromuscular Therapy in Patients with Parkinson's Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mov. Disord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To evaluate the effects of neuromuscular therapy on motor symptoms of iPS-patients</t>
   </si>
   <si>
     <t xml:space="preserve">other</t>
   </si>
   <si>
-    <t xml:space="preserve">a. re-emergent tremor b. Rest tremor c. Rest and action tremor d. No tremor all with and without medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iPS according to MDS diagnosic criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder et al. 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effect of Cabergoline on Parkinsonian Tremor Assessed by Long-Term-Actigraphy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Neurology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study anti-tremulous effect of cabergoline; validate long-term actigraphy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cabergolin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pergolide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baseline period of 3 days, initial dosage of 0,5mg cabergoline on day 4, titration phase of 1mg increase per week, two weeks maintenance, clinical visits after three and six weeks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iPS according to UK Brain Bank criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moderate to marked rest tremor at one arm (item 20 UPDRS larger than 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anticholinergics, budipine or dopamine agonists in current pre-medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> contraindications against dopamine agonists or ergotamine derivates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonuccelli et al. 1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clozapine in Parkinson's disease tremor. Effects of acute and chronic administration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To evaluate the effects of acute clozapine administration on parkinsonian mixed tremor, to establish the predictive value for long-term response and to determine differences in pharmacologic response of resting and postural tremor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clozapine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all antiparkinsonian medication was withdrawn twelve hours before. Administration of a 12.5mg single dose of a. clozapine or b. placebo. UPDRS at baseline and at ten minute intervals for to hours. 15 iPS-patients with more than 50 percent improvement included in chronic, open-phase study for 15.5 months.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> presence of resting and postural tremor poorly responsive to levodopa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brannan &amp; Yahr (1995)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparative Study of Selegiline Plus L-Dopa-Carbidopa Versus L-Dopa-Carbidopa Alone in the Treatment of Parkinson's Disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ann. Neurol.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To evaluate the effects of selegiline as add-on to levodopa and carbidopa vs. the effect of levodopa and carbidopa alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mao_inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> levodopa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subjects in both groups randomly matched by computer for age, years of iPS at disease onset and years of treatment. Both groups under levodopa and carbidopa therapy. Patients assessed at regular intervals and rated clinically</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> therapy with selegiline 5mg bid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> continued use and add-on of levodopa-carbidopa later</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatment with dopamine agonists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullock et al. 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zuranolone as an oral adjunct to treatment of Parkinsonian tremor: A phase 2, open-label study.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J Neurol Sci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explore effects of zuranolone on iPS-tremor as an add-on therapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_blocker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oral zuranolone 20 or 30mg for 7 days qd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iPD defined by unknown clinical criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tremor sum score MDS-UPDRS greater than 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tremor motor score greater than 2 on one limb in ON medication state</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stable dosage of dopaminergic medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medication with amatadine or anticholinergics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cattaneo et al. 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safinamide as Add-On Therapy to Levodopa in Mid-to Late-Stage Parkinson’s Disease Fluctuating Patients: Post hoc Analysesof Studies 016 and SETTLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J Parkinsons Dis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To evaluate the clinical effects of safinamide on motor fluctuations and cardinal symptoms of iPS-patients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">safinamide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">study 116: two doses of safinamide (50 and 100) used in two groups  (for post hoc analyses 100 mg included only, Study SETTLE 50 mg daily for 2 weeks, afterwards 100 mg Safinamide. For post hoc analyses treatment effects of safinamide 100 mg once daily versus placebo  during double-blind phases of Stidy 016 and SETTLE. Data of both studies were pooled. 487 received 100 mg safinamide, 484 placebo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mid to late-stage PD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> motor fluctuations while receiving levodopa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">medication with another MAO-B inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choi et al. 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The effect of long-term levodopa therapy on depression level in de novo patients with Parkinson’s disease.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. Neurol. Sci.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To evaluate the effects of levodopa therapy on depression in de novo patients and additionally motor scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iPS according to clinical criteria of the Core Assessment Program for Intracerebral Transplantation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patients with structural lesions in the MRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> less than 24 points in the Mini Mental State Examination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Çınar et al. 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could Apomorphine be an effective treatment option for refractory tremor in Parkinsons disease: a pilot study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nobel Med</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To evaluate effects of apomorphine sc as an add-on for levodopa refractory tremor in iPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apomorphine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apomorphine at increasing dosages with 1, 2, 4mg every 15 minutes in OFF medication state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPS-patients according to unknown clinical criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stable dopaminergic medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> medically refractory tremor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other significant diseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Craig et al. 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controlled Pilot Study of the Effects of Neuromuscular Therapy in Patients with Parkinson's Disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mov. Disord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To evaluate the effects of neuromuscular therapy on motor symptoms of iPS-patients</t>
-  </si>
-  <si>
     <t xml:space="preserve">Randomisation to a. group receiving NMT and b. active control group receiving music relaxation. Two 45 minutes sessions weekly for four weeks. Identical relaxation music during all sessions. Data collection at baseline, week 4 and 8 days after finishing treatment</t>
   </si>
   <si>
@@ -647,37 +629,46 @@
     <t xml:space="preserve"> no major active medical or psychiatric conditions</t>
   </si>
   <si>
-    <t xml:space="preserve">de Faria et al. 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effects of acute cannabidiol administration on anxiety and tremors induced by a Simulated Public Speaking Test in patients with Parkinson's disease.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J Psychopharmacol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluate effects of single dose cannabidiol on iPS-tremor under stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cannabis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 mg CBD or placebo, public speaking stress test after 90 min, accelerometer at index finger of one hand, cross-over within 15 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marked cognitive alterations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> medication with benzodiazepines</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> medication with antidepressants</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> presence of other psychiatric disorders</t>
+    <t xml:space="preserve">Dirkx et al. 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerebral differences between dopamine-resistant and dopamine-responsive Parkinson’s tremor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To ascertain increased tremor-related activity in non-dopaminergic brain regions, particularly the cerebellum in patients suffering from iPS with good response to dopaminergic therapy versus those without</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administration of  a. levodopa or placebo (200mg).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPS-patient according to UK Brain Bank criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> resting tremor that is MDS-UPDRS item 17 greater than 0 at least at one limb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neurologic comorbidities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> signs of psychogenic tremor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> allergies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MMSE score less than 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FAB score less than 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> improvement of less than 0,2 after levodopa in akinesia and rigidity MDS-UPDRS subscores</t>
   </si>
   <si>
     <t xml:space="preserve">Eggert et al. 2010</t>
@@ -946,6 +937,69 @@
     <t xml:space="preserve">uncertain data according to tremor</t>
   </si>
   <si>
+    <t xml:space="preserve">Friedman et al. 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benztropine versus clozapine for the treatment of tremor in Parkinson's disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To compare low-dose clozapine to benztropine for treatment of tremor in iPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clozapine and benztropine repackaged into identical capsules. Tremor measured by UPDRS and Fahn-Tolosa-Marin tremor scale at baseline and every two weeks. Videotapes at baseline and at maximum dose. a. Benztropine first 0.75mg qd increased each week by 0.75 mg to twice daily regimen. b. Clozapine first 12.5mg qd, increased by 12.5mg to twice daily regimen. Maximum doses of a. 4.5mg benztropine or 75mg clozapine daily. Ceiling dose for 1 week and maximum duration for each arm six weeks with two week washout. Second arm with other drug (clozapine or benzperidine, respectively)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ability to give informed consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> age from 21 to 80 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> score greater than 1 in UPDRS tremor items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blood dyscrasia history</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uncontrolled seizures</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> prostatism</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> narrow angle glaucoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dopamine blocking drugs within three months of study entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> intake of betablocker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> intake of alpha-metyl-dopa-reserpine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> concomitant medication with dopamine agonists, anticholinergics, amantadine or antihistamines</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> other drugs associated wih agranulocytosis within preceeding four weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> significant adverse events with either anticholingergics or clozapine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> white blood count of less than 4000 per microliter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> drug abuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pregnant or lactating women</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> female fertiles</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parkinson Study Group (1999)</t>
   </si>
   <si>
@@ -991,72 +1045,9 @@
     <t xml:space="preserve"> uncontrolled angina</t>
   </si>
   <si>
-    <t xml:space="preserve"> uncontrolled seizures</t>
-  </si>
-  <si>
     <t xml:space="preserve"> aquired immunodeficiency syndrome</t>
   </si>
   <si>
-    <t xml:space="preserve">Friedman et al. 1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benztropine versus clozapine for the treatment of tremor in Parkinson's disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare low-dose clozapine to benztropine for treatment of tremor in iPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clozapine and benztropine repackaged into identical capsules. Tremor measured by UPDRS and Fahn-Tolosa-Marin tremor scale at baseline and every two weeks. Videotapes at baseline and at maximum dose. a. Benztropine first 0.75mg qd increased each week by 0.75 mg to twice daily regimen. b. Clozapine first 12.5mg qd, increased by 12.5mg to twice daily regimen. Maximum doses of a. 4.5mg benztropine or 75mg clozapine daily. Ceiling dose for 1 week and maximum duration for each arm six weeks with two week washout. Second arm with other drug (clozapine or benzperidine, respectively)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ability to give informed consent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> age from 21 to 80 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> score greater than 1 in UPDRS tremor items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blood dyscrasia history</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> prostatism</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> narrow angle glaucoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dopamine blocking drugs within three months of study entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> intake of betablocker</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> intake of alpha-metyl-dopa-reserpine</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> concomitant medication with dopamine agonists, anticholinergics, amantadine or antihistamines</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> other drugs associated wih agranulocytosis within preceeding four weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> significant adverse events with either anticholingergics or clozapine</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> white blood count of less than 4000 per microliter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> drug abuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pregnant or lactating women</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> female fertiles</t>
-  </si>
-  <si>
     <t xml:space="preserve">Glass (2003)</t>
   </si>
   <si>
@@ -1156,6 +1147,9 @@
     <t xml:space="preserve">Journal of Clinical Mediine</t>
   </si>
   <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">assess efficacy of PD-MCT and calculate predictors of improvement</t>
   </si>
   <si>
@@ -1168,33 +1162,6 @@
     <t xml:space="preserve">inability to take part in procedures</t>
   </si>
   <si>
-    <t xml:space="preserve">Hattori et al. 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long-term, open-label, phase 3 study of rasagiline in Japanese patients with early Parkinson’s disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To evaluate the efficacy and safety of rasagiline in Japanese patients with early iPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After two week run-in period with placebo, patients were randomized to a. placebo or b. oral rasagiline 1 mg qd. Doubleblind trial ended after 26 weeks and a consecutive extension study was offered which lasted further 26 weeks with 1mg rasagiline daily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPS according to clinical diagnosis with at least two of the symptoms bradykinesia, tremor, rigidity and at least five years of disease duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> capability to understand and sign the inclusion into the study</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MDS_UPDRS score of parts 2 and 3  greater than 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hoehn and yahr stage of 1 to 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> agreement on regular contraception in case of fertile women</t>
-  </si>
-  <si>
     <t xml:space="preserve">Heinonen et al. 1989</t>
   </si>
   <si>
@@ -1249,9 +1216,6 @@
     <t xml:space="preserve">Biomedicine and Pharmacotherapy</t>
   </si>
   <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
     <t xml:space="preserve">Evaluate the extent of tremor suppression under apomorphine therapy</t>
   </si>
   <si>
@@ -1435,7 +1399,7 @@
     <t xml:space="preserve">1994</t>
   </si>
   <si>
-    <t xml:space="preserve">evaluate antitremor effect of clozapine as add-on therapy for iPS-patients</t>
+    <t xml:space="preserve">To evaluate antitremor effects of clozapine as add-on therapy for iPS-patients</t>
   </si>
   <si>
     <t xml:space="preserve">Clozapine aditionally to usual antiparkinson medication. Starting dose 6.25mg qd, if necessary increase each third day with dose split to bid. Study duration of six months with evaluations every fortnight. Every 4 weeks UPDRS motor evaluation. Changes of other parkinson medication during study were not allowed.</t>
@@ -1468,9 +1432,6 @@
     <t xml:space="preserve">Hand tremor at rest and during postural positions assessed with the tremor analysis device which resulted in tremor parameters such as peak magnitude, the root mean square of angular velocity, frequency, and the dispersion of tremor a. before and b. during EMS. EMS was administered with parameters determined by slowly raising pulse amplitudes until tetanic muscle contraction occurred without pain. Stimulation lasted 10secs.</t>
   </si>
   <si>
-    <t xml:space="preserve">iPS-patient according to UK Brain Bank criteria</t>
-  </si>
-  <si>
     <t xml:space="preserve"> medically refractory type I tremor according to the MDS consensus paper</t>
   </si>
   <si>
@@ -1510,9 +1471,6 @@
     <t xml:space="preserve">Neurol. Sci.</t>
   </si>
   <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">evaluate Effect of eccentric-based rehabilitation on hand tremor intensity in iPS</t>
   </si>
   <si>
@@ -1561,6 +1519,9 @@
     <t xml:space="preserve">Short-term effects of vibration therapy on motor impairments in Parkinson's disease</t>
   </si>
   <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
     <t xml:space="preserve">To evaluate the influence of vibration on motor symptoms and functional measures in iPS by delivering sound waves to the whole body</t>
   </si>
   <si>
@@ -1651,7 +1612,7 @@
     <t xml:space="preserve">Zh Nevrol Psikhiatr Im SS Korsakova</t>
   </si>
   <si>
-    <t xml:space="preserve">Evaluate effects of pramipexole on motor symptoms in iPS-patients</t>
+    <t xml:space="preserve">To evaluate the effects of pramipexole on motor symptoms in iPS-patients</t>
   </si>
   <si>
     <t xml:space="preserve">six months pramipexole therapy as add-on or monotherapy. Individual dose based on clinical impression</t>
@@ -1836,6 +1797,9 @@
     <t xml:space="preserve">Cannabis (medical marijuana) treatment for motor and non-motor symptoms of Parkinson disease: an open-label observational study</t>
   </si>
   <si>
+    <t xml:space="preserve">cannabis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Patients tested in OFF before taking their regular medication. UPDRS was rated among others tests ans questionnaires. Afterwards smoking of regular dosis cannabis with measurements repeated 30 minutes later by two raters</t>
   </si>
   <si>
@@ -1995,6 +1959,66 @@
     <t xml:space="preserve">Short-term double-blind study: 345 Patients randomly assigned to a. pergolide or b. bromocriptin. Up to day 14 fixed amount of either pergolide or bromcriptin. maintenance dosage thereafter determined for individual patient.</t>
   </si>
   <si>
+    <t xml:space="preserve">Mizuno et al. 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A randomized double-blind placebo-controlled phase III trial of selegiline monotherapy for early parkinson disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clin Neuropharmacol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To evaluate the efficacy and safety of selegiline monotheray in patients with iPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subjects were randomised to a. placebo or b. oral selegline. At first two weeks 1 mg qd was administered, at weeks 2-3 2.5mg bid, week 4-5 5mg in the morning and 2.5mg in the afternoon and from week 6 onwards 5mf bid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPS according to clinical diagnosis according to Brain Bank criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> age between 20 and 75 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> motor symptoms for less than five years</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hoehn and yahr stage of 1 to 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no therapy with antiparkinson agents or less than 12 weeks of treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> updrs scores of ten or greater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment with pethidine, tramadol, tricyclic antidepressants, selective serotonin reuptake inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> certain antihistaminic drugs or drugs possibly affecting PD symptoms within three weeks before first medication intake</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> patients suffereing from concomitant impaired consciousness, hallucinations, delusions and abnormal disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> therapy for epilepsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> patients with serious complications, e.g., cardiovascular, renal, hepatic or hematologic disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> patients with past or current abuse of central nervous system stimulants such as antihypnotic drugs or cocaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> female patients whoe were pregnant or lactating or were willing to become pregnang during the trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> patients who had participated in other clinical trials with selegiline</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moeller et al. 2005</t>
   </si>
   <si>
@@ -2079,7 +2103,7 @@
     <t xml:space="preserve">To describe the effects of levodopa and carbidopa in an extended release formulation</t>
   </si>
   <si>
-    <t xml:space="preserve">levodopa and carbidopa in a controlled release formulation at individually accepted dosage</t>
+    <t xml:space="preserve">Administration of levodopa and carbidopa in a controlled release formulation at individually accepted dosages.</t>
   </si>
   <si>
     <t xml:space="preserve">Mueller et al. 2003.1</t>
@@ -2139,15 +2163,42 @@
     <t xml:space="preserve">Navan et al. 2003</t>
   </si>
   <si>
+    <t xml:space="preserve">Double-blind, single dose, cross-over study of the effects of pramipexole, Pergolide, and Placebo on Rest Tremor and UPDRS part III in Parkinson's Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To compare the effects of single oral dose of a. pramipexole b. pergolide or c. placebo on parkinsonian tremor and part III of the UPDRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pramipexole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three study days with one week in between. All participants received domperidone 24 hours before start of trial treatment, whereas no anti-parkinsonian medication were allowed from midnight onwards before the study. After baseline assessment, intake of 500 µg of pramipexole or pergolide, respectively or one pill of placebo. Assessment on half-hourly intervals for four hours with double-blind protocol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPS according to UK Brain Bank Criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rest tremor of at least one upper limb with an intensity of at least 2 of 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no previous intake of direct acting dopamine agonist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navan et al. 2003.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare effects of single oral dose of a. pramipexole b. pergolide or c. placebo on parkinsonian tremor and part III of the UPDRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navan et al. 2003.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Randomized, Double-blind, 3-Month Parallel Study of the Effects of Pramipexole, Pergolide, and Placebo on Parkinsonian Tremor</t>
   </si>
   <si>
     <t xml:space="preserve">To compare anti-tremor effects of pramipexole, pergolide and plaebo in iPS-patients</t>
   </si>
   <si>
-    <t xml:space="preserve">pramipexole</t>
-  </si>
-  <si>
     <t xml:space="preserve">iPS-patients (n=30) randomly assigned to a. pramipexole b. pergolide or c. placebo. Pre-Treatment with domperidone and after baseline assessment dose gradually titrated upward in 9 levels that is placebo or 1.5mg pramipexole or 1.5mg pergolide tid. Monthly assessment including verbal fluency task while tremor was scored and measured.</t>
   </si>
   <si>
@@ -2160,27 +2211,6 @@
     <t xml:space="preserve"> no previous medication with direct acting dopamine agonist</t>
   </si>
   <si>
-    <t xml:space="preserve">Navan et al. 2003.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double-blind, single dose, cross-over study of the effects of pramipexole, Pergolide, and Placebo on Rest Tremor and UPDRS part III in Parkinson's Disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare effects of single oral dose of a. pramipexole b. pergolide or c. placebo on parkinsonian tremor and part III of the UPDRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three study days with one week in between. All participants received domperidone 24 hours before start of trial treatment, whereas no anti-parkinsonian medication were allowed from midnight onwards before the study. After baseline assessment, intake of 500 µg of pramipexole or pergolide, respectively or one pill of placebo. Assessment on half-hourly intervals for four hours with double-blind protocol.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iPS according to UK Brain Bank Criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rest tremor of at least one upper limb with an intensity of at least 2 of 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> no previous intake of direct acting dopamine agonist</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nigro et al. 2019</t>
   </si>
   <si>
@@ -2703,7 +2733,7 @@
     <t xml:space="preserve">observe the efficacy and tolerability of rasagiline as mono and combination therapy in large population of iPS-patients</t>
   </si>
   <si>
-    <t xml:space="preserve">rasagiline 1mg qd as monotherapy or as add-on therapy</t>
+    <t xml:space="preserve">Administration of rasagiline 1mg qd as monotherapy or as add-on therapy</t>
   </si>
   <si>
     <t xml:space="preserve"> clinical decision to prescribe rasagiline</t>
@@ -2793,7 +2823,7 @@
     <t xml:space="preserve">trihexphenidyl</t>
   </si>
   <si>
-    <t xml:space="preserve">overnight medication withdrawal, 4mg THP over 48 hours; overnight medication withdrawal, 200 and 50mg levodopa and carbidopa</t>
+    <t xml:space="preserve">Overnight medication withdrawal, consecutively 4mg THP over 48 hours. Then, again, overnight medication withdrawal and administration of 200 and 50mg levodopa and carbidopa, respectively</t>
   </si>
   <si>
     <t xml:space="preserve">IPS according to MDS diagnostic criteria</t>
@@ -2817,9 +2847,6 @@
     <t xml:space="preserve">PLoS One</t>
   </si>
   <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
     <t xml:space="preserve">To evaluate the safety and efficacy of kinematically-guided, individualised incobotulinumtoxin A injections for upper limb tremor in iPS-patients</t>
   </si>
   <si>
@@ -2874,9 +2901,6 @@
     <t xml:space="preserve"> concomitant arm weakness</t>
   </si>
   <si>
-    <t xml:space="preserve"> allergies</t>
-  </si>
-  <si>
     <t xml:space="preserve"> pregancy</t>
   </si>
   <si>
@@ -2995,6 +3019,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ropinirole for the treatment of tremor in early Parkinson's disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eur. J. Neurol.</t>
   </si>
   <si>
     <t xml:space="preserve">To analyse the effects of ropinirole on tremor in iPS-patients</t>
@@ -3461,24 +3488,6 @@
     <t xml:space="preserve">After overnight medication withdrawal, administration of single dose dispersible 200mg levodopa and benserazide. Measurement of MDS-UPDRS, accelerometry dorsal on one hand, tremor during rest and during cognitive coactivation</t>
   </si>
   <si>
-    <t xml:space="preserve"> resting tremor that is MDS-UPDRS item 17 greater than 0 at least at one limb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neurologic comorbidities</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> signs of psychogenic tremor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MMSE score less than 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FAB score less than 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> improvement of less than 0,2 after levodopa in akinesia and rigidity MDS-UPDRS subscores</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zhang et al. 2013</t>
   </si>
   <si>
@@ -3491,7 +3500,7 @@
     <t xml:space="preserve">To investigate the effects of rasagiline as an add-on to levodopa in Chinese iPS-patients</t>
   </si>
   <si>
-    <t xml:space="preserve">12 weeks 1 mg rasagiline daily or placebo</t>
+    <t xml:space="preserve">Participants reveived either a. 1mg rasagiline qd  or b. placebo over 12 weeks. Assessments at baseline and after this period</t>
   </si>
   <si>
     <t xml:space="preserve">IPS according to clinical diagnosis with at least two of the symptoms bradykinesia, tremor, rigidity</t>
@@ -4588,26 +4597,30 @@
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7"/>
+        <v>126</v>
+      </c>
+      <c r="H7" t="s">
+        <v>127</v>
+      </c>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7"/>
+        <v>129</v>
+      </c>
+      <c r="L7" t="s">
+        <v>130</v>
+      </c>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
@@ -4615,9 +4628,11 @@
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7" t="s">
-        <v>69</v>
-      </c>
-      <c r="T7"/>
+        <v>131</v>
+      </c>
+      <c r="T7" t="s">
+        <v>132</v>
+      </c>
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
@@ -4645,38 +4660,36 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" t="s">
-        <v>134</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="H8"/>
       <c r="I8"/>
       <c r="J8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K8" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -4685,11 +4698,9 @@
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8" t="s">
-        <v>138</v>
-      </c>
-      <c r="T8" t="s">
-        <v>139</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
@@ -4723,39 +4734,43 @@
         <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9"/>
+        <v>145</v>
+      </c>
+      <c r="H9" t="s">
+        <v>146</v>
+      </c>
       <c r="I9"/>
       <c r="J9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K9" t="s">
         <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>146</v>
-      </c>
-      <c r="M9"/>
+        <v>148</v>
+      </c>
+      <c r="M9" t="s">
+        <v>149</v>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="T9"/>
       <c r="U9"/>
@@ -4785,49 +4800,49 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
         <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" t="s">
-        <v>153</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="H10"/>
       <c r="I10"/>
       <c r="J10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="L10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M10" t="s">
-        <v>156</v>
-      </c>
-      <c r="N10"/>
+        <v>160</v>
+      </c>
+      <c r="N10" t="s">
+        <v>161</v>
+      </c>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="T10"/>
       <c r="U10"/>
@@ -4857,49 +4872,45 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K11" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L11" t="s">
-        <v>166</v>
-      </c>
-      <c r="M11" t="s">
-        <v>167</v>
-      </c>
-      <c r="N11" t="s">
-        <v>168</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="T11"/>
       <c r="U11"/>
@@ -4929,37 +4940,33 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G12" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" t="s">
-        <v>176</v>
-      </c>
+      <c r="J12"/>
       <c r="K12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L12" t="s">
         <v>178</v>
       </c>
+      <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
@@ -4969,7 +4976,9 @@
       <c r="S12" t="s">
         <v>179</v>
       </c>
-      <c r="T12"/>
+      <c r="T12" t="s">
+        <v>180</v>
+      </c>
       <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
@@ -4997,45 +5006,49 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s">
         <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13"/>
+      <c r="J13" t="s">
+        <v>187</v>
+      </c>
       <c r="K13" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13"/>
-      <c r="M13"/>
+        <v>188</v>
+      </c>
+      <c r="L13" t="s">
+        <v>189</v>
+      </c>
+      <c r="M13" t="s">
+        <v>190</v>
+      </c>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13" t="s">
-        <v>186</v>
-      </c>
-      <c r="T13" t="s">
-        <v>187</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="T13"/>
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
@@ -5063,47 +5076,53 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K14" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L14" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M14" t="s">
-        <v>197</v>
-      </c>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
+        <v>201</v>
+      </c>
+      <c r="N14" t="s">
+        <v>202</v>
+      </c>
+      <c r="O14" t="s">
+        <v>203</v>
+      </c>
+      <c r="P14" t="s">
+        <v>204</v>
+      </c>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14" t="s">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="T14"/>
       <c r="U14"/>
@@ -5133,59 +5152,61 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G15" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K15" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L15" t="s">
-        <v>206</v>
-      </c>
-      <c r="M15" t="s">
-        <v>207</v>
-      </c>
-      <c r="N15" t="s">
-        <v>208</v>
-      </c>
-      <c r="O15" t="s">
-        <v>209</v>
-      </c>
-      <c r="P15" t="s">
-        <v>210</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15" t="s">
-        <v>69</v>
-      </c>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
+        <v>213</v>
+      </c>
+      <c r="T15" t="s">
+        <v>214</v>
+      </c>
+      <c r="U15" t="s">
+        <v>215</v>
+      </c>
+      <c r="V15" t="s">
+        <v>216</v>
+      </c>
+      <c r="W15" t="s">
+        <v>217</v>
+      </c>
+      <c r="X15" t="s">
+        <v>218</v>
+      </c>
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
@@ -5209,58 +5230,78 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G16" t="s">
-        <v>216</v>
-      </c>
-      <c r="H16"/>
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>224</v>
+      </c>
       <c r="I16"/>
       <c r="J16" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
+        <v>226</v>
+      </c>
+      <c r="L16" t="s">
+        <v>227</v>
+      </c>
+      <c r="M16" t="s">
+        <v>228</v>
+      </c>
+      <c r="N16" t="s">
+        <v>229</v>
+      </c>
+      <c r="O16" t="s">
+        <v>230</v>
+      </c>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="T16" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="U16" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="V16" t="s">
-        <v>221</v>
-      </c>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
+        <v>234</v>
+      </c>
+      <c r="W16" t="s">
+        <v>235</v>
+      </c>
+      <c r="X16" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>239</v>
+      </c>
       <c r="AB16"/>
       <c r="AC16"/>
       <c r="AD16"/>
@@ -5281,278 +5322,252 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="C17" t="s">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" t="s">
-        <v>227</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="H17"/>
       <c r="I17"/>
       <c r="J17" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="K17" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="L17" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="M17" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="N17" t="s">
-        <v>232</v>
-      </c>
-      <c r="O17" t="s">
-        <v>233</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="T17" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="U17" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="V17" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="W17" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="X17" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Y17" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="Z17" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="AA17" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17"/>
-      <c r="AF17"/>
-      <c r="AG17"/>
-      <c r="AH17"/>
-      <c r="AI17"/>
-      <c r="AJ17"/>
-      <c r="AK17"/>
-      <c r="AL17"/>
-      <c r="AM17"/>
-      <c r="AN17"/>
-      <c r="AO17"/>
+        <v>257</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>270</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>271</v>
+      </c>
       <c r="AP17"/>
       <c r="AQ17"/>
       <c r="AR17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="C18" t="s">
         <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="G18" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="K18" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="L18" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="M18" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="N18" t="s">
-        <v>251</v>
-      </c>
-      <c r="O18"/>
+        <v>280</v>
+      </c>
+      <c r="O18" t="s">
+        <v>281</v>
+      </c>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="T18" t="s">
-        <v>253</v>
+        <v>87</v>
       </c>
       <c r="U18" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="V18" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="W18" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="X18" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="Y18" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>262</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>265</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>266</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>268</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>269</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>270</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>271</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>272</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>273</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>274</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
       <c r="AP18"/>
       <c r="AQ18"/>
       <c r="AR18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>290</v>
       </c>
       <c r="E19" t="s">
         <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="G19" t="s">
-        <v>278</v>
+        <v>137</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="K19" t="s">
-        <v>280</v>
-      </c>
-      <c r="L19" t="s">
-        <v>281</v>
-      </c>
-      <c r="M19" t="s">
-        <v>282</v>
-      </c>
-      <c r="N19" t="s">
-        <v>283</v>
-      </c>
-      <c r="O19" t="s">
-        <v>284</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19" t="s">
-        <v>285</v>
-      </c>
-      <c r="T19" t="s">
-        <v>87</v>
-      </c>
-      <c r="U19" t="s">
-        <v>286</v>
-      </c>
-      <c r="V19" t="s">
-        <v>287</v>
-      </c>
-      <c r="W19" t="s">
-        <v>288</v>
-      </c>
-      <c r="X19" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>290</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
       <c r="Z19"/>
       <c r="AA19"/>
       <c r="AB19"/>
@@ -5575,43 +5590,53 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B20" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>296</v>
       </c>
       <c r="D20" t="s">
-        <v>293</v>
+        <v>184</v>
       </c>
       <c r="E20" t="s">
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>298</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K20" t="s">
-        <v>296</v>
-      </c>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
+        <v>300</v>
+      </c>
+      <c r="L20" t="s">
+        <v>301</v>
+      </c>
+      <c r="M20" t="s">
+        <v>302</v>
+      </c>
+      <c r="N20" t="s">
+        <v>303</v>
+      </c>
+      <c r="O20" t="s">
+        <v>304</v>
+      </c>
+      <c r="P20" t="s">
+        <v>305</v>
+      </c>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20" t="s">
-        <v>69</v>
+        <v>306</v>
       </c>
       <c r="T20"/>
       <c r="U20"/>
@@ -5641,68 +5666,92 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
-        <v>299</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="E21" t="s">
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="G21" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="K21" t="s">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="M21" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="N21" t="s">
-        <v>306</v>
-      </c>
-      <c r="O21" t="s">
-        <v>307</v>
-      </c>
-      <c r="P21" t="s">
-        <v>308</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21" t="s">
-        <v>309</v>
-      </c>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
-      <c r="AG21"/>
+        <v>314</v>
+      </c>
+      <c r="T21" t="s">
+        <v>315</v>
+      </c>
+      <c r="U21" t="s">
+        <v>287</v>
+      </c>
+      <c r="V21" t="s">
+        <v>316</v>
+      </c>
+      <c r="W21" t="s">
+        <v>317</v>
+      </c>
+      <c r="X21" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>324</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>327</v>
+      </c>
       <c r="AH21"/>
       <c r="AI21"/>
       <c r="AJ21"/>
@@ -5717,39 +5766,39 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="B22" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="C22" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D22" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="E22" t="s">
         <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="K22" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="L22" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="M22" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="N22"/>
       <c r="O22"/>
@@ -5757,31 +5806,31 @@
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="T22" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="U22" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="V22" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="W22" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="X22" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="Y22" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="Z22" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="AA22" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="AB22"/>
       <c r="AC22"/>
@@ -5803,92 +5852,58 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="B23" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>346</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
         <v>48</v>
       </c>
-      <c r="F23" t="s">
-        <v>329</v>
-      </c>
+      <c r="F23"/>
       <c r="G23" t="s">
-        <v>144</v>
+        <v>347</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s">
-        <v>331</v>
-      </c>
-      <c r="M23" t="s">
-        <v>332</v>
-      </c>
-      <c r="N23" t="s">
-        <v>333</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M23"/>
+      <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23" t="s">
-        <v>334</v>
-      </c>
-      <c r="T23" t="s">
-        <v>325</v>
-      </c>
-      <c r="U23" t="s">
-        <v>290</v>
-      </c>
-      <c r="V23" t="s">
-        <v>335</v>
-      </c>
-      <c r="W23" t="s">
-        <v>336</v>
-      </c>
-      <c r="X23" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>338</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>341</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>342</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>343</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>345</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>346</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
       <c r="AH23"/>
       <c r="AI23"/>
       <c r="AJ23"/>
@@ -5903,49 +5918,67 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B24" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C24" t="s">
-        <v>349</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24"/>
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>353</v>
+      </c>
       <c r="G24" t="s">
-        <v>350</v>
+        <v>108</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>355</v>
       </c>
       <c r="L24" t="s">
-        <v>352</v>
-      </c>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
+        <v>356</v>
+      </c>
+      <c r="M24" t="s">
+        <v>357</v>
+      </c>
+      <c r="N24" t="s">
+        <v>358</v>
+      </c>
+      <c r="O24" t="s">
+        <v>359</v>
+      </c>
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24" t="s">
-        <v>353</v>
-      </c>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
+        <v>360</v>
+      </c>
+      <c r="T24" t="s">
+        <v>361</v>
+      </c>
+      <c r="U24" t="s">
+        <v>362</v>
+      </c>
+      <c r="V24" t="s">
+        <v>363</v>
+      </c>
+      <c r="W24" t="s">
+        <v>364</v>
+      </c>
+      <c r="X24" t="s">
+        <v>365</v>
+      </c>
       <c r="Y24"/>
       <c r="Z24"/>
       <c r="AA24"/>
@@ -5969,67 +6002,53 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B25" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>368</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="G25" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="K25" t="s">
-        <v>358</v>
+        <v>52</v>
       </c>
       <c r="L25" t="s">
-        <v>359</v>
-      </c>
-      <c r="M25" t="s">
-        <v>360</v>
-      </c>
-      <c r="N25" t="s">
-        <v>361</v>
-      </c>
-      <c r="O25" t="s">
-        <v>362</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="T25" t="s">
-        <v>364</v>
-      </c>
-      <c r="U25" t="s">
-        <v>365</v>
-      </c>
-      <c r="V25" t="s">
-        <v>366</v>
-      </c>
-      <c r="W25" t="s">
-        <v>367</v>
-      </c>
-      <c r="X25" t="s">
-        <v>368</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
       <c r="Y25"/>
       <c r="Z25"/>
       <c r="AA25"/>
@@ -6053,37 +6072,35 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B26" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C26" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>377</v>
       </c>
       <c r="E26" t="s">
         <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="G26" t="s">
-        <v>125</v>
+        <v>298</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" t="s">
-        <v>374</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
@@ -6091,11 +6108,9 @@
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26" t="s">
-        <v>375</v>
-      </c>
-      <c r="T26" t="s">
-        <v>376</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="T26"/>
       <c r="U26"/>
       <c r="V26"/>
       <c r="W26"/>
@@ -6123,48 +6138,60 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B27" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C27" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D27" t="s">
-        <v>214</v>
+        <v>385</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="G27" t="s">
-        <v>301</v>
+        <v>387</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="K27" t="s">
-        <v>382</v>
-      </c>
-      <c r="L27"/>
-      <c r="M27"/>
+        <v>389</v>
+      </c>
+      <c r="L27" t="s">
+        <v>390</v>
+      </c>
+      <c r="M27" t="s">
+        <v>391</v>
+      </c>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27" t="s">
-        <v>383</v>
-      </c>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
+        <v>392</v>
+      </c>
+      <c r="T27" t="s">
+        <v>393</v>
+      </c>
+      <c r="U27" t="s">
+        <v>394</v>
+      </c>
+      <c r="V27" t="s">
+        <v>395</v>
+      </c>
+      <c r="W27" t="s">
+        <v>396</v>
+      </c>
       <c r="X27"/>
       <c r="Y27"/>
       <c r="Z27"/>
@@ -6189,46 +6216,40 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B28" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>399</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="G28" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K28" t="s">
-        <v>388</v>
+        <v>199</v>
       </c>
       <c r="L28" t="s">
-        <v>389</v>
-      </c>
-      <c r="M28" t="s">
-        <v>390</v>
-      </c>
-      <c r="N28" t="s">
-        <v>391</v>
-      </c>
-      <c r="O28" t="s">
-        <v>392</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
@@ -6263,60 +6284,48 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B29" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C29" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D29" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="G29" t="s">
-        <v>398</v>
+        <v>197</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="K29" t="s">
-        <v>400</v>
-      </c>
-      <c r="L29" t="s">
-        <v>401</v>
-      </c>
-      <c r="M29" t="s">
-        <v>402</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L29"/>
+      <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29" t="s">
-        <v>403</v>
-      </c>
-      <c r="T29" t="s">
-        <v>404</v>
-      </c>
-      <c r="U29" t="s">
-        <v>405</v>
-      </c>
-      <c r="V29" t="s">
-        <v>406</v>
-      </c>
-      <c r="W29" t="s">
-        <v>407</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
       <c r="X29"/>
       <c r="Y29"/>
       <c r="Z29"/>
@@ -6341,37 +6350,37 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B30" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C30" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D30" t="s">
-        <v>411</v>
+        <v>290</v>
       </c>
       <c r="E30" t="s">
         <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G30" t="s">
-        <v>193</v>
-      </c>
-      <c r="H30"/>
+        <v>186</v>
+      </c>
+      <c r="H30" t="s">
+        <v>146</v>
+      </c>
       <c r="I30"/>
       <c r="J30" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K30" t="s">
-        <v>205</v>
-      </c>
-      <c r="L30" t="s">
-        <v>414</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
@@ -6409,35 +6418,37 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C31" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E31" t="s">
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
+        <v>421</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K31" t="s">
-        <v>52</v>
-      </c>
-      <c r="L31"/>
+        <v>423</v>
+      </c>
+      <c r="L31" t="s">
+        <v>424</v>
+      </c>
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
@@ -6445,7 +6456,7 @@
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31" t="s">
-        <v>421</v>
+        <v>69</v>
       </c>
       <c r="T31"/>
       <c r="U31"/>
@@ -6475,104 +6486,156 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B32" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C32" t="s">
-        <v>424</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>293</v>
+        <v>427</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G32" t="s">
-        <v>193</v>
-      </c>
-      <c r="H32" t="s">
-        <v>153</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="H32"/>
       <c r="I32"/>
       <c r="J32" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="K32" t="s">
-        <v>427</v>
-      </c>
-      <c r="L32"/>
-      <c r="M32"/>
+        <v>430</v>
+      </c>
+      <c r="L32" t="s">
+        <v>431</v>
+      </c>
+      <c r="M32" t="s">
+        <v>432</v>
+      </c>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32" t="s">
-        <v>69</v>
-      </c>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
-      <c r="AE32"/>
-      <c r="AF32"/>
-      <c r="AG32"/>
-      <c r="AH32"/>
-      <c r="AI32"/>
-      <c r="AJ32"/>
-      <c r="AK32"/>
-      <c r="AL32"/>
-      <c r="AM32"/>
-      <c r="AN32"/>
-      <c r="AO32"/>
-      <c r="AP32"/>
-      <c r="AQ32"/>
-      <c r="AR32"/>
+        <v>433</v>
+      </c>
+      <c r="T32" t="s">
+        <v>250</v>
+      </c>
+      <c r="U32" t="s">
+        <v>434</v>
+      </c>
+      <c r="V32" t="s">
+        <v>435</v>
+      </c>
+      <c r="W32" t="s">
+        <v>436</v>
+      </c>
+      <c r="X32" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>444</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>446</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>447</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>448</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>449</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>450</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>451</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>452</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>453</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>454</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>455</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>456</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="B33" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="C33" t="s">
-        <v>430</v>
+        <v>384</v>
       </c>
       <c r="D33" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="E33" t="s">
         <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="G33" t="s">
-        <v>433</v>
+        <v>137</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="K33" t="s">
-        <v>435</v>
+        <v>52</v>
       </c>
       <c r="L33" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="M33"/>
       <c r="N33"/>
@@ -6581,11 +6644,17 @@
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33" t="s">
-        <v>69</v>
-      </c>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
+        <v>464</v>
+      </c>
+      <c r="T33" t="s">
+        <v>465</v>
+      </c>
+      <c r="U33" t="s">
+        <v>466</v>
+      </c>
+      <c r="V33" t="s">
+        <v>467</v>
+      </c>
       <c r="W33"/>
       <c r="X33"/>
       <c r="Y33"/>
@@ -6611,39 +6680,39 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="B34" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="G34" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="K34" t="s">
-        <v>442</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="M34" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -6651,117 +6720,71 @@
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="T34" t="s">
-        <v>253</v>
+        <v>87</v>
       </c>
       <c r="U34" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="V34" t="s">
-        <v>447</v>
-      </c>
-      <c r="W34" t="s">
-        <v>448</v>
-      </c>
-      <c r="X34" t="s">
-        <v>449</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>450</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>452</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>453</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>454</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>455</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>456</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>457</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>458</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>459</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>460</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>461</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>462</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>463</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>464</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>465</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>466</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>467</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>468</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>469</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34"/>
+      <c r="AR34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B35" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C35" t="s">
-        <v>395</v>
+        <v>479</v>
       </c>
       <c r="D35" t="s">
-        <v>472</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
         <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="G35" t="s">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="K35" t="s">
-        <v>52</v>
-      </c>
-      <c r="L35" t="s">
-        <v>475</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
@@ -6769,17 +6792,11 @@
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35" t="s">
-        <v>476</v>
-      </c>
-      <c r="T35" t="s">
-        <v>477</v>
-      </c>
-      <c r="U35" t="s">
-        <v>478</v>
-      </c>
-      <c r="V35" t="s">
-        <v>479</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
@@ -6805,39 +6822,39 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B36" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C36" t="s">
-        <v>182</v>
+        <v>484</v>
       </c>
       <c r="D36" t="s">
-        <v>431</v>
+        <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F36" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>298</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K36" t="s">
-        <v>484</v>
+        <v>129</v>
       </c>
       <c r="L36" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M36" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -6845,17 +6862,13 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T36" t="s">
-        <v>87</v>
-      </c>
-      <c r="U36" t="s">
-        <v>488</v>
-      </c>
-      <c r="V36" t="s">
-        <v>489</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="U36"/>
+      <c r="V36"/>
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36"/>
@@ -6881,25 +6894,25 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B37" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C37" t="s">
-        <v>492</v>
+        <v>368</v>
       </c>
       <c r="D37" t="s">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
         <v>493</v>
       </c>
       <c r="G37" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
@@ -6907,7 +6920,7 @@
         <v>494</v>
       </c>
       <c r="K37" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L37"/>
       <c r="M37"/>
@@ -6917,12 +6930,20 @@
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37" t="s">
-        <v>69</v>
-      </c>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
+        <v>372</v>
+      </c>
+      <c r="T37" t="s">
+        <v>495</v>
+      </c>
+      <c r="U37" t="s">
+        <v>496</v>
+      </c>
+      <c r="V37" t="s">
+        <v>497</v>
+      </c>
+      <c r="W37" t="s">
+        <v>498</v>
+      </c>
       <c r="X37"/>
       <c r="Y37"/>
       <c r="Z37"/>
@@ -6947,47 +6968,43 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B38" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C38" t="s">
-        <v>497</v>
+        <v>368</v>
       </c>
       <c r="D38" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E38" t="s">
         <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G38" t="s">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="K38" t="s">
-        <v>136</v>
-      </c>
-      <c r="L38" t="s">
-        <v>501</v>
-      </c>
-      <c r="M38" t="s">
-        <v>502</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38"/>
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38" t="s">
-        <v>503</v>
+        <v>372</v>
       </c>
       <c r="T38" t="s">
         <v>504</v>
@@ -7025,24 +7042,28 @@
         <v>506</v>
       </c>
       <c r="C39" t="s">
-        <v>371</v>
+        <v>507</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>508</v>
       </c>
       <c r="E39" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39"/>
-      <c r="I39"/>
+        <v>510</v>
+      </c>
+      <c r="H39" t="s">
+        <v>511</v>
+      </c>
+      <c r="I39" t="s">
+        <v>512</v>
+      </c>
       <c r="J39" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="K39" t="s">
         <v>52</v>
@@ -7055,20 +7076,12 @@
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39" t="s">
-        <v>375</v>
-      </c>
-      <c r="T39" t="s">
-        <v>509</v>
-      </c>
-      <c r="U39" t="s">
-        <v>510</v>
-      </c>
-      <c r="V39" t="s">
-        <v>511</v>
-      </c>
-      <c r="W39" t="s">
-        <v>512</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
       <c r="X39"/>
       <c r="Y39"/>
       <c r="Z39"/>
@@ -7093,30 +7106,34 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>514</v>
+      </c>
+      <c r="B40" t="s">
+        <v>506</v>
+      </c>
+      <c r="C40" t="s">
+        <v>507</v>
+      </c>
+      <c r="D40" t="s">
+        <v>508</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" t="s">
+        <v>509</v>
+      </c>
+      <c r="G40" t="s">
+        <v>510</v>
+      </c>
+      <c r="H40" t="s">
+        <v>511</v>
+      </c>
+      <c r="I40" t="s">
+        <v>512</v>
+      </c>
+      <c r="J40" t="s">
         <v>513</v>
-      </c>
-      <c r="B40" t="s">
-        <v>514</v>
-      </c>
-      <c r="C40" t="s">
-        <v>371</v>
-      </c>
-      <c r="D40" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" t="s">
-        <v>515</v>
-      </c>
-      <c r="G40" t="s">
-        <v>125</v>
-      </c>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40" t="s">
-        <v>516</v>
       </c>
       <c r="K40" t="s">
         <v>52</v>
@@ -7129,11 +7146,9 @@
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40" t="s">
-        <v>375</v>
-      </c>
-      <c r="T40" t="s">
-        <v>517</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T40"/>
       <c r="U40"/>
       <c r="V40"/>
       <c r="W40"/>
@@ -7161,34 +7176,34 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B41" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C41" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="D41" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="E41" t="s">
         <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="G41" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H41" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="I41" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="J41" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="K41" t="s">
         <v>52</v>
@@ -7231,39 +7246,37 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B42" t="s">
+        <v>518</v>
+      </c>
+      <c r="C42" t="s">
+        <v>412</v>
+      </c>
+      <c r="D42" t="s">
         <v>519</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" t="s">
         <v>520</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42" t="s">
         <v>521</v>
       </c>
-      <c r="E42" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="K42" t="s">
+        <v>226</v>
+      </c>
+      <c r="L42" t="s">
         <v>522</v>
       </c>
-      <c r="G42" t="s">
-        <v>523</v>
-      </c>
-      <c r="H42" t="s">
-        <v>524</v>
-      </c>
-      <c r="I42" t="s">
-        <v>525</v>
-      </c>
-      <c r="J42" t="s">
-        <v>526</v>
-      </c>
-      <c r="K42" t="s">
-        <v>52</v>
-      </c>
-      <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
@@ -7301,39 +7314,37 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B43" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C43" t="s">
-        <v>520</v>
+        <v>384</v>
       </c>
       <c r="D43" t="s">
-        <v>521</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F43" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G43" t="s">
-        <v>529</v>
-      </c>
-      <c r="H43" t="s">
-        <v>524</v>
-      </c>
-      <c r="I43" t="s">
-        <v>525</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="H43"/>
+      <c r="I43"/>
       <c r="J43" t="s">
         <v>526</v>
       </c>
       <c r="K43" t="s">
         <v>52</v>
       </c>
-      <c r="L43"/>
+      <c r="L43" t="s">
+        <v>527</v>
+      </c>
       <c r="M43"/>
       <c r="N43"/>
       <c r="O43"/>
@@ -7341,7 +7352,7 @@
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43" t="s">
-        <v>69</v>
+        <v>528</v>
       </c>
       <c r="T43"/>
       <c r="U43"/>
@@ -7371,37 +7382,35 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>529</v>
+      </c>
+      <c r="B44" t="s">
         <v>530</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>531</v>
       </c>
-      <c r="C44" t="s">
-        <v>424</v>
-      </c>
       <c r="D44" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" t="s">
         <v>532</v>
       </c>
-      <c r="E44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" t="s">
-        <v>533</v>
-      </c>
       <c r="G44" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K44" t="s">
-        <v>229</v>
-      </c>
-      <c r="L44" t="s">
-        <v>535</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
@@ -7409,14 +7418,26 @@
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44" t="s">
-        <v>69</v>
-      </c>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
+        <v>372</v>
+      </c>
+      <c r="T44" t="s">
+        <v>534</v>
+      </c>
+      <c r="U44" t="s">
+        <v>535</v>
+      </c>
+      <c r="V44" t="s">
+        <v>536</v>
+      </c>
+      <c r="W44" t="s">
+        <v>466</v>
+      </c>
+      <c r="X44" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>537</v>
+      </c>
       <c r="Z44"/>
       <c r="AA44"/>
       <c r="AB44"/>
@@ -7439,50 +7460,62 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B45" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C45" t="s">
-        <v>395</v>
+        <v>540</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="E45" t="s">
         <v>93</v>
       </c>
       <c r="F45" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="G45" t="s">
-        <v>350</v>
+        <v>243</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K45" t="s">
-        <v>52</v>
+        <v>543</v>
       </c>
       <c r="L45" t="s">
-        <v>540</v>
-      </c>
-      <c r="M45"/>
-      <c r="N45"/>
+        <v>544</v>
+      </c>
+      <c r="M45" t="s">
+        <v>545</v>
+      </c>
+      <c r="N45" t="s">
+        <v>498</v>
+      </c>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45"/>
       <c r="S45" t="s">
-        <v>541</v>
-      </c>
-      <c r="T45"/>
-      <c r="U45"/>
-      <c r="V45"/>
-      <c r="W45"/>
+        <v>546</v>
+      </c>
+      <c r="T45" t="s">
+        <v>547</v>
+      </c>
+      <c r="U45" t="s">
+        <v>548</v>
+      </c>
+      <c r="V45" t="s">
+        <v>549</v>
+      </c>
+      <c r="W45" t="s">
+        <v>498</v>
+      </c>
       <c r="X45"/>
       <c r="Y45"/>
       <c r="Z45"/>
@@ -7507,61 +7540,67 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="B46" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C46" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F46" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>243</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="K46" t="s">
-        <v>136</v>
-      </c>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
+        <v>543</v>
+      </c>
+      <c r="L46" t="s">
+        <v>553</v>
+      </c>
+      <c r="M46" t="s">
+        <v>545</v>
+      </c>
+      <c r="N46" t="s">
+        <v>498</v>
+      </c>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46" t="s">
-        <v>375</v>
+        <v>554</v>
       </c>
       <c r="T46" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="U46" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="V46" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="W46" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="X46" t="s">
-        <v>82</v>
+        <v>559</v>
       </c>
       <c r="Y46" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="Z46"/>
       <c r="AA46"/>
@@ -7585,65 +7624,67 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B47" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="C47" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="D47" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
         <v>93</v>
       </c>
       <c r="F47" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="G47" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="K47" t="s">
-        <v>556</v>
+        <v>129</v>
       </c>
       <c r="L47" t="s">
-        <v>557</v>
-      </c>
-      <c r="M47" t="s">
-        <v>558</v>
-      </c>
-      <c r="N47" t="s">
-        <v>512</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="M47"/>
+      <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="T47" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="U47" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="V47" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="W47" t="s">
-        <v>512</v>
-      </c>
-      <c r="X47"/>
-      <c r="Y47"/>
-      <c r="Z47"/>
+        <v>571</v>
+      </c>
+      <c r="X47" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>573</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>574</v>
+      </c>
       <c r="AA47"/>
       <c r="AB47"/>
       <c r="AC47"/>
@@ -7665,70 +7706,76 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="B48" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="C48" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s">
         <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="G48" t="s">
-        <v>246</v>
+        <v>347</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="K48" t="s">
-        <v>556</v>
+        <v>52</v>
       </c>
       <c r="L48" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="M48" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="N48" t="s">
-        <v>512</v>
-      </c>
-      <c r="O48"/>
+        <v>280</v>
+      </c>
+      <c r="O48" t="s">
+        <v>582</v>
+      </c>
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="T48" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="U48" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="V48" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="W48" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="X48" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="Y48" t="s">
-        <v>573</v>
-      </c>
-      <c r="Z48"/>
-      <c r="AA48"/>
+        <v>588</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>590</v>
+      </c>
       <c r="AB48"/>
       <c r="AC48"/>
       <c r="AD48"/>
@@ -7749,67 +7796,53 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="B49" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="C49" t="s">
-        <v>576</v>
+        <v>412</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>427</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>577</v>
+        <v>69</v>
       </c>
       <c r="G49" t="s">
-        <v>125</v>
+        <v>593</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="K49" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="L49" t="s">
-        <v>579</v>
-      </c>
-      <c r="M49"/>
+        <v>595</v>
+      </c>
+      <c r="M49" t="s">
+        <v>596</v>
+      </c>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
-      <c r="S49" t="s">
-        <v>580</v>
-      </c>
-      <c r="T49" t="s">
-        <v>581</v>
-      </c>
-      <c r="U49" t="s">
-        <v>582</v>
-      </c>
-      <c r="V49" t="s">
-        <v>583</v>
-      </c>
-      <c r="W49" t="s">
-        <v>584</v>
-      </c>
-      <c r="X49" t="s">
-        <v>585</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>586</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>587</v>
-      </c>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
       <c r="AA49"/>
       <c r="AB49"/>
       <c r="AC49"/>
@@ -7831,76 +7864,56 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="B50" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="C50" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="E50" t="s">
         <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="G50" t="s">
-        <v>350</v>
+        <v>601</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="K50" t="s">
         <v>52</v>
       </c>
-      <c r="L50" t="s">
-        <v>593</v>
-      </c>
-      <c r="M50" t="s">
-        <v>594</v>
-      </c>
-      <c r="N50" t="s">
-        <v>283</v>
-      </c>
-      <c r="O50" t="s">
-        <v>595</v>
-      </c>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
       <c r="S50" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="T50" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="U50" t="s">
-        <v>597</v>
-      </c>
-      <c r="V50" t="s">
-        <v>598</v>
-      </c>
-      <c r="W50" t="s">
-        <v>599</v>
-      </c>
-      <c r="X50" t="s">
-        <v>600</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>601</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>602</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>603</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
       <c r="AB50"/>
       <c r="AC50"/>
       <c r="AD50"/>
@@ -7921,46 +7934,50 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B51" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C51" t="s">
-        <v>424</v>
+        <v>608</v>
       </c>
       <c r="D51" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="E51" t="s">
         <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
+        <v>609</v>
       </c>
       <c r="G51" t="s">
-        <v>216</v>
+        <v>421</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="K51" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L51" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="M51" t="s">
-        <v>608</v>
-      </c>
-      <c r="N51"/>
+        <v>612</v>
+      </c>
+      <c r="N51" t="s">
+        <v>613</v>
+      </c>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
-      <c r="S51"/>
+      <c r="S51" t="s">
+        <v>69</v>
+      </c>
       <c r="T51"/>
       <c r="U51"/>
       <c r="V51"/>
@@ -7989,35 +8006,37 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B52" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="C52" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F52" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="G52" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="K52" t="s">
         <v>52</v>
       </c>
-      <c r="L52"/>
+      <c r="L52" t="s">
+        <v>620</v>
+      </c>
       <c r="M52"/>
       <c r="N52"/>
       <c r="O52"/>
@@ -8025,14 +8044,10 @@
       <c r="Q52"/>
       <c r="R52"/>
       <c r="S52" t="s">
-        <v>615</v>
-      </c>
-      <c r="T52" t="s">
-        <v>616</v>
-      </c>
-      <c r="U52" t="s">
-        <v>617</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T52"/>
+      <c r="U52"/>
       <c r="V52"/>
       <c r="W52"/>
       <c r="X52"/>
@@ -8059,43 +8074,39 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B53" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C53" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D53" t="s">
-        <v>431</v>
+        <v>624</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="G53" t="s">
-        <v>433</v>
-      </c>
-      <c r="H53"/>
+        <v>626</v>
+      </c>
+      <c r="H53" t="s">
+        <v>627</v>
+      </c>
       <c r="I53"/>
       <c r="J53" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="K53" t="s">
-        <v>136</v>
-      </c>
-      <c r="L53" t="s">
-        <v>623</v>
-      </c>
-      <c r="M53" t="s">
-        <v>624</v>
-      </c>
-      <c r="N53" t="s">
-        <v>625</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
@@ -8131,38 +8142,40 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B54" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C54" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>385</v>
       </c>
       <c r="E54" t="s">
         <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G54" t="s">
-        <v>630</v>
+        <v>67</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K54" t="s">
         <v>52</v>
       </c>
       <c r="L54" t="s">
-        <v>632</v>
-      </c>
-      <c r="M54"/>
+        <v>634</v>
+      </c>
+      <c r="M54" t="s">
+        <v>635</v>
+      </c>
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
@@ -8199,32 +8212,30 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B55" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C55" t="s">
-        <v>635</v>
+        <v>412</v>
       </c>
       <c r="D55" t="s">
-        <v>636</v>
+        <v>385</v>
       </c>
       <c r="E55" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G55" t="s">
-        <v>638</v>
-      </c>
-      <c r="H55" t="s">
-        <v>639</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="H55"/>
       <c r="I55"/>
       <c r="J55" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K55" t="s">
         <v>52</v>
@@ -8267,40 +8278,34 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>640</v>
+      </c>
+      <c r="B56" t="s">
         <v>641</v>
       </c>
-      <c r="B56" t="s">
-        <v>642</v>
-      </c>
       <c r="C56" t="s">
-        <v>643</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
-        <v>396</v>
+        <v>143</v>
       </c>
       <c r="E56" t="s">
         <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G56" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="J56" t="s">
-        <v>645</v>
-      </c>
+      <c r="J56"/>
       <c r="K56" t="s">
-        <v>52</v>
-      </c>
-      <c r="L56" t="s">
-        <v>646</v>
-      </c>
-      <c r="M56" t="s">
-        <v>647</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="L56"/>
+      <c r="M56"/>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
@@ -8337,33 +8342,35 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B57" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C57" t="s">
-        <v>424</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>396</v>
+        <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F57" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G57" t="s">
-        <v>350</v>
-      </c>
-      <c r="H57"/>
+        <v>75</v>
+      </c>
+      <c r="H57" t="s">
+        <v>645</v>
+      </c>
       <c r="I57"/>
       <c r="J57" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K57" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="L57"/>
       <c r="M57"/>
@@ -8403,49 +8410,75 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B58" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>649</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F58" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G58" t="s">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="J58"/>
+      <c r="J58" t="s">
+        <v>652</v>
+      </c>
       <c r="K58" t="s">
-        <v>69</v>
-      </c>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
+        <v>653</v>
+      </c>
+      <c r="L58" t="s">
+        <v>654</v>
+      </c>
+      <c r="M58" t="s">
+        <v>655</v>
+      </c>
+      <c r="N58" t="s">
+        <v>656</v>
+      </c>
+      <c r="O58" t="s">
+        <v>657</v>
+      </c>
+      <c r="P58" t="s">
+        <v>658</v>
+      </c>
       <c r="Q58"/>
       <c r="R58"/>
       <c r="S58" t="s">
-        <v>69</v>
-      </c>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
-      <c r="Z58"/>
+        <v>659</v>
+      </c>
+      <c r="T58" t="s">
+        <v>660</v>
+      </c>
+      <c r="U58" t="s">
+        <v>661</v>
+      </c>
+      <c r="V58" t="s">
+        <v>662</v>
+      </c>
+      <c r="W58" t="s">
+        <v>663</v>
+      </c>
+      <c r="X58" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>665</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>666</v>
+      </c>
       <c r="AA58"/>
       <c r="AB58"/>
       <c r="AC58"/>
@@ -8467,37 +8500,37 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="B59" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="E59" t="s">
         <v>93</v>
       </c>
       <c r="F59" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="G59" t="s">
-        <v>75</v>
-      </c>
-      <c r="H59" t="s">
-        <v>657</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="H59"/>
       <c r="I59"/>
       <c r="J59" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="K59" t="s">
-        <v>69</v>
-      </c>
-      <c r="L59"/>
+        <v>671</v>
+      </c>
+      <c r="L59" t="s">
+        <v>672</v>
+      </c>
       <c r="M59"/>
       <c r="N59"/>
       <c r="O59"/>
@@ -8535,52 +8568,76 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="B60" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="C60" t="s">
         <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>331</v>
       </c>
       <c r="E60" t="s">
         <v>93</v>
       </c>
       <c r="F60" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="G60" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="K60" t="s">
-        <v>663</v>
+        <v>52</v>
       </c>
       <c r="L60" t="s">
-        <v>664</v>
-      </c>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
+        <v>677</v>
+      </c>
+      <c r="M60" t="s">
+        <v>678</v>
+      </c>
+      <c r="N60" t="s">
+        <v>679</v>
+      </c>
+      <c r="O60" t="s">
+        <v>680</v>
+      </c>
+      <c r="P60" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>682</v>
+      </c>
+      <c r="R60" t="s">
+        <v>683</v>
+      </c>
       <c r="S60" t="s">
-        <v>69</v>
-      </c>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-      <c r="W60"/>
-      <c r="X60"/>
-      <c r="Y60"/>
+        <v>684</v>
+      </c>
+      <c r="T60" t="s">
+        <v>685</v>
+      </c>
+      <c r="U60" t="s">
+        <v>686</v>
+      </c>
+      <c r="V60" t="s">
+        <v>687</v>
+      </c>
+      <c r="W60" t="s">
+        <v>688</v>
+      </c>
+      <c r="X60" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>690</v>
+      </c>
       <c r="Z60"/>
       <c r="AA60"/>
       <c r="AB60"/>
@@ -8603,76 +8660,52 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>665</v>
+        <v>691</v>
       </c>
       <c r="B61" t="s">
-        <v>666</v>
+        <v>692</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>693</v>
       </c>
       <c r="D61" t="s">
-        <v>313</v>
+        <v>92</v>
       </c>
       <c r="E61" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="G61" t="s">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61" t="s">
-        <v>668</v>
+        <v>695</v>
       </c>
       <c r="K61" t="s">
         <v>52</v>
       </c>
       <c r="L61" t="s">
-        <v>669</v>
-      </c>
-      <c r="M61" t="s">
-        <v>670</v>
-      </c>
-      <c r="N61" t="s">
-        <v>671</v>
-      </c>
-      <c r="O61" t="s">
-        <v>672</v>
-      </c>
-      <c r="P61" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>674</v>
-      </c>
-      <c r="R61" t="s">
-        <v>675</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
       <c r="S61" t="s">
-        <v>676</v>
-      </c>
-      <c r="T61" t="s">
-        <v>677</v>
-      </c>
-      <c r="U61" t="s">
-        <v>678</v>
-      </c>
-      <c r="V61" t="s">
-        <v>679</v>
-      </c>
-      <c r="W61" t="s">
-        <v>680</v>
-      </c>
-      <c r="X61" t="s">
-        <v>681</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>682</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
       <c r="Z61"/>
       <c r="AA61"/>
       <c r="AB61"/>
@@ -8695,13 +8728,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="B62" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="C62" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="D62" t="s">
         <v>92</v>
@@ -8710,34 +8743,42 @@
         <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>700</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="K62" t="s">
         <v>52</v>
       </c>
       <c r="L62" t="s">
-        <v>501</v>
-      </c>
-      <c r="M62"/>
+        <v>702</v>
+      </c>
+      <c r="M62" t="s">
+        <v>703</v>
+      </c>
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
       <c r="R62"/>
       <c r="S62" t="s">
-        <v>69</v>
-      </c>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
+        <v>372</v>
+      </c>
+      <c r="T62" t="s">
+        <v>704</v>
+      </c>
+      <c r="U62" t="s">
+        <v>705</v>
+      </c>
+      <c r="V62" t="s">
+        <v>706</v>
+      </c>
       <c r="W62"/>
       <c r="X62"/>
       <c r="Y62"/>
@@ -8763,57 +8804,49 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="B63" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="C63" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="D63" t="s">
-        <v>92</v>
+        <v>710</v>
       </c>
       <c r="E63" t="s">
         <v>48</v>
       </c>
       <c r="F63" t="s">
-        <v>691</v>
+        <v>711</v>
       </c>
       <c r="G63" t="s">
-        <v>692</v>
+        <v>347</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="K63" t="s">
         <v>52</v>
       </c>
       <c r="L63" t="s">
-        <v>694</v>
-      </c>
-      <c r="M63" t="s">
-        <v>695</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="M63"/>
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
       <c r="R63"/>
       <c r="S63" t="s">
-        <v>375</v>
-      </c>
-      <c r="T63" t="s">
-        <v>696</v>
-      </c>
-      <c r="U63" t="s">
-        <v>697</v>
-      </c>
-      <c r="V63" t="s">
-        <v>698</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
       <c r="W63"/>
       <c r="X63"/>
       <c r="Y63"/>
@@ -8839,38 +8872,42 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="B64" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="C64" t="s">
-        <v>701</v>
+        <v>46</v>
       </c>
       <c r="D64" t="s">
-        <v>702</v>
+        <v>92</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F64" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="G64" t="s">
-        <v>350</v>
-      </c>
-      <c r="H64"/>
+        <v>717</v>
+      </c>
+      <c r="H64" t="s">
+        <v>127</v>
+      </c>
       <c r="I64"/>
       <c r="J64" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="K64" t="s">
-        <v>52</v>
+        <v>719</v>
       </c>
       <c r="L64" t="s">
-        <v>705</v>
-      </c>
-      <c r="M64"/>
+        <v>720</v>
+      </c>
+      <c r="M64" t="s">
+        <v>721</v>
+      </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
@@ -8907,10 +8944,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="B65" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="C65" t="s">
         <v>46</v>
@@ -8922,33 +8959,35 @@
         <v>93</v>
       </c>
       <c r="F65" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="G65" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="H65" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I65"/>
       <c r="J65" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="K65" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="L65" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="M65" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
       <c r="R65"/>
-      <c r="S65"/>
+      <c r="S65" t="s">
+        <v>69</v>
+      </c>
       <c r="T65"/>
       <c r="U65"/>
       <c r="V65"/>
@@ -8977,10 +9016,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="B66" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="C66" t="s">
         <v>46</v>
@@ -8992,35 +9031,33 @@
         <v>93</v>
       </c>
       <c r="F66" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="G66" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="H66" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I66"/>
       <c r="J66" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="K66" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="L66" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="M66" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
       <c r="R66"/>
-      <c r="S66" t="s">
-        <v>69</v>
-      </c>
+      <c r="S66"/>
       <c r="T66"/>
       <c r="U66"/>
       <c r="V66"/>
@@ -9049,39 +9086,39 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="B67" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="C67" t="s">
         <v>105</v>
       </c>
       <c r="D67" t="s">
-        <v>498</v>
+        <v>208</v>
       </c>
       <c r="E67" t="s">
         <v>93</v>
       </c>
       <c r="F67" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="G67" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="K67" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L67" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="M67" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
@@ -9089,16 +9126,16 @@
       <c r="Q67"/>
       <c r="R67"/>
       <c r="S67" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="T67" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="U67" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="V67" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="W67"/>
       <c r="X67"/>
@@ -9125,13 +9162,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="B68" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="C68" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="D68" t="s">
         <v>106</v>
@@ -9140,58 +9177,58 @@
         <v>93</v>
       </c>
       <c r="F68" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="G68" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="K68" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L68" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="M68" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="N68" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
       <c r="R68"/>
       <c r="S68" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="T68" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="U68" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="V68" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="W68" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="X68" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="Y68" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Z68" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="AA68" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="AB68"/>
       <c r="AC68"/>
@@ -9213,13 +9250,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="B69" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="C69" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="D69" t="s">
         <v>106</v>
@@ -9228,15 +9265,15 @@
         <v>93</v>
       </c>
       <c r="F69" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="G69" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="K69" t="s">
         <v>69</v>
@@ -9279,39 +9316,39 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="B70" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="C70" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="D70" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="E70" t="s">
         <v>93</v>
       </c>
       <c r="F70" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="G70" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="K70" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L70" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="M70" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="N70"/>
       <c r="O70"/>
@@ -9319,19 +9356,19 @@
       <c r="Q70"/>
       <c r="R70"/>
       <c r="S70" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="T70" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="U70" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="V70" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="W70" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="X70"/>
       <c r="Y70"/>
@@ -9357,23 +9394,23 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="B71" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="C71" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="D71" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="E71" t="s">
         <v>93</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
@@ -9415,39 +9452,39 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="B72" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="C72" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E72" t="s">
         <v>93</v>
       </c>
       <c r="F72" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="G72" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="K72" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="L72" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="M72" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="N72"/>
       <c r="O72"/>
@@ -9455,28 +9492,28 @@
       <c r="Q72"/>
       <c r="R72"/>
       <c r="S72" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="T72" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="U72" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="V72" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="W72" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="X72" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="Y72" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="Z72" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="AA72"/>
       <c r="AB72"/>
@@ -9499,84 +9536,84 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B73" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="C73" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D73" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="E73" t="s">
         <v>93</v>
       </c>
       <c r="F73" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="G73" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="K73" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L73" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="M73" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="N73" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="O73" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="P73"/>
       <c r="Q73"/>
       <c r="R73"/>
       <c r="S73" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="T73" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="U73" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="V73" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="W73" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="X73" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="Y73" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="Z73" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="AA73" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="AB73" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="AC73" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="AD73" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="AE73"/>
       <c r="AF73"/>
@@ -9595,78 +9632,78 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="B74" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="C74" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="D74" t="s">
-        <v>214</v>
+        <v>377</v>
       </c>
       <c r="E74" t="s">
         <v>93</v>
       </c>
       <c r="F74" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="G74" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="K74" t="s">
         <v>52</v>
       </c>
       <c r="L74" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="M74" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="N74" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="O74" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="P74"/>
       <c r="Q74"/>
       <c r="R74"/>
       <c r="S74" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="T74" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="U74" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="V74" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="W74" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="X74" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="Y74" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="Z74" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="AA74" t="s">
         <v>87</v>
       </c>
       <c r="AB74" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="AC74"/>
       <c r="AD74"/>
@@ -9687,36 +9724,36 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="B75" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="C75" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="D75" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E75" t="s">
         <v>93</v>
       </c>
       <c r="F75" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="G75" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="K75" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L75" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="M75"/>
       <c r="N75"/>
@@ -9725,25 +9762,25 @@
       <c r="Q75"/>
       <c r="R75"/>
       <c r="S75" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="T75" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="U75" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="V75" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="W75" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="X75" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="Y75" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="Z75"/>
       <c r="AA75"/>
@@ -9767,22 +9804,22 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="B76" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="C76" t="s">
         <v>46</v>
       </c>
       <c r="D76" t="s">
-        <v>131</v>
+        <v>501</v>
       </c>
       <c r="E76" t="s">
         <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="G76" t="s">
         <v>67</v>
@@ -9790,13 +9827,13 @@
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="K76" t="s">
         <v>52</v>
       </c>
       <c r="L76" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="M76"/>
       <c r="N76"/>
@@ -9835,33 +9872,33 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="B77" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="C77" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="D77" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E77" t="s">
         <v>93</v>
       </c>
       <c r="F77" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="G77" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="K77" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L77"/>
       <c r="M77"/>
@@ -9871,16 +9908,16 @@
       <c r="Q77"/>
       <c r="R77"/>
       <c r="S77" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="T77" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="U77" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="V77" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="W77"/>
       <c r="X77"/>
@@ -9907,36 +9944,36 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="B78" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="C78" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="D78" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E78" t="s">
         <v>48</v>
       </c>
       <c r="F78" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="G78" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="K78" t="s">
         <v>52</v>
       </c>
       <c r="L78" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="M78"/>
       <c r="N78"/>
@@ -9945,13 +9982,13 @@
       <c r="Q78"/>
       <c r="R78"/>
       <c r="S78" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="T78" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="U78" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="V78"/>
       <c r="W78"/>
@@ -9979,58 +10016,58 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="B79" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="C79" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="D79" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E79" t="s">
         <v>48</v>
       </c>
       <c r="F79" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="G79" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="K79" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L79" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="M79" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="N79" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
       <c r="R79"/>
       <c r="S79" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="T79" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="U79" t="s">
         <v>87</v>
       </c>
       <c r="V79" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="W79"/>
       <c r="X79"/>
@@ -10057,58 +10094,58 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="B80" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="C80" t="s">
         <v>91</v>
       </c>
       <c r="D80" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="E80" t="s">
         <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="G80" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="K80" t="s">
         <v>52</v>
       </c>
       <c r="L80" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="M80" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="N80" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
       <c r="R80"/>
       <c r="S80" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="T80" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="U80" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="V80" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="W80"/>
       <c r="X80"/>
@@ -10135,30 +10172,30 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="B81" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="C81" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="D81" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E81" t="s">
         <v>48</v>
       </c>
       <c r="F81" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="G81" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="K81" t="s">
         <v>52</v>
@@ -10201,13 +10238,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="B82" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="C82" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="D82" t="s">
         <v>92</v>
@@ -10216,18 +10253,18 @@
         <v>48</v>
       </c>
       <c r="F82" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="G82" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="K82" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L82"/>
       <c r="M82"/>
@@ -10267,13 +10304,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="B83" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="C83" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="D83" t="s">
         <v>73</v>
@@ -10282,21 +10319,21 @@
         <v>48</v>
       </c>
       <c r="F83" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="G83" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="K83" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="L83" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="M83"/>
       <c r="N83"/>
@@ -10305,10 +10342,10 @@
       <c r="Q83"/>
       <c r="R83"/>
       <c r="S83" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="T83" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="U83" t="s">
         <v>87</v>
@@ -10339,36 +10376,36 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="B84" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="C84" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="D84" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E84" t="s">
         <v>48</v>
       </c>
       <c r="F84" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="G84" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H84"/>
       <c r="I84"/>
       <c r="J84" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="K84" t="s">
         <v>52</v>
       </c>
       <c r="L84" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="M84"/>
       <c r="N84"/>
@@ -10407,36 +10444,36 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="B85" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="C85" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="D85" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="E85" t="s">
         <v>48</v>
       </c>
       <c r="F85" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="G85" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
       <c r="K85" t="s">
         <v>52</v>
       </c>
       <c r="L85" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="M85"/>
       <c r="N85"/>
@@ -10445,7 +10482,7 @@
       <c r="Q85"/>
       <c r="R85"/>
       <c r="S85" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="T85"/>
       <c r="U85"/>
@@ -10475,13 +10512,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="B86" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="C86" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="D86" t="s">
         <v>65</v>
@@ -10490,51 +10527,51 @@
         <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="G86" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H86"/>
       <c r="I86"/>
       <c r="J86" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="K86" t="s">
         <v>52</v>
       </c>
       <c r="L86" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="M86" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="N86" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="O86" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="P86"/>
       <c r="Q86"/>
       <c r="R86"/>
       <c r="S86" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="T86" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
       <c r="U86" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
       <c r="V86" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="W86" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="X86" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="Y86"/>
       <c r="Z86"/>
@@ -10559,13 +10596,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="B87" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="C87" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="D87" t="s">
         <v>73</v>
@@ -10574,10 +10611,10 @@
         <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
       <c r="G87" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
@@ -10623,38 +10660,38 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="B88" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
       <c r="C88" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="D88" t="s">
-        <v>214</v>
+        <v>377</v>
       </c>
       <c r="E88" t="s">
         <v>48</v>
       </c>
       <c r="F88" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="G88" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
       <c r="H88" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I88"/>
       <c r="J88" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
       <c r="K88" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="L88" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="M88"/>
       <c r="N88"/>
@@ -10663,10 +10700,10 @@
       <c r="Q88"/>
       <c r="R88"/>
       <c r="S88" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="T88" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="U88"/>
       <c r="V88"/>
@@ -10695,63 +10732,63 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="B89" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="C89" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="D89" t="s">
-        <v>933</v>
+        <v>650</v>
       </c>
       <c r="E89" t="s">
         <v>48</v>
       </c>
       <c r="F89" t="s">
-        <v>934</v>
+        <v>943</v>
       </c>
       <c r="G89" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89" t="s">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="K89" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L89" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
       <c r="M89" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
       <c r="N89" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="O89" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="P89"/>
       <c r="Q89"/>
       <c r="R89"/>
       <c r="S89" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
       <c r="T89" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="U89" t="s">
         <v>87</v>
       </c>
       <c r="V89" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="W89" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="X89" t="s">
         <v>87</v>
@@ -10779,39 +10816,39 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="B90" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="C90" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="D90" t="s">
-        <v>214</v>
+        <v>377</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
       </c>
       <c r="F90" t="s">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="G90" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
       <c r="H90"/>
       <c r="I90"/>
       <c r="J90" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="K90" t="s">
         <v>52</v>
       </c>
       <c r="L90" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="M90" t="s">
-        <v>950</v>
+        <v>959</v>
       </c>
       <c r="N90"/>
       <c r="O90"/>
@@ -10819,16 +10856,16 @@
       <c r="Q90"/>
       <c r="R90"/>
       <c r="S90" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="T90" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="U90" t="s">
-        <v>952</v>
+        <v>215</v>
       </c>
       <c r="V90" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="W90"/>
       <c r="X90"/>
@@ -10855,39 +10892,39 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="B91" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="C91" t="s">
         <v>46</v>
       </c>
       <c r="D91" t="s">
-        <v>131</v>
+        <v>501</v>
       </c>
       <c r="E91" t="s">
         <v>48</v>
       </c>
       <c r="F91" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="G91" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="K91" t="s">
         <v>52</v>
       </c>
       <c r="L91" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="M91" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
@@ -10895,10 +10932,10 @@
       <c r="Q91"/>
       <c r="R91"/>
       <c r="S91" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="T91" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="U91"/>
       <c r="V91"/>
@@ -10927,39 +10964,39 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="B92" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="C92" t="s">
         <v>46</v>
       </c>
       <c r="D92" t="s">
-        <v>131</v>
+        <v>501</v>
       </c>
       <c r="E92" t="s">
         <v>48</v>
       </c>
       <c r="F92" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="G92" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="K92" t="s">
         <v>52</v>
       </c>
       <c r="L92" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="M92" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -10967,10 +11004,10 @@
       <c r="Q92"/>
       <c r="R92"/>
       <c r="S92" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="T92" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="U92"/>
       <c r="V92"/>
@@ -10999,39 +11036,39 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="B93" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="C93" t="s">
         <v>46</v>
       </c>
       <c r="D93" t="s">
-        <v>131</v>
+        <v>501</v>
       </c>
       <c r="E93" t="s">
         <v>48</v>
       </c>
       <c r="F93" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="G93" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="K93" t="s">
         <v>52</v>
       </c>
       <c r="L93" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="M93" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="N93"/>
       <c r="O93"/>
@@ -11039,10 +11076,10 @@
       <c r="Q93"/>
       <c r="R93"/>
       <c r="S93" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="T93" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="U93"/>
       <c r="V93"/>
@@ -11071,33 +11108,33 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="B94" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="C94" t="s">
         <v>46</v>
       </c>
       <c r="D94" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E94" t="s">
         <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="G94" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
       <c r="K94" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
@@ -11107,19 +11144,19 @@
       <c r="Q94"/>
       <c r="R94"/>
       <c r="S94" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
       <c r="T94" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="U94" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="V94" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="W94" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="X94"/>
       <c r="Y94"/>
@@ -11145,39 +11182,39 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="B95" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="C95" t="s">
         <v>91</v>
       </c>
       <c r="D95" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
       <c r="E95" t="s">
         <v>93</v>
       </c>
       <c r="F95" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="G95" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="K95" t="s">
         <v>52</v>
       </c>
       <c r="L95" t="s">
-        <v>977</v>
+        <v>985</v>
       </c>
       <c r="M95" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
       <c r="N95"/>
       <c r="O95"/>
@@ -11185,22 +11222,22 @@
       <c r="Q95"/>
       <c r="R95"/>
       <c r="S95" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="T95" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="U95" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="V95" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="W95" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="X95" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="Y95"/>
       <c r="Z95"/>
@@ -11225,35 +11262,35 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="B96" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="C96" t="s">
         <v>46</v>
       </c>
       <c r="D96" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="E96" t="s">
         <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="G96" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H96" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="I96"/>
       <c r="J96" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="K96" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="L96"/>
       <c r="M96"/>
@@ -11263,7 +11300,7 @@
       <c r="Q96"/>
       <c r="R96"/>
       <c r="S96" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="T96"/>
       <c r="U96"/>
@@ -11293,64 +11330,64 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="B97" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="C97" t="s">
-        <v>123</v>
+        <v>1001</v>
       </c>
       <c r="D97" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E97" t="s">
         <v>93</v>
       </c>
       <c r="F97" t="s">
-        <v>993</v>
+        <v>1002</v>
       </c>
       <c r="G97" t="s">
-        <v>994</v>
+        <v>1003</v>
       </c>
       <c r="H97"/>
       <c r="I97"/>
       <c r="J97" t="s">
-        <v>995</v>
+        <v>1004</v>
       </c>
       <c r="K97" t="s">
-        <v>996</v>
+        <v>1005</v>
       </c>
       <c r="L97" t="s">
-        <v>997</v>
+        <v>1006</v>
       </c>
       <c r="M97" t="s">
-        <v>998</v>
+        <v>1007</v>
       </c>
       <c r="N97" t="s">
-        <v>999</v>
+        <v>1008</v>
       </c>
       <c r="O97"/>
       <c r="P97"/>
       <c r="Q97"/>
       <c r="R97"/>
       <c r="S97" t="s">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="T97" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="U97" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="V97" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="W97" t="s">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="X97" t="s">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="Y97"/>
       <c r="Z97"/>
@@ -11375,57 +11412,57 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="B98" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="C98" t="s">
-        <v>123</v>
+        <v>1001</v>
       </c>
       <c r="D98" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E98" t="s">
         <v>93</v>
       </c>
       <c r="F98" t="s">
-        <v>993</v>
+        <v>1002</v>
       </c>
       <c r="G98" t="s">
-        <v>994</v>
+        <v>1003</v>
       </c>
       <c r="H98" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="I98"/>
       <c r="J98" t="s">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="K98" t="s">
         <v>52</v>
       </c>
       <c r="L98" t="s">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="M98" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="N98" t="s">
-        <v>1006</v>
+        <v>1015</v>
       </c>
       <c r="O98"/>
       <c r="P98"/>
       <c r="Q98"/>
       <c r="R98"/>
       <c r="S98" t="s">
-        <v>1007</v>
+        <v>1016</v>
       </c>
       <c r="T98" t="s">
-        <v>1008</v>
+        <v>1017</v>
       </c>
       <c r="U98" t="s">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="V98"/>
       <c r="W98"/>
@@ -11453,74 +11490,74 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>1010</v>
+        <v>1019</v>
       </c>
       <c r="B99" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="C99" t="s">
-        <v>123</v>
+        <v>1001</v>
       </c>
       <c r="D99" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E99" t="s">
         <v>93</v>
       </c>
       <c r="F99" t="s">
-        <v>993</v>
+        <v>1002</v>
       </c>
       <c r="G99" t="s">
-        <v>994</v>
+        <v>1003</v>
       </c>
       <c r="H99" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I99"/>
       <c r="J99" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="K99" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L99" t="s">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="M99" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="N99" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="O99" t="s">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="P99"/>
       <c r="Q99"/>
       <c r="R99"/>
       <c r="S99" t="s">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="T99" t="s">
-        <v>1017</v>
+        <v>1026</v>
       </c>
       <c r="U99" t="s">
-        <v>1018</v>
+        <v>1027</v>
       </c>
       <c r="V99" t="s">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="W99" t="s">
-        <v>1020</v>
+        <v>1029</v>
       </c>
       <c r="X99" t="s">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="Y99" t="s">
-        <v>1022</v>
+        <v>1031</v>
       </c>
       <c r="Z99" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AA99"/>
       <c r="AB99"/>
@@ -11543,39 +11580,39 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>1023</v>
+        <v>1032</v>
       </c>
       <c r="B100" t="s">
-        <v>1024</v>
+        <v>1033</v>
       </c>
       <c r="C100" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D100" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="E100" t="s">
         <v>93</v>
       </c>
       <c r="F100" t="s">
-        <v>1025</v>
+        <v>1034</v>
       </c>
       <c r="G100" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100" t="s">
-        <v>1026</v>
+        <v>1035</v>
       </c>
       <c r="K100" t="s">
         <v>52</v>
       </c>
       <c r="L100" t="s">
-        <v>1027</v>
+        <v>1036</v>
       </c>
       <c r="M100" t="s">
-        <v>1028</v>
+        <v>1037</v>
       </c>
       <c r="N100"/>
       <c r="O100"/>
@@ -11583,16 +11620,16 @@
       <c r="Q100"/>
       <c r="R100"/>
       <c r="S100" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="T100" t="s">
-        <v>1029</v>
+        <v>1038</v>
       </c>
       <c r="U100" t="s">
-        <v>1030</v>
+        <v>1039</v>
       </c>
       <c r="V100" t="s">
-        <v>1031</v>
+        <v>1040</v>
       </c>
       <c r="W100"/>
       <c r="X100"/>
@@ -11619,33 +11656,33 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>1032</v>
+        <v>1041</v>
       </c>
       <c r="B101" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
       <c r="C101" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D101" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E101" t="s">
         <v>48</v>
       </c>
       <c r="F101" t="s">
-        <v>1034</v>
+        <v>1043</v>
       </c>
       <c r="G101" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
       <c r="J101" t="s">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="K101" t="s">
-        <v>1036</v>
+        <v>1045</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
@@ -11655,7 +11692,7 @@
       <c r="Q101"/>
       <c r="R101"/>
       <c r="S101" t="s">
-        <v>1037</v>
+        <v>1046</v>
       </c>
       <c r="T101"/>
       <c r="U101"/>
@@ -11685,39 +11722,39 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>1038</v>
+        <v>1047</v>
       </c>
       <c r="B102" t="s">
-        <v>1039</v>
+        <v>1048</v>
       </c>
       <c r="C102" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D102" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="E102" t="s">
         <v>93</v>
       </c>
       <c r="F102" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="G102" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102" t="s">
-        <v>1041</v>
+        <v>1050</v>
       </c>
       <c r="K102" t="s">
         <v>52</v>
       </c>
       <c r="L102" t="s">
-        <v>1042</v>
+        <v>1051</v>
       </c>
       <c r="M102" t="s">
-        <v>1043</v>
+        <v>1052</v>
       </c>
       <c r="N102"/>
       <c r="O102"/>
@@ -11725,16 +11762,16 @@
       <c r="Q102"/>
       <c r="R102"/>
       <c r="S102" t="s">
-        <v>1044</v>
+        <v>1053</v>
       </c>
       <c r="T102" t="s">
-        <v>1045</v>
+        <v>1054</v>
       </c>
       <c r="U102" t="s">
-        <v>1046</v>
+        <v>1055</v>
       </c>
       <c r="V102" t="s">
-        <v>1047</v>
+        <v>1056</v>
       </c>
       <c r="W102"/>
       <c r="X102"/>
@@ -11761,69 +11798,69 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>1048</v>
+        <v>1057</v>
       </c>
       <c r="B103" t="s">
-        <v>1049</v>
+        <v>1058</v>
       </c>
       <c r="C103" t="s">
-        <v>1050</v>
+        <v>1059</v>
       </c>
       <c r="D103" t="s">
-        <v>1051</v>
+        <v>1060</v>
       </c>
       <c r="E103" t="s">
         <v>93</v>
       </c>
       <c r="F103" t="s">
-        <v>1052</v>
+        <v>1061</v>
       </c>
       <c r="G103" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103" t="s">
-        <v>1053</v>
+        <v>1062</v>
       </c>
       <c r="K103" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L103" t="s">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="M103" t="s">
-        <v>1054</v>
+        <v>1063</v>
       </c>
       <c r="N103" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="O103" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="P103"/>
       <c r="Q103"/>
       <c r="R103"/>
       <c r="S103" t="s">
-        <v>1055</v>
+        <v>1064</v>
       </c>
       <c r="T103" t="s">
-        <v>1056</v>
+        <v>1065</v>
       </c>
       <c r="U103" t="s">
-        <v>1057</v>
+        <v>1066</v>
       </c>
       <c r="V103" t="s">
-        <v>1058</v>
+        <v>1067</v>
       </c>
       <c r="W103" t="s">
-        <v>1059</v>
+        <v>1068</v>
       </c>
       <c r="X103" t="s">
-        <v>1060</v>
+        <v>1069</v>
       </c>
       <c r="Y103" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="Z103"/>
       <c r="AA103"/>
@@ -11847,36 +11884,36 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>1061</v>
+        <v>1070</v>
       </c>
       <c r="B104" t="s">
-        <v>1062</v>
+        <v>1071</v>
       </c>
       <c r="C104" t="s">
-        <v>1063</v>
+        <v>1072</v>
       </c>
       <c r="D104" t="s">
-        <v>411</v>
+        <v>124</v>
       </c>
       <c r="E104" t="s">
         <v>48</v>
       </c>
       <c r="F104" t="s">
-        <v>1064</v>
+        <v>1073</v>
       </c>
       <c r="G104" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="H104"/>
       <c r="I104"/>
       <c r="J104" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
       <c r="K104" t="s">
         <v>52</v>
       </c>
       <c r="L104" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="M104"/>
       <c r="N104"/>
@@ -11885,25 +11922,25 @@
       <c r="Q104"/>
       <c r="R104"/>
       <c r="S104" t="s">
-        <v>1066</v>
+        <v>1075</v>
       </c>
       <c r="T104" t="s">
-        <v>1067</v>
+        <v>1076</v>
       </c>
       <c r="U104" t="s">
-        <v>1068</v>
+        <v>1077</v>
       </c>
       <c r="V104" t="s">
-        <v>1069</v>
+        <v>1078</v>
       </c>
       <c r="W104" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="X104" t="s">
-        <v>1071</v>
+        <v>1080</v>
       </c>
       <c r="Y104" t="s">
-        <v>1072</v>
+        <v>1081</v>
       </c>
       <c r="Z104"/>
       <c r="AA104"/>
@@ -11927,22 +11964,22 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="B105" t="s">
-        <v>1074</v>
+        <v>1083</v>
       </c>
       <c r="C105" t="s">
-        <v>1075</v>
+        <v>1084</v>
       </c>
       <c r="D105" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E105" t="s">
         <v>93</v>
       </c>
       <c r="F105" t="s">
-        <v>1076</v>
+        <v>1085</v>
       </c>
       <c r="G105" t="s">
         <v>67</v>
@@ -11950,10 +11987,10 @@
       <c r="H105"/>
       <c r="I105"/>
       <c r="J105" t="s">
-        <v>1077</v>
+        <v>1086</v>
       </c>
       <c r="K105" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L105"/>
       <c r="M105"/>
@@ -11993,39 +12030,39 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>1078</v>
+        <v>1087</v>
       </c>
       <c r="B106" t="s">
-        <v>1079</v>
+        <v>1088</v>
       </c>
       <c r="C106" t="s">
         <v>46</v>
       </c>
       <c r="D106" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E106" t="s">
         <v>48</v>
       </c>
       <c r="F106" t="s">
-        <v>1080</v>
+        <v>1089</v>
       </c>
       <c r="G106" t="s">
-        <v>935</v>
+        <v>944</v>
       </c>
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106" t="s">
-        <v>1081</v>
+        <v>1090</v>
       </c>
       <c r="K106" t="s">
         <v>52</v>
       </c>
       <c r="L106" t="s">
-        <v>1082</v>
+        <v>1091</v>
       </c>
       <c r="M106" t="s">
-        <v>1083</v>
+        <v>1092</v>
       </c>
       <c r="N106"/>
       <c r="O106"/>
@@ -12033,16 +12070,16 @@
       <c r="Q106"/>
       <c r="R106"/>
       <c r="S106" t="s">
-        <v>1084</v>
+        <v>1093</v>
       </c>
       <c r="T106" t="s">
-        <v>1085</v>
+        <v>1094</v>
       </c>
       <c r="U106" t="s">
-        <v>1086</v>
+        <v>1095</v>
       </c>
       <c r="V106" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="W106"/>
       <c r="X106"/>
@@ -12069,36 +12106,36 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>1087</v>
+        <v>1096</v>
       </c>
       <c r="B107" t="s">
-        <v>1088</v>
+        <v>1097</v>
       </c>
       <c r="C107" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D107" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
       <c r="E107" t="s">
         <v>48</v>
       </c>
       <c r="F107" t="s">
-        <v>1089</v>
+        <v>1098</v>
       </c>
       <c r="G107" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H107"/>
       <c r="I107"/>
       <c r="J107" t="s">
-        <v>1090</v>
+        <v>1099</v>
       </c>
       <c r="K107" t="s">
         <v>52</v>
       </c>
       <c r="L107" t="s">
-        <v>1091</v>
+        <v>1100</v>
       </c>
       <c r="M107"/>
       <c r="N107"/>
@@ -12107,10 +12144,10 @@
       <c r="Q107"/>
       <c r="R107"/>
       <c r="S107" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="T107" t="s">
-        <v>1092</v>
+        <v>1101</v>
       </c>
       <c r="U107"/>
       <c r="V107"/>
@@ -12139,54 +12176,54 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>1093</v>
+        <v>1102</v>
       </c>
       <c r="B108" t="s">
-        <v>1094</v>
+        <v>1103</v>
       </c>
       <c r="C108" t="s">
-        <v>1095</v>
+        <v>1104</v>
       </c>
       <c r="D108" t="s">
-        <v>214</v>
+        <v>377</v>
       </c>
       <c r="E108" t="s">
         <v>93</v>
       </c>
       <c r="F108" t="s">
-        <v>1096</v>
+        <v>1105</v>
       </c>
       <c r="G108" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="s">
-        <v>1097</v>
+        <v>1106</v>
       </c>
       <c r="K108" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L108" t="s">
-        <v>1098</v>
+        <v>1107</v>
       </c>
       <c r="M108" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="N108" t="s">
-        <v>1100</v>
+        <v>1109</v>
       </c>
       <c r="O108" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
       <c r="P108"/>
       <c r="Q108"/>
       <c r="R108"/>
       <c r="S108" t="s">
-        <v>1101</v>
+        <v>1110</v>
       </c>
       <c r="T108" t="s">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="U108"/>
       <c r="V108"/>
@@ -12215,39 +12252,39 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="B109" t="s">
-        <v>1104</v>
+        <v>1113</v>
       </c>
       <c r="C109" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="D109" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="E109" t="s">
         <v>48</v>
       </c>
       <c r="F109" t="s">
-        <v>1105</v>
+        <v>1114</v>
       </c>
       <c r="G109" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="H109"/>
       <c r="I109"/>
       <c r="J109" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="K109" t="s">
         <v>52</v>
       </c>
       <c r="L109" t="s">
-        <v>1107</v>
+        <v>1116</v>
       </c>
       <c r="M109" t="s">
-        <v>1108</v>
+        <v>1117</v>
       </c>
       <c r="N109"/>
       <c r="O109"/>
@@ -12255,7 +12292,7 @@
       <c r="Q109"/>
       <c r="R109"/>
       <c r="S109" t="s">
-        <v>1109</v>
+        <v>1118</v>
       </c>
       <c r="T109"/>
       <c r="U109"/>
@@ -12285,22 +12322,22 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>1110</v>
+        <v>1119</v>
       </c>
       <c r="B110" t="s">
-        <v>1111</v>
+        <v>1120</v>
       </c>
       <c r="C110" t="s">
         <v>105</v>
       </c>
       <c r="D110" t="s">
-        <v>498</v>
+        <v>208</v>
       </c>
       <c r="E110" t="s">
         <v>48</v>
       </c>
       <c r="F110" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="G110" t="s">
         <v>67</v>
@@ -12308,35 +12345,35 @@
       <c r="H110"/>
       <c r="I110"/>
       <c r="J110" t="s">
-        <v>1113</v>
+        <v>1122</v>
       </c>
       <c r="K110" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="L110" t="s">
-        <v>1114</v>
+        <v>1123</v>
       </c>
       <c r="M110" t="s">
-        <v>1115</v>
+        <v>1124</v>
       </c>
       <c r="N110" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="O110"/>
       <c r="P110"/>
       <c r="Q110"/>
       <c r="R110"/>
       <c r="S110" t="s">
-        <v>1116</v>
+        <v>1125</v>
       </c>
       <c r="T110" t="s">
-        <v>1117</v>
+        <v>1126</v>
       </c>
       <c r="U110" t="s">
-        <v>1118</v>
+        <v>1127</v>
       </c>
       <c r="V110" t="s">
-        <v>1119</v>
+        <v>1128</v>
       </c>
       <c r="W110"/>
       <c r="X110"/>
@@ -12363,30 +12400,30 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>1120</v>
+        <v>1129</v>
       </c>
       <c r="B111" t="s">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="C111" t="s">
-        <v>1122</v>
+        <v>1131</v>
       </c>
       <c r="D111" t="s">
-        <v>1123</v>
+        <v>1132</v>
       </c>
       <c r="E111" t="s">
         <v>48</v>
       </c>
       <c r="F111" t="s">
-        <v>1124</v>
+        <v>1133</v>
       </c>
       <c r="G111" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H111"/>
       <c r="I111"/>
       <c r="J111" t="s">
-        <v>1125</v>
+        <v>1134</v>
       </c>
       <c r="K111" t="s">
         <v>52</v>
@@ -12399,22 +12436,22 @@
       <c r="Q111"/>
       <c r="R111"/>
       <c r="S111" t="s">
-        <v>1126</v>
+        <v>1135</v>
       </c>
       <c r="T111" t="s">
-        <v>1127</v>
+        <v>1136</v>
       </c>
       <c r="U111" t="s">
-        <v>1128</v>
+        <v>1137</v>
       </c>
       <c r="V111" t="s">
-        <v>1129</v>
+        <v>1138</v>
       </c>
       <c r="W111" t="s">
-        <v>1130</v>
+        <v>1139</v>
       </c>
       <c r="X111" t="s">
-        <v>1131</v>
+        <v>1140</v>
       </c>
       <c r="Y111"/>
       <c r="Z111"/>
@@ -12439,36 +12476,36 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>1132</v>
+        <v>1141</v>
       </c>
       <c r="B112" t="s">
-        <v>1133</v>
+        <v>1142</v>
       </c>
       <c r="C112" t="s">
-        <v>1134</v>
+        <v>1143</v>
       </c>
       <c r="D112" t="s">
-        <v>933</v>
+        <v>650</v>
       </c>
       <c r="E112" t="s">
         <v>48</v>
       </c>
       <c r="F112" t="s">
-        <v>1135</v>
+        <v>1144</v>
       </c>
       <c r="G112" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="H112"/>
       <c r="I112"/>
       <c r="J112" t="s">
-        <v>1136</v>
+        <v>1145</v>
       </c>
       <c r="K112" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L112" t="s">
-        <v>1137</v>
+        <v>1146</v>
       </c>
       <c r="M112"/>
       <c r="N112"/>
@@ -12477,22 +12514,22 @@
       <c r="Q112"/>
       <c r="R112"/>
       <c r="S112" t="s">
-        <v>1138</v>
+        <v>1147</v>
       </c>
       <c r="T112" t="s">
-        <v>1139</v>
+        <v>1148</v>
       </c>
       <c r="U112" t="s">
-        <v>1140</v>
+        <v>1149</v>
       </c>
       <c r="V112" t="s">
-        <v>1141</v>
+        <v>1150</v>
       </c>
       <c r="W112" t="s">
-        <v>1142</v>
+        <v>1151</v>
       </c>
       <c r="X112" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="Y112"/>
       <c r="Z112"/>
@@ -12517,22 +12554,22 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="B113" t="s">
-        <v>1144</v>
+        <v>1153</v>
       </c>
       <c r="C113" t="s">
         <v>91</v>
       </c>
       <c r="D113" t="s">
-        <v>214</v>
+        <v>377</v>
       </c>
       <c r="E113" t="s">
         <v>48</v>
       </c>
       <c r="F113" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="G113" t="s">
         <v>67</v>
@@ -12540,13 +12577,13 @@
       <c r="H113"/>
       <c r="I113"/>
       <c r="J113" t="s">
-        <v>1146</v>
+        <v>1155</v>
       </c>
       <c r="K113" t="s">
-        <v>484</v>
+        <v>211</v>
       </c>
       <c r="L113" t="s">
-        <v>1147</v>
+        <v>212</v>
       </c>
       <c r="M113"/>
       <c r="N113"/>
@@ -12555,22 +12592,22 @@
       <c r="Q113"/>
       <c r="R113"/>
       <c r="S113" t="s">
-        <v>1148</v>
+        <v>213</v>
       </c>
       <c r="T113" t="s">
-        <v>1149</v>
+        <v>214</v>
       </c>
       <c r="U113" t="s">
-        <v>952</v>
+        <v>215</v>
       </c>
       <c r="V113" t="s">
-        <v>1150</v>
+        <v>216</v>
       </c>
       <c r="W113" t="s">
-        <v>1151</v>
+        <v>217</v>
       </c>
       <c r="X113" t="s">
-        <v>1152</v>
+        <v>218</v>
       </c>
       <c r="Y113"/>
       <c r="Z113"/>
@@ -12595,86 +12632,86 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="B114" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="C114" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="D114" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E114" t="s">
         <v>93</v>
       </c>
       <c r="F114" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="G114" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H114"/>
       <c r="I114"/>
       <c r="J114" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="K114" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="L114" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="M114" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="N114" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="O114" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="P114" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="Q114"/>
       <c r="R114"/>
       <c r="S114" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="T114" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="U114" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="V114" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="W114" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="X114" t="s">
-        <v>952</v>
+        <v>215</v>
       </c>
       <c r="Y114" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="Z114" t="s">
         <v>87</v>
       </c>
       <c r="AA114" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="AB114" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="AC114" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="AD114" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="AE114"/>
       <c r="AF114"/>
@@ -12693,13 +12730,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="B115" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="C115" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="D115" t="s">
         <v>106</v>
@@ -12708,61 +12745,61 @@
         <v>93</v>
       </c>
       <c r="F115" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="G115" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="H115"/>
       <c r="I115"/>
       <c r="J115" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="K115" t="s">
         <v>52</v>
       </c>
       <c r="L115" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="M115" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="N115" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="O115"/>
       <c r="P115"/>
       <c r="Q115"/>
       <c r="R115"/>
       <c r="S115" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="T115" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="U115" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="V115" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="W115" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="X115" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="Y115" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="Z115" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="AA115" t="s">
         <v>87</v>
       </c>
       <c r="AB115" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="AC115"/>
       <c r="AD115"/>
@@ -12783,39 +12820,39 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="B116" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C116" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="D116" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E116" t="s">
         <v>93</v>
       </c>
       <c r="F116" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="G116" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="H116"/>
       <c r="I116"/>
       <c r="J116" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="K116" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L116" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="M116" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="N116"/>
       <c r="O116"/>
@@ -12823,16 +12860,16 @@
       <c r="Q116"/>
       <c r="R116"/>
       <c r="S116" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="T116" t="s">
         <v>87</v>
       </c>
       <c r="U116" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="V116" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="W116"/>
       <c r="X116"/>
@@ -12859,64 +12896,64 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="B117" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="C117" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="D117" t="s">
-        <v>498</v>
+        <v>208</v>
       </c>
       <c r="E117" t="s">
         <v>93</v>
       </c>
       <c r="F117" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="G117" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
       <c r="J117" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="K117" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L117" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="M117" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="N117" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="O117"/>
       <c r="P117"/>
       <c r="Q117"/>
       <c r="R117"/>
       <c r="S117" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="T117" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="U117" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="V117" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="W117" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="X117" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="Y117"/>
       <c r="Z117"/>
@@ -12941,39 +12978,39 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="B118" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="C118" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="D118" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="E118" t="s">
         <v>48</v>
       </c>
       <c r="F118" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="G118" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
       <c r="J118" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="K118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L118" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="M118" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="N118"/>
       <c r="O118"/>
@@ -12981,19 +13018,19 @@
       <c r="Q118"/>
       <c r="R118"/>
       <c r="S118" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="T118" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="U118" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="V118" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="W118" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="X118"/>
       <c r="Y118"/>
@@ -13019,10 +13056,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="B119" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="C119" t="s">
         <v>46</v>
@@ -13034,45 +13071,45 @@
         <v>93</v>
       </c>
       <c r="F119" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="G119" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H119"/>
       <c r="I119"/>
       <c r="J119" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="K119" t="s">
         <v>52</v>
       </c>
       <c r="L119" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="M119" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="N119" t="s">
-        <v>1027</v>
+        <v>1036</v>
       </c>
       <c r="O119" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="P119" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="Q119" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="R119" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="S119" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="T119" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="U119"/>
       <c r="V119"/>

--- a/synopsis.PDtremorSystematicReview.xlsx
+++ b/synopsis.PDtremorSystematicReview.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="1246">
   <si>
     <t xml:space="preserve">Authors</t>
   </si>
@@ -465,6 +465,45 @@
   </si>
   <si>
     <t xml:space="preserve">treatment with dopamine agonists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brooks et al. 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A placebo-controlled evaluation of ropinirole, a novel D2 agonist, as sole dopaminergic therapy in Parkinson's disease.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clin Neuropharm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To evaluate the effects and the safety of ropinirole on iPS-patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ropinirole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randomisation to a. ropinirole or b. placebo on a 2:1 ratio. Dosage of study medication was increased at .5 steps to a maximal dosage of 5mg bid, with dosages being adjusted at the discretion of the investigator, e.g., if side effects appeared</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> age between 30 and 80 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hoehn and Yahr stages between 1 and 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> necessity of dopaminergic therapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients with childbearing potential</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> patients with abnormalities in their medical history, physical examination or diagnostic testing that were deemed to be clinically significant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> patients with orthostatic hypotension</t>
   </si>
   <si>
     <t xml:space="preserve">Bullock et al. 2021</t>
@@ -2964,9 +3003,6 @@
     <t xml:space="preserve">Parkinson’s disease improved function with GM1 ganglioside treatment in a randomized placebo-controlled study</t>
   </si>
   <si>
-    <t xml:space="preserve">1998</t>
-  </si>
-  <si>
     <t xml:space="preserve">To study the effects of GM1-ganglioside injections on motor symptoms of iPS-patients</t>
   </si>
   <si>
@@ -3025,9 +3061,6 @@
   </si>
   <si>
     <t xml:space="preserve">To analyse the effects of ropinirole on tremor in iPS-patients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ropinirole</t>
   </si>
   <si>
     <t xml:space="preserve">All antiparkinsonian treatments, except selegiline, were discontinued at least 4 weeks prior to study entry. Patients were entered into seven day placebo run-in period to assess compliance. Patients who were at least 80% compliant
@@ -3082,13 +3115,7 @@
     <t xml:space="preserve">Randomisation to a. ropinirole or b. levodopa. Dosage of study medication were adjusted weekly. Ropinirole was initiated at 0.25mg tid and levodopa therapy at 50mg qd plus placebo twice daily. Maximal dosages were 8mg ropinirole tid  and 400mg levodopa tid. Patients without adequate symptom control despite highest tolerated dose, could be given supplementary levodopa. No other antiparkinsonian therapies were permitted after study initiation.</t>
   </si>
   <si>
-    <t xml:space="preserve"> age between 30 and 80 years</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Hoehn and Yahr stages between 1 and 3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> necessity of dopaminergic therapy</t>
   </si>
   <si>
     <t xml:space="preserve"> Prior treatment with levodopa or dopamine agonists limited to a maximum of six weeks and discontinuation at least two weeks before entry into the study</t>
@@ -4812,7 +4839,7 @@
         <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
         <v>155</v>
@@ -4826,26 +4853,30 @@
         <v>157</v>
       </c>
       <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
         <v>158</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>159</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>160</v>
-      </c>
-      <c r="N10" t="s">
-        <v>161</v>
       </c>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10" t="s">
+        <v>161</v>
+      </c>
+      <c r="T10" t="s">
         <v>162</v>
       </c>
-      <c r="T10"/>
-      <c r="U10"/>
+      <c r="U10" t="s">
+        <v>163</v>
+      </c>
       <c r="V10"/>
       <c r="W10"/>
       <c r="X10"/>
@@ -4872,45 +4903,49 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L11" t="s">
-        <v>171</v>
-      </c>
-      <c r="M11"/>
-      <c r="N11"/>
+        <v>172</v>
+      </c>
+      <c r="M11" t="s">
+        <v>173</v>
+      </c>
+      <c r="N11" t="s">
+        <v>174</v>
+      </c>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="T11"/>
       <c r="U11"/>
@@ -4940,33 +4975,37 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12"/>
+      <c r="J12" t="s">
+        <v>182</v>
+      </c>
       <c r="K12" t="s">
-        <v>178</v>
-      </c>
-      <c r="L12"/>
+        <v>183</v>
+      </c>
+      <c r="L12" t="s">
+        <v>184</v>
+      </c>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
@@ -4974,11 +5013,9 @@
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12" t="s">
-        <v>179</v>
-      </c>
-      <c r="T12" t="s">
-        <v>180</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="T12"/>
       <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
@@ -5006,49 +5043,45 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
         <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13" t="s">
-        <v>187</v>
-      </c>
+      <c r="J13"/>
       <c r="K13" t="s">
-        <v>188</v>
-      </c>
-      <c r="L13" t="s">
-        <v>189</v>
-      </c>
-      <c r="M13" t="s">
-        <v>190</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13" t="s">
-        <v>191</v>
-      </c>
-      <c r="T13"/>
+        <v>192</v>
+      </c>
+      <c r="T13" t="s">
+        <v>193</v>
+      </c>
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
@@ -5076,53 +5109,47 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M14" t="s">
-        <v>201</v>
-      </c>
-      <c r="N14" t="s">
-        <v>202</v>
-      </c>
-      <c r="O14" t="s">
         <v>203</v>
       </c>
-      <c r="P14" t="s">
-        <v>204</v>
-      </c>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="T14"/>
       <c r="U14"/>
@@ -5164,49 +5191,47 @@
         <v>208</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
         <v>209</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L15" t="s">
-        <v>212</v>
-      </c>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
+        <v>213</v>
+      </c>
+      <c r="M15" t="s">
+        <v>214</v>
+      </c>
+      <c r="N15" t="s">
+        <v>215</v>
+      </c>
+      <c r="O15" t="s">
+        <v>216</v>
+      </c>
+      <c r="P15" t="s">
+        <v>217</v>
+      </c>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15" t="s">
-        <v>213</v>
-      </c>
-      <c r="T15" t="s">
-        <v>214</v>
-      </c>
-      <c r="U15" t="s">
-        <v>215</v>
-      </c>
-      <c r="V15" t="s">
-        <v>216</v>
-      </c>
-      <c r="W15" t="s">
-        <v>217</v>
-      </c>
-      <c r="X15" t="s">
-        <v>218</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15"/>
@@ -5230,78 +5255,64 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" t="s">
         <v>219</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>220</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>221</v>
-      </c>
-      <c r="D16" t="s">
-        <v>222</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G16" t="s">
         <v>67</v>
       </c>
-      <c r="H16" t="s">
-        <v>224</v>
-      </c>
+      <c r="H16"/>
       <c r="I16"/>
       <c r="J16" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" t="s">
+        <v>224</v>
+      </c>
+      <c r="L16" t="s">
         <v>225</v>
       </c>
-      <c r="K16" t="s">
-        <v>226</v>
-      </c>
-      <c r="L16" t="s">
-        <v>227</v>
-      </c>
-      <c r="M16" t="s">
-        <v>228</v>
-      </c>
-      <c r="N16" t="s">
-        <v>229</v>
-      </c>
-      <c r="O16" t="s">
-        <v>230</v>
-      </c>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16" t="s">
+        <v>226</v>
+      </c>
+      <c r="T16" t="s">
+        <v>227</v>
+      </c>
+      <c r="U16" t="s">
+        <v>228</v>
+      </c>
+      <c r="V16" t="s">
+        <v>229</v>
+      </c>
+      <c r="W16" t="s">
+        <v>230</v>
+      </c>
+      <c r="X16" t="s">
         <v>231</v>
       </c>
-      <c r="T16" t="s">
-        <v>232</v>
-      </c>
-      <c r="U16" t="s">
-        <v>233</v>
-      </c>
-      <c r="V16" t="s">
-        <v>234</v>
-      </c>
-      <c r="W16" t="s">
-        <v>235</v>
-      </c>
-      <c r="X16" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>239</v>
-      </c>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
       <c r="AB16"/>
       <c r="AC16"/>
       <c r="AD16"/>
@@ -5322,252 +5333,278 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>234</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G17" t="s">
-        <v>243</v>
-      </c>
-      <c r="H17"/>
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>237</v>
+      </c>
       <c r="I17"/>
       <c r="J17" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K17" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L17" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M17" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N17" t="s">
-        <v>248</v>
-      </c>
-      <c r="O17"/>
+        <v>242</v>
+      </c>
+      <c r="O17" t="s">
+        <v>243</v>
+      </c>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17" t="s">
+        <v>244</v>
+      </c>
+      <c r="T17" t="s">
+        <v>245</v>
+      </c>
+      <c r="U17" t="s">
+        <v>246</v>
+      </c>
+      <c r="V17" t="s">
+        <v>247</v>
+      </c>
+      <c r="W17" t="s">
+        <v>248</v>
+      </c>
+      <c r="X17" t="s">
         <v>249</v>
       </c>
-      <c r="T17" t="s">
+      <c r="Y17" t="s">
         <v>250</v>
       </c>
-      <c r="U17" t="s">
+      <c r="Z17" t="s">
         <v>251</v>
       </c>
-      <c r="V17" t="s">
+      <c r="AA17" t="s">
         <v>252</v>
       </c>
-      <c r="W17" t="s">
-        <v>253</v>
-      </c>
-      <c r="X17" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>261</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>264</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>265</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>266</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>267</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>268</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>269</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>270</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>271</v>
-      </c>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
       <c r="AP17"/>
       <c r="AQ17"/>
       <c r="AR17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B18" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="C18" t="s">
         <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="G18" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="K18" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="L18" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="M18" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="N18" t="s">
-        <v>280</v>
-      </c>
-      <c r="O18" t="s">
-        <v>281</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18" t="s">
+        <v>262</v>
+      </c>
+      <c r="T18" t="s">
+        <v>263</v>
+      </c>
+      <c r="U18" t="s">
+        <v>264</v>
+      </c>
+      <c r="V18" t="s">
+        <v>265</v>
+      </c>
+      <c r="W18" t="s">
+        <v>266</v>
+      </c>
+      <c r="X18" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>278</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>281</v>
+      </c>
+      <c r="AM18" t="s">
         <v>282</v>
       </c>
-      <c r="T18" t="s">
-        <v>87</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="AN18" t="s">
         <v>283</v>
       </c>
-      <c r="V18" t="s">
+      <c r="AO18" t="s">
         <v>284</v>
       </c>
-      <c r="W18" t="s">
-        <v>285</v>
-      </c>
-      <c r="X18" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
-      <c r="AG18"/>
-      <c r="AH18"/>
-      <c r="AI18"/>
-      <c r="AJ18"/>
-      <c r="AK18"/>
-      <c r="AL18"/>
-      <c r="AM18"/>
-      <c r="AN18"/>
-      <c r="AO18"/>
       <c r="AP18"/>
       <c r="AQ18"/>
       <c r="AR18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>290</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
         <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
+        <v>288</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19" t="s">
+        <v>289</v>
+      </c>
+      <c r="K19" t="s">
+        <v>290</v>
+      </c>
+      <c r="L19" t="s">
+        <v>291</v>
+      </c>
+      <c r="M19" t="s">
         <v>292</v>
       </c>
-      <c r="K19" t="s">
+      <c r="N19" t="s">
         <v>293</v>
       </c>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
+      <c r="O19" t="s">
+        <v>294</v>
+      </c>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19" t="s">
-        <v>69</v>
-      </c>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
+        <v>295</v>
+      </c>
+      <c r="T19" t="s">
+        <v>87</v>
+      </c>
+      <c r="U19" t="s">
+        <v>296</v>
+      </c>
+      <c r="V19" t="s">
+        <v>297</v>
+      </c>
+      <c r="W19" t="s">
+        <v>298</v>
+      </c>
+      <c r="X19" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>300</v>
+      </c>
       <c r="Z19"/>
       <c r="AA19"/>
       <c r="AB19"/>
@@ -5590,53 +5627,43 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>303</v>
       </c>
       <c r="E20" t="s">
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="G20" t="s">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K20" t="s">
-        <v>300</v>
-      </c>
-      <c r="L20" t="s">
-        <v>301</v>
-      </c>
-      <c r="M20" t="s">
-        <v>302</v>
-      </c>
-      <c r="N20" t="s">
-        <v>303</v>
-      </c>
-      <c r="O20" t="s">
-        <v>304</v>
-      </c>
-      <c r="P20" t="s">
-        <v>305</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20" t="s">
-        <v>306</v>
+        <v>69</v>
       </c>
       <c r="T20"/>
       <c r="U20"/>
@@ -5672,86 +5699,62 @@
         <v>308</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>309</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="E21" t="s">
         <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>311</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>313</v>
       </c>
       <c r="L21" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M21" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N21" t="s">
-        <v>313</v>
-      </c>
-      <c r="O21"/>
-      <c r="P21"/>
+        <v>316</v>
+      </c>
+      <c r="O21" t="s">
+        <v>317</v>
+      </c>
+      <c r="P21" t="s">
+        <v>318</v>
+      </c>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21" t="s">
-        <v>314</v>
-      </c>
-      <c r="T21" t="s">
-        <v>315</v>
-      </c>
-      <c r="U21" t="s">
-        <v>287</v>
-      </c>
-      <c r="V21" t="s">
-        <v>316</v>
-      </c>
-      <c r="W21" t="s">
-        <v>317</v>
-      </c>
-      <c r="X21" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y21" t="s">
         <v>319</v>
       </c>
-      <c r="Z21" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>321</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>322</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>324</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>325</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>327</v>
-      </c>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
       <c r="AH21"/>
       <c r="AI21"/>
       <c r="AJ21"/>
@@ -5766,22 +5769,22 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B22" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C22" t="s">
-        <v>330</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G22" t="s">
         <v>137</v>
@@ -5789,55 +5792,69 @@
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="K22" t="s">
-        <v>334</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="M22" t="s">
-        <v>336</v>
-      </c>
-      <c r="N22"/>
+        <v>325</v>
+      </c>
+      <c r="N22" t="s">
+        <v>326</v>
+      </c>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22" t="s">
+        <v>327</v>
+      </c>
+      <c r="T22" t="s">
+        <v>328</v>
+      </c>
+      <c r="U22" t="s">
+        <v>300</v>
+      </c>
+      <c r="V22" t="s">
+        <v>329</v>
+      </c>
+      <c r="W22" t="s">
+        <v>330</v>
+      </c>
+      <c r="X22" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD22" t="s">
         <v>337</v>
       </c>
-      <c r="T22" t="s">
+      <c r="AE22" t="s">
         <v>338</v>
       </c>
-      <c r="U22" t="s">
+      <c r="AF22" t="s">
         <v>339</v>
       </c>
-      <c r="V22" t="s">
+      <c r="AG22" t="s">
         <v>340</v>
       </c>
-      <c r="W22" t="s">
-        <v>287</v>
-      </c>
-      <c r="X22" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>342</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>343</v>
-      </c>
-      <c r="AB22"/>
-      <c r="AC22"/>
-      <c r="AD22"/>
-      <c r="AE22"/>
-      <c r="AF22"/>
-      <c r="AG22"/>
       <c r="AH22"/>
       <c r="AI22"/>
       <c r="AJ22"/>
@@ -5852,36 +5869,40 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23" t="s">
+        <v>342</v>
+      </c>
+      <c r="C23" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" t="s">
         <v>344</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
         <v>345</v>
       </c>
-      <c r="C23" t="s">
-        <v>346</v>
-      </c>
-      <c r="D23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23"/>
       <c r="G23" t="s">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" t="s">
+        <v>346</v>
+      </c>
+      <c r="K23" t="s">
+        <v>347</v>
+      </c>
+      <c r="L23" t="s">
         <v>348</v>
       </c>
-      <c r="K23" t="s">
-        <v>199</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>349</v>
       </c>
-      <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
@@ -5890,14 +5911,30 @@
       <c r="S23" t="s">
         <v>350</v>
       </c>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
+      <c r="T23" t="s">
+        <v>351</v>
+      </c>
+      <c r="U23" t="s">
+        <v>352</v>
+      </c>
+      <c r="V23" t="s">
+        <v>353</v>
+      </c>
+      <c r="W23" t="s">
+        <v>300</v>
+      </c>
+      <c r="X23" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>356</v>
+      </c>
       <c r="AB23"/>
       <c r="AC23"/>
       <c r="AD23"/>
@@ -5918,67 +5955,49 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B24" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>359</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" t="s">
-        <v>353</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F24"/>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>360</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="K24" t="s">
-        <v>355</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
-        <v>356</v>
-      </c>
-      <c r="M24" t="s">
-        <v>357</v>
-      </c>
-      <c r="N24" t="s">
-        <v>358</v>
-      </c>
-      <c r="O24" t="s">
-        <v>359</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24" t="s">
-        <v>360</v>
-      </c>
-      <c r="T24" t="s">
-        <v>361</v>
-      </c>
-      <c r="U24" t="s">
-        <v>362</v>
-      </c>
-      <c r="V24" t="s">
         <v>363</v>
       </c>
-      <c r="W24" t="s">
-        <v>364</v>
-      </c>
-      <c r="X24" t="s">
-        <v>365</v>
-      </c>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
       <c r="Y24"/>
       <c r="Z24"/>
       <c r="AA24"/>
@@ -6002,53 +6021,67 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" t="s">
         <v>366</v>
       </c>
-      <c r="B25" t="s">
-        <v>367</v>
-      </c>
-      <c r="C25" t="s">
-        <v>368</v>
-      </c>
-      <c r="D25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" t="s">
-        <v>369</v>
-      </c>
       <c r="G25" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25" t="s">
+        <v>367</v>
+      </c>
+      <c r="K25" t="s">
+        <v>368</v>
+      </c>
+      <c r="L25" t="s">
+        <v>369</v>
+      </c>
+      <c r="M25" t="s">
         <v>370</v>
       </c>
-      <c r="K25" t="s">
-        <v>52</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="N25" t="s">
         <v>371</v>
       </c>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
+      <c r="O25" t="s">
+        <v>372</v>
+      </c>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="T25" t="s">
-        <v>373</v>
-      </c>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
+        <v>374</v>
+      </c>
+      <c r="U25" t="s">
+        <v>375</v>
+      </c>
+      <c r="V25" t="s">
+        <v>376</v>
+      </c>
+      <c r="W25" t="s">
+        <v>377</v>
+      </c>
+      <c r="X25" t="s">
+        <v>378</v>
+      </c>
       <c r="Y25"/>
       <c r="Z25"/>
       <c r="AA25"/>
@@ -6072,35 +6105,37 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B26" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C26" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D26" t="s">
-        <v>377</v>
+        <v>208</v>
       </c>
       <c r="E26" t="s">
         <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G26" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K26" t="s">
-        <v>380</v>
-      </c>
-      <c r="L26"/>
+        <v>52</v>
+      </c>
+      <c r="L26" t="s">
+        <v>384</v>
+      </c>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
@@ -6108,9 +6143,11 @@
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26" t="s">
-        <v>381</v>
-      </c>
-      <c r="T26"/>
+        <v>385</v>
+      </c>
+      <c r="T26" t="s">
+        <v>386</v>
+      </c>
       <c r="U26"/>
       <c r="V26"/>
       <c r="W26"/>
@@ -6138,60 +6175,48 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B27" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C27" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D27" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G27" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K27" t="s">
-        <v>389</v>
-      </c>
-      <c r="L27" t="s">
-        <v>390</v>
-      </c>
-      <c r="M27" t="s">
-        <v>391</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27" t="s">
-        <v>392</v>
-      </c>
-      <c r="T27" t="s">
-        <v>393</v>
-      </c>
-      <c r="U27" t="s">
         <v>394</v>
       </c>
-      <c r="V27" t="s">
-        <v>395</v>
-      </c>
-      <c r="W27" t="s">
-        <v>396</v>
-      </c>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
       <c r="X27"/>
       <c r="Y27"/>
       <c r="Z27"/>
@@ -6216,25 +6241,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28" t="s">
+        <v>396</v>
+      </c>
+      <c r="C28" t="s">
         <v>397</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>398</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
         <v>399</v>
       </c>
-      <c r="D28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>400</v>
-      </c>
-      <c r="G28" t="s">
-        <v>186</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
@@ -6242,24 +6267,34 @@
         <v>401</v>
       </c>
       <c r="K28" t="s">
-        <v>199</v>
+        <v>402</v>
       </c>
       <c r="L28" t="s">
-        <v>402</v>
-      </c>
-      <c r="M28"/>
+        <v>403</v>
+      </c>
+      <c r="M28" t="s">
+        <v>404</v>
+      </c>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28" t="s">
-        <v>69</v>
-      </c>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
+        <v>405</v>
+      </c>
+      <c r="T28" t="s">
+        <v>406</v>
+      </c>
+      <c r="U28" t="s">
+        <v>407</v>
+      </c>
+      <c r="V28" t="s">
+        <v>408</v>
+      </c>
+      <c r="W28" t="s">
+        <v>409</v>
+      </c>
       <c r="X28"/>
       <c r="Y28"/>
       <c r="Z28"/>
@@ -6284,35 +6319,37 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="B29" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C29" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D29" t="s">
-        <v>406</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="G29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29"/>
+        <v>212</v>
+      </c>
+      <c r="L29" t="s">
+        <v>415</v>
+      </c>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
@@ -6320,7 +6357,7 @@
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29" t="s">
-        <v>409</v>
+        <v>69</v>
       </c>
       <c r="T29"/>
       <c r="U29"/>
@@ -6350,35 +6387,33 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B30" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C30" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D30" t="s">
-        <v>290</v>
+        <v>419</v>
       </c>
       <c r="E30" t="s">
         <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="G30" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" t="s">
-        <v>146</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="H30"/>
       <c r="I30"/>
       <c r="J30" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="K30" t="s">
-        <v>415</v>
+        <v>52</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -6388,7 +6423,7 @@
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30" t="s">
-        <v>69</v>
+        <v>422</v>
       </c>
       <c r="T30"/>
       <c r="U30"/>
@@ -6418,37 +6453,37 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B31" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C31" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="D31" t="s">
-        <v>419</v>
+        <v>303</v>
       </c>
       <c r="E31" t="s">
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G31" t="s">
-        <v>421</v>
-      </c>
-      <c r="H31"/>
+        <v>199</v>
+      </c>
+      <c r="H31" t="s">
+        <v>146</v>
+      </c>
       <c r="I31"/>
       <c r="J31" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K31" t="s">
-        <v>423</v>
-      </c>
-      <c r="L31" t="s">
-        <v>424</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
@@ -6486,250 +6521,242 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B32" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
       <c r="D32" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="G32" t="s">
-        <v>243</v>
+        <v>434</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K32" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L32" t="s">
-        <v>431</v>
-      </c>
-      <c r="M32" t="s">
-        <v>432</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32" t="s">
-        <v>433</v>
-      </c>
-      <c r="T32" t="s">
-        <v>250</v>
-      </c>
-      <c r="U32" t="s">
-        <v>434</v>
-      </c>
-      <c r="V32" t="s">
-        <v>435</v>
-      </c>
-      <c r="W32" t="s">
-        <v>436</v>
-      </c>
-      <c r="X32" t="s">
-        <v>437</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>438</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>439</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>440</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>441</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>442</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>443</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>444</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>445</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>446</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>447</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>448</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>449</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>450</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>451</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>452</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>453</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>454</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>455</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>456</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>457</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
+      <c r="AR32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="B33" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="C33" t="s">
-        <v>384</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="K33" t="s">
-        <v>52</v>
+        <v>443</v>
       </c>
       <c r="L33" t="s">
-        <v>463</v>
-      </c>
-      <c r="M33"/>
+        <v>444</v>
+      </c>
+      <c r="M33" t="s">
+        <v>445</v>
+      </c>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33" t="s">
+        <v>446</v>
+      </c>
+      <c r="T33" t="s">
+        <v>263</v>
+      </c>
+      <c r="U33" t="s">
+        <v>447</v>
+      </c>
+      <c r="V33" t="s">
+        <v>448</v>
+      </c>
+      <c r="W33" t="s">
+        <v>449</v>
+      </c>
+      <c r="X33" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>454</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>455</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>460</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>461</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>462</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>463</v>
+      </c>
+      <c r="AL33" t="s">
         <v>464</v>
       </c>
-      <c r="T33" t="s">
+      <c r="AM33" t="s">
         <v>465</v>
       </c>
-      <c r="U33" t="s">
+      <c r="AN33" t="s">
         <v>466</v>
       </c>
-      <c r="V33" t="s">
+      <c r="AO33" t="s">
         <v>467</v>
       </c>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-      <c r="AE33"/>
-      <c r="AF33"/>
-      <c r="AG33"/>
-      <c r="AH33"/>
-      <c r="AI33"/>
-      <c r="AJ33"/>
-      <c r="AK33"/>
-      <c r="AL33"/>
-      <c r="AM33"/>
-      <c r="AN33"/>
-      <c r="AO33"/>
-      <c r="AP33"/>
-      <c r="AQ33"/>
-      <c r="AR33"/>
+      <c r="AP33" t="s">
+        <v>468</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>469</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B34" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>397</v>
       </c>
       <c r="D34" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="E34" t="s">
         <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G34" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K34" t="s">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="L34" t="s">
-        <v>472</v>
-      </c>
-      <c r="M34" t="s">
-        <v>473</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="T34" t="s">
-        <v>87</v>
+        <v>478</v>
       </c>
       <c r="U34" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="V34" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="W34"/>
       <c r="X34"/>
@@ -6756,47 +6783,57 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B35" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C35" t="s">
-        <v>479</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>432</v>
       </c>
       <c r="E35" t="s">
         <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="G35" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="K35" t="s">
-        <v>69</v>
-      </c>
-      <c r="L35"/>
-      <c r="M35"/>
+        <v>224</v>
+      </c>
+      <c r="L35" t="s">
+        <v>485</v>
+      </c>
+      <c r="M35" t="s">
+        <v>486</v>
+      </c>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35" t="s">
-        <v>69</v>
-      </c>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
+        <v>487</v>
+      </c>
+      <c r="T35" t="s">
+        <v>87</v>
+      </c>
+      <c r="U35" t="s">
+        <v>488</v>
+      </c>
+      <c r="V35" t="s">
+        <v>489</v>
+      </c>
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
@@ -6822,51 +6859,45 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B36" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C36" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D36" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="G36" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="K36" t="s">
-        <v>129</v>
-      </c>
-      <c r="L36" t="s">
-        <v>487</v>
-      </c>
-      <c r="M36" t="s">
-        <v>488</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="L36"/>
+      <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>489</v>
-      </c>
-      <c r="T36" t="s">
-        <v>490</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T36"/>
       <c r="U36"/>
       <c r="V36"/>
       <c r="W36"/>
@@ -6894,56 +6925,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B37" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C37" t="s">
-        <v>368</v>
+        <v>497</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="E37" t="s">
         <v>93</v>
       </c>
       <c r="F37" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="G37" t="s">
-        <v>197</v>
+        <v>311</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="K37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L37"/>
-      <c r="M37"/>
+        <v>129</v>
+      </c>
+      <c r="L37" t="s">
+        <v>500</v>
+      </c>
+      <c r="M37" t="s">
+        <v>501</v>
+      </c>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37" t="s">
-        <v>372</v>
+        <v>502</v>
       </c>
       <c r="T37" t="s">
-        <v>495</v>
-      </c>
-      <c r="U37" t="s">
-        <v>496</v>
-      </c>
-      <c r="V37" t="s">
-        <v>497</v>
-      </c>
-      <c r="W37" t="s">
-        <v>498</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
       <c r="X37"/>
       <c r="Y37"/>
       <c r="Z37"/>
@@ -6968,30 +6997,30 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B38" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C38" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="D38" t="s">
-        <v>501</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
         <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G38" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K38" t="s">
         <v>52</v>
@@ -7004,14 +7033,20 @@
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="T38" t="s">
-        <v>504</v>
-      </c>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
+        <v>508</v>
+      </c>
+      <c r="U38" t="s">
+        <v>509</v>
+      </c>
+      <c r="V38" t="s">
+        <v>510</v>
+      </c>
+      <c r="W38" t="s">
+        <v>511</v>
+      </c>
       <c r="X38"/>
       <c r="Y38"/>
       <c r="Z38"/>
@@ -7036,34 +7071,30 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B39" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="C39" t="s">
-        <v>507</v>
+        <v>381</v>
       </c>
       <c r="D39" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="G39" t="s">
-        <v>510</v>
-      </c>
-      <c r="H39" t="s">
-        <v>511</v>
-      </c>
-      <c r="I39" t="s">
-        <v>512</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39"/>
       <c r="J39" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K39" t="s">
         <v>52</v>
@@ -7076,9 +7107,11 @@
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39" t="s">
-        <v>69</v>
-      </c>
-      <c r="T39"/>
+        <v>385</v>
+      </c>
+      <c r="T39" t="s">
+        <v>517</v>
+      </c>
       <c r="U39"/>
       <c r="V39"/>
       <c r="W39"/>
@@ -7106,34 +7139,34 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B40" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="C40" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="D40" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="E40" t="s">
         <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="G40" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="H40" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="I40" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="J40" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="K40" t="s">
         <v>52</v>
@@ -7176,34 +7209,34 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="B41" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="C41" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="D41" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="E41" t="s">
         <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="G41" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="H41" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="I41" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="J41" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="K41" t="s">
         <v>52</v>
@@ -7246,37 +7279,39 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="B42" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C42" t="s">
-        <v>412</v>
+        <v>520</v>
       </c>
       <c r="D42" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E42" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H42"/>
-      <c r="I42"/>
+        <v>529</v>
+      </c>
+      <c r="H42" t="s">
+        <v>524</v>
+      </c>
+      <c r="I42" t="s">
+        <v>525</v>
+      </c>
       <c r="J42" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="K42" t="s">
-        <v>226</v>
-      </c>
-      <c r="L42" t="s">
-        <v>522</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
@@ -7314,36 +7349,36 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B43" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="C43" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>532</v>
       </c>
       <c r="E43" t="s">
         <v>93</v>
       </c>
       <c r="F43" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="G43" t="s">
-        <v>347</v>
+        <v>95</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="K43" t="s">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="L43" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="M43"/>
       <c r="N43"/>
@@ -7352,7 +7387,7 @@
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43" t="s">
-        <v>528</v>
+        <v>69</v>
       </c>
       <c r="T43"/>
       <c r="U43"/>
@@ -7382,35 +7417,37 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B44" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C44" t="s">
-        <v>531</v>
+        <v>397</v>
       </c>
       <c r="D44" t="s">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="G44" t="s">
-        <v>67</v>
+        <v>360</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="K44" t="s">
-        <v>129</v>
-      </c>
-      <c r="L44"/>
+        <v>52</v>
+      </c>
+      <c r="L44" t="s">
+        <v>540</v>
+      </c>
       <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
@@ -7418,26 +7455,14 @@
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44" t="s">
-        <v>372</v>
-      </c>
-      <c r="T44" t="s">
-        <v>534</v>
-      </c>
-      <c r="U44" t="s">
-        <v>535</v>
-      </c>
-      <c r="V44" t="s">
-        <v>536</v>
-      </c>
-      <c r="W44" t="s">
-        <v>466</v>
-      </c>
-      <c r="X44" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>537</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
       <c r="Z44"/>
       <c r="AA44"/>
       <c r="AB44"/>
@@ -7460,49 +7485,43 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B45" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C45" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D45" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F45" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G45" t="s">
-        <v>243</v>
+        <v>67</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K45" t="s">
-        <v>543</v>
-      </c>
-      <c r="L45" t="s">
-        <v>544</v>
-      </c>
-      <c r="M45" t="s">
-        <v>545</v>
-      </c>
-      <c r="N45" t="s">
-        <v>498</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45"/>
       <c r="S45" t="s">
-        <v>546</v>
+        <v>385</v>
       </c>
       <c r="T45" t="s">
         <v>547</v>
@@ -7514,10 +7533,14 @@
         <v>549</v>
       </c>
       <c r="W45" t="s">
-        <v>498</v>
-      </c>
-      <c r="X45"/>
-      <c r="Y45"/>
+        <v>479</v>
+      </c>
+      <c r="X45" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>550</v>
+      </c>
       <c r="Z45"/>
       <c r="AA45"/>
       <c r="AB45"/>
@@ -7540,68 +7563,64 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B46" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="C46" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="E46" t="s">
         <v>93</v>
       </c>
       <c r="F46" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G46" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="K46" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="L46" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="M46" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="N46" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="T46" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="U46" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="V46" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="W46" t="s">
-        <v>558</v>
-      </c>
-      <c r="X46" t="s">
-        <v>559</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>560</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="X46"/>
+      <c r="Y46"/>
       <c r="Z46"/>
       <c r="AA46"/>
       <c r="AB46"/>
@@ -7624,16 +7643,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B47" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C47" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="E47" t="s">
         <v>93</v>
@@ -7642,7 +7661,7 @@
         <v>564</v>
       </c>
       <c r="G47" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
@@ -7650,13 +7669,17 @@
         <v>565</v>
       </c>
       <c r="K47" t="s">
-        <v>129</v>
+        <v>556</v>
       </c>
       <c r="L47" t="s">
         <v>566</v>
       </c>
-      <c r="M47"/>
-      <c r="N47"/>
+      <c r="M47" t="s">
+        <v>558</v>
+      </c>
+      <c r="N47" t="s">
+        <v>511</v>
+      </c>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
@@ -7682,9 +7705,7 @@
       <c r="Y47" t="s">
         <v>573</v>
       </c>
-      <c r="Z47" t="s">
-        <v>574</v>
-      </c>
+      <c r="Z47"/>
       <c r="AA47"/>
       <c r="AB47"/>
       <c r="AC47"/>
@@ -7706,76 +7727,68 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>574</v>
+      </c>
+      <c r="B48" t="s">
         <v>575</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>576</v>
       </c>
-      <c r="C48" t="s">
-        <v>577</v>
-      </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
         <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G48" t="s">
-        <v>347</v>
+        <v>210</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48" t="s">
+        <v>578</v>
+      </c>
+      <c r="K48" t="s">
+        <v>129</v>
+      </c>
+      <c r="L48" t="s">
         <v>579</v>
       </c>
-      <c r="K48" t="s">
-        <v>52</v>
-      </c>
-      <c r="L48" t="s">
-        <v>580</v>
-      </c>
-      <c r="M48" t="s">
-        <v>581</v>
-      </c>
-      <c r="N48" t="s">
-        <v>280</v>
-      </c>
-      <c r="O48" t="s">
-        <v>582</v>
-      </c>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48" t="s">
+        <v>580</v>
+      </c>
+      <c r="T48" t="s">
+        <v>581</v>
+      </c>
+      <c r="U48" t="s">
+        <v>582</v>
+      </c>
+      <c r="V48" t="s">
         <v>583</v>
       </c>
-      <c r="T48" t="s">
-        <v>573</v>
-      </c>
-      <c r="U48" t="s">
+      <c r="W48" t="s">
         <v>584</v>
       </c>
-      <c r="V48" t="s">
+      <c r="X48" t="s">
         <v>585</v>
       </c>
-      <c r="W48" t="s">
+      <c r="Y48" t="s">
         <v>586</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Z48" t="s">
         <v>587</v>
       </c>
-      <c r="Y48" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>590</v>
-      </c>
+      <c r="AA48"/>
       <c r="AB48"/>
       <c r="AC48"/>
       <c r="AD48"/>
@@ -7796,54 +7809,76 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>588</v>
+      </c>
+      <c r="B49" t="s">
+        <v>589</v>
+      </c>
+      <c r="C49" t="s">
+        <v>590</v>
+      </c>
+      <c r="D49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" t="s">
         <v>591</v>
       </c>
-      <c r="B49" t="s">
-        <v>592</v>
-      </c>
-      <c r="C49" t="s">
-        <v>412</v>
-      </c>
-      <c r="D49" t="s">
-        <v>427</v>
-      </c>
-      <c r="E49" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" t="s">
-        <v>69</v>
-      </c>
       <c r="G49" t="s">
-        <v>593</v>
+        <v>360</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K49" t="s">
         <v>52</v>
       </c>
       <c r="L49" t="s">
+        <v>593</v>
+      </c>
+      <c r="M49" t="s">
+        <v>594</v>
+      </c>
+      <c r="N49" t="s">
+        <v>293</v>
+      </c>
+      <c r="O49" t="s">
         <v>595</v>
       </c>
-      <c r="M49" t="s">
-        <v>596</v>
-      </c>
-      <c r="N49"/>
-      <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49"/>
-      <c r="V49"/>
-      <c r="W49"/>
-      <c r="X49"/>
-      <c r="Y49"/>
-      <c r="Z49"/>
-      <c r="AA49"/>
+      <c r="S49" t="s">
+        <v>596</v>
+      </c>
+      <c r="T49" t="s">
+        <v>586</v>
+      </c>
+      <c r="U49" t="s">
+        <v>597</v>
+      </c>
+      <c r="V49" t="s">
+        <v>598</v>
+      </c>
+      <c r="W49" t="s">
+        <v>599</v>
+      </c>
+      <c r="X49" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>601</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>603</v>
+      </c>
       <c r="AB49"/>
       <c r="AC49"/>
       <c r="AD49"/>
@@ -7864,50 +7899,48 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="B50" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="C50" t="s">
-        <v>599</v>
+        <v>425</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>440</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>600</v>
+        <v>69</v>
       </c>
       <c r="G50" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="K50" t="s">
         <v>52</v>
       </c>
-      <c r="L50"/>
-      <c r="M50"/>
+      <c r="L50" t="s">
+        <v>608</v>
+      </c>
+      <c r="M50" t="s">
+        <v>609</v>
+      </c>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
-      <c r="S50" t="s">
-        <v>603</v>
-      </c>
-      <c r="T50" t="s">
-        <v>604</v>
-      </c>
-      <c r="U50" t="s">
-        <v>605</v>
-      </c>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
       <c r="V50"/>
       <c r="W50"/>
       <c r="X50"/>
@@ -7934,52 +7967,50 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B51" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C51" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D51" t="s">
-        <v>419</v>
+        <v>189</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F51" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="G51" t="s">
-        <v>421</v>
+        <v>614</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="K51" t="s">
-        <v>129</v>
-      </c>
-      <c r="L51" t="s">
-        <v>611</v>
-      </c>
-      <c r="M51" t="s">
-        <v>612</v>
-      </c>
-      <c r="N51" t="s">
-        <v>613</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
       <c r="S51" t="s">
-        <v>69</v>
-      </c>
-      <c r="T51"/>
-      <c r="U51"/>
+        <v>616</v>
+      </c>
+      <c r="T51" t="s">
+        <v>617</v>
+      </c>
+      <c r="U51" t="s">
+        <v>618</v>
+      </c>
       <c r="V51"/>
       <c r="W51"/>
       <c r="X51"/>
@@ -8006,39 +8037,43 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="B52" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="C52" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>432</v>
       </c>
       <c r="E52" t="s">
         <v>48</v>
       </c>
       <c r="F52" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="G52" t="s">
-        <v>618</v>
+        <v>434</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="K52" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s">
-        <v>620</v>
-      </c>
-      <c r="M52"/>
-      <c r="N52"/>
+        <v>624</v>
+      </c>
+      <c r="M52" t="s">
+        <v>625</v>
+      </c>
+      <c r="N52" t="s">
+        <v>626</v>
+      </c>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
@@ -8074,37 +8109,37 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B53" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C53" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="D53" t="s">
-        <v>624</v>
+        <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="G53" t="s">
-        <v>626</v>
-      </c>
-      <c r="H53" t="s">
-        <v>627</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="H53"/>
       <c r="I53"/>
       <c r="J53" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="K53" t="s">
         <v>52</v>
       </c>
-      <c r="L53"/>
+      <c r="L53" t="s">
+        <v>633</v>
+      </c>
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
@@ -8142,40 +8177,38 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B54" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C54" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="D54" t="s">
-        <v>385</v>
+        <v>637</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F54" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="G54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H54"/>
+        <v>639</v>
+      </c>
+      <c r="H54" t="s">
+        <v>640</v>
+      </c>
       <c r="I54"/>
       <c r="J54" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="K54" t="s">
         <v>52</v>
       </c>
-      <c r="L54" t="s">
-        <v>634</v>
-      </c>
-      <c r="M54" t="s">
-        <v>635</v>
-      </c>
+      <c r="L54"/>
+      <c r="M54"/>
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
@@ -8212,36 +8245,40 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B55" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C55" t="s">
-        <v>412</v>
+        <v>644</v>
       </c>
       <c r="D55" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="E55" t="s">
         <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="G55" t="s">
-        <v>347</v>
+        <v>67</v>
       </c>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="K55" t="s">
         <v>52</v>
       </c>
-      <c r="L55"/>
-      <c r="M55"/>
+      <c r="L55" t="s">
+        <v>647</v>
+      </c>
+      <c r="M55" t="s">
+        <v>648</v>
+      </c>
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
@@ -8278,31 +8315,33 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B56" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>425</v>
       </c>
       <c r="D56" t="s">
-        <v>143</v>
+        <v>398</v>
       </c>
       <c r="E56" t="s">
         <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="G56" t="s">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="J56"/>
+      <c r="J56" t="s">
+        <v>652</v>
+      </c>
       <c r="K56" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L56"/>
       <c r="M56"/>
@@ -8342,10 +8381,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="B57" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="C57" t="s">
         <v>91</v>
@@ -8354,21 +8393,17 @@
         <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="G57" t="s">
         <v>75</v>
       </c>
-      <c r="H57" t="s">
-        <v>645</v>
-      </c>
+      <c r="H57"/>
       <c r="I57"/>
-      <c r="J57" t="s">
-        <v>646</v>
-      </c>
+      <c r="J57"/>
       <c r="K57" t="s">
         <v>69</v>
       </c>
@@ -8410,75 +8445,53 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="B58" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="C58" t="s">
-        <v>649</v>
+        <v>91</v>
       </c>
       <c r="D58" t="s">
-        <v>650</v>
+        <v>143</v>
       </c>
       <c r="E58" t="s">
         <v>93</v>
       </c>
       <c r="F58" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="G58" t="s">
-        <v>387</v>
-      </c>
-      <c r="H58"/>
+        <v>75</v>
+      </c>
+      <c r="H58" t="s">
+        <v>658</v>
+      </c>
       <c r="I58"/>
       <c r="J58" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="K58" t="s">
-        <v>653</v>
-      </c>
-      <c r="L58" t="s">
-        <v>654</v>
-      </c>
-      <c r="M58" t="s">
-        <v>655</v>
-      </c>
-      <c r="N58" t="s">
-        <v>656</v>
-      </c>
-      <c r="O58" t="s">
-        <v>657</v>
-      </c>
-      <c r="P58" t="s">
-        <v>658</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
       <c r="Q58"/>
       <c r="R58"/>
       <c r="S58" t="s">
-        <v>659</v>
-      </c>
-      <c r="T58" t="s">
-        <v>660</v>
-      </c>
-      <c r="U58" t="s">
-        <v>661</v>
-      </c>
-      <c r="V58" t="s">
-        <v>662</v>
-      </c>
-      <c r="W58" t="s">
-        <v>663</v>
-      </c>
-      <c r="X58" t="s">
-        <v>664</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>665</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>666</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
       <c r="AA58"/>
       <c r="AB58"/>
       <c r="AC58"/>
@@ -8500,53 +8513,75 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B59" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>662</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>663</v>
       </c>
       <c r="E59" t="s">
         <v>93</v>
       </c>
       <c r="F59" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G59" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59" t="s">
+        <v>665</v>
+      </c>
+      <c r="K59" t="s">
+        <v>666</v>
+      </c>
+      <c r="L59" t="s">
+        <v>667</v>
+      </c>
+      <c r="M59" t="s">
+        <v>668</v>
+      </c>
+      <c r="N59" t="s">
+        <v>669</v>
+      </c>
+      <c r="O59" t="s">
         <v>670</v>
       </c>
-      <c r="K59" t="s">
+      <c r="P59" t="s">
         <v>671</v>
       </c>
-      <c r="L59" t="s">
-        <v>672</v>
-      </c>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
       <c r="Q59"/>
       <c r="R59"/>
       <c r="S59" t="s">
-        <v>69</v>
-      </c>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-      <c r="W59"/>
-      <c r="X59"/>
-      <c r="Y59"/>
-      <c r="Z59"/>
+        <v>672</v>
+      </c>
+      <c r="T59" t="s">
+        <v>673</v>
+      </c>
+      <c r="U59" t="s">
+        <v>674</v>
+      </c>
+      <c r="V59" t="s">
+        <v>675</v>
+      </c>
+      <c r="W59" t="s">
+        <v>676</v>
+      </c>
+      <c r="X59" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>679</v>
+      </c>
       <c r="AA59"/>
       <c r="AB59"/>
       <c r="AC59"/>
@@ -8568,76 +8603,52 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="B60" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="C60" t="s">
         <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>331</v>
+        <v>73</v>
       </c>
       <c r="E60" t="s">
         <v>93</v>
       </c>
       <c r="F60" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="G60" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="K60" t="s">
-        <v>52</v>
+        <v>684</v>
       </c>
       <c r="L60" t="s">
-        <v>677</v>
-      </c>
-      <c r="M60" t="s">
-        <v>678</v>
-      </c>
-      <c r="N60" t="s">
-        <v>679</v>
-      </c>
-      <c r="O60" t="s">
-        <v>680</v>
-      </c>
-      <c r="P60" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>682</v>
-      </c>
-      <c r="R60" t="s">
-        <v>683</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
       <c r="S60" t="s">
-        <v>684</v>
-      </c>
-      <c r="T60" t="s">
-        <v>685</v>
-      </c>
-      <c r="U60" t="s">
-        <v>686</v>
-      </c>
-      <c r="V60" t="s">
-        <v>687</v>
-      </c>
-      <c r="W60" t="s">
-        <v>688</v>
-      </c>
-      <c r="X60" t="s">
-        <v>689</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>690</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
       <c r="Z60"/>
       <c r="AA60"/>
       <c r="AB60"/>
@@ -8660,52 +8671,76 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B61" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C61" t="s">
-        <v>693</v>
+        <v>46</v>
       </c>
       <c r="D61" t="s">
-        <v>92</v>
+        <v>344</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F61" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G61" t="s">
-        <v>67</v>
+        <v>360</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="K61" t="s">
         <v>52</v>
       </c>
       <c r="L61" t="s">
-        <v>487</v>
-      </c>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
-      <c r="R61"/>
+        <v>690</v>
+      </c>
+      <c r="M61" t="s">
+        <v>691</v>
+      </c>
+      <c r="N61" t="s">
+        <v>692</v>
+      </c>
+      <c r="O61" t="s">
+        <v>693</v>
+      </c>
+      <c r="P61" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>695</v>
+      </c>
+      <c r="R61" t="s">
+        <v>696</v>
+      </c>
       <c r="S61" t="s">
-        <v>69</v>
-      </c>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="W61"/>
-      <c r="X61"/>
-      <c r="Y61"/>
+        <v>697</v>
+      </c>
+      <c r="T61" t="s">
+        <v>698</v>
+      </c>
+      <c r="U61" t="s">
+        <v>699</v>
+      </c>
+      <c r="V61" t="s">
+        <v>700</v>
+      </c>
+      <c r="W61" t="s">
+        <v>701</v>
+      </c>
+      <c r="X61" t="s">
+        <v>702</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>703</v>
+      </c>
       <c r="Z61"/>
       <c r="AA61"/>
       <c r="AB61"/>
@@ -8728,13 +8763,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="B62" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="C62" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="D62" t="s">
         <v>92</v>
@@ -8743,42 +8778,34 @@
         <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="G62" t="s">
-        <v>700</v>
+        <v>67</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="K62" t="s">
         <v>52</v>
       </c>
       <c r="L62" t="s">
-        <v>702</v>
-      </c>
-      <c r="M62" t="s">
-        <v>703</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="M62"/>
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
       <c r="R62"/>
       <c r="S62" t="s">
-        <v>372</v>
-      </c>
-      <c r="T62" t="s">
-        <v>704</v>
-      </c>
-      <c r="U62" t="s">
-        <v>705</v>
-      </c>
-      <c r="V62" t="s">
-        <v>706</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
       <c r="W62"/>
       <c r="X62"/>
       <c r="Y62"/>
@@ -8804,49 +8831,57 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B63" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C63" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D63" t="s">
-        <v>710</v>
+        <v>92</v>
       </c>
       <c r="E63" t="s">
         <v>48</v>
       </c>
       <c r="F63" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G63" t="s">
-        <v>347</v>
+        <v>713</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="K63" t="s">
         <v>52</v>
       </c>
       <c r="L63" t="s">
-        <v>713</v>
-      </c>
-      <c r="M63"/>
+        <v>715</v>
+      </c>
+      <c r="M63" t="s">
+        <v>716</v>
+      </c>
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
       <c r="R63"/>
       <c r="S63" t="s">
-        <v>69</v>
-      </c>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
+        <v>385</v>
+      </c>
+      <c r="T63" t="s">
+        <v>717</v>
+      </c>
+      <c r="U63" t="s">
+        <v>718</v>
+      </c>
+      <c r="V63" t="s">
+        <v>719</v>
+      </c>
       <c r="W63"/>
       <c r="X63"/>
       <c r="Y63"/>
@@ -8872,42 +8907,38 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="B64" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>722</v>
       </c>
       <c r="D64" t="s">
-        <v>92</v>
+        <v>723</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="G64" t="s">
-        <v>717</v>
-      </c>
-      <c r="H64" t="s">
-        <v>127</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="H64"/>
       <c r="I64"/>
       <c r="J64" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="K64" t="s">
-        <v>719</v>
+        <v>52</v>
       </c>
       <c r="L64" t="s">
-        <v>720</v>
-      </c>
-      <c r="M64" t="s">
-        <v>721</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="M64"/>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
@@ -8944,10 +8975,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="B65" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="C65" t="s">
         <v>46</v>
@@ -8959,26 +8990,26 @@
         <v>93</v>
       </c>
       <c r="F65" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="G65" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="H65" t="s">
         <v>127</v>
       </c>
       <c r="I65"/>
       <c r="J65" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="K65" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="L65" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="M65" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
@@ -9016,10 +9047,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="B66" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C66" t="s">
         <v>46</v>
@@ -9031,33 +9062,35 @@
         <v>93</v>
       </c>
       <c r="F66" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="G66" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="H66" t="s">
         <v>127</v>
       </c>
       <c r="I66"/>
       <c r="J66" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="K66" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="L66" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="M66" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
       <c r="R66"/>
-      <c r="S66"/>
+      <c r="S66" t="s">
+        <v>69</v>
+      </c>
       <c r="T66"/>
       <c r="U66"/>
       <c r="V66"/>
@@ -9086,57 +9119,51 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="B67" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D67" t="s">
-        <v>208</v>
+        <v>92</v>
       </c>
       <c r="E67" t="s">
         <v>93</v>
       </c>
       <c r="F67" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="G67" t="s">
-        <v>186</v>
-      </c>
-      <c r="H67"/>
+        <v>730</v>
+      </c>
+      <c r="H67" t="s">
+        <v>127</v>
+      </c>
       <c r="I67"/>
       <c r="J67" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="K67" t="s">
-        <v>129</v>
+        <v>741</v>
       </c>
       <c r="L67" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="M67" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
       <c r="R67"/>
-      <c r="S67" t="s">
-        <v>372</v>
-      </c>
-      <c r="T67" t="s">
-        <v>737</v>
-      </c>
-      <c r="U67" t="s">
-        <v>738</v>
-      </c>
-      <c r="V67" t="s">
-        <v>739</v>
-      </c>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
       <c r="W67"/>
       <c r="X67"/>
       <c r="Y67"/>
@@ -9162,74 +9189,62 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B68" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C68" t="s">
-        <v>742</v>
+        <v>105</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="E68" t="s">
         <v>93</v>
       </c>
       <c r="F68" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="G68" t="s">
-        <v>744</v>
+        <v>199</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="K68" t="s">
         <v>129</v>
       </c>
       <c r="L68" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M68" t="s">
-        <v>747</v>
-      </c>
-      <c r="N68" t="s">
-        <v>498</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
       <c r="R68"/>
       <c r="S68" t="s">
-        <v>748</v>
+        <v>385</v>
       </c>
       <c r="T68" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="U68" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="V68" t="s">
-        <v>751</v>
-      </c>
-      <c r="W68" t="s">
         <v>752</v>
       </c>
-      <c r="X68" t="s">
-        <v>753</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>754</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>755</v>
-      </c>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
       <c r="AB68"/>
       <c r="AC68"/>
       <c r="AD68"/>
@@ -9250,13 +9265,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B69" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="C69" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="D69" t="s">
         <v>106</v>
@@ -9265,37 +9280,59 @@
         <v>93</v>
       </c>
       <c r="F69" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="G69" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="K69" t="s">
-        <v>69</v>
-      </c>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
+        <v>129</v>
+      </c>
+      <c r="L69" t="s">
+        <v>759</v>
+      </c>
+      <c r="M69" t="s">
+        <v>760</v>
+      </c>
+      <c r="N69" t="s">
+        <v>511</v>
+      </c>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
       <c r="R69"/>
       <c r="S69" t="s">
-        <v>69</v>
-      </c>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-      <c r="W69"/>
-      <c r="X69"/>
-      <c r="Y69"/>
-      <c r="Z69"/>
-      <c r="AA69"/>
+        <v>761</v>
+      </c>
+      <c r="T69" t="s">
+        <v>762</v>
+      </c>
+      <c r="U69" t="s">
+        <v>763</v>
+      </c>
+      <c r="V69" t="s">
+        <v>764</v>
+      </c>
+      <c r="W69" t="s">
+        <v>765</v>
+      </c>
+      <c r="X69" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>767</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>768</v>
+      </c>
       <c r="AB69"/>
       <c r="AC69"/>
       <c r="AD69"/>
@@ -9316,60 +9353,48 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="B70" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C70" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D70" t="s">
-        <v>761</v>
+        <v>106</v>
       </c>
       <c r="E70" t="s">
         <v>93</v>
       </c>
       <c r="F70" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="G70" t="s">
-        <v>197</v>
+        <v>757</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="K70" t="s">
-        <v>226</v>
-      </c>
-      <c r="L70" t="s">
-        <v>764</v>
-      </c>
-      <c r="M70" t="s">
-        <v>765</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="L70"/>
+      <c r="M70"/>
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70"/>
       <c r="S70" t="s">
-        <v>766</v>
-      </c>
-      <c r="T70" t="s">
-        <v>767</v>
-      </c>
-      <c r="U70" t="s">
-        <v>768</v>
-      </c>
-      <c r="V70" t="s">
-        <v>769</v>
-      </c>
-      <c r="W70" t="s">
-        <v>770</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
       <c r="X70"/>
       <c r="Y70"/>
       <c r="Z70"/>
@@ -9403,31 +9428,51 @@
         <v>773</v>
       </c>
       <c r="D71" t="s">
-        <v>508</v>
+        <v>774</v>
       </c>
       <c r="E71" t="s">
         <v>93</v>
       </c>
-      <c r="F71"/>
+      <c r="F71" t="s">
+        <v>775</v>
+      </c>
       <c r="G71" t="s">
-        <v>347</v>
+        <v>210</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
+      <c r="J71" t="s">
+        <v>776</v>
+      </c>
+      <c r="K71" t="s">
+        <v>239</v>
+      </c>
+      <c r="L71" t="s">
+        <v>777</v>
+      </c>
+      <c r="M71" t="s">
+        <v>778</v>
+      </c>
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
-      <c r="U71"/>
-      <c r="V71"/>
-      <c r="W71"/>
+      <c r="S71" t="s">
+        <v>779</v>
+      </c>
+      <c r="T71" t="s">
+        <v>780</v>
+      </c>
+      <c r="U71" t="s">
+        <v>781</v>
+      </c>
+      <c r="V71" t="s">
+        <v>782</v>
+      </c>
+      <c r="W71" t="s">
+        <v>783</v>
+      </c>
       <c r="X71"/>
       <c r="Y71"/>
       <c r="Z71"/>
@@ -9452,69 +9497,43 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="B72" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="C72" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="D72" t="s">
-        <v>135</v>
+        <v>521</v>
       </c>
       <c r="E72" t="s">
         <v>93</v>
       </c>
-      <c r="F72" t="s">
-        <v>777</v>
-      </c>
+      <c r="F72"/>
       <c r="G72" t="s">
-        <v>197</v>
+        <v>360</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72" t="s">
-        <v>778</v>
-      </c>
-      <c r="K72" t="s">
-        <v>779</v>
-      </c>
-      <c r="L72" t="s">
-        <v>780</v>
-      </c>
-      <c r="M72" t="s">
-        <v>781</v>
-      </c>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
       <c r="R72"/>
-      <c r="S72" t="s">
-        <v>782</v>
-      </c>
-      <c r="T72" t="s">
-        <v>783</v>
-      </c>
-      <c r="U72" t="s">
-        <v>784</v>
-      </c>
-      <c r="V72" t="s">
-        <v>785</v>
-      </c>
-      <c r="W72" t="s">
-        <v>786</v>
-      </c>
-      <c r="X72" t="s">
-        <v>787</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>788</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>789</v>
-      </c>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
       <c r="AA72"/>
       <c r="AB72"/>
       <c r="AC72"/>
@@ -9536,85 +9555,73 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B73" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C73" t="s">
-        <v>412</v>
+        <v>789</v>
       </c>
       <c r="D73" t="s">
-        <v>761</v>
+        <v>135</v>
       </c>
       <c r="E73" t="s">
         <v>93</v>
       </c>
       <c r="F73" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G73" t="s">
-        <v>717</v>
+        <v>210</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="s">
+        <v>791</v>
+      </c>
+      <c r="K73" t="s">
+        <v>792</v>
+      </c>
+      <c r="L73" t="s">
         <v>793</v>
       </c>
-      <c r="K73" t="s">
-        <v>129</v>
-      </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>794</v>
       </c>
-      <c r="M73" t="s">
-        <v>580</v>
-      </c>
-      <c r="N73" t="s">
-        <v>795</v>
-      </c>
-      <c r="O73" t="s">
-        <v>796</v>
-      </c>
+      <c r="N73"/>
+      <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
       <c r="R73"/>
       <c r="S73" t="s">
+        <v>795</v>
+      </c>
+      <c r="T73" t="s">
+        <v>796</v>
+      </c>
+      <c r="U73" t="s">
         <v>797</v>
       </c>
-      <c r="T73" t="s">
+      <c r="V73" t="s">
         <v>798</v>
       </c>
-      <c r="U73" t="s">
+      <c r="W73" t="s">
         <v>799</v>
       </c>
-      <c r="V73" t="s">
+      <c r="X73" t="s">
         <v>800</v>
       </c>
-      <c r="W73" t="s">
+      <c r="Y73" t="s">
         <v>801</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Z73" t="s">
         <v>802</v>
       </c>
-      <c r="Y73" t="s">
-        <v>803</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>749</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>804</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>805</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>806</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>807</v>
-      </c>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
       <c r="AE73"/>
       <c r="AF73"/>
       <c r="AG73"/>
@@ -9632,81 +9639,85 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B74" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C74" t="s">
-        <v>810</v>
+        <v>425</v>
       </c>
       <c r="D74" t="s">
-        <v>377</v>
+        <v>774</v>
       </c>
       <c r="E74" t="s">
         <v>93</v>
       </c>
       <c r="F74" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="G74" t="s">
-        <v>197</v>
+        <v>730</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="K74" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L74" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M74" t="s">
-        <v>814</v>
+        <v>593</v>
       </c>
       <c r="N74" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="O74" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="P74"/>
       <c r="Q74"/>
       <c r="R74"/>
       <c r="S74" t="s">
+        <v>810</v>
+      </c>
+      <c r="T74" t="s">
+        <v>811</v>
+      </c>
+      <c r="U74" t="s">
+        <v>812</v>
+      </c>
+      <c r="V74" t="s">
+        <v>813</v>
+      </c>
+      <c r="W74" t="s">
+        <v>814</v>
+      </c>
+      <c r="X74" t="s">
+        <v>815</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>816</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>762</v>
+      </c>
+      <c r="AA74" t="s">
         <v>817</v>
       </c>
-      <c r="T74" t="s">
+      <c r="AB74" t="s">
         <v>818</v>
       </c>
-      <c r="U74" t="s">
+      <c r="AC74" t="s">
         <v>819</v>
       </c>
-      <c r="V74" t="s">
+      <c r="AD74" t="s">
         <v>820</v>
       </c>
-      <c r="W74" t="s">
-        <v>783</v>
-      </c>
-      <c r="X74" t="s">
-        <v>821</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>822</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>823</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>824</v>
-      </c>
-      <c r="AC74"/>
-      <c r="AD74"/>
       <c r="AE74"/>
       <c r="AF74"/>
       <c r="AG74"/>
@@ -9724,67 +9735,79 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B75" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C75" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D75" t="s">
-        <v>519</v>
+        <v>390</v>
       </c>
       <c r="E75" t="s">
         <v>93</v>
       </c>
       <c r="F75" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G75" t="s">
-        <v>347</v>
+        <v>210</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="s">
+        <v>825</v>
+      </c>
+      <c r="K75" t="s">
+        <v>52</v>
+      </c>
+      <c r="L75" t="s">
+        <v>826</v>
+      </c>
+      <c r="M75" t="s">
+        <v>827</v>
+      </c>
+      <c r="N75" t="s">
+        <v>828</v>
+      </c>
+      <c r="O75" t="s">
         <v>829</v>
       </c>
-      <c r="K75" t="s">
-        <v>129</v>
-      </c>
-      <c r="L75" t="s">
-        <v>830</v>
-      </c>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
       <c r="R75"/>
       <c r="S75" t="s">
+        <v>830</v>
+      </c>
+      <c r="T75" t="s">
         <v>831</v>
       </c>
-      <c r="T75" t="s">
+      <c r="U75" t="s">
         <v>832</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>833</v>
       </c>
-      <c r="V75" t="s">
+      <c r="W75" t="s">
+        <v>796</v>
+      </c>
+      <c r="X75" t="s">
         <v>834</v>
       </c>
-      <c r="W75" t="s">
+      <c r="Y75" t="s">
         <v>835</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Z75" t="s">
         <v>836</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="AA75" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB75" t="s">
         <v>837</v>
       </c>
-      <c r="Z75"/>
-      <c r="AA75"/>
-      <c r="AB75"/>
       <c r="AC75"/>
       <c r="AD75"/>
       <c r="AE75"/>
@@ -9810,30 +9833,30 @@
         <v>839</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>840</v>
       </c>
       <c r="D76" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F76" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G76" t="s">
-        <v>67</v>
+        <v>360</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="K76" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L76" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="M76"/>
       <c r="N76"/>
@@ -9842,14 +9865,26 @@
       <c r="Q76"/>
       <c r="R76"/>
       <c r="S76" t="s">
-        <v>69</v>
-      </c>
-      <c r="T76"/>
-      <c r="U76"/>
-      <c r="V76"/>
-      <c r="W76"/>
-      <c r="X76"/>
-      <c r="Y76"/>
+        <v>844</v>
+      </c>
+      <c r="T76" t="s">
+        <v>845</v>
+      </c>
+      <c r="U76" t="s">
+        <v>846</v>
+      </c>
+      <c r="V76" t="s">
+        <v>847</v>
+      </c>
+      <c r="W76" t="s">
+        <v>848</v>
+      </c>
+      <c r="X76" t="s">
+        <v>849</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>850</v>
+      </c>
       <c r="Z76"/>
       <c r="AA76"/>
       <c r="AB76"/>
@@ -9872,35 +9907,37 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="B77" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="C77" t="s">
-        <v>507</v>
+        <v>46</v>
       </c>
       <c r="D77" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E77" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="G77" t="s">
-        <v>626</v>
+        <v>67</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="K77" t="s">
-        <v>129</v>
-      </c>
-      <c r="L77"/>
+        <v>52</v>
+      </c>
+      <c r="L77" t="s">
+        <v>855</v>
+      </c>
       <c r="M77"/>
       <c r="N77"/>
       <c r="O77"/>
@@ -9908,17 +9945,11 @@
       <c r="Q77"/>
       <c r="R77"/>
       <c r="S77" t="s">
-        <v>847</v>
-      </c>
-      <c r="T77" t="s">
-        <v>848</v>
-      </c>
-      <c r="U77" t="s">
-        <v>849</v>
-      </c>
-      <c r="V77" t="s">
-        <v>850</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
       <c r="W77"/>
       <c r="X77"/>
       <c r="Y77"/>
@@ -9944,37 +9975,35 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="B78" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="C78" t="s">
-        <v>853</v>
+        <v>520</v>
       </c>
       <c r="D78" t="s">
-        <v>460</v>
+        <v>532</v>
       </c>
       <c r="E78" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F78" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="G78" t="s">
-        <v>855</v>
+        <v>639</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="K78" t="s">
-        <v>52</v>
-      </c>
-      <c r="L78" t="s">
-        <v>634</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L78"/>
       <c r="M78"/>
       <c r="N78"/>
       <c r="O78"/>
@@ -9982,15 +10011,17 @@
       <c r="Q78"/>
       <c r="R78"/>
       <c r="S78" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="T78" t="s">
-        <v>285</v>
+        <v>861</v>
       </c>
       <c r="U78" t="s">
-        <v>858</v>
-      </c>
-      <c r="V78"/>
+        <v>862</v>
+      </c>
+      <c r="V78" t="s">
+        <v>863</v>
+      </c>
       <c r="W78"/>
       <c r="X78"/>
       <c r="Y78"/>
@@ -10016,59 +10047,53 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="B79" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="C79" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="D79" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="E79" t="s">
         <v>48</v>
       </c>
       <c r="F79" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="G79" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="K79" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="L79" t="s">
-        <v>865</v>
-      </c>
-      <c r="M79" t="s">
-        <v>866</v>
-      </c>
-      <c r="N79" t="s">
-        <v>867</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="M79"/>
+      <c r="N79"/>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
       <c r="R79"/>
       <c r="S79" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="T79" t="s">
-        <v>869</v>
+        <v>298</v>
       </c>
       <c r="U79" t="s">
-        <v>87</v>
-      </c>
-      <c r="V79" t="s">
-        <v>870</v>
-      </c>
+        <v>871</v>
+      </c>
+      <c r="V79"/>
       <c r="W79"/>
       <c r="X79"/>
       <c r="Y79"/>
@@ -10094,58 +10119,58 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B80" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>874</v>
       </c>
       <c r="D80" t="s">
-        <v>873</v>
+        <v>432</v>
       </c>
       <c r="E80" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F80" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G80" t="s">
-        <v>387</v>
+        <v>876</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K80" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L80" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="M80" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="N80" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
       <c r="R80"/>
       <c r="S80" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="T80" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="U80" t="s">
-        <v>881</v>
+        <v>87</v>
       </c>
       <c r="V80" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="W80"/>
       <c r="X80"/>
@@ -10172,47 +10197,59 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B81" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C81" t="s">
-        <v>885</v>
+        <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>519</v>
+        <v>886</v>
       </c>
       <c r="E81" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F81" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G81" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="K81" t="s">
         <v>52</v>
       </c>
-      <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
+      <c r="L81" t="s">
+        <v>889</v>
+      </c>
+      <c r="M81" t="s">
+        <v>890</v>
+      </c>
+      <c r="N81" t="s">
+        <v>891</v>
+      </c>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
       <c r="R81"/>
       <c r="S81" t="s">
-        <v>69</v>
-      </c>
-      <c r="T81"/>
-      <c r="U81"/>
-      <c r="V81"/>
+        <v>892</v>
+      </c>
+      <c r="T81" t="s">
+        <v>893</v>
+      </c>
+      <c r="U81" t="s">
+        <v>894</v>
+      </c>
+      <c r="V81" t="s">
+        <v>895</v>
+      </c>
       <c r="W81"/>
       <c r="X81"/>
       <c r="Y81"/>
@@ -10238,33 +10275,33 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="B82" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="C82" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="D82" t="s">
-        <v>92</v>
+        <v>532</v>
       </c>
       <c r="E82" t="s">
         <v>48</v>
       </c>
       <c r="F82" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="G82" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="K82" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="L82"/>
       <c r="M82"/>
@@ -10304,37 +10341,35 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="B83" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="C83" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
       <c r="D83" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E83" t="s">
         <v>48</v>
       </c>
       <c r="F83" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="G83" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
       <c r="K83" t="s">
-        <v>897</v>
-      </c>
-      <c r="L83" t="s">
-        <v>898</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="L83"/>
       <c r="M83"/>
       <c r="N83"/>
       <c r="O83"/>
@@ -10342,14 +10377,10 @@
       <c r="Q83"/>
       <c r="R83"/>
       <c r="S83" t="s">
-        <v>899</v>
-      </c>
-      <c r="T83" t="s">
-        <v>900</v>
-      </c>
-      <c r="U83" t="s">
-        <v>87</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T83"/>
+      <c r="U83"/>
       <c r="V83"/>
       <c r="W83"/>
       <c r="X83"/>
@@ -10376,36 +10407,36 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="B84" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="C84" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="D84" t="s">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="E84" t="s">
         <v>48</v>
       </c>
       <c r="F84" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="G84" t="s">
-        <v>243</v>
+        <v>360</v>
       </c>
       <c r="H84"/>
       <c r="I84"/>
       <c r="J84" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="K84" t="s">
-        <v>52</v>
+        <v>910</v>
       </c>
       <c r="L84" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="M84"/>
       <c r="N84"/>
@@ -10414,10 +10445,14 @@
       <c r="Q84"/>
       <c r="R84"/>
       <c r="S84" t="s">
-        <v>69</v>
-      </c>
-      <c r="T84"/>
-      <c r="U84"/>
+        <v>912</v>
+      </c>
+      <c r="T84" t="s">
+        <v>913</v>
+      </c>
+      <c r="U84" t="s">
+        <v>87</v>
+      </c>
       <c r="V84"/>
       <c r="W84"/>
       <c r="X84"/>
@@ -10444,36 +10479,36 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="B85" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="C85" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="D85" t="s">
-        <v>406</v>
+        <v>235</v>
       </c>
       <c r="E85" t="s">
         <v>48</v>
       </c>
       <c r="F85" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="G85" t="s">
-        <v>601</v>
+        <v>256</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="K85" t="s">
         <v>52</v>
       </c>
       <c r="L85" t="s">
-        <v>678</v>
+        <v>919</v>
       </c>
       <c r="M85"/>
       <c r="N85"/>
@@ -10482,7 +10517,7 @@
       <c r="Q85"/>
       <c r="R85"/>
       <c r="S85" t="s">
-        <v>912</v>
+        <v>69</v>
       </c>
       <c r="T85"/>
       <c r="U85"/>
@@ -10512,67 +10547,51 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="B86" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="C86" t="s">
-        <v>742</v>
+        <v>922</v>
       </c>
       <c r="D86" t="s">
-        <v>65</v>
+        <v>419</v>
       </c>
       <c r="E86" t="s">
         <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="G86" t="s">
-        <v>347</v>
+        <v>614</v>
       </c>
       <c r="H86"/>
       <c r="I86"/>
       <c r="J86" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="K86" t="s">
         <v>52</v>
       </c>
       <c r="L86" t="s">
-        <v>917</v>
-      </c>
-      <c r="M86" t="s">
-        <v>918</v>
-      </c>
-      <c r="N86" t="s">
-        <v>678</v>
-      </c>
-      <c r="O86" t="s">
-        <v>919</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
       <c r="R86"/>
       <c r="S86" t="s">
-        <v>920</v>
-      </c>
-      <c r="T86" t="s">
-        <v>921</v>
-      </c>
-      <c r="U86" t="s">
-        <v>922</v>
-      </c>
-      <c r="V86" t="s">
-        <v>923</v>
-      </c>
-      <c r="W86" t="s">
-        <v>924</v>
-      </c>
-      <c r="X86" t="s">
         <v>925</v>
       </c>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
       <c r="Y86"/>
       <c r="Z86"/>
       <c r="AA86"/>
@@ -10602,41 +10621,61 @@
         <v>927</v>
       </c>
       <c r="C87" t="s">
-        <v>928</v>
+        <v>755</v>
       </c>
       <c r="D87" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E87" t="s">
         <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G87" t="s">
-        <v>197</v>
+        <v>360</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
-      <c r="J87"/>
+      <c r="J87" t="s">
+        <v>929</v>
+      </c>
       <c r="K87" t="s">
         <v>52</v>
       </c>
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-      <c r="O87"/>
+      <c r="L87" t="s">
+        <v>930</v>
+      </c>
+      <c r="M87" t="s">
+        <v>931</v>
+      </c>
+      <c r="N87" t="s">
+        <v>691</v>
+      </c>
+      <c r="O87" t="s">
+        <v>932</v>
+      </c>
       <c r="P87"/>
       <c r="Q87"/>
       <c r="R87"/>
       <c r="S87" t="s">
-        <v>69</v>
-      </c>
-      <c r="T87"/>
-      <c r="U87"/>
-      <c r="V87"/>
-      <c r="W87"/>
-      <c r="X87"/>
+        <v>933</v>
+      </c>
+      <c r="T87" t="s">
+        <v>934</v>
+      </c>
+      <c r="U87" t="s">
+        <v>935</v>
+      </c>
+      <c r="V87" t="s">
+        <v>936</v>
+      </c>
+      <c r="W87" t="s">
+        <v>937</v>
+      </c>
+      <c r="X87" t="s">
+        <v>938</v>
+      </c>
       <c r="Y87"/>
       <c r="Z87"/>
       <c r="AA87"/>
@@ -10660,39 +10699,33 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="B88" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="C88" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
       <c r="D88" t="s">
-        <v>377</v>
+        <v>73</v>
       </c>
       <c r="E88" t="s">
         <v>48</v>
       </c>
       <c r="F88" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="G88" t="s">
-        <v>934</v>
-      </c>
-      <c r="H88" t="s">
-        <v>146</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="H88"/>
       <c r="I88"/>
-      <c r="J88" t="s">
-        <v>935</v>
-      </c>
+      <c r="J88"/>
       <c r="K88" t="s">
-        <v>936</v>
-      </c>
-      <c r="L88" t="s">
-        <v>937</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L88"/>
       <c r="M88"/>
       <c r="N88"/>
       <c r="O88"/>
@@ -10700,11 +10733,9 @@
       <c r="Q88"/>
       <c r="R88"/>
       <c r="S88" t="s">
-        <v>938</v>
-      </c>
-      <c r="T88" t="s">
-        <v>939</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T88"/>
       <c r="U88"/>
       <c r="V88"/>
       <c r="W88"/>
@@ -10732,67 +10763,55 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B89" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C89" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="D89" t="s">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="E89" t="s">
         <v>48</v>
       </c>
       <c r="F89" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="G89" t="s">
-        <v>944</v>
-      </c>
-      <c r="H89"/>
+        <v>947</v>
+      </c>
+      <c r="H89" t="s">
+        <v>146</v>
+      </c>
       <c r="I89"/>
       <c r="J89" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="K89" t="s">
-        <v>129</v>
+        <v>949</v>
       </c>
       <c r="L89" t="s">
-        <v>946</v>
-      </c>
-      <c r="M89" t="s">
-        <v>947</v>
-      </c>
-      <c r="N89" t="s">
-        <v>866</v>
-      </c>
-      <c r="O89" t="s">
-        <v>948</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
       <c r="R89"/>
       <c r="S89" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="T89" t="s">
-        <v>950</v>
-      </c>
-      <c r="U89" t="s">
-        <v>87</v>
-      </c>
-      <c r="V89" t="s">
-        <v>951</v>
-      </c>
-      <c r="W89" t="s">
         <v>952</v>
       </c>
-      <c r="X89" t="s">
-        <v>87</v>
-      </c>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
       <c r="Y89"/>
       <c r="Z89"/>
       <c r="AA89"/>
@@ -10825,7 +10844,7 @@
         <v>955</v>
       </c>
       <c r="D90" t="s">
-        <v>377</v>
+        <v>663</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -10834,41 +10853,49 @@
         <v>956</v>
       </c>
       <c r="G90" t="s">
-        <v>944</v>
+        <v>957</v>
       </c>
       <c r="H90"/>
       <c r="I90"/>
       <c r="J90" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="K90" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L90" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="M90" t="s">
-        <v>959</v>
-      </c>
-      <c r="N90"/>
-      <c r="O90"/>
+        <v>960</v>
+      </c>
+      <c r="N90" t="s">
+        <v>879</v>
+      </c>
+      <c r="O90" t="s">
+        <v>961</v>
+      </c>
       <c r="P90"/>
       <c r="Q90"/>
       <c r="R90"/>
       <c r="S90" t="s">
-        <v>868</v>
+        <v>962</v>
       </c>
       <c r="T90" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="U90" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="V90" t="s">
-        <v>961</v>
-      </c>
-      <c r="W90"/>
-      <c r="X90"/>
+        <v>964</v>
+      </c>
+      <c r="W90" t="s">
+        <v>965</v>
+      </c>
+      <c r="X90" t="s">
+        <v>87</v>
+      </c>
       <c r="Y90"/>
       <c r="Z90"/>
       <c r="AA90"/>
@@ -10892,39 +10919,39 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="B91" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="C91" t="s">
-        <v>46</v>
+        <v>968</v>
       </c>
       <c r="D91" t="s">
-        <v>501</v>
+        <v>390</v>
       </c>
       <c r="E91" t="s">
         <v>48</v>
       </c>
       <c r="F91" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="G91" t="s">
-        <v>197</v>
+        <v>957</v>
       </c>
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="K91" t="s">
         <v>52</v>
       </c>
       <c r="L91" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="M91" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
@@ -10932,13 +10959,17 @@
       <c r="Q91"/>
       <c r="R91"/>
       <c r="S91" t="s">
-        <v>372</v>
+        <v>881</v>
       </c>
       <c r="T91" t="s">
-        <v>968</v>
-      </c>
-      <c r="U91"/>
-      <c r="V91"/>
+        <v>973</v>
+      </c>
+      <c r="U91" t="s">
+        <v>228</v>
+      </c>
+      <c r="V91" t="s">
+        <v>974</v>
+      </c>
       <c r="W91"/>
       <c r="X91"/>
       <c r="Y91"/>
@@ -10964,39 +10995,39 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="B92" t="s">
-        <v>963</v>
+        <v>976</v>
       </c>
       <c r="C92" t="s">
         <v>46</v>
       </c>
       <c r="D92" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="E92" t="s">
         <v>48</v>
       </c>
       <c r="F92" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
       <c r="G92" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92" t="s">
-        <v>965</v>
+        <v>978</v>
       </c>
       <c r="K92" t="s">
         <v>52</v>
       </c>
       <c r="L92" t="s">
-        <v>966</v>
+        <v>979</v>
       </c>
       <c r="M92" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -11004,10 +11035,10 @@
       <c r="Q92"/>
       <c r="R92"/>
       <c r="S92" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="T92" t="s">
-        <v>968</v>
+        <v>981</v>
       </c>
       <c r="U92"/>
       <c r="V92"/>
@@ -11036,39 +11067,39 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="B93" t="s">
-        <v>963</v>
+        <v>976</v>
       </c>
       <c r="C93" t="s">
         <v>46</v>
       </c>
       <c r="D93" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="E93" t="s">
         <v>48</v>
       </c>
       <c r="F93" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
       <c r="G93" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93" t="s">
-        <v>965</v>
+        <v>978</v>
       </c>
       <c r="K93" t="s">
         <v>52</v>
       </c>
       <c r="L93" t="s">
-        <v>966</v>
+        <v>979</v>
       </c>
       <c r="M93" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
       <c r="N93"/>
       <c r="O93"/>
@@ -11076,10 +11107,10 @@
       <c r="Q93"/>
       <c r="R93"/>
       <c r="S93" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="T93" t="s">
-        <v>968</v>
+        <v>981</v>
       </c>
       <c r="U93"/>
       <c r="V93"/>
@@ -11108,56 +11139,54 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="B94" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="C94" t="s">
         <v>46</v>
       </c>
       <c r="D94" t="s">
-        <v>195</v>
+        <v>514</v>
       </c>
       <c r="E94" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F94" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="G94" t="s">
-        <v>601</v>
+        <v>210</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="K94" t="s">
-        <v>129</v>
-      </c>
-      <c r="L94"/>
-      <c r="M94"/>
+        <v>52</v>
+      </c>
+      <c r="L94" t="s">
+        <v>979</v>
+      </c>
+      <c r="M94" t="s">
+        <v>980</v>
+      </c>
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
       <c r="R94"/>
       <c r="S94" t="s">
-        <v>975</v>
+        <v>385</v>
       </c>
       <c r="T94" t="s">
-        <v>976</v>
-      </c>
-      <c r="U94" t="s">
-        <v>977</v>
-      </c>
-      <c r="V94" t="s">
-        <v>978</v>
-      </c>
-      <c r="W94" t="s">
-        <v>979</v>
-      </c>
+        <v>981</v>
+      </c>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
       <c r="X94"/>
       <c r="Y94"/>
       <c r="Z94"/>
@@ -11182,63 +11211,57 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="B95" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="C95" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="D95" t="s">
-        <v>982</v>
+        <v>208</v>
       </c>
       <c r="E95" t="s">
         <v>93</v>
       </c>
       <c r="F95" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="G95" t="s">
-        <v>197</v>
+        <v>614</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="K95" t="s">
-        <v>52</v>
-      </c>
-      <c r="L95" t="s">
-        <v>985</v>
-      </c>
-      <c r="M95" t="s">
-        <v>986</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L95"/>
+      <c r="M95"/>
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95"/>
       <c r="R95"/>
       <c r="S95" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="T95" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="U95" t="s">
-        <v>819</v>
+        <v>990</v>
       </c>
       <c r="V95" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="W95" t="s">
-        <v>990</v>
-      </c>
-      <c r="X95" t="s">
-        <v>991</v>
-      </c>
+        <v>992</v>
+      </c>
+      <c r="X95"/>
       <c r="Y95"/>
       <c r="Z95"/>
       <c r="AA95"/>
@@ -11262,51 +11285,63 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B96" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D96" t="s">
-        <v>331</v>
+        <v>154</v>
       </c>
       <c r="E96" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F96" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="G96" t="s">
-        <v>347</v>
-      </c>
-      <c r="H96" t="s">
-        <v>995</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="H96"/>
       <c r="I96"/>
       <c r="J96" t="s">
         <v>996</v>
       </c>
       <c r="K96" t="s">
+        <v>52</v>
+      </c>
+      <c r="L96" t="s">
         <v>997</v>
       </c>
-      <c r="L96"/>
-      <c r="M96"/>
+      <c r="M96" t="s">
+        <v>998</v>
+      </c>
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96"/>
       <c r="R96"/>
       <c r="S96" t="s">
-        <v>998</v>
-      </c>
-      <c r="T96"/>
-      <c r="U96"/>
-      <c r="V96"/>
-      <c r="W96"/>
-      <c r="X96"/>
+        <v>999</v>
+      </c>
+      <c r="T96" t="s">
+        <v>1000</v>
+      </c>
+      <c r="U96" t="s">
+        <v>832</v>
+      </c>
+      <c r="V96" t="s">
+        <v>1001</v>
+      </c>
+      <c r="W96" t="s">
+        <v>1002</v>
+      </c>
+      <c r="X96" t="s">
+        <v>1003</v>
+      </c>
       <c r="Y96"/>
       <c r="Z96"/>
       <c r="AA96"/>
@@ -11330,65 +11365,51 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="B97" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="C97" t="s">
-        <v>1001</v>
+        <v>46</v>
       </c>
       <c r="D97" t="s">
-        <v>519</v>
+        <v>344</v>
       </c>
       <c r="E97" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="G97" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H97"/>
+        <v>360</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1007</v>
+      </c>
       <c r="I97"/>
       <c r="J97" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="K97" t="s">
-        <v>1005</v>
-      </c>
-      <c r="L97" t="s">
-        <v>1006</v>
-      </c>
-      <c r="M97" t="s">
-        <v>1007</v>
-      </c>
-      <c r="N97" t="s">
-        <v>1008</v>
-      </c>
+        <v>1009</v>
+      </c>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
       <c r="O97"/>
       <c r="P97"/>
       <c r="Q97"/>
       <c r="R97"/>
       <c r="S97" t="s">
-        <v>1009</v>
-      </c>
-      <c r="T97" t="s">
-        <v>361</v>
-      </c>
-      <c r="U97" t="s">
-        <v>362</v>
-      </c>
-      <c r="V97" t="s">
-        <v>363</v>
-      </c>
-      <c r="W97" t="s">
         <v>1010</v>
       </c>
-      <c r="X97" t="s">
-        <v>1011</v>
-      </c>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
       <c r="Y97"/>
       <c r="Z97"/>
       <c r="AA97"/>
@@ -11412,61 +11433,65 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B98" t="s">
         <v>1012</v>
       </c>
-      <c r="B98" t="s">
-        <v>1000</v>
-      </c>
       <c r="C98" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="D98" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="E98" t="s">
         <v>93</v>
       </c>
       <c r="F98" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
       <c r="G98" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H98" t="s">
-        <v>645</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="K98" t="s">
-        <v>52</v>
+        <v>1016</v>
       </c>
       <c r="L98" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="M98" t="s">
-        <v>747</v>
+        <v>1018</v>
       </c>
       <c r="N98" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="O98"/>
       <c r="P98"/>
       <c r="Q98"/>
       <c r="R98"/>
       <c r="S98" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="T98" t="s">
-        <v>1017</v>
+        <v>374</v>
       </c>
       <c r="U98" t="s">
-        <v>1018</v>
-      </c>
-      <c r="V98"/>
-      <c r="W98"/>
-      <c r="X98"/>
+        <v>375</v>
+      </c>
+      <c r="V98" t="s">
+        <v>376</v>
+      </c>
+      <c r="W98" t="s">
+        <v>1021</v>
+      </c>
+      <c r="X98" t="s">
+        <v>1022</v>
+      </c>
       <c r="Y98"/>
       <c r="Z98"/>
       <c r="AA98"/>
@@ -11490,75 +11515,63 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B99" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="C99" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="D99" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="E99" t="s">
         <v>93</v>
       </c>
       <c r="F99" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
       <c r="G99" t="s">
-        <v>1003</v>
+        <v>156</v>
       </c>
       <c r="H99" t="s">
-        <v>146</v>
+        <v>658</v>
       </c>
       <c r="I99"/>
       <c r="J99" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="K99" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="L99" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="M99" t="s">
-        <v>1022</v>
+        <v>760</v>
       </c>
       <c r="N99" t="s">
-        <v>1023</v>
-      </c>
-      <c r="O99" t="s">
-        <v>1024</v>
-      </c>
+        <v>1026</v>
+      </c>
+      <c r="O99"/>
       <c r="P99"/>
       <c r="Q99"/>
       <c r="R99"/>
       <c r="S99" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="T99" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="U99" t="s">
-        <v>1027</v>
-      </c>
-      <c r="V99" t="s">
-        <v>1028</v>
-      </c>
-      <c r="W99" t="s">
         <v>1029</v>
       </c>
-      <c r="X99" t="s">
-        <v>1030</v>
-      </c>
-      <c r="Y99" t="s">
-        <v>1031</v>
-      </c>
-      <c r="Z99" t="s">
-        <v>361</v>
-      </c>
+      <c r="V99"/>
+      <c r="W99"/>
+      <c r="X99"/>
+      <c r="Y99"/>
+      <c r="Z99"/>
       <c r="AA99"/>
       <c r="AB99"/>
       <c r="AC99"/>
@@ -11580,61 +11593,75 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B100" t="s">
-        <v>1033</v>
+        <v>1012</v>
       </c>
       <c r="C100" t="s">
-        <v>384</v>
+        <v>1013</v>
       </c>
       <c r="D100" t="s">
-        <v>385</v>
+        <v>532</v>
       </c>
       <c r="E100" t="s">
         <v>93</v>
       </c>
       <c r="F100" t="s">
-        <v>1034</v>
+        <v>1014</v>
       </c>
       <c r="G100" t="s">
-        <v>145</v>
-      </c>
-      <c r="H100"/>
+        <v>156</v>
+      </c>
+      <c r="H100" t="s">
+        <v>146</v>
+      </c>
       <c r="I100"/>
       <c r="J100" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="K100" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L100" t="s">
-        <v>1036</v>
+        <v>158</v>
       </c>
       <c r="M100" t="s">
-        <v>1037</v>
-      </c>
-      <c r="N100"/>
-      <c r="O100"/>
+        <v>1032</v>
+      </c>
+      <c r="N100" t="s">
+        <v>160</v>
+      </c>
+      <c r="O100" t="s">
+        <v>1033</v>
+      </c>
       <c r="P100"/>
       <c r="Q100"/>
       <c r="R100"/>
       <c r="S100" t="s">
-        <v>392</v>
+        <v>1034</v>
       </c>
       <c r="T100" t="s">
+        <v>1035</v>
+      </c>
+      <c r="U100" t="s">
+        <v>1036</v>
+      </c>
+      <c r="V100" t="s">
+        <v>1037</v>
+      </c>
+      <c r="W100" t="s">
         <v>1038</v>
       </c>
-      <c r="U100" t="s">
+      <c r="X100" t="s">
         <v>1039</v>
       </c>
-      <c r="V100" t="s">
+      <c r="Y100" t="s">
         <v>1040</v>
       </c>
-      <c r="W100"/>
-      <c r="X100"/>
-      <c r="Y100"/>
-      <c r="Z100"/>
+      <c r="Z100" t="s">
+        <v>374</v>
+      </c>
       <c r="AA100"/>
       <c r="AB100"/>
       <c r="AC100"/>
@@ -11662,19 +11689,19 @@
         <v>1042</v>
       </c>
       <c r="C101" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="D101" t="s">
-        <v>143</v>
+        <v>398</v>
       </c>
       <c r="E101" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F101" t="s">
         <v>1043</v>
       </c>
       <c r="G101" t="s">
-        <v>626</v>
+        <v>145</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
@@ -11682,21 +11709,31 @@
         <v>1044</v>
       </c>
       <c r="K101" t="s">
+        <v>52</v>
+      </c>
+      <c r="L101" t="s">
         <v>1045</v>
       </c>
-      <c r="L101"/>
-      <c r="M101"/>
+      <c r="M101" t="s">
+        <v>1046</v>
+      </c>
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101"/>
       <c r="Q101"/>
       <c r="R101"/>
       <c r="S101" t="s">
-        <v>1046</v>
-      </c>
-      <c r="T101"/>
-      <c r="U101"/>
-      <c r="V101"/>
+        <v>405</v>
+      </c>
+      <c r="T101" t="s">
+        <v>1047</v>
+      </c>
+      <c r="U101" t="s">
+        <v>1048</v>
+      </c>
+      <c r="V101" t="s">
+        <v>1049</v>
+      </c>
       <c r="W101"/>
       <c r="X101"/>
       <c r="Y101"/>
@@ -11722,57 +11759,47 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="B102" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="C102" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="D102" t="s">
-        <v>331</v>
+        <v>143</v>
       </c>
       <c r="E102" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F102" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="G102" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="K102" t="s">
-        <v>52</v>
-      </c>
-      <c r="L102" t="s">
-        <v>1051</v>
-      </c>
-      <c r="M102" t="s">
-        <v>1052</v>
-      </c>
+        <v>1054</v>
+      </c>
+      <c r="L102"/>
+      <c r="M102"/>
       <c r="N102"/>
       <c r="O102"/>
       <c r="P102"/>
       <c r="Q102"/>
       <c r="R102"/>
       <c r="S102" t="s">
-        <v>1053</v>
-      </c>
-      <c r="T102" t="s">
-        <v>1054</v>
-      </c>
-      <c r="U102" t="s">
         <v>1055</v>
       </c>
-      <c r="V102" t="s">
-        <v>1056</v>
-      </c>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102"/>
       <c r="W102"/>
       <c r="X102"/>
       <c r="Y102"/>
@@ -11798,70 +11825,60 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B103" t="s">
         <v>1057</v>
       </c>
-      <c r="B103" t="s">
-        <v>1058</v>
-      </c>
       <c r="C103" t="s">
-        <v>1059</v>
+        <v>425</v>
       </c>
       <c r="D103" t="s">
-        <v>1060</v>
+        <v>344</v>
       </c>
       <c r="E103" t="s">
         <v>93</v>
       </c>
       <c r="F103" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="G103" t="s">
-        <v>387</v>
+        <v>639</v>
       </c>
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="K103" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="L103" t="s">
-        <v>1021</v>
+        <v>1060</v>
       </c>
       <c r="M103" t="s">
-        <v>1063</v>
-      </c>
-      <c r="N103" t="s">
-        <v>747</v>
-      </c>
-      <c r="O103" t="s">
-        <v>498</v>
-      </c>
+        <v>1061</v>
+      </c>
+      <c r="N103"/>
+      <c r="O103"/>
       <c r="P103"/>
       <c r="Q103"/>
       <c r="R103"/>
       <c r="S103" t="s">
+        <v>1062</v>
+      </c>
+      <c r="T103" t="s">
+        <v>1063</v>
+      </c>
+      <c r="U103" t="s">
         <v>1064</v>
       </c>
-      <c r="T103" t="s">
+      <c r="V103" t="s">
         <v>1065</v>
       </c>
-      <c r="U103" t="s">
-        <v>1066</v>
-      </c>
-      <c r="V103" t="s">
-        <v>1067</v>
-      </c>
-      <c r="W103" t="s">
-        <v>1068</v>
-      </c>
-      <c r="X103" t="s">
-        <v>1069</v>
-      </c>
-      <c r="Y103" t="s">
-        <v>498</v>
-      </c>
+      <c r="W103"/>
+      <c r="X103"/>
+      <c r="Y103"/>
       <c r="Z103"/>
       <c r="AA103"/>
       <c r="AB103"/>
@@ -11884,63 +11901,69 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E104" t="s">
+        <v>93</v>
+      </c>
+      <c r="F104" t="s">
         <v>1070</v>
       </c>
-      <c r="B104" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C104" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D104" t="s">
-        <v>124</v>
-      </c>
-      <c r="E104" t="s">
-        <v>48</v>
-      </c>
-      <c r="F104" t="s">
-        <v>1073</v>
-      </c>
       <c r="G104" t="s">
-        <v>717</v>
+        <v>400</v>
       </c>
       <c r="H104"/>
       <c r="I104"/>
       <c r="J104" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="K104" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L104" t="s">
-        <v>487</v>
-      </c>
-      <c r="M104"/>
-      <c r="N104"/>
-      <c r="O104"/>
+        <v>158</v>
+      </c>
+      <c r="M104" t="s">
+        <v>1072</v>
+      </c>
+      <c r="N104" t="s">
+        <v>760</v>
+      </c>
+      <c r="O104" t="s">
+        <v>511</v>
+      </c>
       <c r="P104"/>
       <c r="Q104"/>
       <c r="R104"/>
       <c r="S104" t="s">
+        <v>1073</v>
+      </c>
+      <c r="T104" t="s">
+        <v>1074</v>
+      </c>
+      <c r="U104" t="s">
         <v>1075</v>
       </c>
-      <c r="T104" t="s">
+      <c r="V104" t="s">
         <v>1076</v>
       </c>
-      <c r="U104" t="s">
+      <c r="W104" t="s">
         <v>1077</v>
       </c>
-      <c r="V104" t="s">
+      <c r="X104" t="s">
         <v>1078</v>
       </c>
-      <c r="W104" t="s">
-        <v>1079</v>
-      </c>
-      <c r="X104" t="s">
-        <v>1080</v>
-      </c>
       <c r="Y104" t="s">
-        <v>1081</v>
+        <v>511</v>
       </c>
       <c r="Z104"/>
       <c r="AA104"/>
@@ -11964,35 +11987,37 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D105" t="s">
+        <v>124</v>
+      </c>
+      <c r="E105" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105" t="s">
         <v>1082</v>
       </c>
-      <c r="B105" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D105" t="s">
-        <v>290</v>
-      </c>
-      <c r="E105" t="s">
-        <v>93</v>
-      </c>
-      <c r="F105" t="s">
-        <v>1085</v>
-      </c>
       <c r="G105" t="s">
-        <v>67</v>
+        <v>730</v>
       </c>
       <c r="H105"/>
       <c r="I105"/>
       <c r="J105" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="K105" t="s">
-        <v>129</v>
-      </c>
-      <c r="L105"/>
+        <v>52</v>
+      </c>
+      <c r="L105" t="s">
+        <v>500</v>
+      </c>
       <c r="M105"/>
       <c r="N105"/>
       <c r="O105"/>
@@ -12000,14 +12025,26 @@
       <c r="Q105"/>
       <c r="R105"/>
       <c r="S105" t="s">
-        <v>69</v>
-      </c>
-      <c r="T105"/>
-      <c r="U105"/>
-      <c r="V105"/>
-      <c r="W105"/>
-      <c r="X105"/>
-      <c r="Y105"/>
+        <v>1084</v>
+      </c>
+      <c r="T105" t="s">
+        <v>1085</v>
+      </c>
+      <c r="U105" t="s">
+        <v>1086</v>
+      </c>
+      <c r="V105" t="s">
+        <v>1087</v>
+      </c>
+      <c r="W105" t="s">
+        <v>1088</v>
+      </c>
+      <c r="X105" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>1090</v>
+      </c>
       <c r="Z105"/>
       <c r="AA105"/>
       <c r="AB105"/>
@@ -12030,57 +12067,47 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="B106" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>1093</v>
       </c>
       <c r="D106" t="s">
-        <v>460</v>
+        <v>303</v>
       </c>
       <c r="E106" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F106" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="G106" t="s">
-        <v>944</v>
+        <v>67</v>
       </c>
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="K106" t="s">
-        <v>52</v>
-      </c>
-      <c r="L106" t="s">
-        <v>1091</v>
-      </c>
-      <c r="M106" t="s">
-        <v>1092</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L106"/>
+      <c r="M106"/>
       <c r="N106"/>
       <c r="O106"/>
       <c r="P106"/>
       <c r="Q106"/>
       <c r="R106"/>
       <c r="S106" t="s">
-        <v>1093</v>
-      </c>
-      <c r="T106" t="s">
-        <v>1094</v>
-      </c>
-      <c r="U106" t="s">
-        <v>1095</v>
-      </c>
-      <c r="V106" t="s">
-        <v>280</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T106"/>
+      <c r="U106"/>
+      <c r="V106"/>
       <c r="W106"/>
       <c r="X106"/>
       <c r="Y106"/>
@@ -12112,10 +12139,10 @@
         <v>1097</v>
       </c>
       <c r="C107" t="s">
-        <v>412</v>
+        <v>46</v>
       </c>
       <c r="D107" t="s">
-        <v>982</v>
+        <v>473</v>
       </c>
       <c r="E107" t="s">
         <v>48</v>
@@ -12124,7 +12151,7 @@
         <v>1098</v>
       </c>
       <c r="G107" t="s">
-        <v>347</v>
+        <v>957</v>
       </c>
       <c r="H107"/>
       <c r="I107"/>
@@ -12137,20 +12164,26 @@
       <c r="L107" t="s">
         <v>1100</v>
       </c>
-      <c r="M107"/>
+      <c r="M107" t="s">
+        <v>1101</v>
+      </c>
       <c r="N107"/>
       <c r="O107"/>
       <c r="P107"/>
       <c r="Q107"/>
       <c r="R107"/>
       <c r="S107" t="s">
-        <v>372</v>
+        <v>1102</v>
       </c>
       <c r="T107" t="s">
-        <v>1101</v>
-      </c>
-      <c r="U107"/>
-      <c r="V107"/>
+        <v>1103</v>
+      </c>
+      <c r="U107" t="s">
+        <v>1104</v>
+      </c>
+      <c r="V107" t="s">
+        <v>293</v>
+      </c>
       <c r="W107"/>
       <c r="X107"/>
       <c r="Y107"/>
@@ -12176,54 +12209,48 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B108" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="C108" t="s">
-        <v>1104</v>
+        <v>425</v>
       </c>
       <c r="D108" t="s">
-        <v>377</v>
+        <v>154</v>
       </c>
       <c r="E108" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F108" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="G108" t="s">
-        <v>197</v>
+        <v>360</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="K108" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="L108" t="s">
-        <v>1107</v>
-      </c>
-      <c r="M108" t="s">
-        <v>1108</v>
-      </c>
-      <c r="N108" t="s">
         <v>1109</v>
       </c>
-      <c r="O108" t="s">
-        <v>986</v>
-      </c>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
       <c r="P108"/>
       <c r="Q108"/>
       <c r="R108"/>
       <c r="S108" t="s">
+        <v>385</v>
+      </c>
+      <c r="T108" t="s">
         <v>1110</v>
-      </c>
-      <c r="T108" t="s">
-        <v>1111</v>
       </c>
       <c r="U108"/>
       <c r="V108"/>
@@ -12252,25 +12279,25 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B109" t="s">
         <v>1112</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>1113</v>
       </c>
-      <c r="C109" t="s">
-        <v>827</v>
-      </c>
       <c r="D109" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E109" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F109" t="s">
         <v>1114</v>
       </c>
       <c r="G109" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H109"/>
       <c r="I109"/>
@@ -12278,7 +12305,7 @@
         <v>1115</v>
       </c>
       <c r="K109" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L109" t="s">
         <v>1116</v>
@@ -12286,15 +12313,21 @@
       <c r="M109" t="s">
         <v>1117</v>
       </c>
-      <c r="N109"/>
-      <c r="O109"/>
+      <c r="N109" t="s">
+        <v>1118</v>
+      </c>
+      <c r="O109" t="s">
+        <v>998</v>
+      </c>
       <c r="P109"/>
       <c r="Q109"/>
       <c r="R109"/>
       <c r="S109" t="s">
-        <v>1118</v>
-      </c>
-      <c r="T109"/>
+        <v>1119</v>
+      </c>
+      <c r="T109" t="s">
+        <v>1120</v>
+      </c>
       <c r="U109"/>
       <c r="V109"/>
       <c r="W109"/>
@@ -12322,59 +12355,51 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B110" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C110" t="s">
-        <v>105</v>
+        <v>840</v>
       </c>
       <c r="D110" t="s">
-        <v>208</v>
+        <v>398</v>
       </c>
       <c r="E110" t="s">
         <v>48</v>
       </c>
       <c r="F110" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="G110" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="H110"/>
       <c r="I110"/>
       <c r="J110" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="K110" t="s">
-        <v>936</v>
+        <v>52</v>
       </c>
       <c r="L110" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="M110" t="s">
-        <v>1124</v>
-      </c>
-      <c r="N110" t="s">
-        <v>678</v>
-      </c>
+        <v>1126</v>
+      </c>
+      <c r="N110"/>
       <c r="O110"/>
       <c r="P110"/>
       <c r="Q110"/>
       <c r="R110"/>
       <c r="S110" t="s">
-        <v>1125</v>
-      </c>
-      <c r="T110" t="s">
-        <v>1126</v>
-      </c>
-      <c r="U110" t="s">
         <v>1127</v>
       </c>
-      <c r="V110" t="s">
-        <v>1128</v>
-      </c>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
       <c r="W110"/>
       <c r="X110"/>
       <c r="Y110"/>
@@ -12400,59 +12425,61 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B111" t="s">
         <v>1129</v>
       </c>
-      <c r="B111" t="s">
-        <v>1130</v>
-      </c>
       <c r="C111" t="s">
-        <v>1131</v>
+        <v>105</v>
       </c>
       <c r="D111" t="s">
-        <v>1132</v>
+        <v>221</v>
       </c>
       <c r="E111" t="s">
         <v>48</v>
       </c>
       <c r="F111" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="G111" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="H111"/>
       <c r="I111"/>
       <c r="J111" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="K111" t="s">
-        <v>52</v>
-      </c>
-      <c r="L111"/>
-      <c r="M111"/>
-      <c r="N111"/>
+        <v>949</v>
+      </c>
+      <c r="L111" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M111" t="s">
+        <v>1133</v>
+      </c>
+      <c r="N111" t="s">
+        <v>691</v>
+      </c>
       <c r="O111"/>
       <c r="P111"/>
       <c r="Q111"/>
       <c r="R111"/>
       <c r="S111" t="s">
+        <v>1134</v>
+      </c>
+      <c r="T111" t="s">
         <v>1135</v>
       </c>
-      <c r="T111" t="s">
+      <c r="U111" t="s">
         <v>1136</v>
       </c>
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>1137</v>
       </c>
-      <c r="V111" t="s">
-        <v>1138</v>
-      </c>
-      <c r="W111" t="s">
-        <v>1139</v>
-      </c>
-      <c r="X111" t="s">
-        <v>1140</v>
-      </c>
+      <c r="W111"/>
+      <c r="X111"/>
       <c r="Y111"/>
       <c r="Z111"/>
       <c r="AA111"/>
@@ -12476,37 +12503,35 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D112" t="s">
         <v>1141</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D112" t="s">
-        <v>650</v>
       </c>
       <c r="E112" t="s">
         <v>48</v>
       </c>
       <c r="F112" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="G112" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="H112"/>
       <c r="I112"/>
       <c r="J112" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="K112" t="s">
-        <v>129</v>
-      </c>
-      <c r="L112" t="s">
-        <v>1146</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L112"/>
       <c r="M112"/>
       <c r="N112"/>
       <c r="O112"/>
@@ -12514,22 +12539,22 @@
       <c r="Q112"/>
       <c r="R112"/>
       <c r="S112" t="s">
+        <v>1144</v>
+      </c>
+      <c r="T112" t="s">
+        <v>1145</v>
+      </c>
+      <c r="U112" t="s">
+        <v>1146</v>
+      </c>
+      <c r="V112" t="s">
         <v>1147</v>
       </c>
-      <c r="T112" t="s">
+      <c r="W112" t="s">
         <v>1148</v>
       </c>
-      <c r="U112" t="s">
+      <c r="X112" t="s">
         <v>1149</v>
-      </c>
-      <c r="V112" t="s">
-        <v>1150</v>
-      </c>
-      <c r="W112" t="s">
-        <v>1151</v>
-      </c>
-      <c r="X112" t="s">
-        <v>498</v>
       </c>
       <c r="Y112"/>
       <c r="Z112"/>
@@ -12554,36 +12579,36 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C113" t="s">
         <v>1152</v>
       </c>
-      <c r="B113" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C113" t="s">
-        <v>91</v>
-      </c>
       <c r="D113" t="s">
-        <v>377</v>
+        <v>663</v>
       </c>
       <c r="E113" t="s">
         <v>48</v>
       </c>
       <c r="F113" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G113" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="H113"/>
       <c r="I113"/>
       <c r="J113" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K113" t="s">
+        <v>129</v>
+      </c>
+      <c r="L113" t="s">
         <v>1155</v>
-      </c>
-      <c r="K113" t="s">
-        <v>211</v>
-      </c>
-      <c r="L113" t="s">
-        <v>212</v>
       </c>
       <c r="M113"/>
       <c r="N113"/>
@@ -12592,22 +12617,22 @@
       <c r="Q113"/>
       <c r="R113"/>
       <c r="S113" t="s">
-        <v>213</v>
+        <v>1156</v>
       </c>
       <c r="T113" t="s">
-        <v>214</v>
+        <v>1157</v>
       </c>
       <c r="U113" t="s">
-        <v>215</v>
+        <v>1158</v>
       </c>
       <c r="V113" t="s">
-        <v>216</v>
+        <v>1159</v>
       </c>
       <c r="W113" t="s">
-        <v>217</v>
+        <v>1160</v>
       </c>
       <c r="X113" t="s">
-        <v>218</v>
+        <v>511</v>
       </c>
       <c r="Y113"/>
       <c r="Z113"/>
@@ -12632,87 +12657,67 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="B114" t="s">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="C114" t="s">
-        <v>1158</v>
+        <v>91</v>
       </c>
       <c r="D114" t="s">
-        <v>184</v>
+        <v>390</v>
       </c>
       <c r="E114" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F114" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="G114" t="s">
-        <v>243</v>
+        <v>67</v>
       </c>
       <c r="H114"/>
       <c r="I114"/>
       <c r="J114" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="K114" t="s">
-        <v>1161</v>
+        <v>224</v>
       </c>
       <c r="L114" t="s">
-        <v>1162</v>
-      </c>
-      <c r="M114" t="s">
-        <v>679</v>
-      </c>
-      <c r="N114" t="s">
-        <v>634</v>
-      </c>
-      <c r="O114" t="s">
-        <v>1163</v>
-      </c>
-      <c r="P114" t="s">
-        <v>1164</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
       <c r="Q114"/>
       <c r="R114"/>
       <c r="S114" t="s">
-        <v>1165</v>
+        <v>226</v>
       </c>
       <c r="T114" t="s">
-        <v>1166</v>
+        <v>227</v>
       </c>
       <c r="U114" t="s">
-        <v>1167</v>
+        <v>228</v>
       </c>
       <c r="V114" t="s">
-        <v>1168</v>
+        <v>229</v>
       </c>
       <c r="W114" t="s">
-        <v>1169</v>
+        <v>230</v>
       </c>
       <c r="X114" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y114" t="s">
-        <v>1170</v>
-      </c>
-      <c r="Z114" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA114" t="s">
-        <v>824</v>
-      </c>
-      <c r="AB114" t="s">
-        <v>1171</v>
-      </c>
-      <c r="AC114" t="s">
-        <v>1172</v>
-      </c>
-      <c r="AD114" t="s">
-        <v>1173</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Y114"/>
+      <c r="Z114"/>
+      <c r="AA114"/>
+      <c r="AB114"/>
+      <c r="AC114"/>
+      <c r="AD114"/>
       <c r="AE114"/>
       <c r="AF114"/>
       <c r="AG114"/>
@@ -12730,79 +12735,87 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="B115" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="C115" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="D115" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="E115" t="s">
         <v>93</v>
       </c>
       <c r="F115" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="G115" t="s">
-        <v>1178</v>
+        <v>256</v>
       </c>
       <c r="H115"/>
       <c r="I115"/>
       <c r="J115" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="K115" t="s">
-        <v>52</v>
+        <v>1170</v>
       </c>
       <c r="L115" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="M115" t="s">
-        <v>1181</v>
+        <v>692</v>
       </c>
       <c r="N115" t="s">
-        <v>1182</v>
-      </c>
-      <c r="O115"/>
-      <c r="P115"/>
+        <v>647</v>
+      </c>
+      <c r="O115" t="s">
+        <v>1172</v>
+      </c>
+      <c r="P115" t="s">
+        <v>1173</v>
+      </c>
       <c r="Q115"/>
       <c r="R115"/>
       <c r="S115" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="T115" t="s">
-        <v>783</v>
+        <v>1175</v>
       </c>
       <c r="U115" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="V115" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="W115" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="X115" t="s">
-        <v>1187</v>
+        <v>228</v>
       </c>
       <c r="Y115" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="Z115" t="s">
-        <v>1189</v>
+        <v>87</v>
       </c>
       <c r="AA115" t="s">
-        <v>87</v>
+        <v>837</v>
       </c>
       <c r="AB115" t="s">
-        <v>1190</v>
-      </c>
-      <c r="AC115"/>
-      <c r="AD115"/>
+        <v>1180</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>1181</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>1182</v>
+      </c>
       <c r="AE115"/>
       <c r="AF115"/>
       <c r="AG115"/>
@@ -12820,63 +12833,77 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="B116" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="C116" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="D116" t="s">
-        <v>419</v>
+        <v>106</v>
       </c>
       <c r="E116" t="s">
         <v>93</v>
       </c>
       <c r="F116" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="G116" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="H116"/>
       <c r="I116"/>
       <c r="J116" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="K116" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="L116" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="M116" t="s">
-        <v>1198</v>
-      </c>
-      <c r="N116"/>
+        <v>1190</v>
+      </c>
+      <c r="N116" t="s">
+        <v>1191</v>
+      </c>
       <c r="O116"/>
       <c r="P116"/>
       <c r="Q116"/>
       <c r="R116"/>
       <c r="S116" t="s">
+        <v>1192</v>
+      </c>
+      <c r="T116" t="s">
+        <v>796</v>
+      </c>
+      <c r="U116" t="s">
+        <v>1193</v>
+      </c>
+      <c r="V116" t="s">
+        <v>1194</v>
+      </c>
+      <c r="W116" t="s">
+        <v>1195</v>
+      </c>
+      <c r="X116" t="s">
+        <v>1196</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>1197</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB116" t="s">
         <v>1199</v>
       </c>
-      <c r="T116" t="s">
-        <v>87</v>
-      </c>
-      <c r="U116" t="s">
-        <v>1200</v>
-      </c>
-      <c r="V116" t="s">
-        <v>1201</v>
-      </c>
-      <c r="W116"/>
-      <c r="X116"/>
-      <c r="Y116"/>
-      <c r="Z116"/>
-      <c r="AA116"/>
-      <c r="AB116"/>
       <c r="AC116"/>
       <c r="AD116"/>
       <c r="AE116"/>
@@ -12896,25 +12923,25 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C117" t="s">
         <v>1202</v>
       </c>
-      <c r="B117" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1176</v>
-      </c>
       <c r="D117" t="s">
-        <v>208</v>
+        <v>432</v>
       </c>
       <c r="E117" t="s">
         <v>93</v>
       </c>
       <c r="F117" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G117" t="s">
         <v>1204</v>
-      </c>
-      <c r="G117" t="s">
-        <v>197</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
@@ -12930,31 +12957,25 @@
       <c r="M117" t="s">
         <v>1207</v>
       </c>
-      <c r="N117" t="s">
-        <v>1208</v>
-      </c>
+      <c r="N117"/>
       <c r="O117"/>
       <c r="P117"/>
       <c r="Q117"/>
       <c r="R117"/>
       <c r="S117" t="s">
+        <v>1208</v>
+      </c>
+      <c r="T117" t="s">
+        <v>87</v>
+      </c>
+      <c r="U117" t="s">
         <v>1209</v>
       </c>
-      <c r="T117" t="s">
+      <c r="V117" t="s">
         <v>1210</v>
       </c>
-      <c r="U117" t="s">
-        <v>1211</v>
-      </c>
-      <c r="V117" t="s">
-        <v>1212</v>
-      </c>
-      <c r="W117" t="s">
-        <v>1213</v>
-      </c>
-      <c r="X117" t="s">
-        <v>1214</v>
-      </c>
+      <c r="W117"/>
+      <c r="X117"/>
       <c r="Y117"/>
       <c r="Z117"/>
       <c r="AA117"/>
@@ -12978,61 +12999,65 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="B118" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C118" t="s">
-        <v>1217</v>
+        <v>1185</v>
       </c>
       <c r="D118" t="s">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="E118" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F118" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="G118" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
       <c r="J118" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="K118" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="L118" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="M118" t="s">
-        <v>1221</v>
-      </c>
-      <c r="N118"/>
+        <v>1216</v>
+      </c>
+      <c r="N118" t="s">
+        <v>1217</v>
+      </c>
       <c r="O118"/>
       <c r="P118"/>
       <c r="Q118"/>
       <c r="R118"/>
       <c r="S118" t="s">
+        <v>1218</v>
+      </c>
+      <c r="T118" t="s">
+        <v>1219</v>
+      </c>
+      <c r="U118" t="s">
+        <v>1220</v>
+      </c>
+      <c r="V118" t="s">
+        <v>1221</v>
+      </c>
+      <c r="W118" t="s">
         <v>1222</v>
       </c>
-      <c r="T118" t="s">
+      <c r="X118" t="s">
         <v>1223</v>
       </c>
-      <c r="U118" t="s">
-        <v>1224</v>
-      </c>
-      <c r="V118" t="s">
-        <v>1225</v>
-      </c>
-      <c r="W118" t="s">
-        <v>1226</v>
-      </c>
-      <c r="X118"/>
       <c r="Y118"/>
       <c r="Z118"/>
       <c r="AA118"/>
@@ -13056,64 +13081,60 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D119" t="s">
+        <v>344</v>
+      </c>
+      <c r="E119" t="s">
+        <v>48</v>
+      </c>
+      <c r="F119" t="s">
         <v>1227</v>
       </c>
-      <c r="B119" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D119" t="s">
-        <v>92</v>
-      </c>
-      <c r="E119" t="s">
-        <v>93</v>
-      </c>
-      <c r="F119" t="s">
-        <v>1229</v>
-      </c>
       <c r="G119" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="H119"/>
       <c r="I119"/>
       <c r="J119" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K119" t="s">
+        <v>239</v>
+      </c>
+      <c r="L119" t="s">
+        <v>1229</v>
+      </c>
+      <c r="M119" t="s">
         <v>1230</v>
       </c>
-      <c r="K119" t="s">
-        <v>52</v>
-      </c>
-      <c r="L119" t="s">
-        <v>679</v>
-      </c>
-      <c r="M119" t="s">
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119" t="s">
         <v>1231</v>
       </c>
-      <c r="N119" t="s">
-        <v>1036</v>
-      </c>
-      <c r="O119" t="s">
+      <c r="T119" t="s">
         <v>1232</v>
       </c>
-      <c r="P119" t="s">
+      <c r="U119" t="s">
         <v>1233</v>
       </c>
-      <c r="Q119" t="s">
+      <c r="V119" t="s">
         <v>1234</v>
       </c>
-      <c r="R119" t="s">
+      <c r="W119" t="s">
         <v>1235</v>
       </c>
-      <c r="S119" t="s">
-        <v>1236</v>
-      </c>
-      <c r="T119" t="s">
-        <v>634</v>
-      </c>
-      <c r="U119"/>
-      <c r="V119"/>
-      <c r="W119"/>
       <c r="X119"/>
       <c r="Y119"/>
       <c r="Z119"/>
@@ -13136,6 +13157,88 @@
       <c r="AQ119"/>
       <c r="AR119"/>
     </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C120" t="s">
+        <v>46</v>
+      </c>
+      <c r="D120" t="s">
+        <v>92</v>
+      </c>
+      <c r="E120" t="s">
+        <v>93</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G120" t="s">
+        <v>288</v>
+      </c>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K120" t="s">
+        <v>52</v>
+      </c>
+      <c r="L120" t="s">
+        <v>692</v>
+      </c>
+      <c r="M120" t="s">
+        <v>1240</v>
+      </c>
+      <c r="N120" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O120" t="s">
+        <v>1241</v>
+      </c>
+      <c r="P120" t="s">
+        <v>1242</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R120" t="s">
+        <v>1244</v>
+      </c>
+      <c r="S120" t="s">
+        <v>1245</v>
+      </c>
+      <c r="T120" t="s">
+        <v>647</v>
+      </c>
+      <c r="U120"/>
+      <c r="V120"/>
+      <c r="W120"/>
+      <c r="X120"/>
+      <c r="Y120"/>
+      <c r="Z120"/>
+      <c r="AA120"/>
+      <c r="AB120"/>
+      <c r="AC120"/>
+      <c r="AD120"/>
+      <c r="AE120"/>
+      <c r="AF120"/>
+      <c r="AG120"/>
+      <c r="AH120"/>
+      <c r="AI120"/>
+      <c r="AJ120"/>
+      <c r="AK120"/>
+      <c r="AL120"/>
+      <c r="AM120"/>
+      <c r="AN120"/>
+      <c r="AO120"/>
+      <c r="AP120"/>
+      <c r="AQ120"/>
+      <c r="AR120"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/synopsis.PDtremorSystematicReview.xlsx
+++ b/synopsis.PDtremorSystematicReview.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="1261">
   <si>
     <t xml:space="preserve">Authors</t>
   </si>
@@ -1199,6 +1199,51 @@
   </si>
   <si>
     <t xml:space="preserve">inability to take part in procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hattori et al. 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rasagiline monotherapy in early Parkinson's disease: A phase 3, randomized study in Japan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Park Relat Disord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To evaluate the efficacy and safety of rasagiline as monoherapy in iPS-patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After initial two-week single-blind run-in period, in which patients received placebo once daily, a 26-week double-blind treatment period was conducted which patients were randomized 1:1 to receive a. placebo or b. oral rasagiline 1 mg qd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> age between 30 to 79 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hoehn and Yahr stages of 1 to 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MDS-UPDRS scores of more than 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any investigational drug within prior 90 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> previous use of rasagiline</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MMSE of less than 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> treatment with amantadine or an anticholinergic drug for more than 180 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> treatment with selegiline, levodopa or dopamine agonists for more 90 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> use of selegiline within 90 days of first visit, or of any medication containing levodopa, dopamine agonists, amantadine or anticholinergic drugs within 30 days of first visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Concomitant use of antidepressants</t>
   </si>
   <si>
     <t xml:space="preserve">Heinonen et al. 1989</t>
@@ -6250,53 +6295,59 @@
         <v>397</v>
       </c>
       <c r="D28" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E28" t="s">
         <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G28" t="s">
-        <v>400</v>
+        <v>256</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28" t="s">
+        <v>399</v>
+      </c>
+      <c r="K28" t="s">
+        <v>393</v>
+      </c>
+      <c r="L28" t="s">
+        <v>400</v>
+      </c>
+      <c r="M28" t="s">
         <v>401</v>
       </c>
-      <c r="K28" t="s">
+      <c r="N28" t="s">
         <v>402</v>
       </c>
-      <c r="L28" t="s">
-        <v>403</v>
-      </c>
-      <c r="M28" t="s">
-        <v>404</v>
-      </c>
-      <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28" t="s">
+        <v>403</v>
+      </c>
+      <c r="T28" t="s">
+        <v>404</v>
+      </c>
+      <c r="U28" t="s">
         <v>405</v>
       </c>
-      <c r="T28" t="s">
+      <c r="V28" t="s">
         <v>406</v>
       </c>
-      <c r="U28" t="s">
+      <c r="W28" t="s">
         <v>407</v>
       </c>
-      <c r="V28" t="s">
+      <c r="X28" t="s">
         <v>408</v>
       </c>
-      <c r="W28" t="s">
+      <c r="Y28" t="s">
         <v>409</v>
       </c>
-      <c r="X28"/>
-      <c r="Y28"/>
       <c r="Z28"/>
       <c r="AA28"/>
       <c r="AB28"/>
@@ -6328,41 +6379,51 @@
         <v>412</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G29" t="s">
-        <v>199</v>
+        <v>415</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K29" t="s">
-        <v>212</v>
+        <v>417</v>
       </c>
       <c r="L29" t="s">
-        <v>415</v>
-      </c>
-      <c r="M29"/>
+        <v>418</v>
+      </c>
+      <c r="M29" t="s">
+        <v>419</v>
+      </c>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29" t="s">
-        <v>69</v>
-      </c>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
+        <v>420</v>
+      </c>
+      <c r="T29" t="s">
+        <v>421</v>
+      </c>
+      <c r="U29" t="s">
+        <v>422</v>
+      </c>
+      <c r="V29" t="s">
+        <v>423</v>
+      </c>
+      <c r="W29" t="s">
+        <v>424</v>
+      </c>
       <c r="X29"/>
       <c r="Y29"/>
       <c r="Z29"/>
@@ -6387,35 +6448,37 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B30" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C30" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="D30" t="s">
-        <v>419</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
         <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="G30" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
-      </c>
-      <c r="L30"/>
+        <v>212</v>
+      </c>
+      <c r="L30" t="s">
+        <v>430</v>
+      </c>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
@@ -6423,7 +6486,7 @@
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30" t="s">
-        <v>422</v>
+        <v>69</v>
       </c>
       <c r="T30"/>
       <c r="U30"/>
@@ -6453,35 +6516,33 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B31" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="C31" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="D31" t="s">
-        <v>303</v>
+        <v>434</v>
       </c>
       <c r="E31" t="s">
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="G31" t="s">
-        <v>199</v>
-      </c>
-      <c r="H31" t="s">
-        <v>146</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="H31"/>
       <c r="I31"/>
       <c r="J31" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="K31" t="s">
-        <v>428</v>
+        <v>52</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -6491,7 +6552,7 @@
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31" t="s">
-        <v>69</v>
+        <v>437</v>
       </c>
       <c r="T31"/>
       <c r="U31"/>
@@ -6521,37 +6582,37 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B32" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="C32" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="D32" t="s">
-        <v>432</v>
+        <v>303</v>
       </c>
       <c r="E32" t="s">
         <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G32" t="s">
-        <v>434</v>
-      </c>
-      <c r="H32"/>
+        <v>199</v>
+      </c>
+      <c r="H32" t="s">
+        <v>146</v>
+      </c>
       <c r="I32"/>
       <c r="J32" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="K32" t="s">
-        <v>436</v>
-      </c>
-      <c r="L32" t="s">
-        <v>437</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
@@ -6589,250 +6650,242 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B33" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>446</v>
       </c>
       <c r="D33" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="G33" t="s">
-        <v>256</v>
+        <v>449</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="K33" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="L33" t="s">
-        <v>444</v>
-      </c>
-      <c r="M33" t="s">
-        <v>445</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33" t="s">
-        <v>446</v>
-      </c>
-      <c r="T33" t="s">
-        <v>263</v>
-      </c>
-      <c r="U33" t="s">
-        <v>447</v>
-      </c>
-      <c r="V33" t="s">
-        <v>448</v>
-      </c>
-      <c r="W33" t="s">
-        <v>449</v>
-      </c>
-      <c r="X33" t="s">
-        <v>450</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>451</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>452</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>454</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>455</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>456</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>457</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>458</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>459</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>460</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>461</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>462</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>463</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>464</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>465</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>466</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>467</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>468</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>469</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>470</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+      <c r="AQ33"/>
+      <c r="AR33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B34" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="C34" t="s">
-        <v>397</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G34" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="K34" t="s">
-        <v>52</v>
+        <v>458</v>
       </c>
       <c r="L34" t="s">
-        <v>476</v>
-      </c>
-      <c r="M34"/>
+        <v>459</v>
+      </c>
+      <c r="M34" t="s">
+        <v>460</v>
+      </c>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34" t="s">
+        <v>461</v>
+      </c>
+      <c r="T34" t="s">
+        <v>263</v>
+      </c>
+      <c r="U34" t="s">
+        <v>462</v>
+      </c>
+      <c r="V34" t="s">
+        <v>463</v>
+      </c>
+      <c r="W34" t="s">
+        <v>464</v>
+      </c>
+      <c r="X34" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>470</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>472</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>473</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>474</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>475</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>476</v>
+      </c>
+      <c r="AJ34" t="s">
         <v>477</v>
       </c>
-      <c r="T34" t="s">
+      <c r="AK34" t="s">
         <v>478</v>
       </c>
-      <c r="U34" t="s">
+      <c r="AL34" t="s">
         <v>479</v>
       </c>
-      <c r="V34" t="s">
+      <c r="AM34" t="s">
         <v>480</v>
       </c>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
-      <c r="AF34"/>
-      <c r="AG34"/>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34"/>
-      <c r="AK34"/>
-      <c r="AL34"/>
-      <c r="AM34"/>
-      <c r="AN34"/>
-      <c r="AO34"/>
-      <c r="AP34"/>
-      <c r="AQ34"/>
-      <c r="AR34"/>
+      <c r="AN34" t="s">
+        <v>481</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>482</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>483</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>484</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B35" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>412</v>
       </c>
       <c r="D35" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="E35" t="s">
         <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="G35" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="K35" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="L35" t="s">
-        <v>485</v>
-      </c>
-      <c r="M35" t="s">
-        <v>486</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="T35" t="s">
-        <v>87</v>
+        <v>493</v>
       </c>
       <c r="U35" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="V35" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="W35"/>
       <c r="X35"/>
@@ -6859,47 +6912,57 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B36" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C36" t="s">
-        <v>492</v>
+        <v>188</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>447</v>
       </c>
       <c r="E36" t="s">
         <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="G36" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="K36" t="s">
-        <v>69</v>
-      </c>
-      <c r="L36"/>
-      <c r="M36"/>
+        <v>224</v>
+      </c>
+      <c r="L36" t="s">
+        <v>500</v>
+      </c>
+      <c r="M36" t="s">
+        <v>501</v>
+      </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>69</v>
-      </c>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
+        <v>502</v>
+      </c>
+      <c r="T36" t="s">
+        <v>87</v>
+      </c>
+      <c r="U36" t="s">
+        <v>503</v>
+      </c>
+      <c r="V36" t="s">
+        <v>504</v>
+      </c>
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36"/>
@@ -6925,51 +6988,45 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B37" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="C37" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="D37" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="G37" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="K37" t="s">
-        <v>129</v>
-      </c>
-      <c r="L37" t="s">
-        <v>500</v>
-      </c>
-      <c r="M37" t="s">
-        <v>501</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="L37"/>
+      <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37" t="s">
-        <v>502</v>
-      </c>
-      <c r="T37" t="s">
-        <v>503</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T37"/>
       <c r="U37"/>
       <c r="V37"/>
       <c r="W37"/>
@@ -6997,56 +7054,54 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B38" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C38" t="s">
-        <v>381</v>
+        <v>512</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="E38" t="s">
         <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="G38" t="s">
-        <v>210</v>
+        <v>311</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K38" t="s">
-        <v>52</v>
-      </c>
-      <c r="L38"/>
-      <c r="M38"/>
+        <v>129</v>
+      </c>
+      <c r="L38" t="s">
+        <v>515</v>
+      </c>
+      <c r="M38" t="s">
+        <v>516</v>
+      </c>
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38" t="s">
-        <v>385</v>
+        <v>517</v>
       </c>
       <c r="T38" t="s">
-        <v>508</v>
-      </c>
-      <c r="U38" t="s">
-        <v>509</v>
-      </c>
-      <c r="V38" t="s">
-        <v>510</v>
-      </c>
-      <c r="W38" t="s">
-        <v>511</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
       <c r="X38"/>
       <c r="Y38"/>
       <c r="Z38"/>
@@ -7071,22 +7126,22 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="B39" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C39" t="s">
         <v>381</v>
       </c>
       <c r="D39" t="s">
-        <v>514</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
         <v>93</v>
       </c>
       <c r="F39" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="G39" t="s">
         <v>210</v>
@@ -7094,7 +7149,7 @@
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="K39" t="s">
         <v>52</v>
@@ -7110,11 +7165,17 @@
         <v>385</v>
       </c>
       <c r="T39" t="s">
-        <v>517</v>
-      </c>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
+        <v>523</v>
+      </c>
+      <c r="U39" t="s">
+        <v>524</v>
+      </c>
+      <c r="V39" t="s">
+        <v>525</v>
+      </c>
+      <c r="W39" t="s">
+        <v>526</v>
+      </c>
       <c r="X39"/>
       <c r="Y39"/>
       <c r="Z39"/>
@@ -7139,34 +7200,30 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B40" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="C40" t="s">
-        <v>520</v>
+        <v>381</v>
       </c>
       <c r="D40" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="G40" t="s">
-        <v>523</v>
-      </c>
-      <c r="H40" t="s">
-        <v>524</v>
-      </c>
-      <c r="I40" t="s">
-        <v>525</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40"/>
       <c r="J40" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="K40" t="s">
         <v>52</v>
@@ -7179,9 +7236,11 @@
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40" t="s">
-        <v>69</v>
-      </c>
-      <c r="T40"/>
+        <v>385</v>
+      </c>
+      <c r="T40" t="s">
+        <v>532</v>
+      </c>
       <c r="U40"/>
       <c r="V40"/>
       <c r="W40"/>
@@ -7209,34 +7268,34 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B41" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="C41" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="D41" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="E41" t="s">
         <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="G41" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="H41" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="I41" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="J41" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="K41" t="s">
         <v>52</v>
@@ -7279,34 +7338,34 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="B42" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="C42" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="D42" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="E42" t="s">
         <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="G42" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="H42" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="I42" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="J42" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="K42" t="s">
         <v>52</v>
@@ -7349,37 +7408,39 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="B43" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C43" t="s">
-        <v>425</v>
+        <v>535</v>
       </c>
       <c r="D43" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="G43" t="s">
-        <v>95</v>
-      </c>
-      <c r="H43"/>
-      <c r="I43"/>
+        <v>544</v>
+      </c>
+      <c r="H43" t="s">
+        <v>539</v>
+      </c>
+      <c r="I43" t="s">
+        <v>540</v>
+      </c>
       <c r="J43" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="K43" t="s">
-        <v>239</v>
-      </c>
-      <c r="L43" t="s">
-        <v>535</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
       <c r="O43"/>
@@ -7417,36 +7478,36 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="B44" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="C44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>547</v>
       </c>
       <c r="E44" t="s">
         <v>93</v>
       </c>
       <c r="F44" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="G44" t="s">
-        <v>360</v>
+        <v>95</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="K44" t="s">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="L44" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="M44"/>
       <c r="N44"/>
@@ -7455,7 +7516,7 @@
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44" t="s">
-        <v>541</v>
+        <v>69</v>
       </c>
       <c r="T44"/>
       <c r="U44"/>
@@ -7485,35 +7546,37 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="B45" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="C45" t="s">
-        <v>544</v>
+        <v>412</v>
       </c>
       <c r="D45" t="s">
-        <v>235</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
+        <v>360</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="K45" t="s">
-        <v>129</v>
-      </c>
-      <c r="L45"/>
+        <v>52</v>
+      </c>
+      <c r="L45" t="s">
+        <v>555</v>
+      </c>
       <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
@@ -7521,26 +7584,14 @@
       <c r="Q45"/>
       <c r="R45"/>
       <c r="S45" t="s">
-        <v>385</v>
-      </c>
-      <c r="T45" t="s">
-        <v>547</v>
-      </c>
-      <c r="U45" t="s">
-        <v>548</v>
-      </c>
-      <c r="V45" t="s">
-        <v>549</v>
-      </c>
-      <c r="W45" t="s">
-        <v>479</v>
-      </c>
-      <c r="X45" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>550</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
       <c r="Z45"/>
       <c r="AA45"/>
       <c r="AB45"/>
@@ -7563,64 +7614,62 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B46" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C46" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D46" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="G46" t="s">
-        <v>256</v>
+        <v>67</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="K46" t="s">
-        <v>556</v>
-      </c>
-      <c r="L46" t="s">
-        <v>557</v>
-      </c>
-      <c r="M46" t="s">
-        <v>558</v>
-      </c>
-      <c r="N46" t="s">
-        <v>511</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46" t="s">
-        <v>559</v>
+        <v>385</v>
       </c>
       <c r="T46" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="U46" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="V46" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="W46" t="s">
-        <v>511</v>
-      </c>
-      <c r="X46"/>
-      <c r="Y46"/>
+        <v>494</v>
+      </c>
+      <c r="X46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>565</v>
+      </c>
       <c r="Z46"/>
       <c r="AA46"/>
       <c r="AB46"/>
@@ -7643,13 +7692,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B47" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="C47" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="D47" t="s">
         <v>197</v>
@@ -7658,7 +7707,7 @@
         <v>93</v>
       </c>
       <c r="F47" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="G47" t="s">
         <v>256</v>
@@ -7666,45 +7715,41 @@
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="K47" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="L47" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="M47" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="N47" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="T47" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="U47" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="V47" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="W47" t="s">
-        <v>571</v>
-      </c>
-      <c r="X47" t="s">
-        <v>572</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>573</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="X47"/>
+      <c r="Y47"/>
       <c r="Z47"/>
       <c r="AA47"/>
       <c r="AB47"/>
@@ -7727,67 +7772,69 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B48" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C48" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="E48" t="s">
         <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G48" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K48" t="s">
-        <v>129</v>
+        <v>571</v>
       </c>
       <c r="L48" t="s">
-        <v>579</v>
-      </c>
-      <c r="M48"/>
-      <c r="N48"/>
+        <v>581</v>
+      </c>
+      <c r="M48" t="s">
+        <v>573</v>
+      </c>
+      <c r="N48" t="s">
+        <v>526</v>
+      </c>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="T48" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="U48" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="V48" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="W48" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="X48" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="Y48" t="s">
-        <v>586</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>587</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="Z48"/>
       <c r="AA48"/>
       <c r="AB48"/>
       <c r="AC48"/>
@@ -7809,54 +7856,48 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B49" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C49" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
         <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G49" t="s">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K49" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L49" t="s">
-        <v>593</v>
-      </c>
-      <c r="M49" t="s">
         <v>594</v>
       </c>
-      <c r="N49" t="s">
-        <v>293</v>
-      </c>
-      <c r="O49" t="s">
-        <v>595</v>
-      </c>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
       <c r="S49" t="s">
+        <v>595</v>
+      </c>
+      <c r="T49" t="s">
         <v>596</v>
-      </c>
-      <c r="T49" t="s">
-        <v>586</v>
       </c>
       <c r="U49" t="s">
         <v>597</v>
@@ -7876,9 +7917,7 @@
       <c r="Z49" t="s">
         <v>602</v>
       </c>
-      <c r="AA49" t="s">
-        <v>603</v>
-      </c>
+      <c r="AA49"/>
       <c r="AB49"/>
       <c r="AC49"/>
       <c r="AD49"/>
@@ -7899,25 +7938,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>603</v>
+      </c>
+      <c r="B50" t="s">
         <v>604</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>605</v>
       </c>
-      <c r="C50" t="s">
-        <v>425</v>
-      </c>
       <c r="D50" t="s">
-        <v>440</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>606</v>
       </c>
       <c r="G50" t="s">
-        <v>606</v>
+        <v>360</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
@@ -7933,20 +7972,42 @@
       <c r="M50" t="s">
         <v>609</v>
       </c>
-      <c r="N50"/>
-      <c r="O50"/>
+      <c r="N50" t="s">
+        <v>293</v>
+      </c>
+      <c r="O50" t="s">
+        <v>610</v>
+      </c>
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-      <c r="V50"/>
-      <c r="W50"/>
-      <c r="X50"/>
-      <c r="Y50"/>
-      <c r="Z50"/>
-      <c r="AA50"/>
+      <c r="S50" t="s">
+        <v>611</v>
+      </c>
+      <c r="T50" t="s">
+        <v>601</v>
+      </c>
+      <c r="U50" t="s">
+        <v>612</v>
+      </c>
+      <c r="V50" t="s">
+        <v>613</v>
+      </c>
+      <c r="W50" t="s">
+        <v>614</v>
+      </c>
+      <c r="X50" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>616</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>617</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>618</v>
+      </c>
       <c r="AB50"/>
       <c r="AC50"/>
       <c r="AD50"/>
@@ -7967,50 +8028,48 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="B51" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="C51" t="s">
-        <v>612</v>
+        <v>440</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>455</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>613</v>
+        <v>69</v>
       </c>
       <c r="G51" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="K51" t="s">
         <v>52</v>
       </c>
-      <c r="L51"/>
-      <c r="M51"/>
+      <c r="L51" t="s">
+        <v>623</v>
+      </c>
+      <c r="M51" t="s">
+        <v>624</v>
+      </c>
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
-      <c r="S51" t="s">
-        <v>616</v>
-      </c>
-      <c r="T51" t="s">
-        <v>617</v>
-      </c>
-      <c r="U51" t="s">
-        <v>618</v>
-      </c>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
       <c r="V51"/>
       <c r="W51"/>
       <c r="X51"/>
@@ -8037,52 +8096,50 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B52" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C52" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D52" t="s">
-        <v>432</v>
+        <v>189</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="G52" t="s">
-        <v>434</v>
+        <v>629</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="K52" t="s">
-        <v>129</v>
-      </c>
-      <c r="L52" t="s">
-        <v>624</v>
-      </c>
-      <c r="M52" t="s">
-        <v>625</v>
-      </c>
-      <c r="N52" t="s">
-        <v>626</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52"/>
       <c r="S52" t="s">
-        <v>69</v>
-      </c>
-      <c r="T52"/>
-      <c r="U52"/>
+        <v>631</v>
+      </c>
+      <c r="T52" t="s">
+        <v>632</v>
+      </c>
+      <c r="U52" t="s">
+        <v>633</v>
+      </c>
       <c r="V52"/>
       <c r="W52"/>
       <c r="X52"/>
@@ -8109,39 +8166,43 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="B53" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C53" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>447</v>
       </c>
       <c r="E53" t="s">
         <v>48</v>
       </c>
       <c r="F53" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="G53" t="s">
-        <v>631</v>
+        <v>449</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="K53" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s">
-        <v>633</v>
-      </c>
-      <c r="M53"/>
-      <c r="N53"/>
+        <v>639</v>
+      </c>
+      <c r="M53" t="s">
+        <v>640</v>
+      </c>
+      <c r="N53" t="s">
+        <v>641</v>
+      </c>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
@@ -8177,37 +8238,37 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="B54" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C54" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="D54" t="s">
-        <v>637</v>
+        <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="G54" t="s">
-        <v>639</v>
-      </c>
-      <c r="H54" t="s">
-        <v>640</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="H54"/>
       <c r="I54"/>
       <c r="J54" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="K54" t="s">
         <v>52</v>
       </c>
-      <c r="L54"/>
+      <c r="L54" t="s">
+        <v>648</v>
+      </c>
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54"/>
@@ -8245,40 +8306,38 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B55" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="C55" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="D55" t="s">
-        <v>398</v>
+        <v>652</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F55" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="G55" t="s">
-        <v>67</v>
-      </c>
-      <c r="H55"/>
+        <v>654</v>
+      </c>
+      <c r="H55" t="s">
+        <v>655</v>
+      </c>
       <c r="I55"/>
       <c r="J55" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="K55" t="s">
         <v>52</v>
       </c>
-      <c r="L55" t="s">
-        <v>647</v>
-      </c>
-      <c r="M55" t="s">
-        <v>648</v>
-      </c>
+      <c r="L55"/>
+      <c r="M55"/>
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
@@ -8315,36 +8374,40 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="B56" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="C56" t="s">
-        <v>425</v>
+        <v>659</v>
       </c>
       <c r="D56" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="E56" t="s">
         <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="G56" t="s">
-        <v>360</v>
+        <v>67</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="K56" t="s">
         <v>52</v>
       </c>
-      <c r="L56"/>
-      <c r="M56"/>
+      <c r="L56" t="s">
+        <v>662</v>
+      </c>
+      <c r="M56" t="s">
+        <v>663</v>
+      </c>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
@@ -8381,31 +8444,33 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="B57" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>440</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>413</v>
       </c>
       <c r="E57" t="s">
         <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="G57" t="s">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
-      <c r="J57"/>
+      <c r="J57" t="s">
+        <v>667</v>
+      </c>
       <c r="K57" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L57"/>
       <c r="M57"/>
@@ -8445,10 +8510,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="B58" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="C58" t="s">
         <v>91</v>
@@ -8457,21 +8522,17 @@
         <v>143</v>
       </c>
       <c r="E58" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="G58" t="s">
         <v>75</v>
       </c>
-      <c r="H58" t="s">
-        <v>658</v>
-      </c>
+      <c r="H58"/>
       <c r="I58"/>
-      <c r="J58" t="s">
-        <v>659</v>
-      </c>
+      <c r="J58"/>
       <c r="K58" t="s">
         <v>69</v>
       </c>
@@ -8513,75 +8574,53 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="B59" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="C59" t="s">
-        <v>662</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
-        <v>663</v>
+        <v>143</v>
       </c>
       <c r="E59" t="s">
         <v>93</v>
       </c>
       <c r="F59" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="G59" t="s">
-        <v>400</v>
-      </c>
-      <c r="H59"/>
+        <v>75</v>
+      </c>
+      <c r="H59" t="s">
+        <v>673</v>
+      </c>
       <c r="I59"/>
       <c r="J59" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="K59" t="s">
-        <v>666</v>
-      </c>
-      <c r="L59" t="s">
-        <v>667</v>
-      </c>
-      <c r="M59" t="s">
-        <v>668</v>
-      </c>
-      <c r="N59" t="s">
-        <v>669</v>
-      </c>
-      <c r="O59" t="s">
-        <v>670</v>
-      </c>
-      <c r="P59" t="s">
-        <v>671</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
       <c r="Q59"/>
       <c r="R59"/>
       <c r="S59" t="s">
-        <v>672</v>
-      </c>
-      <c r="T59" t="s">
-        <v>673</v>
-      </c>
-      <c r="U59" t="s">
-        <v>674</v>
-      </c>
-      <c r="V59" t="s">
-        <v>675</v>
-      </c>
-      <c r="W59" t="s">
-        <v>676</v>
-      </c>
-      <c r="X59" t="s">
-        <v>677</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>678</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>679</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
       <c r="AA59"/>
       <c r="AB59"/>
       <c r="AC59"/>
@@ -8603,53 +8642,75 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B60" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>677</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>678</v>
       </c>
       <c r="E60" t="s">
         <v>93</v>
       </c>
       <c r="F60" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G60" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60" t="s">
+        <v>680</v>
+      </c>
+      <c r="K60" t="s">
+        <v>681</v>
+      </c>
+      <c r="L60" t="s">
+        <v>682</v>
+      </c>
+      <c r="M60" t="s">
         <v>683</v>
       </c>
-      <c r="K60" t="s">
+      <c r="N60" t="s">
         <v>684</v>
       </c>
-      <c r="L60" t="s">
+      <c r="O60" t="s">
         <v>685</v>
       </c>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
+      <c r="P60" t="s">
+        <v>686</v>
+      </c>
       <c r="Q60"/>
       <c r="R60"/>
       <c r="S60" t="s">
-        <v>69</v>
-      </c>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-      <c r="W60"/>
-      <c r="X60"/>
-      <c r="Y60"/>
-      <c r="Z60"/>
+        <v>687</v>
+      </c>
+      <c r="T60" t="s">
+        <v>688</v>
+      </c>
+      <c r="U60" t="s">
+        <v>689</v>
+      </c>
+      <c r="V60" t="s">
+        <v>690</v>
+      </c>
+      <c r="W60" t="s">
+        <v>691</v>
+      </c>
+      <c r="X60" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>693</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>694</v>
+      </c>
       <c r="AA60"/>
       <c r="AB60"/>
       <c r="AC60"/>
@@ -8671,22 +8732,22 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="B61" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="C61" t="s">
         <v>46</v>
       </c>
       <c r="D61" t="s">
-        <v>344</v>
+        <v>73</v>
       </c>
       <c r="E61" t="s">
         <v>93</v>
       </c>
       <c r="F61" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="G61" t="s">
         <v>360</v>
@@ -8694,53 +8755,29 @@
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="K61" t="s">
-        <v>52</v>
+        <v>699</v>
       </c>
       <c r="L61" t="s">
-        <v>690</v>
-      </c>
-      <c r="M61" t="s">
-        <v>691</v>
-      </c>
-      <c r="N61" t="s">
-        <v>692</v>
-      </c>
-      <c r="O61" t="s">
-        <v>693</v>
-      </c>
-      <c r="P61" t="s">
-        <v>694</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>695</v>
-      </c>
-      <c r="R61" t="s">
-        <v>696</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
       <c r="S61" t="s">
-        <v>697</v>
-      </c>
-      <c r="T61" t="s">
-        <v>698</v>
-      </c>
-      <c r="U61" t="s">
-        <v>699</v>
-      </c>
-      <c r="V61" t="s">
-        <v>700</v>
-      </c>
-      <c r="W61" t="s">
-        <v>701</v>
-      </c>
-      <c r="X61" t="s">
-        <v>702</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>703</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
       <c r="Z61"/>
       <c r="AA61"/>
       <c r="AB61"/>
@@ -8763,52 +8800,76 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B62" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C62" t="s">
-        <v>706</v>
+        <v>46</v>
       </c>
       <c r="D62" t="s">
-        <v>92</v>
+        <v>344</v>
       </c>
       <c r="E62" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F62" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>360</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="K62" t="s">
         <v>52</v>
       </c>
       <c r="L62" t="s">
-        <v>500</v>
-      </c>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
-      <c r="R62"/>
+        <v>705</v>
+      </c>
+      <c r="M62" t="s">
+        <v>706</v>
+      </c>
+      <c r="N62" t="s">
+        <v>707</v>
+      </c>
+      <c r="O62" t="s">
+        <v>708</v>
+      </c>
+      <c r="P62" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>710</v>
+      </c>
+      <c r="R62" t="s">
+        <v>711</v>
+      </c>
       <c r="S62" t="s">
-        <v>69</v>
-      </c>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
-      <c r="W62"/>
-      <c r="X62"/>
-      <c r="Y62"/>
+        <v>712</v>
+      </c>
+      <c r="T62" t="s">
+        <v>713</v>
+      </c>
+      <c r="U62" t="s">
+        <v>714</v>
+      </c>
+      <c r="V62" t="s">
+        <v>715</v>
+      </c>
+      <c r="W62" t="s">
+        <v>716</v>
+      </c>
+      <c r="X62" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>718</v>
+      </c>
       <c r="Z62"/>
       <c r="AA62"/>
       <c r="AB62"/>
@@ -8831,13 +8892,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="B63" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="C63" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="D63" t="s">
         <v>92</v>
@@ -8846,42 +8907,34 @@
         <v>48</v>
       </c>
       <c r="F63" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="G63" t="s">
-        <v>713</v>
+        <v>67</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="K63" t="s">
         <v>52</v>
       </c>
       <c r="L63" t="s">
-        <v>715</v>
-      </c>
-      <c r="M63" t="s">
-        <v>716</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="M63"/>
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
       <c r="R63"/>
       <c r="S63" t="s">
-        <v>385</v>
-      </c>
-      <c r="T63" t="s">
-        <v>717</v>
-      </c>
-      <c r="U63" t="s">
-        <v>718</v>
-      </c>
-      <c r="V63" t="s">
-        <v>719</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
       <c r="W63"/>
       <c r="X63"/>
       <c r="Y63"/>
@@ -8907,49 +8960,57 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B64" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C64" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="D64" t="s">
-        <v>723</v>
+        <v>92</v>
       </c>
       <c r="E64" t="s">
         <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="G64" t="s">
-        <v>360</v>
+        <v>728</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="K64" t="s">
         <v>52</v>
       </c>
       <c r="L64" t="s">
-        <v>726</v>
-      </c>
-      <c r="M64"/>
+        <v>730</v>
+      </c>
+      <c r="M64" t="s">
+        <v>731</v>
+      </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
       <c r="R64"/>
       <c r="S64" t="s">
-        <v>69</v>
-      </c>
-      <c r="T64"/>
-      <c r="U64"/>
-      <c r="V64"/>
+        <v>385</v>
+      </c>
+      <c r="T64" t="s">
+        <v>732</v>
+      </c>
+      <c r="U64" t="s">
+        <v>733</v>
+      </c>
+      <c r="V64" t="s">
+        <v>734</v>
+      </c>
       <c r="W64"/>
       <c r="X64"/>
       <c r="Y64"/>
@@ -8975,42 +9036,38 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="B65" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>737</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>738</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="G65" t="s">
-        <v>730</v>
-      </c>
-      <c r="H65" t="s">
-        <v>127</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="H65"/>
       <c r="I65"/>
       <c r="J65" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="K65" t="s">
-        <v>732</v>
+        <v>52</v>
       </c>
       <c r="L65" t="s">
-        <v>733</v>
-      </c>
-      <c r="M65" t="s">
-        <v>734</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="M65"/>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
@@ -9047,10 +9104,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="B66" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="C66" t="s">
         <v>46</v>
@@ -9062,26 +9119,26 @@
         <v>93</v>
       </c>
       <c r="F66" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G66" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="H66" t="s">
         <v>127</v>
       </c>
       <c r="I66"/>
       <c r="J66" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="K66" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="L66" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="M66" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="N66"/>
       <c r="O66"/>
@@ -9119,10 +9176,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="B67" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="C67" t="s">
         <v>46</v>
@@ -9134,33 +9191,35 @@
         <v>93</v>
       </c>
       <c r="F67" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="G67" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="H67" t="s">
         <v>127</v>
       </c>
       <c r="I67"/>
       <c r="J67" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="K67" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="L67" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="M67" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
       <c r="R67"/>
-      <c r="S67"/>
+      <c r="S67" t="s">
+        <v>69</v>
+      </c>
       <c r="T67"/>
       <c r="U67"/>
       <c r="V67"/>
@@ -9189,57 +9248,51 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="B68" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="C68" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D68" t="s">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="E68" t="s">
         <v>93</v>
       </c>
       <c r="F68" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="G68" t="s">
-        <v>199</v>
-      </c>
-      <c r="H68"/>
+        <v>745</v>
+      </c>
+      <c r="H68" t="s">
+        <v>127</v>
+      </c>
       <c r="I68"/>
       <c r="J68" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="K68" t="s">
-        <v>129</v>
+        <v>756</v>
       </c>
       <c r="L68" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="M68" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
       <c r="R68"/>
-      <c r="S68" t="s">
-        <v>385</v>
-      </c>
-      <c r="T68" t="s">
-        <v>750</v>
-      </c>
-      <c r="U68" t="s">
-        <v>751</v>
-      </c>
-      <c r="V68" t="s">
-        <v>752</v>
-      </c>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
       <c r="W68"/>
       <c r="X68"/>
       <c r="Y68"/>
@@ -9265,74 +9318,62 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B69" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C69" t="s">
-        <v>755</v>
+        <v>105</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="E69" t="s">
         <v>93</v>
       </c>
       <c r="F69" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="G69" t="s">
-        <v>757</v>
+        <v>199</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="K69" t="s">
         <v>129</v>
       </c>
       <c r="L69" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="M69" t="s">
-        <v>760</v>
-      </c>
-      <c r="N69" t="s">
-        <v>511</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
       <c r="R69"/>
       <c r="S69" t="s">
-        <v>761</v>
+        <v>385</v>
       </c>
       <c r="T69" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="U69" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="V69" t="s">
-        <v>764</v>
-      </c>
-      <c r="W69" t="s">
-        <v>765</v>
-      </c>
-      <c r="X69" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>298</v>
-      </c>
-      <c r="Z69" t="s">
         <v>767</v>
       </c>
-      <c r="AA69" t="s">
-        <v>768</v>
-      </c>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
       <c r="AB69"/>
       <c r="AC69"/>
       <c r="AD69"/>
@@ -9353,13 +9394,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>768</v>
+      </c>
+      <c r="B70" t="s">
         <v>769</v>
       </c>
-      <c r="B70" t="s">
-        <v>754</v>
-      </c>
       <c r="C70" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="D70" t="s">
         <v>106</v>
@@ -9368,37 +9409,59 @@
         <v>93</v>
       </c>
       <c r="F70" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="G70" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="K70" t="s">
-        <v>69</v>
-      </c>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
+        <v>129</v>
+      </c>
+      <c r="L70" t="s">
+        <v>774</v>
+      </c>
+      <c r="M70" t="s">
+        <v>775</v>
+      </c>
+      <c r="N70" t="s">
+        <v>526</v>
+      </c>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70"/>
       <c r="S70" t="s">
-        <v>69</v>
-      </c>
-      <c r="T70"/>
-      <c r="U70"/>
-      <c r="V70"/>
-      <c r="W70"/>
-      <c r="X70"/>
-      <c r="Y70"/>
-      <c r="Z70"/>
-      <c r="AA70"/>
+        <v>776</v>
+      </c>
+      <c r="T70" t="s">
+        <v>777</v>
+      </c>
+      <c r="U70" t="s">
+        <v>778</v>
+      </c>
+      <c r="V70" t="s">
+        <v>779</v>
+      </c>
+      <c r="W70" t="s">
+        <v>780</v>
+      </c>
+      <c r="X70" t="s">
+        <v>781</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>782</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>783</v>
+      </c>
       <c r="AB70"/>
       <c r="AC70"/>
       <c r="AD70"/>
@@ -9419,60 +9482,48 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="B71" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C71" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D71" t="s">
-        <v>774</v>
+        <v>106</v>
       </c>
       <c r="E71" t="s">
         <v>93</v>
       </c>
       <c r="F71" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="G71" t="s">
-        <v>210</v>
+        <v>772</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="K71" t="s">
-        <v>239</v>
-      </c>
-      <c r="L71" t="s">
-        <v>777</v>
-      </c>
-      <c r="M71" t="s">
-        <v>778</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="L71"/>
+      <c r="M71"/>
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71"/>
       <c r="S71" t="s">
-        <v>779</v>
-      </c>
-      <c r="T71" t="s">
-        <v>780</v>
-      </c>
-      <c r="U71" t="s">
-        <v>781</v>
-      </c>
-      <c r="V71" t="s">
-        <v>782</v>
-      </c>
-      <c r="W71" t="s">
-        <v>783</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
       <c r="X71"/>
       <c r="Y71"/>
       <c r="Z71"/>
@@ -9497,40 +9548,60 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B72" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C72" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D72" t="s">
-        <v>521</v>
+        <v>789</v>
       </c>
       <c r="E72" t="s">
         <v>93</v>
       </c>
-      <c r="F72"/>
+      <c r="F72" t="s">
+        <v>790</v>
+      </c>
       <c r="G72" t="s">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
+      <c r="J72" t="s">
+        <v>791</v>
+      </c>
+      <c r="K72" t="s">
+        <v>239</v>
+      </c>
+      <c r="L72" t="s">
+        <v>792</v>
+      </c>
+      <c r="M72" t="s">
+        <v>793</v>
+      </c>
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
       <c r="R72"/>
-      <c r="S72"/>
-      <c r="T72"/>
-      <c r="U72"/>
-      <c r="V72"/>
-      <c r="W72"/>
+      <c r="S72" t="s">
+        <v>794</v>
+      </c>
+      <c r="T72" t="s">
+        <v>795</v>
+      </c>
+      <c r="U72" t="s">
+        <v>796</v>
+      </c>
+      <c r="V72" t="s">
+        <v>797</v>
+      </c>
+      <c r="W72" t="s">
+        <v>798</v>
+      </c>
       <c r="X72"/>
       <c r="Y72"/>
       <c r="Z72"/>
@@ -9555,69 +9626,43 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="B73" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="C73" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="D73" t="s">
-        <v>135</v>
+        <v>536</v>
       </c>
       <c r="E73" t="s">
         <v>93</v>
       </c>
-      <c r="F73" t="s">
-        <v>790</v>
-      </c>
+      <c r="F73"/>
       <c r="G73" t="s">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
-      <c r="J73" t="s">
-        <v>791</v>
-      </c>
-      <c r="K73" t="s">
-        <v>792</v>
-      </c>
-      <c r="L73" t="s">
-        <v>793</v>
-      </c>
-      <c r="M73" t="s">
-        <v>794</v>
-      </c>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
       <c r="R73"/>
-      <c r="S73" t="s">
-        <v>795</v>
-      </c>
-      <c r="T73" t="s">
-        <v>796</v>
-      </c>
-      <c r="U73" t="s">
-        <v>797</v>
-      </c>
-      <c r="V73" t="s">
-        <v>798</v>
-      </c>
-      <c r="W73" t="s">
-        <v>799</v>
-      </c>
-      <c r="X73" t="s">
-        <v>800</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>801</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>802</v>
-      </c>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
       <c r="AA73"/>
       <c r="AB73"/>
       <c r="AC73"/>
@@ -9639,16 +9684,16 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>802</v>
+      </c>
+      <c r="B74" t="s">
         <v>803</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>804</v>
       </c>
-      <c r="C74" t="s">
-        <v>425</v>
-      </c>
       <c r="D74" t="s">
-        <v>774</v>
+        <v>135</v>
       </c>
       <c r="E74" t="s">
         <v>93</v>
@@ -9657,7 +9702,7 @@
         <v>805</v>
       </c>
       <c r="G74" t="s">
-        <v>730</v>
+        <v>210</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
@@ -9665,20 +9710,16 @@
         <v>806</v>
       </c>
       <c r="K74" t="s">
-        <v>129</v>
+        <v>807</v>
       </c>
       <c r="L74" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="M74" t="s">
-        <v>593</v>
-      </c>
-      <c r="N74" t="s">
-        <v>808</v>
-      </c>
-      <c r="O74" t="s">
         <v>809</v>
       </c>
+      <c r="N74"/>
+      <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
       <c r="R74"/>
@@ -9704,20 +9745,12 @@
         <v>816</v>
       </c>
       <c r="Z74" t="s">
-        <v>762</v>
-      </c>
-      <c r="AA74" t="s">
         <v>817</v>
       </c>
-      <c r="AB74" t="s">
-        <v>818</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>819</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>820</v>
-      </c>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
       <c r="AE74"/>
       <c r="AF74"/>
       <c r="AG74"/>
@@ -9735,81 +9768,85 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B75" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C75" t="s">
-        <v>823</v>
+        <v>440</v>
       </c>
       <c r="D75" t="s">
-        <v>390</v>
+        <v>789</v>
       </c>
       <c r="E75" t="s">
         <v>93</v>
       </c>
       <c r="F75" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="G75" t="s">
-        <v>210</v>
+        <v>745</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="K75" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L75" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="M75" t="s">
-        <v>827</v>
+        <v>608</v>
       </c>
       <c r="N75" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="O75" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="P75"/>
       <c r="Q75"/>
       <c r="R75"/>
       <c r="S75" t="s">
+        <v>825</v>
+      </c>
+      <c r="T75" t="s">
+        <v>826</v>
+      </c>
+      <c r="U75" t="s">
+        <v>827</v>
+      </c>
+      <c r="V75" t="s">
+        <v>828</v>
+      </c>
+      <c r="W75" t="s">
+        <v>829</v>
+      </c>
+      <c r="X75" t="s">
         <v>830</v>
       </c>
-      <c r="T75" t="s">
+      <c r="Y75" t="s">
         <v>831</v>
       </c>
-      <c r="U75" t="s">
+      <c r="Z75" t="s">
+        <v>777</v>
+      </c>
+      <c r="AA75" t="s">
         <v>832</v>
       </c>
-      <c r="V75" t="s">
+      <c r="AB75" t="s">
         <v>833</v>
       </c>
-      <c r="W75" t="s">
-        <v>796</v>
-      </c>
-      <c r="X75" t="s">
+      <c r="AC75" t="s">
         <v>834</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="AD75" t="s">
         <v>835</v>
       </c>
-      <c r="Z75" t="s">
-        <v>836</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB75" t="s">
-        <v>837</v>
-      </c>
-      <c r="AC75"/>
-      <c r="AD75"/>
       <c r="AE75"/>
       <c r="AF75"/>
       <c r="AG75"/>
@@ -9827,57 +9864,63 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>836</v>
+      </c>
+      <c r="B76" t="s">
+        <v>837</v>
+      </c>
+      <c r="C76" t="s">
         <v>838</v>
       </c>
-      <c r="B76" t="s">
-        <v>839</v>
-      </c>
-      <c r="C76" t="s">
-        <v>840</v>
-      </c>
       <c r="D76" t="s">
-        <v>532</v>
+        <v>390</v>
       </c>
       <c r="E76" t="s">
         <v>93</v>
       </c>
       <c r="F76" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G76" t="s">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76" t="s">
+        <v>840</v>
+      </c>
+      <c r="K76" t="s">
+        <v>52</v>
+      </c>
+      <c r="L76" t="s">
+        <v>841</v>
+      </c>
+      <c r="M76" t="s">
         <v>842</v>
       </c>
-      <c r="K76" t="s">
-        <v>129</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="N76" t="s">
         <v>843</v>
       </c>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
+      <c r="O76" t="s">
+        <v>844</v>
+      </c>
       <c r="P76"/>
       <c r="Q76"/>
       <c r="R76"/>
       <c r="S76" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="T76" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="U76" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="V76" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="W76" t="s">
-        <v>848</v>
+        <v>811</v>
       </c>
       <c r="X76" t="s">
         <v>849</v>
@@ -9885,9 +9928,15 @@
       <c r="Y76" t="s">
         <v>850</v>
       </c>
-      <c r="Z76"/>
-      <c r="AA76"/>
-      <c r="AB76"/>
+      <c r="Z76" t="s">
+        <v>851</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>852</v>
+      </c>
       <c r="AC76"/>
       <c r="AD76"/>
       <c r="AE76"/>
@@ -9907,36 +9956,36 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B77" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>855</v>
       </c>
       <c r="D77" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F77" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G77" t="s">
-        <v>67</v>
+        <v>360</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="K77" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L77" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="M77"/>
       <c r="N77"/>
@@ -9945,14 +9994,26 @@
       <c r="Q77"/>
       <c r="R77"/>
       <c r="S77" t="s">
-        <v>69</v>
-      </c>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
+        <v>859</v>
+      </c>
+      <c r="T77" t="s">
+        <v>860</v>
+      </c>
+      <c r="U77" t="s">
+        <v>861</v>
+      </c>
+      <c r="V77" t="s">
+        <v>862</v>
+      </c>
+      <c r="W77" t="s">
+        <v>863</v>
+      </c>
+      <c r="X77" t="s">
+        <v>864</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>865</v>
+      </c>
       <c r="Z77"/>
       <c r="AA77"/>
       <c r="AB77"/>
@@ -9975,35 +10036,37 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="B78" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="C78" t="s">
-        <v>520</v>
+        <v>46</v>
       </c>
       <c r="D78" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E78" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F78" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="G78" t="s">
-        <v>639</v>
+        <v>67</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="K78" t="s">
-        <v>129</v>
-      </c>
-      <c r="L78"/>
+        <v>52</v>
+      </c>
+      <c r="L78" t="s">
+        <v>870</v>
+      </c>
       <c r="M78"/>
       <c r="N78"/>
       <c r="O78"/>
@@ -10011,17 +10074,11 @@
       <c r="Q78"/>
       <c r="R78"/>
       <c r="S78" t="s">
-        <v>860</v>
-      </c>
-      <c r="T78" t="s">
-        <v>861</v>
-      </c>
-      <c r="U78" t="s">
-        <v>862</v>
-      </c>
-      <c r="V78" t="s">
-        <v>863</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
       <c r="W78"/>
       <c r="X78"/>
       <c r="Y78"/>
@@ -10047,37 +10104,35 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="B79" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="C79" t="s">
-        <v>866</v>
+        <v>535</v>
       </c>
       <c r="D79" t="s">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="E79" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="G79" t="s">
-        <v>868</v>
+        <v>654</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="K79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L79" t="s">
-        <v>647</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L79"/>
       <c r="M79"/>
       <c r="N79"/>
       <c r="O79"/>
@@ -10085,15 +10140,17 @@
       <c r="Q79"/>
       <c r="R79"/>
       <c r="S79" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="T79" t="s">
-        <v>298</v>
+        <v>876</v>
       </c>
       <c r="U79" t="s">
-        <v>871</v>
-      </c>
-      <c r="V79"/>
+        <v>877</v>
+      </c>
+      <c r="V79" t="s">
+        <v>878</v>
+      </c>
       <c r="W79"/>
       <c r="X79"/>
       <c r="Y79"/>
@@ -10119,59 +10176,53 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="B80" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="C80" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="D80" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="E80" t="s">
         <v>48</v>
       </c>
       <c r="F80" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="G80" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="K80" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="L80" t="s">
-        <v>878</v>
-      </c>
-      <c r="M80" t="s">
-        <v>879</v>
-      </c>
-      <c r="N80" t="s">
-        <v>880</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="M80"/>
+      <c r="N80"/>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
       <c r="R80"/>
       <c r="S80" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="T80" t="s">
-        <v>882</v>
+        <v>298</v>
       </c>
       <c r="U80" t="s">
-        <v>87</v>
-      </c>
-      <c r="V80" t="s">
-        <v>883</v>
-      </c>
+        <v>886</v>
+      </c>
+      <c r="V80"/>
       <c r="W80"/>
       <c r="X80"/>
       <c r="Y80"/>
@@ -10197,58 +10248,58 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="B81" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>889</v>
       </c>
       <c r="D81" t="s">
-        <v>886</v>
+        <v>447</v>
       </c>
       <c r="E81" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F81" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="G81" t="s">
-        <v>400</v>
+        <v>891</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="K81" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L81" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="M81" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="N81" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
       <c r="R81"/>
       <c r="S81" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="T81" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="U81" t="s">
-        <v>894</v>
+        <v>87</v>
       </c>
       <c r="V81" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="W81"/>
       <c r="X81"/>
@@ -10275,47 +10326,59 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B82" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C82" t="s">
-        <v>898</v>
+        <v>91</v>
       </c>
       <c r="D82" t="s">
-        <v>532</v>
+        <v>901</v>
       </c>
       <c r="E82" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F82" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="G82" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="K82" t="s">
         <v>52</v>
       </c>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
+      <c r="L82" t="s">
+        <v>904</v>
+      </c>
+      <c r="M82" t="s">
+        <v>905</v>
+      </c>
+      <c r="N82" t="s">
+        <v>906</v>
+      </c>
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
       <c r="R82"/>
       <c r="S82" t="s">
-        <v>69</v>
-      </c>
-      <c r="T82"/>
-      <c r="U82"/>
-      <c r="V82"/>
+        <v>907</v>
+      </c>
+      <c r="T82" t="s">
+        <v>908</v>
+      </c>
+      <c r="U82" t="s">
+        <v>909</v>
+      </c>
+      <c r="V82" t="s">
+        <v>910</v>
+      </c>
       <c r="W82"/>
       <c r="X82"/>
       <c r="Y82"/>
@@ -10341,22 +10404,22 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
       <c r="B83" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="C83" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="D83" t="s">
-        <v>92</v>
+        <v>547</v>
       </c>
       <c r="E83" t="s">
         <v>48</v>
       </c>
       <c r="F83" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="G83" t="s">
         <v>360</v>
@@ -10364,10 +10427,10 @@
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="K83" t="s">
-        <v>239</v>
+        <v>52</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
@@ -10407,22 +10470,22 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="B84" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="C84" t="s">
-        <v>898</v>
+        <v>918</v>
       </c>
       <c r="D84" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E84" t="s">
         <v>48</v>
       </c>
       <c r="F84" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
       <c r="G84" t="s">
         <v>360</v>
@@ -10430,14 +10493,12 @@
       <c r="H84"/>
       <c r="I84"/>
       <c r="J84" t="s">
-        <v>909</v>
+        <v>920</v>
       </c>
       <c r="K84" t="s">
-        <v>910</v>
-      </c>
-      <c r="L84" t="s">
-        <v>911</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="L84"/>
       <c r="M84"/>
       <c r="N84"/>
       <c r="O84"/>
@@ -10445,14 +10506,10 @@
       <c r="Q84"/>
       <c r="R84"/>
       <c r="S84" t="s">
-        <v>912</v>
-      </c>
-      <c r="T84" t="s">
-        <v>913</v>
-      </c>
-      <c r="U84" t="s">
-        <v>87</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T84"/>
+      <c r="U84"/>
       <c r="V84"/>
       <c r="W84"/>
       <c r="X84"/>
@@ -10479,36 +10536,36 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="B85" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="C85" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D85" t="s">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="E85" t="s">
         <v>48</v>
       </c>
       <c r="F85" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="G85" t="s">
-        <v>256</v>
+        <v>360</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="K85" t="s">
-        <v>52</v>
+        <v>925</v>
       </c>
       <c r="L85" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="M85"/>
       <c r="N85"/>
@@ -10517,10 +10574,14 @@
       <c r="Q85"/>
       <c r="R85"/>
       <c r="S85" t="s">
-        <v>69</v>
-      </c>
-      <c r="T85"/>
-      <c r="U85"/>
+        <v>927</v>
+      </c>
+      <c r="T85" t="s">
+        <v>928</v>
+      </c>
+      <c r="U85" t="s">
+        <v>87</v>
+      </c>
       <c r="V85"/>
       <c r="W85"/>
       <c r="X85"/>
@@ -10547,36 +10608,36 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="B86" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="C86" t="s">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="D86" t="s">
-        <v>419</v>
+        <v>235</v>
       </c>
       <c r="E86" t="s">
         <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="G86" t="s">
-        <v>614</v>
+        <v>256</v>
       </c>
       <c r="H86"/>
       <c r="I86"/>
       <c r="J86" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="K86" t="s">
         <v>52</v>
       </c>
       <c r="L86" t="s">
-        <v>691</v>
+        <v>934</v>
       </c>
       <c r="M86"/>
       <c r="N86"/>
@@ -10585,7 +10646,7 @@
       <c r="Q86"/>
       <c r="R86"/>
       <c r="S86" t="s">
-        <v>925</v>
+        <v>69</v>
       </c>
       <c r="T86"/>
       <c r="U86"/>
@@ -10615,67 +10676,51 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="B87" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="C87" t="s">
-        <v>755</v>
+        <v>937</v>
       </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>434</v>
       </c>
       <c r="E87" t="s">
         <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="G87" t="s">
-        <v>360</v>
+        <v>629</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="K87" t="s">
         <v>52</v>
       </c>
       <c r="L87" t="s">
-        <v>930</v>
-      </c>
-      <c r="M87" t="s">
-        <v>931</v>
-      </c>
-      <c r="N87" t="s">
-        <v>691</v>
-      </c>
-      <c r="O87" t="s">
-        <v>932</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
       <c r="R87"/>
       <c r="S87" t="s">
-        <v>933</v>
-      </c>
-      <c r="T87" t="s">
-        <v>934</v>
-      </c>
-      <c r="U87" t="s">
-        <v>935</v>
-      </c>
-      <c r="V87" t="s">
-        <v>936</v>
-      </c>
-      <c r="W87" t="s">
-        <v>937</v>
-      </c>
-      <c r="X87" t="s">
-        <v>938</v>
-      </c>
+        <v>940</v>
+      </c>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
       <c r="Y87"/>
       <c r="Z87"/>
       <c r="AA87"/>
@@ -10699,47 +10744,67 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B88" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="C88" t="s">
-        <v>941</v>
+        <v>770</v>
       </c>
       <c r="D88" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E88" t="s">
         <v>48</v>
       </c>
       <c r="F88" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G88" t="s">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="H88"/>
       <c r="I88"/>
-      <c r="J88"/>
+      <c r="J88" t="s">
+        <v>944</v>
+      </c>
       <c r="K88" t="s">
         <v>52</v>
       </c>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="O88"/>
+      <c r="L88" t="s">
+        <v>945</v>
+      </c>
+      <c r="M88" t="s">
+        <v>946</v>
+      </c>
+      <c r="N88" t="s">
+        <v>706</v>
+      </c>
+      <c r="O88" t="s">
+        <v>947</v>
+      </c>
       <c r="P88"/>
       <c r="Q88"/>
       <c r="R88"/>
       <c r="S88" t="s">
-        <v>69</v>
-      </c>
-      <c r="T88"/>
-      <c r="U88"/>
-      <c r="V88"/>
-      <c r="W88"/>
-      <c r="X88"/>
+        <v>948</v>
+      </c>
+      <c r="T88" t="s">
+        <v>949</v>
+      </c>
+      <c r="U88" t="s">
+        <v>950</v>
+      </c>
+      <c r="V88" t="s">
+        <v>951</v>
+      </c>
+      <c r="W88" t="s">
+        <v>952</v>
+      </c>
+      <c r="X88" t="s">
+        <v>953</v>
+      </c>
       <c r="Y88"/>
       <c r="Z88"/>
       <c r="AA88"/>
@@ -10763,39 +10828,33 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="B89" t="s">
-        <v>944</v>
+        <v>955</v>
       </c>
       <c r="C89" t="s">
-        <v>945</v>
+        <v>956</v>
       </c>
       <c r="D89" t="s">
-        <v>390</v>
+        <v>73</v>
       </c>
       <c r="E89" t="s">
         <v>48</v>
       </c>
       <c r="F89" t="s">
-        <v>946</v>
+        <v>957</v>
       </c>
       <c r="G89" t="s">
-        <v>947</v>
-      </c>
-      <c r="H89" t="s">
-        <v>146</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="H89"/>
       <c r="I89"/>
-      <c r="J89" t="s">
-        <v>948</v>
-      </c>
+      <c r="J89"/>
       <c r="K89" t="s">
-        <v>949</v>
-      </c>
-      <c r="L89" t="s">
-        <v>950</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L89"/>
       <c r="M89"/>
       <c r="N89"/>
       <c r="O89"/>
@@ -10803,11 +10862,9 @@
       <c r="Q89"/>
       <c r="R89"/>
       <c r="S89" t="s">
-        <v>951</v>
-      </c>
-      <c r="T89" t="s">
-        <v>952</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T89"/>
       <c r="U89"/>
       <c r="V89"/>
       <c r="W89"/>
@@ -10835,67 +10892,55 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="B90" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="C90" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="D90" t="s">
-        <v>663</v>
+        <v>390</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
       </c>
       <c r="F90" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="G90" t="s">
-        <v>957</v>
-      </c>
-      <c r="H90"/>
+        <v>962</v>
+      </c>
+      <c r="H90" t="s">
+        <v>146</v>
+      </c>
       <c r="I90"/>
       <c r="J90" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="K90" t="s">
-        <v>129</v>
+        <v>964</v>
       </c>
       <c r="L90" t="s">
-        <v>959</v>
-      </c>
-      <c r="M90" t="s">
-        <v>960</v>
-      </c>
-      <c r="N90" t="s">
-        <v>879</v>
-      </c>
-      <c r="O90" t="s">
-        <v>961</v>
-      </c>
+        <v>965</v>
+      </c>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
       <c r="R90"/>
       <c r="S90" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="T90" t="s">
-        <v>963</v>
-      </c>
-      <c r="U90" t="s">
-        <v>87</v>
-      </c>
-      <c r="V90" t="s">
-        <v>964</v>
-      </c>
-      <c r="W90" t="s">
-        <v>965</v>
-      </c>
-      <c r="X90" t="s">
-        <v>87</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
       <c r="Y90"/>
       <c r="Z90"/>
       <c r="AA90"/>
@@ -10919,59 +10964,67 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B91" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C91" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="D91" t="s">
-        <v>390</v>
+        <v>678</v>
       </c>
       <c r="E91" t="s">
         <v>48</v>
       </c>
       <c r="F91" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="G91" t="s">
-        <v>957</v>
+        <v>972</v>
       </c>
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="K91" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L91" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="M91" t="s">
-        <v>972</v>
-      </c>
-      <c r="N91"/>
-      <c r="O91"/>
+        <v>975</v>
+      </c>
+      <c r="N91" t="s">
+        <v>894</v>
+      </c>
+      <c r="O91" t="s">
+        <v>976</v>
+      </c>
       <c r="P91"/>
       <c r="Q91"/>
       <c r="R91"/>
       <c r="S91" t="s">
-        <v>881</v>
+        <v>977</v>
       </c>
       <c r="T91" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="U91" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="V91" t="s">
-        <v>974</v>
-      </c>
-      <c r="W91"/>
-      <c r="X91"/>
+        <v>979</v>
+      </c>
+      <c r="W91" t="s">
+        <v>980</v>
+      </c>
+      <c r="X91" t="s">
+        <v>87</v>
+      </c>
       <c r="Y91"/>
       <c r="Z91"/>
       <c r="AA91"/>
@@ -10995,39 +11048,39 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="B92" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>983</v>
       </c>
       <c r="D92" t="s">
-        <v>514</v>
+        <v>390</v>
       </c>
       <c r="E92" t="s">
         <v>48</v>
       </c>
       <c r="F92" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="G92" t="s">
-        <v>210</v>
+        <v>972</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="K92" t="s">
         <v>52</v>
       </c>
       <c r="L92" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="M92" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
@@ -11035,13 +11088,17 @@
       <c r="Q92"/>
       <c r="R92"/>
       <c r="S92" t="s">
-        <v>385</v>
+        <v>896</v>
       </c>
       <c r="T92" t="s">
-        <v>981</v>
-      </c>
-      <c r="U92"/>
-      <c r="V92"/>
+        <v>988</v>
+      </c>
+      <c r="U92" t="s">
+        <v>228</v>
+      </c>
+      <c r="V92" t="s">
+        <v>989</v>
+      </c>
       <c r="W92"/>
       <c r="X92"/>
       <c r="Y92"/>
@@ -11067,22 +11124,22 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="B93" t="s">
-        <v>976</v>
+        <v>991</v>
       </c>
       <c r="C93" t="s">
         <v>46</v>
       </c>
       <c r="D93" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="E93" t="s">
         <v>48</v>
       </c>
       <c r="F93" t="s">
-        <v>977</v>
+        <v>992</v>
       </c>
       <c r="G93" t="s">
         <v>210</v>
@@ -11090,16 +11147,16 @@
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93" t="s">
-        <v>978</v>
+        <v>993</v>
       </c>
       <c r="K93" t="s">
         <v>52</v>
       </c>
       <c r="L93" t="s">
-        <v>979</v>
+        <v>994</v>
       </c>
       <c r="M93" t="s">
-        <v>980</v>
+        <v>995</v>
       </c>
       <c r="N93"/>
       <c r="O93"/>
@@ -11110,7 +11167,7 @@
         <v>385</v>
       </c>
       <c r="T93" t="s">
-        <v>981</v>
+        <v>996</v>
       </c>
       <c r="U93"/>
       <c r="V93"/>
@@ -11139,22 +11196,22 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>983</v>
+        <v>997</v>
       </c>
       <c r="B94" t="s">
-        <v>976</v>
+        <v>991</v>
       </c>
       <c r="C94" t="s">
         <v>46</v>
       </c>
       <c r="D94" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="E94" t="s">
         <v>48</v>
       </c>
       <c r="F94" t="s">
-        <v>977</v>
+        <v>992</v>
       </c>
       <c r="G94" t="s">
         <v>210</v>
@@ -11162,16 +11219,16 @@
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="s">
-        <v>978</v>
+        <v>993</v>
       </c>
       <c r="K94" t="s">
         <v>52</v>
       </c>
       <c r="L94" t="s">
-        <v>979</v>
+        <v>994</v>
       </c>
       <c r="M94" t="s">
-        <v>980</v>
+        <v>995</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -11182,7 +11239,7 @@
         <v>385</v>
       </c>
       <c r="T94" t="s">
-        <v>981</v>
+        <v>996</v>
       </c>
       <c r="U94"/>
       <c r="V94"/>
@@ -11211,56 +11268,54 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="B95" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="C95" t="s">
         <v>46</v>
       </c>
       <c r="D95" t="s">
-        <v>208</v>
+        <v>529</v>
       </c>
       <c r="E95" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F95" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="G95" t="s">
-        <v>614</v>
+        <v>210</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="K95" t="s">
-        <v>129</v>
-      </c>
-      <c r="L95"/>
-      <c r="M95"/>
+        <v>52</v>
+      </c>
+      <c r="L95" t="s">
+        <v>994</v>
+      </c>
+      <c r="M95" t="s">
+        <v>995</v>
+      </c>
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95"/>
       <c r="R95"/>
       <c r="S95" t="s">
-        <v>988</v>
+        <v>385</v>
       </c>
       <c r="T95" t="s">
-        <v>989</v>
-      </c>
-      <c r="U95" t="s">
-        <v>990</v>
-      </c>
-      <c r="V95" t="s">
-        <v>991</v>
-      </c>
-      <c r="W95" t="s">
-        <v>992</v>
-      </c>
+        <v>996</v>
+      </c>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
       <c r="X95"/>
       <c r="Y95"/>
       <c r="Z95"/>
@@ -11285,63 +11340,57 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="B96" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="C96" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="D96" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="E96" t="s">
         <v>93</v>
       </c>
       <c r="F96" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="G96" t="s">
-        <v>210</v>
+        <v>629</v>
       </c>
       <c r="H96"/>
       <c r="I96"/>
       <c r="J96" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="K96" t="s">
-        <v>52</v>
-      </c>
-      <c r="L96" t="s">
-        <v>997</v>
-      </c>
-      <c r="M96" t="s">
-        <v>998</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L96"/>
+      <c r="M96"/>
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96"/>
       <c r="R96"/>
       <c r="S96" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="T96" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="U96" t="s">
-        <v>832</v>
+        <v>1005</v>
       </c>
       <c r="V96" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="W96" t="s">
-        <v>1002</v>
-      </c>
-      <c r="X96" t="s">
-        <v>1003</v>
-      </c>
+        <v>1007</v>
+      </c>
+      <c r="X96"/>
       <c r="Y96"/>
       <c r="Z96"/>
       <c r="AA96"/>
@@ -11365,51 +11414,63 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="B97" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D97" t="s">
-        <v>344</v>
+        <v>154</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F97" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="G97" t="s">
-        <v>360</v>
-      </c>
-      <c r="H97" t="s">
-        <v>1007</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="H97"/>
       <c r="I97"/>
       <c r="J97" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="K97" t="s">
-        <v>1009</v>
-      </c>
-      <c r="L97"/>
-      <c r="M97"/>
+        <v>52</v>
+      </c>
+      <c r="L97" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M97" t="s">
+        <v>1013</v>
+      </c>
       <c r="N97"/>
       <c r="O97"/>
       <c r="P97"/>
       <c r="Q97"/>
       <c r="R97"/>
       <c r="S97" t="s">
-        <v>1010</v>
-      </c>
-      <c r="T97"/>
-      <c r="U97"/>
-      <c r="V97"/>
-      <c r="W97"/>
-      <c r="X97"/>
+        <v>1014</v>
+      </c>
+      <c r="T97" t="s">
+        <v>1015</v>
+      </c>
+      <c r="U97" t="s">
+        <v>847</v>
+      </c>
+      <c r="V97" t="s">
+        <v>1016</v>
+      </c>
+      <c r="W97" t="s">
+        <v>1017</v>
+      </c>
+      <c r="X97" t="s">
+        <v>1018</v>
+      </c>
       <c r="Y97"/>
       <c r="Z97"/>
       <c r="AA97"/>
@@ -11433,65 +11494,51 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="B98" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="C98" t="s">
-        <v>1013</v>
+        <v>46</v>
       </c>
       <c r="D98" t="s">
-        <v>532</v>
+        <v>344</v>
       </c>
       <c r="E98" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F98" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="G98" t="s">
-        <v>156</v>
-      </c>
-      <c r="H98"/>
+        <v>360</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1022</v>
+      </c>
       <c r="I98"/>
       <c r="J98" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="K98" t="s">
-        <v>1016</v>
-      </c>
-      <c r="L98" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M98" t="s">
-        <v>1018</v>
-      </c>
-      <c r="N98" t="s">
-        <v>1019</v>
-      </c>
+        <v>1024</v>
+      </c>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
       <c r="O98"/>
       <c r="P98"/>
       <c r="Q98"/>
       <c r="R98"/>
       <c r="S98" t="s">
-        <v>1020</v>
-      </c>
-      <c r="T98" t="s">
-        <v>374</v>
-      </c>
-      <c r="U98" t="s">
-        <v>375</v>
-      </c>
-      <c r="V98" t="s">
-        <v>376</v>
-      </c>
-      <c r="W98" t="s">
-        <v>1021</v>
-      </c>
-      <c r="X98" t="s">
-        <v>1022</v>
-      </c>
+        <v>1025</v>
+      </c>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98"/>
       <c r="Y98"/>
       <c r="Z98"/>
       <c r="AA98"/>
@@ -11515,61 +11562,65 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B99" t="s">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="C99" t="s">
-        <v>1013</v>
+        <v>1028</v>
       </c>
       <c r="D99" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="E99" t="s">
         <v>93</v>
       </c>
       <c r="F99" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
       <c r="G99" t="s">
         <v>156</v>
       </c>
-      <c r="H99" t="s">
-        <v>658</v>
-      </c>
+      <c r="H99"/>
       <c r="I99"/>
       <c r="J99" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="K99" t="s">
-        <v>52</v>
+        <v>1031</v>
       </c>
       <c r="L99" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="M99" t="s">
-        <v>760</v>
+        <v>1033</v>
       </c>
       <c r="N99" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="O99"/>
       <c r="P99"/>
       <c r="Q99"/>
       <c r="R99"/>
       <c r="S99" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="T99" t="s">
-        <v>1028</v>
+        <v>374</v>
       </c>
       <c r="U99" t="s">
-        <v>1029</v>
-      </c>
-      <c r="V99"/>
-      <c r="W99"/>
-      <c r="X99"/>
+        <v>375</v>
+      </c>
+      <c r="V99" t="s">
+        <v>376</v>
+      </c>
+      <c r="W99" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X99" t="s">
+        <v>1037</v>
+      </c>
       <c r="Y99"/>
       <c r="Z99"/>
       <c r="AA99"/>
@@ -11593,75 +11644,63 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="B100" t="s">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="C100" t="s">
-        <v>1013</v>
+        <v>1028</v>
       </c>
       <c r="D100" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="E100" t="s">
         <v>93</v>
       </c>
       <c r="F100" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
       <c r="G100" t="s">
         <v>156</v>
       </c>
       <c r="H100" t="s">
-        <v>146</v>
+        <v>673</v>
       </c>
       <c r="I100"/>
       <c r="J100" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="K100" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="L100" t="s">
-        <v>158</v>
+        <v>1040</v>
       </c>
       <c r="M100" t="s">
-        <v>1032</v>
+        <v>775</v>
       </c>
       <c r="N100" t="s">
-        <v>160</v>
-      </c>
-      <c r="O100" t="s">
-        <v>1033</v>
-      </c>
+        <v>1041</v>
+      </c>
+      <c r="O100"/>
       <c r="P100"/>
       <c r="Q100"/>
       <c r="R100"/>
       <c r="S100" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="T100" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="U100" t="s">
-        <v>1036</v>
-      </c>
-      <c r="V100" t="s">
-        <v>1037</v>
-      </c>
-      <c r="W100" t="s">
-        <v>1038</v>
-      </c>
-      <c r="X100" t="s">
-        <v>1039</v>
-      </c>
-      <c r="Y100" t="s">
-        <v>1040</v>
-      </c>
-      <c r="Z100" t="s">
-        <v>374</v>
-      </c>
+        <v>1044</v>
+      </c>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
       <c r="AA100"/>
       <c r="AB100"/>
       <c r="AC100"/>
@@ -11683,61 +11722,75 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B101" t="s">
-        <v>1042</v>
+        <v>1027</v>
       </c>
       <c r="C101" t="s">
-        <v>397</v>
+        <v>1028</v>
       </c>
       <c r="D101" t="s">
-        <v>398</v>
+        <v>547</v>
       </c>
       <c r="E101" t="s">
         <v>93</v>
       </c>
       <c r="F101" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
       <c r="G101" t="s">
-        <v>145</v>
-      </c>
-      <c r="H101"/>
+        <v>156</v>
+      </c>
+      <c r="H101" t="s">
+        <v>146</v>
+      </c>
       <c r="I101"/>
       <c r="J101" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="K101" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L101" t="s">
-        <v>1045</v>
+        <v>158</v>
       </c>
       <c r="M101" t="s">
-        <v>1046</v>
-      </c>
-      <c r="N101"/>
-      <c r="O101"/>
+        <v>1047</v>
+      </c>
+      <c r="N101" t="s">
+        <v>160</v>
+      </c>
+      <c r="O101" t="s">
+        <v>1048</v>
+      </c>
       <c r="P101"/>
       <c r="Q101"/>
       <c r="R101"/>
       <c r="S101" t="s">
-        <v>405</v>
+        <v>1049</v>
       </c>
       <c r="T101" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="U101" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="V101" t="s">
-        <v>1049</v>
-      </c>
-      <c r="W101"/>
-      <c r="X101"/>
-      <c r="Y101"/>
-      <c r="Z101"/>
+        <v>1052</v>
+      </c>
+      <c r="W101" t="s">
+        <v>1053</v>
+      </c>
+      <c r="X101" t="s">
+        <v>1054</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>374</v>
+      </c>
       <c r="AA101"/>
       <c r="AB101"/>
       <c r="AC101"/>
@@ -11759,47 +11812,57 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="B102" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="C102" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="D102" t="s">
-        <v>143</v>
+        <v>413</v>
       </c>
       <c r="E102" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F102" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="G102" t="s">
-        <v>639</v>
+        <v>145</v>
       </c>
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="K102" t="s">
-        <v>1054</v>
-      </c>
-      <c r="L102"/>
-      <c r="M102"/>
+        <v>52</v>
+      </c>
+      <c r="L102" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M102" t="s">
+        <v>1061</v>
+      </c>
       <c r="N102"/>
       <c r="O102"/>
       <c r="P102"/>
       <c r="Q102"/>
       <c r="R102"/>
       <c r="S102" t="s">
-        <v>1055</v>
-      </c>
-      <c r="T102"/>
-      <c r="U102"/>
-      <c r="V102"/>
+        <v>420</v>
+      </c>
+      <c r="T102" t="s">
+        <v>1062</v>
+      </c>
+      <c r="U102" t="s">
+        <v>1063</v>
+      </c>
+      <c r="V102" t="s">
+        <v>1064</v>
+      </c>
       <c r="W102"/>
       <c r="X102"/>
       <c r="Y102"/>
@@ -11825,57 +11888,47 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>1056</v>
+        <v>1065</v>
       </c>
       <c r="B103" t="s">
-        <v>1057</v>
+        <v>1066</v>
       </c>
       <c r="C103" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="D103" t="s">
-        <v>344</v>
+        <v>143</v>
       </c>
       <c r="E103" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F103" t="s">
-        <v>1058</v>
+        <v>1067</v>
       </c>
       <c r="G103" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103" t="s">
-        <v>1059</v>
+        <v>1068</v>
       </c>
       <c r="K103" t="s">
-        <v>52</v>
-      </c>
-      <c r="L103" t="s">
-        <v>1060</v>
-      </c>
-      <c r="M103" t="s">
-        <v>1061</v>
-      </c>
+        <v>1069</v>
+      </c>
+      <c r="L103"/>
+      <c r="M103"/>
       <c r="N103"/>
       <c r="O103"/>
       <c r="P103"/>
       <c r="Q103"/>
       <c r="R103"/>
       <c r="S103" t="s">
-        <v>1062</v>
-      </c>
-      <c r="T103" t="s">
-        <v>1063</v>
-      </c>
-      <c r="U103" t="s">
-        <v>1064</v>
-      </c>
-      <c r="V103" t="s">
-        <v>1065</v>
-      </c>
+        <v>1070</v>
+      </c>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
       <c r="W103"/>
       <c r="X103"/>
       <c r="Y103"/>
@@ -11901,70 +11954,60 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="B104" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="C104" t="s">
-        <v>1068</v>
+        <v>440</v>
       </c>
       <c r="D104" t="s">
-        <v>1069</v>
+        <v>344</v>
       </c>
       <c r="E104" t="s">
         <v>93</v>
       </c>
       <c r="F104" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="G104" t="s">
-        <v>400</v>
+        <v>654</v>
       </c>
       <c r="H104"/>
       <c r="I104"/>
       <c r="J104" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="K104" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="L104" t="s">
-        <v>158</v>
+        <v>1075</v>
       </c>
       <c r="M104" t="s">
-        <v>1072</v>
-      </c>
-      <c r="N104" t="s">
-        <v>760</v>
-      </c>
-      <c r="O104" t="s">
-        <v>511</v>
-      </c>
+        <v>1076</v>
+      </c>
+      <c r="N104"/>
+      <c r="O104"/>
       <c r="P104"/>
       <c r="Q104"/>
       <c r="R104"/>
       <c r="S104" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="T104" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="U104" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="V104" t="s">
-        <v>1076</v>
-      </c>
-      <c r="W104" t="s">
-        <v>1077</v>
-      </c>
-      <c r="X104" t="s">
-        <v>1078</v>
-      </c>
-      <c r="Y104" t="s">
-        <v>511</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="W104"/>
+      <c r="X104"/>
+      <c r="Y104"/>
       <c r="Z104"/>
       <c r="AA104"/>
       <c r="AB104"/>
@@ -11987,63 +12030,69 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B105" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="C105" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D105" t="s">
-        <v>124</v>
+        <v>1084</v>
       </c>
       <c r="E105" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F105" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="G105" t="s">
-        <v>730</v>
+        <v>415</v>
       </c>
       <c r="H105"/>
       <c r="I105"/>
       <c r="J105" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="K105" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L105" t="s">
-        <v>500</v>
-      </c>
-      <c r="M105"/>
-      <c r="N105"/>
-      <c r="O105"/>
+        <v>158</v>
+      </c>
+      <c r="M105" t="s">
+        <v>1087</v>
+      </c>
+      <c r="N105" t="s">
+        <v>775</v>
+      </c>
+      <c r="O105" t="s">
+        <v>526</v>
+      </c>
       <c r="P105"/>
       <c r="Q105"/>
       <c r="R105"/>
       <c r="S105" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="T105" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="U105" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="V105" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="W105" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="X105" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="Y105" t="s">
-        <v>1090</v>
+        <v>526</v>
       </c>
       <c r="Z105"/>
       <c r="AA105"/>
@@ -12067,35 +12116,37 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="B106" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="C106" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="D106" t="s">
-        <v>303</v>
+        <v>124</v>
       </c>
       <c r="E106" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F106" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="G106" t="s">
-        <v>67</v>
+        <v>745</v>
       </c>
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="K106" t="s">
-        <v>129</v>
-      </c>
-      <c r="L106"/>
+        <v>52</v>
+      </c>
+      <c r="L106" t="s">
+        <v>515</v>
+      </c>
       <c r="M106"/>
       <c r="N106"/>
       <c r="O106"/>
@@ -12103,14 +12154,26 @@
       <c r="Q106"/>
       <c r="R106"/>
       <c r="S106" t="s">
-        <v>69</v>
-      </c>
-      <c r="T106"/>
-      <c r="U106"/>
-      <c r="V106"/>
-      <c r="W106"/>
-      <c r="X106"/>
-      <c r="Y106"/>
+        <v>1099</v>
+      </c>
+      <c r="T106" t="s">
+        <v>1100</v>
+      </c>
+      <c r="U106" t="s">
+        <v>1101</v>
+      </c>
+      <c r="V106" t="s">
+        <v>1102</v>
+      </c>
+      <c r="W106" t="s">
+        <v>1103</v>
+      </c>
+      <c r="X106" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>1105</v>
+      </c>
       <c r="Z106"/>
       <c r="AA106"/>
       <c r="AB106"/>
@@ -12133,57 +12196,47 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>1096</v>
+        <v>1106</v>
       </c>
       <c r="B107" t="s">
-        <v>1097</v>
+        <v>1107</v>
       </c>
       <c r="C107" t="s">
-        <v>46</v>
+        <v>1108</v>
       </c>
       <c r="D107" t="s">
-        <v>473</v>
+        <v>303</v>
       </c>
       <c r="E107" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F107" t="s">
-        <v>1098</v>
+        <v>1109</v>
       </c>
       <c r="G107" t="s">
-        <v>957</v>
+        <v>67</v>
       </c>
       <c r="H107"/>
       <c r="I107"/>
       <c r="J107" t="s">
-        <v>1099</v>
+        <v>1110</v>
       </c>
       <c r="K107" t="s">
-        <v>52</v>
-      </c>
-      <c r="L107" t="s">
-        <v>1100</v>
-      </c>
-      <c r="M107" t="s">
-        <v>1101</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L107"/>
+      <c r="M107"/>
       <c r="N107"/>
       <c r="O107"/>
       <c r="P107"/>
       <c r="Q107"/>
       <c r="R107"/>
       <c r="S107" t="s">
-        <v>1102</v>
-      </c>
-      <c r="T107" t="s">
-        <v>1103</v>
-      </c>
-      <c r="U107" t="s">
-        <v>1104</v>
-      </c>
-      <c r="V107" t="s">
-        <v>293</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107"/>
       <c r="W107"/>
       <c r="X107"/>
       <c r="Y107"/>
@@ -12209,51 +12262,57 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="B108" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="C108" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="D108" t="s">
-        <v>154</v>
+        <v>488</v>
       </c>
       <c r="E108" t="s">
         <v>48</v>
       </c>
       <c r="F108" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="G108" t="s">
-        <v>360</v>
+        <v>972</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="K108" t="s">
         <v>52</v>
       </c>
       <c r="L108" t="s">
-        <v>1109</v>
-      </c>
-      <c r="M108"/>
+        <v>1115</v>
+      </c>
+      <c r="M108" t="s">
+        <v>1116</v>
+      </c>
       <c r="N108"/>
       <c r="O108"/>
       <c r="P108"/>
       <c r="Q108"/>
       <c r="R108"/>
       <c r="S108" t="s">
-        <v>385</v>
+        <v>1117</v>
       </c>
       <c r="T108" t="s">
-        <v>1110</v>
-      </c>
-      <c r="U108"/>
-      <c r="V108"/>
+        <v>1118</v>
+      </c>
+      <c r="U108" t="s">
+        <v>1119</v>
+      </c>
+      <c r="V108" t="s">
+        <v>293</v>
+      </c>
       <c r="W108"/>
       <c r="X108"/>
       <c r="Y108"/>
@@ -12279,54 +12338,48 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>1111</v>
+        <v>1120</v>
       </c>
       <c r="B109" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C109" t="s">
-        <v>1113</v>
+        <v>440</v>
       </c>
       <c r="D109" t="s">
-        <v>390</v>
+        <v>154</v>
       </c>
       <c r="E109" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F109" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="G109" t="s">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="H109"/>
       <c r="I109"/>
       <c r="J109" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="K109" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="L109" t="s">
-        <v>1116</v>
-      </c>
-      <c r="M109" t="s">
-        <v>1117</v>
-      </c>
-      <c r="N109" t="s">
-        <v>1118</v>
-      </c>
-      <c r="O109" t="s">
-        <v>998</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
       <c r="P109"/>
       <c r="Q109"/>
       <c r="R109"/>
       <c r="S109" t="s">
-        <v>1119</v>
+        <v>385</v>
       </c>
       <c r="T109" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="U109"/>
       <c r="V109"/>
@@ -12355,22 +12408,22 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="B110" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="C110" t="s">
-        <v>840</v>
+        <v>1128</v>
       </c>
       <c r="D110" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E110" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F110" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="G110" t="s">
         <v>210</v>
@@ -12378,26 +12431,32 @@
       <c r="H110"/>
       <c r="I110"/>
       <c r="J110" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="K110" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="L110" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="M110" t="s">
-        <v>1126</v>
-      </c>
-      <c r="N110"/>
-      <c r="O110"/>
+        <v>1132</v>
+      </c>
+      <c r="N110" t="s">
+        <v>1133</v>
+      </c>
+      <c r="O110" t="s">
+        <v>1013</v>
+      </c>
       <c r="P110"/>
       <c r="Q110"/>
       <c r="R110"/>
       <c r="S110" t="s">
-        <v>1127</v>
-      </c>
-      <c r="T110"/>
+        <v>1134</v>
+      </c>
+      <c r="T110" t="s">
+        <v>1135</v>
+      </c>
       <c r="U110"/>
       <c r="V110"/>
       <c r="W110"/>
@@ -12425,59 +12484,51 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>1128</v>
+        <v>1136</v>
       </c>
       <c r="B111" t="s">
-        <v>1129</v>
+        <v>1137</v>
       </c>
       <c r="C111" t="s">
-        <v>105</v>
+        <v>855</v>
       </c>
       <c r="D111" t="s">
-        <v>221</v>
+        <v>413</v>
       </c>
       <c r="E111" t="s">
         <v>48</v>
       </c>
       <c r="F111" t="s">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="G111" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="H111"/>
       <c r="I111"/>
       <c r="J111" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="K111" t="s">
-        <v>949</v>
+        <v>52</v>
       </c>
       <c r="L111" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="M111" t="s">
-        <v>1133</v>
-      </c>
-      <c r="N111" t="s">
-        <v>691</v>
-      </c>
+        <v>1141</v>
+      </c>
+      <c r="N111"/>
       <c r="O111"/>
       <c r="P111"/>
       <c r="Q111"/>
       <c r="R111"/>
       <c r="S111" t="s">
-        <v>1134</v>
-      </c>
-      <c r="T111" t="s">
-        <v>1135</v>
-      </c>
-      <c r="U111" t="s">
-        <v>1136</v>
-      </c>
-      <c r="V111" t="s">
-        <v>1137</v>
-      </c>
+        <v>1142</v>
+      </c>
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
       <c r="W111"/>
       <c r="X111"/>
       <c r="Y111"/>
@@ -12503,59 +12554,61 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="B112" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="C112" t="s">
-        <v>1140</v>
+        <v>105</v>
       </c>
       <c r="D112" t="s">
-        <v>1141</v>
+        <v>221</v>
       </c>
       <c r="E112" t="s">
         <v>48</v>
       </c>
       <c r="F112" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="G112" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="H112"/>
       <c r="I112"/>
       <c r="J112" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="K112" t="s">
-        <v>52</v>
-      </c>
-      <c r="L112"/>
-      <c r="M112"/>
-      <c r="N112"/>
+        <v>964</v>
+      </c>
+      <c r="L112" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M112" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N112" t="s">
+        <v>706</v>
+      </c>
       <c r="O112"/>
       <c r="P112"/>
       <c r="Q112"/>
       <c r="R112"/>
       <c r="S112" t="s">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="T112" t="s">
-        <v>1145</v>
+        <v>1150</v>
       </c>
       <c r="U112" t="s">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="V112" t="s">
-        <v>1147</v>
-      </c>
-      <c r="W112" t="s">
-        <v>1148</v>
-      </c>
-      <c r="X112" t="s">
-        <v>1149</v>
-      </c>
+        <v>1152</v>
+      </c>
+      <c r="W112"/>
+      <c r="X112"/>
       <c r="Y112"/>
       <c r="Z112"/>
       <c r="AA112"/>
@@ -12579,37 +12632,35 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="B113" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="C113" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="D113" t="s">
-        <v>663</v>
+        <v>1156</v>
       </c>
       <c r="E113" t="s">
         <v>48</v>
       </c>
       <c r="F113" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="G113" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="H113"/>
       <c r="I113"/>
       <c r="J113" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="K113" t="s">
-        <v>129</v>
-      </c>
-      <c r="L113" t="s">
-        <v>1155</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L113"/>
       <c r="M113"/>
       <c r="N113"/>
       <c r="O113"/>
@@ -12617,22 +12668,22 @@
       <c r="Q113"/>
       <c r="R113"/>
       <c r="S113" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="T113" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="U113" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="V113" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="W113" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="X113" t="s">
-        <v>511</v>
+        <v>1164</v>
       </c>
       <c r="Y113"/>
       <c r="Z113"/>
@@ -12657,36 +12708,36 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="B114" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="C114" t="s">
-        <v>91</v>
+        <v>1167</v>
       </c>
       <c r="D114" t="s">
-        <v>390</v>
+        <v>678</v>
       </c>
       <c r="E114" t="s">
         <v>48</v>
       </c>
       <c r="F114" t="s">
-        <v>1163</v>
+        <v>1168</v>
       </c>
       <c r="G114" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="H114"/>
       <c r="I114"/>
       <c r="J114" t="s">
-        <v>1164</v>
+        <v>1169</v>
       </c>
       <c r="K114" t="s">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="L114" t="s">
-        <v>225</v>
+        <v>1170</v>
       </c>
       <c r="M114"/>
       <c r="N114"/>
@@ -12695,22 +12746,22 @@
       <c r="Q114"/>
       <c r="R114"/>
       <c r="S114" t="s">
-        <v>226</v>
+        <v>1171</v>
       </c>
       <c r="T114" t="s">
-        <v>227</v>
+        <v>1172</v>
       </c>
       <c r="U114" t="s">
-        <v>228</v>
+        <v>1173</v>
       </c>
       <c r="V114" t="s">
-        <v>229</v>
+        <v>1174</v>
       </c>
       <c r="W114" t="s">
-        <v>230</v>
+        <v>1175</v>
       </c>
       <c r="X114" t="s">
-        <v>231</v>
+        <v>526</v>
       </c>
       <c r="Y114"/>
       <c r="Z114"/>
@@ -12735,87 +12786,67 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>1165</v>
+        <v>1176</v>
       </c>
       <c r="B115" t="s">
-        <v>1166</v>
+        <v>1177</v>
       </c>
       <c r="C115" t="s">
-        <v>1167</v>
+        <v>91</v>
       </c>
       <c r="D115" t="s">
-        <v>197</v>
+        <v>390</v>
       </c>
       <c r="E115" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F115" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="G115" t="s">
-        <v>256</v>
+        <v>67</v>
       </c>
       <c r="H115"/>
       <c r="I115"/>
       <c r="J115" t="s">
-        <v>1169</v>
+        <v>1179</v>
       </c>
       <c r="K115" t="s">
-        <v>1170</v>
+        <v>224</v>
       </c>
       <c r="L115" t="s">
-        <v>1171</v>
-      </c>
-      <c r="M115" t="s">
-        <v>692</v>
-      </c>
-      <c r="N115" t="s">
-        <v>647</v>
-      </c>
-      <c r="O115" t="s">
-        <v>1172</v>
-      </c>
-      <c r="P115" t="s">
-        <v>1173</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
       <c r="Q115"/>
       <c r="R115"/>
       <c r="S115" t="s">
-        <v>1174</v>
+        <v>226</v>
       </c>
       <c r="T115" t="s">
-        <v>1175</v>
+        <v>227</v>
       </c>
       <c r="U115" t="s">
-        <v>1176</v>
+        <v>228</v>
       </c>
       <c r="V115" t="s">
-        <v>1177</v>
+        <v>229</v>
       </c>
       <c r="W115" t="s">
-        <v>1178</v>
+        <v>230</v>
       </c>
       <c r="X115" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>1179</v>
-      </c>
-      <c r="Z115" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA115" t="s">
-        <v>837</v>
-      </c>
-      <c r="AB115" t="s">
-        <v>1180</v>
-      </c>
-      <c r="AC115" t="s">
-        <v>1181</v>
-      </c>
-      <c r="AD115" t="s">
-        <v>1182</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Y115"/>
+      <c r="Z115"/>
+      <c r="AA115"/>
+      <c r="AB115"/>
+      <c r="AC115"/>
+      <c r="AD115"/>
       <c r="AE115"/>
       <c r="AF115"/>
       <c r="AG115"/>
@@ -12833,79 +12864,87 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B116" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C116" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D116" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="E116" t="s">
         <v>93</v>
       </c>
       <c r="F116" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="G116" t="s">
-        <v>1187</v>
+        <v>256</v>
       </c>
       <c r="H116"/>
       <c r="I116"/>
       <c r="J116" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1185</v>
+      </c>
+      <c r="L116" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M116" t="s">
+        <v>707</v>
+      </c>
+      <c r="N116" t="s">
+        <v>662</v>
+      </c>
+      <c r="O116" t="s">
+        <v>1187</v>
+      </c>
+      <c r="P116" t="s">
         <v>1188</v>
       </c>
-      <c r="K116" t="s">
-        <v>52</v>
-      </c>
-      <c r="L116" t="s">
-        <v>1189</v>
-      </c>
-      <c r="M116" t="s">
-        <v>1190</v>
-      </c>
-      <c r="N116" t="s">
-        <v>1191</v>
-      </c>
-      <c r="O116"/>
-      <c r="P116"/>
       <c r="Q116"/>
       <c r="R116"/>
       <c r="S116" t="s">
+        <v>1189</v>
+      </c>
+      <c r="T116" t="s">
+        <v>1190</v>
+      </c>
+      <c r="U116" t="s">
+        <v>1191</v>
+      </c>
+      <c r="V116" t="s">
         <v>1192</v>
       </c>
-      <c r="T116" t="s">
-        <v>796</v>
-      </c>
-      <c r="U116" t="s">
+      <c r="W116" t="s">
         <v>1193</v>
       </c>
-      <c r="V116" t="s">
+      <c r="X116" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y116" t="s">
         <v>1194</v>
       </c>
-      <c r="W116" t="s">
+      <c r="Z116" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>852</v>
+      </c>
+      <c r="AB116" t="s">
         <v>1195</v>
       </c>
-      <c r="X116" t="s">
+      <c r="AC116" t="s">
         <v>1196</v>
       </c>
-      <c r="Y116" t="s">
+      <c r="AD116" t="s">
         <v>1197</v>
       </c>
-      <c r="Z116" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AA116" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB116" t="s">
-        <v>1199</v>
-      </c>
-      <c r="AC116"/>
-      <c r="AD116"/>
       <c r="AE116"/>
       <c r="AF116"/>
       <c r="AG116"/>
@@ -12923,63 +12962,77 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C117" t="s">
         <v>1200</v>
       </c>
-      <c r="B117" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1202</v>
-      </c>
       <c r="D117" t="s">
-        <v>432</v>
+        <v>106</v>
       </c>
       <c r="E117" t="s">
         <v>93</v>
       </c>
       <c r="F117" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="G117" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
       <c r="J117" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K117" t="s">
+        <v>52</v>
+      </c>
+      <c r="L117" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M117" t="s">
         <v>1205</v>
       </c>
-      <c r="K117" t="s">
-        <v>129</v>
-      </c>
-      <c r="L117" t="s">
+      <c r="N117" t="s">
         <v>1206</v>
       </c>
-      <c r="M117" t="s">
-        <v>1207</v>
-      </c>
-      <c r="N117"/>
       <c r="O117"/>
       <c r="P117"/>
       <c r="Q117"/>
       <c r="R117"/>
       <c r="S117" t="s">
+        <v>1207</v>
+      </c>
+      <c r="T117" t="s">
+        <v>811</v>
+      </c>
+      <c r="U117" t="s">
         <v>1208</v>
       </c>
-      <c r="T117" t="s">
+      <c r="V117" t="s">
+        <v>1209</v>
+      </c>
+      <c r="W117" t="s">
+        <v>1210</v>
+      </c>
+      <c r="X117" t="s">
+        <v>1211</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>1212</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AA117" t="s">
         <v>87</v>
       </c>
-      <c r="U117" t="s">
-        <v>1209</v>
-      </c>
-      <c r="V117" t="s">
-        <v>1210</v>
-      </c>
-      <c r="W117"/>
-      <c r="X117"/>
-      <c r="Y117"/>
-      <c r="Z117"/>
-      <c r="AA117"/>
-      <c r="AB117"/>
+      <c r="AB117" t="s">
+        <v>1214</v>
+      </c>
       <c r="AC117"/>
       <c r="AD117"/>
       <c r="AE117"/>
@@ -12999,65 +13052,59 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="B118" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="C118" t="s">
-        <v>1185</v>
+        <v>1217</v>
       </c>
       <c r="D118" t="s">
-        <v>221</v>
+        <v>447</v>
       </c>
       <c r="E118" t="s">
         <v>93</v>
       </c>
       <c r="F118" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="G118" t="s">
-        <v>210</v>
+        <v>1219</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
       <c r="J118" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="K118" t="s">
         <v>129</v>
       </c>
       <c r="L118" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="M118" t="s">
-        <v>1216</v>
-      </c>
-      <c r="N118" t="s">
-        <v>1217</v>
-      </c>
+        <v>1222</v>
+      </c>
+      <c r="N118"/>
       <c r="O118"/>
       <c r="P118"/>
       <c r="Q118"/>
       <c r="R118"/>
       <c r="S118" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
       <c r="T118" t="s">
-        <v>1219</v>
+        <v>87</v>
       </c>
       <c r="U118" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="V118" t="s">
-        <v>1221</v>
-      </c>
-      <c r="W118" t="s">
-        <v>1222</v>
-      </c>
-      <c r="X118" t="s">
-        <v>1223</v>
-      </c>
+        <v>1225</v>
+      </c>
+      <c r="W118"/>
+      <c r="X118"/>
       <c r="Y118"/>
       <c r="Z118"/>
       <c r="AA118"/>
@@ -13081,61 +13128,65 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="B119" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C119" t="s">
-        <v>1226</v>
+        <v>1200</v>
       </c>
       <c r="D119" t="s">
-        <v>344</v>
+        <v>221</v>
       </c>
       <c r="E119" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F119" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="G119" t="s">
-        <v>288</v>
+        <v>210</v>
       </c>
       <c r="H119"/>
       <c r="I119"/>
       <c r="J119" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="K119" t="s">
-        <v>239</v>
+        <v>129</v>
       </c>
       <c r="L119" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="M119" t="s">
-        <v>1230</v>
-      </c>
-      <c r="N119"/>
+        <v>1231</v>
+      </c>
+      <c r="N119" t="s">
+        <v>1232</v>
+      </c>
       <c r="O119"/>
       <c r="P119"/>
       <c r="Q119"/>
       <c r="R119"/>
       <c r="S119" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="T119" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="U119" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="V119" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="W119" t="s">
-        <v>1235</v>
-      </c>
-      <c r="X119"/>
+        <v>1237</v>
+      </c>
+      <c r="X119" t="s">
+        <v>1238</v>
+      </c>
       <c r="Y119"/>
       <c r="Z119"/>
       <c r="AA119"/>
@@ -13159,22 +13210,22 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="B120" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="C120" t="s">
-        <v>46</v>
+        <v>1241</v>
       </c>
       <c r="D120" t="s">
-        <v>92</v>
+        <v>344</v>
       </c>
       <c r="E120" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F120" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="G120" t="s">
         <v>288</v>
@@ -13182,41 +13233,37 @@
       <c r="H120"/>
       <c r="I120"/>
       <c r="J120" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="K120" t="s">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="L120" t="s">
-        <v>692</v>
+        <v>1244</v>
       </c>
       <c r="M120" t="s">
-        <v>1240</v>
-      </c>
-      <c r="N120" t="s">
-        <v>1045</v>
-      </c>
-      <c r="O120" t="s">
-        <v>1241</v>
-      </c>
-      <c r="P120" t="s">
-        <v>1242</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>1243</v>
-      </c>
-      <c r="R120" t="s">
-        <v>1244</v>
-      </c>
+        <v>1245</v>
+      </c>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
       <c r="S120" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="T120" t="s">
-        <v>647</v>
-      </c>
-      <c r="U120"/>
-      <c r="V120"/>
-      <c r="W120"/>
+        <v>1247</v>
+      </c>
+      <c r="U120" t="s">
+        <v>1248</v>
+      </c>
+      <c r="V120" t="s">
+        <v>1249</v>
+      </c>
+      <c r="W120" t="s">
+        <v>1250</v>
+      </c>
       <c r="X120"/>
       <c r="Y120"/>
       <c r="Z120"/>
@@ -13239,6 +13286,88 @@
       <c r="AQ120"/>
       <c r="AR120"/>
     </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C121" t="s">
+        <v>46</v>
+      </c>
+      <c r="D121" t="s">
+        <v>92</v>
+      </c>
+      <c r="E121" t="s">
+        <v>93</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G121" t="s">
+        <v>288</v>
+      </c>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K121" t="s">
+        <v>52</v>
+      </c>
+      <c r="L121" t="s">
+        <v>707</v>
+      </c>
+      <c r="M121" t="s">
+        <v>1255</v>
+      </c>
+      <c r="N121" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O121" t="s">
+        <v>1256</v>
+      </c>
+      <c r="P121" t="s">
+        <v>1257</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>1258</v>
+      </c>
+      <c r="R121" t="s">
+        <v>1259</v>
+      </c>
+      <c r="S121" t="s">
+        <v>1260</v>
+      </c>
+      <c r="T121" t="s">
+        <v>662</v>
+      </c>
+      <c r="U121"/>
+      <c r="V121"/>
+      <c r="W121"/>
+      <c r="X121"/>
+      <c r="Y121"/>
+      <c r="Z121"/>
+      <c r="AA121"/>
+      <c r="AB121"/>
+      <c r="AC121"/>
+      <c r="AD121"/>
+      <c r="AE121"/>
+      <c r="AF121"/>
+      <c r="AG121"/>
+      <c r="AH121"/>
+      <c r="AI121"/>
+      <c r="AJ121"/>
+      <c r="AK121"/>
+      <c r="AL121"/>
+      <c r="AM121"/>
+      <c r="AN121"/>
+      <c r="AO121"/>
+      <c r="AP121"/>
+      <c r="AQ121"/>
+      <c r="AR121"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
